--- a/文档/数据库表结构.xlsx
+++ b/文档/数据库表结构.xlsx
@@ -1,21 +1,167 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="用户表" sheetId="1" r:id="rId1"/>
+    <sheet name="客户条码信息表" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
+  <si>
+    <t>工号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>条码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>站点名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属大区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属区部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属分部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其所有条码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统自动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>json格式存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timestamp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>staff_users</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stu_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属分部名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stu_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>own_bar_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>customer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bar_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cte_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bar_code_parent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bar_code_parent_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sclice_area</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>large_area</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timestamp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -23,16 +169,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -40,23 +199,61 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -98,7 +295,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +330,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,13 +538,216 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="3" width="9" style="2"/>
+    <col min="4" max="4" width="9.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:H7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="3" width="9.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/文档/数据库表结构.xlsx
+++ b/文档/数据库表结构.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="用户表" sheetId="1" r:id="rId1"/>
@@ -73,10 +73,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>json格式存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>varchar2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -154,6 +150,10 @@
   </si>
   <si>
     <t>timestamp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>,隔开</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -541,8 +541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -557,7 +557,7 @@
   <sheetData>
     <row r="3" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -587,7 +587,7 @@
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
@@ -596,42 +596,42 @@
     </row>
     <row r="6" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="5" t="s">
+      <c r="G6" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -645,7 +645,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -663,7 +663,7 @@
   <sheetData>
     <row r="3" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -677,7 +677,7 @@
         <v>7</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>6</v>
@@ -691,7 +691,7 @@
     </row>
     <row r="5" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -702,48 +702,48 @@
     </row>
     <row r="6" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="H6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/文档/数据库表结构.xlsx
+++ b/文档/数据库表结构.xlsx
@@ -4,18 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="用户表" sheetId="1" r:id="rId1"/>
-    <sheet name="客户条码信息表" sheetId="4" r:id="rId2"/>
+    <sheet name="角色" sheetId="5" r:id="rId2"/>
+    <sheet name="权限" sheetId="6" r:id="rId3"/>
+    <sheet name="客户条码信息表" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="59">
   <si>
     <t>工号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -89,63 +91,127 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>stu_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属分部名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stu_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>own_bar_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>customer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bar_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cte_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bar_code_parent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bar_code_parent_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sclice_area</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>large_area</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timestamp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>,隔开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限ID序列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>staff_users</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>stu_num</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>note</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>create_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所属分部名字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stu_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>own_bar_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>customer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bar_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cte_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bar_code_parent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bar_code_parent_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sclice_area</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>large_area</t>
+    <t>str_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>str_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>str_desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>powers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序列自增</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -153,7 +219,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>,隔开</t>
+    <t>varchar2(400)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(500)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stp_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stp_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>staff_role</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>staff_power</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stp_url</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -218,7 +316,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -233,6 +331,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -541,15 +642,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="9" style="2"/>
-    <col min="4" max="4" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="12.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="2" customWidth="1"/>
     <col min="7" max="7" width="12.75" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="2"/>
@@ -557,7 +659,7 @@
   <sheetData>
     <row r="3" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -587,7 +689,7 @@
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
@@ -596,22 +698,22 @@
     </row>
     <row r="6" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="5" t="s">
+      <c r="G6" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -625,7 +727,7 @@
         <v>15</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>15</v>
@@ -642,6 +744,183 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="4" width="9" style="2"/>
+    <col min="5" max="5" width="9.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C3" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C8" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C4:F14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="2" width="9" style="2"/>
+    <col min="3" max="3" width="12.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C4" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D14" s="6"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:H7"/>
   <sheetViews>
@@ -663,7 +942,7 @@
   <sheetData>
     <row r="3" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -677,7 +956,7 @@
         <v>7</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>6</v>
@@ -702,25 +981,25 @@
     </row>
     <row r="6" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="H6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -743,7 +1022,7 @@
         <v>14</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/文档/数据库表结构.xlsx
+++ b/文档/数据库表结构.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="62">
   <si>
     <t>工号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -247,11 +247,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>URL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>stp_url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>method</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stp_method</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -841,27 +853,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:F14"/>
+  <dimension ref="C4:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="9" style="2"/>
     <col min="3" max="3" width="12.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="2"/>
+    <col min="4" max="6" width="12.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C4" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C5" s="3" t="s">
         <v>38</v>
       </c>
@@ -869,21 +881,25 @@
         <v>39</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C7" s="2" t="s">
         <v>52</v>
       </c>
@@ -891,13 +907,16 @@
         <v>53</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="2" t="s">
         <v>47</v>
       </c>
@@ -908,15 +927,19 @@
         <v>14</v>
       </c>
       <c r="F8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D14" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/文档/数据库表结构.xlsx
+++ b/文档/数据库表结构.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="用户表" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="66">
   <si>
     <t>工号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -264,6 +264,22 @@
   </si>
   <si>
     <t>varchar2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stu_role</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外键（角色id）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -652,10 +668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:G7"/>
+  <dimension ref="B3:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -664,17 +680,18 @@
     <col min="2" max="2" width="12.75" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="9.5" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="2"/>
+    <col min="6" max="6" width="16.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
@@ -688,13 +705,16 @@
         <v>10</v>
       </c>
       <c r="F4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -703,12 +723,15 @@
       <c r="E5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4" t="s">
+      <c r="F5" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="5" t="s">
         <v>18</v>
       </c>
@@ -722,13 +745,16 @@
         <v>24</v>
       </c>
       <c r="F6" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="H6" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="2" t="s">
         <v>14</v>
       </c>
@@ -742,9 +768,12 @@
         <v>50</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -855,7 +884,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>

--- a/文档/数据库表结构.xlsx
+++ b/文档/数据库表结构.xlsx
@@ -4,20 +4,137 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="用户表" sheetId="1" r:id="rId1"/>
     <sheet name="角色" sheetId="5" r:id="rId2"/>
     <sheet name="权限" sheetId="6" r:id="rId3"/>
     <sheet name="客户条码信息表" sheetId="4" r:id="rId4"/>
+    <sheet name="数据导入表(源)" sheetId="7" r:id="rId5"/>
+    <sheet name="哲盟返回表(源)" sheetId="8" r:id="rId6"/>
+    <sheet name="第三方返回签收数据表(源)" sheetId="9" r:id="rId7"/>
+    <sheet name="时效控制表" sheetId="10" r:id="rId8"/>
+    <sheet name="签收报表" sheetId="11" r:id="rId9"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="N4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>快递类型说明:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+'11'代表'韵达实物',
+'22'代表'韵达刷单',
+'33'代表'圆通',
+'44'代表'顺丰',
+'55'代表'EMS',
+'66'代表'邮政小包'</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N14" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>快递类型说明:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+'11'代表'韵达实物',
+'22'代表'韵达刷单',
+'33'代表'圆通',
+'44'代表'顺丰',
+'55'代表'EMS',
+'66'代表'邮政小包'</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="C3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+配送成功
+配送失败
+配送异常
+配送中
+退回件</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="228">
   <si>
     <t>工号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -280,6 +397,661 @@
   </si>
   <si>
     <t>外键（角色id）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必填</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>发货日期</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户名</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户条码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>省份名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>快递单号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单编号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>收件人</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系方式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>商家ID（VIP帐号或者店铺）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>重量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">快递公司 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金额</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>快递公司</t>
+  </si>
+  <si>
+    <t>金额</t>
+  </si>
+  <si>
+    <t>物品</t>
+  </si>
+  <si>
+    <t>订单编号</t>
+  </si>
+  <si>
+    <t>（字符串）</t>
+  </si>
+  <si>
+    <t>所属大区</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>（字符串）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属区部</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>（字符串）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属分部</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>（数字类型）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户条码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>（字符串）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>（日期+时间）</t>
+  </si>
+  <si>
+    <t>（日期+时间）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（数字）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快件单号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户店铺</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>收件人</t>
+  </si>
+  <si>
+    <t>收件人</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系方式</t>
+  </si>
+  <si>
+    <t>联系方式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>超时时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>（数字，小数2位）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重量</t>
+  </si>
+  <si>
+    <t>重量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用</t>
+  </si>
+  <si>
+    <t>物品价值</t>
+  </si>
+  <si>
+    <t>内物名称</t>
+  </si>
+  <si>
+    <t>订单编号
+（）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否超时
+（字符串）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>异常原因
+（字符串）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>签收时间
+（日期+时间）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>收件人
+（字符串）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>签收人
+（字符串）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>配送状态
+（字符串）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址
+（字符串）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>快件单号
+（数字）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>省份名称
+（字符串）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户条码
+（数字）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户名称
+（字符串）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号
+（数字）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>始发中转站</t>
+  </si>
+  <si>
+    <t>到达省份</t>
+  </si>
+  <si>
+    <t>小时</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>安徽省</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京市</t>
+  </si>
+  <si>
+    <t>福建省</t>
+  </si>
+  <si>
+    <t>甘肃省</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东省</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>广西省</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>贵州省</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>海南</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>河北省</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>单号</t>
+  </si>
+  <si>
+    <t>配送状态</t>
+  </si>
+  <si>
+    <t>签收人</t>
+  </si>
+  <si>
+    <t>签收时间</t>
+  </si>
+  <si>
+    <t>异常原因</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 内物明细 </t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <r>
+      <t>商家</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>发货日期
+（日期</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时间）</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回为null，计算出来后再填</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>“大客户”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timestamp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number(,2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number(,1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东省 深圳市 罗湖区 东湖街道深圳市罗湖区布心花园三区6栋501</t>
+  </si>
+  <si>
+    <t>10069982063502742</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>713968246/111122</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衣服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东省 深圳市 罗湖区 东湖街道深圳市罗湖区布心花园三区6栋502</t>
+  </si>
+  <si>
+    <t>10069982063502745</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘丽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>713968246/111123</t>
+  </si>
+  <si>
+    <t>鞋子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丙</t>
+  </si>
+  <si>
+    <t>北京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东省 深圳市 罗湖区 东湖街道深圳市罗湖区布心花园三区6栋503</t>
+  </si>
+  <si>
+    <t>10069982063502767</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>713968246/111124</t>
+  </si>
+  <si>
+    <t>衣服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丁</t>
+  </si>
+  <si>
+    <t>辽宁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东省 深圳市 罗湖区 东湖街道深圳市罗湖区布心花园三区6栋504</t>
+  </si>
+  <si>
+    <t>10069982063502788</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>713968246/111125</t>
+  </si>
+  <si>
+    <t>戊</t>
+  </si>
+  <si>
+    <t>西藏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东省 深圳市 罗湖区 东湖街道深圳市罗湖区布心花园三区6栋505</t>
+  </si>
+  <si>
+    <t>10069982063502799</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王五</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>713968246/111126</t>
+  </si>
+  <si>
+    <t>西部大区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝安</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南油分部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西部大区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝安</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南油分部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘丽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鞋子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10069982063502745</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西部大区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝安</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南油分部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辽宁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衣服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10069982063502767</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>省份名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -287,7 +1059,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="3">
+    <numFmt numFmtId="176" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
+    <numFmt numFmtId="177" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
+  </numFmts>
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -302,8 +1079,112 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -316,8 +1197,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFD4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -340,11 +1227,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFBACDDC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFBACDDC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFBACDDC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFBACDDC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -364,9 +1267,101 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -670,11 +1665,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="12.75" style="2" bestFit="1" customWidth="1"/>
@@ -686,12 +1681,12 @@
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B3" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
@@ -714,7 +1709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -731,7 +1726,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="5" t="s">
         <v>18</v>
       </c>
@@ -754,7 +1749,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="2" t="s">
         <v>14</v>
       </c>
@@ -792,7 +1787,7 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
     <col min="1" max="4" width="9" style="2"/>
     <col min="5" max="5" width="9.5" style="2" bestFit="1" customWidth="1"/>
@@ -801,12 +1796,12 @@
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="3:7" ht="20.100000000000001" customHeight="1">
       <c r="C3" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="3:7" ht="20.100000000000001" customHeight="1">
       <c r="C4" s="3" t="s">
         <v>34</v>
       </c>
@@ -823,7 +1818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="3:7" ht="20.100000000000001" customHeight="1">
       <c r="C5" s="4" t="s">
         <v>41</v>
       </c>
@@ -834,7 +1829,7 @@
       </c>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="3:7" ht="20.100000000000001" customHeight="1">
       <c r="C6" s="2" t="s">
         <v>43</v>
       </c>
@@ -851,7 +1846,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="3:7" ht="20.100000000000001" customHeight="1">
       <c r="C7" s="2" t="s">
         <v>47</v>
       </c>
@@ -868,7 +1863,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="3:7" ht="20.100000000000001" customHeight="1">
       <c r="C8" s="2" t="s">
         <v>48</v>
       </c>
@@ -888,7 +1883,7 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
     <col min="1" max="2" width="9" style="2"/>
     <col min="3" max="3" width="12.75" style="2" bestFit="1" customWidth="1"/>
@@ -897,12 +1892,12 @@
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="3:7" ht="20.100000000000001" customHeight="1">
       <c r="C4" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="3:7" ht="20.100000000000001" customHeight="1">
       <c r="C5" s="3" t="s">
         <v>38</v>
       </c>
@@ -919,7 +1914,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="3:7" ht="20.100000000000001" customHeight="1">
       <c r="C6" s="4" t="s">
         <v>9</v>
       </c>
@@ -928,7 +1923,7 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="3:7" ht="20.100000000000001" customHeight="1">
       <c r="C7" s="2" t="s">
         <v>52</v>
       </c>
@@ -945,7 +1940,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="3:7" ht="20.100000000000001" customHeight="1">
       <c r="C8" s="2" t="s">
         <v>47</v>
       </c>
@@ -962,7 +1957,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="3:7" ht="20.100000000000001" customHeight="1">
       <c r="D14" s="6"/>
     </row>
   </sheetData>
@@ -977,10 +1972,10 @@
   <dimension ref="B3:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="3" width="9.5" style="2" bestFit="1" customWidth="1"/>
@@ -992,12 +1987,12 @@
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B3" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
@@ -1020,7 +2015,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B5" s="4" t="s">
         <v>17</v>
       </c>
@@ -1031,7 +2026,7 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="5" t="s">
         <v>26</v>
       </c>
@@ -1054,7 +2049,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="2" t="s">
         <v>14</v>
       </c>
@@ -1081,4 +2076,1359 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:Q16"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="9" style="26"/>
+    <col min="2" max="2" width="5.25" style="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5" style="26" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" style="26" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.875" style="26" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="53.75" style="26" customWidth="1"/>
+    <col min="9" max="9" width="19.375" style="26" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5" style="26" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.75" style="26" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.875" style="26" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.625" style="26" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10" style="26" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.625" style="26" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.5" style="26" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11" style="26" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="26"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:17" ht="20.100000000000001" customHeight="1">
+      <c r="B3" s="23"/>
+      <c r="C3" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+    </row>
+    <row r="4" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="B4" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="N4" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="O4" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="P4" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="C5" s="29">
+        <v>518786</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="E5" s="30">
+        <v>42613.958321759259</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="G5" s="31">
+        <v>3908550182939</v>
+      </c>
+      <c r="H5" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="I5" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="J5" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="K5" s="33">
+        <v>13715102933</v>
+      </c>
+      <c r="L5" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="M5" s="26">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="N5" s="26">
+        <v>11</v>
+      </c>
+      <c r="O5" s="26">
+        <v>12.23</v>
+      </c>
+      <c r="P5" s="26" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="C6" s="29">
+        <v>518787</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="E6" s="30">
+        <v>42614.958321701386</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="G6" s="31">
+        <v>3908550182940</v>
+      </c>
+      <c r="H6" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="I6" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="J6" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="K6" s="33">
+        <v>13715102934</v>
+      </c>
+      <c r="L6" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="M6" s="26">
+        <v>2.12</v>
+      </c>
+      <c r="N6" s="26">
+        <v>22</v>
+      </c>
+      <c r="O6" s="26">
+        <v>12.23</v>
+      </c>
+      <c r="P6" s="26" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="C7" s="29">
+        <v>518788</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="E7" s="30">
+        <v>42615.958321701386</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="G7" s="31">
+        <v>3908550182941</v>
+      </c>
+      <c r="H7" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="I7" s="32" t="s">
+        <v>192</v>
+      </c>
+      <c r="J7" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="K7" s="33">
+        <v>13715102935</v>
+      </c>
+      <c r="L7" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="M7" s="26">
+        <v>3.13</v>
+      </c>
+      <c r="N7" s="26">
+        <v>33</v>
+      </c>
+      <c r="O7" s="26">
+        <v>12.23</v>
+      </c>
+      <c r="P7" s="26" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="C8" s="29">
+        <v>518789</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>196</v>
+      </c>
+      <c r="E8" s="30">
+        <v>42616.958321701386</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="G8" s="31">
+        <v>3908550182942</v>
+      </c>
+      <c r="H8" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="I8" s="32" t="s">
+        <v>199</v>
+      </c>
+      <c r="J8" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="K8" s="33">
+        <v>13715102936</v>
+      </c>
+      <c r="L8" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="M8" s="26">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="N8" s="26">
+        <v>44</v>
+      </c>
+      <c r="O8" s="26">
+        <v>12.23</v>
+      </c>
+      <c r="P8" s="26" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="C9" s="29">
+        <v>518790</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="E9" s="30">
+        <v>42617.958321701386</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="G9" s="31">
+        <v>3908550182943</v>
+      </c>
+      <c r="H9" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="I9" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="J9" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="K9" s="33">
+        <v>13715102937</v>
+      </c>
+      <c r="L9" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="M9" s="26">
+        <v>5.16</v>
+      </c>
+      <c r="N9" s="26">
+        <v>55</v>
+      </c>
+      <c r="O9" s="26">
+        <v>12.23</v>
+      </c>
+      <c r="P9" s="26" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" ht="20.100000000000001" customHeight="1">
+      <c r="C13" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+    </row>
+    <row r="14" spans="2:17" ht="20.100000000000001" customHeight="1">
+      <c r="C14" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="L14" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="M14" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="N14" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="O14" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="P14" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q14" s="26" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" ht="20.100000000000001" customHeight="1">
+      <c r="C15" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="G15" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="H15" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="I15" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="J15" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="K15" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="L15" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="M15" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="N15" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="O15" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="P15" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q15" s="26" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" ht="20.100000000000001" customHeight="1">
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="26" t="s">
+        <v>163</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="C13:H13"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:S20"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="9" style="26"/>
+    <col min="2" max="4" width="11" style="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" style="26" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="26" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5" style="26" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.875" style="26" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5" style="26" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="55.5" style="26" customWidth="1"/>
+    <col min="11" max="11" width="18.375" style="26" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" style="26" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.75" style="26" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.375" style="26" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.375" style="26" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9" style="26" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.5" style="26" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.5" style="26" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.375" style="26" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="26"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:19" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="B3" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="H3" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="I3" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="J3" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="K3" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="L3" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="M3" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="N3" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="O3" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="P3" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q3" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="R3" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="S3" s="34" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="B4" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="E4" s="29">
+        <v>518786</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="G4" s="30">
+        <v>42613.958321759259</v>
+      </c>
+      <c r="H4" s="31">
+        <v>3908550182939</v>
+      </c>
+      <c r="I4" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="J4" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="K4" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="L4" s="26" t="s">
+        <v>179</v>
+      </c>
+      <c r="M4" s="33">
+        <v>13715102933</v>
+      </c>
+      <c r="N4" s="30">
+        <v>42616.958321759259</v>
+      </c>
+      <c r="O4" s="26">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="P4" s="26">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="26">
+        <v>12.01</v>
+      </c>
+      <c r="R4" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="S4" s="32" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="B5" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="E5" s="29">
+        <v>518787</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="G5" s="30">
+        <v>42614.958321701386</v>
+      </c>
+      <c r="H5" s="31">
+        <v>3908550182940</v>
+      </c>
+      <c r="I5" s="31" t="s">
+        <v>215</v>
+      </c>
+      <c r="J5" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="K5" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="L5" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="M5" s="33">
+        <v>13715102934</v>
+      </c>
+      <c r="N5" s="30">
+        <v>42617.958321759259</v>
+      </c>
+      <c r="O5" s="26">
+        <v>2.13</v>
+      </c>
+      <c r="P5" s="26">
+        <v>22</v>
+      </c>
+      <c r="Q5" s="26">
+        <v>12.22</v>
+      </c>
+      <c r="R5" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="S5" s="32" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="B6" s="26" t="s">
+        <v>219</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>221</v>
+      </c>
+      <c r="E6" s="29">
+        <v>518788</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="G6" s="30">
+        <v>42615.958321701386</v>
+      </c>
+      <c r="H6" s="31">
+        <v>3908550182941</v>
+      </c>
+      <c r="I6" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="J6" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="K6" s="26" t="s">
+        <v>194</v>
+      </c>
+      <c r="L6" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="M6" s="33">
+        <v>13715102935</v>
+      </c>
+      <c r="N6" s="30">
+        <v>42618.958321759259</v>
+      </c>
+      <c r="O6" s="26">
+        <v>3.15</v>
+      </c>
+      <c r="P6" s="26">
+        <v>33</v>
+      </c>
+      <c r="Q6" s="26">
+        <v>13.33</v>
+      </c>
+      <c r="R6" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="S6" s="32" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19" ht="20.100000000000001" customHeight="1">
+      <c r="B17" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="G17" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="H17" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="I17" s="35" t="s">
+        <v>226</v>
+      </c>
+      <c r="J17" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="K17" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="L17" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="M17" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="N17" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="O17" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="P17" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q17" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="R17" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="S17" s="34" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="2:19" ht="20.100000000000001" customHeight="1">
+      <c r="B18" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="G18" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="H18" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="K18" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="L18" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="M18" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="N18" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="O18" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
+      <c r="S18" s="23"/>
+    </row>
+    <row r="19" spans="2:19" ht="20.100000000000001" customHeight="1">
+      <c r="B19" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="F19" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="G19" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="H19" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="I19" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="J19" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="K19" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="L19" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="M19" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="N19" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="O19" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="P19" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q19" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="R19" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="S19" s="26" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="20" spans="2:19" ht="20.100000000000001" customHeight="1">
+      <c r="H20" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="P20" s="26" t="s">
+        <v>161</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:W14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="9" style="7"/>
+    <col min="2" max="2" width="8" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="8" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="6.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="8" style="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8" style="7" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.75" style="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="8" style="7" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.75" style="7" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:23" ht="19.5" customHeight="1"/>
+    <row r="4" spans="2:23" ht="57.75" customHeight="1">
+      <c r="B4" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q4" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="R4" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="S4" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="T4" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="U4" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="V4" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="W4" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="2:23" ht="12">
+      <c r="N5" s="22"/>
+    </row>
+    <row r="12" spans="2:23" ht="39">
+      <c r="C12" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="M12" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="N12" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="O12" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="P12" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q12" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="R12" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="S12" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="T12" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="U12" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="V12" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="W12" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23" ht="12"/>
+    <row r="14" spans="2:23" ht="48">
+      <c r="G14" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="N14" s="22" t="s">
+        <v>162</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C6:L15"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <cols>
+    <col min="1" max="2" width="9" style="10"/>
+    <col min="3" max="3" width="5.25" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9" style="10"/>
+    <col min="9" max="9" width="7.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.625" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="3:12" ht="20.100000000000001" customHeight="1">
+      <c r="C6" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="3:12" ht="20.100000000000001" customHeight="1">
+      <c r="C7" s="14">
+        <v>1</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="F7" s="17">
+        <v>48</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" spans="3:12" ht="20.100000000000001" customHeight="1">
+      <c r="C8" s="14">
+        <v>2</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="F8" s="17">
+        <v>72</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="9" spans="3:12" ht="20.100000000000001" customHeight="1">
+      <c r="C9" s="14">
+        <v>3</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="F9" s="17">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="3:12" ht="20.100000000000001" customHeight="1">
+      <c r="C10" s="14">
+        <v>4</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="F10" s="17">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="3:12" ht="20.100000000000001" customHeight="1">
+      <c r="C11" s="14">
+        <v>5</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="F11" s="17">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="3:12" ht="20.100000000000001" customHeight="1">
+      <c r="C12" s="14">
+        <v>6</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="F12" s="17">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="3:12" ht="20.100000000000001" customHeight="1">
+      <c r="C13" s="14">
+        <v>7</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="F13" s="17">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="3:12" ht="20.100000000000001" customHeight="1">
+      <c r="C14" s="14">
+        <v>8</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="F14" s="17">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="3:12" ht="20.100000000000001" customHeight="1">
+      <c r="C15" s="14">
+        <v>9</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="F15" s="17">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:I16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="9" style="10"/>
+    <col min="2" max="2" width="7.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.125" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:9" ht="20.100000000000001" customHeight="1">
+      <c r="B3" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="20.100000000000001" customHeight="1">
+      <c r="B4" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="20.100000000000001" customHeight="1">
+      <c r="B5" s="10" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="20.100000000000001" customHeight="1">
+      <c r="G16" s="10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/文档/数据库表结构.xlsx
+++ b/文档/数据库表结构.xlsx
@@ -99,7 +99,37 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="C3" authorId="0" shapeId="0">
+    <comment ref="D3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+配送成功
+配送失败
+配送异常
+配送中
+退回件</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D13" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -134,7 +164,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="353">
   <si>
     <t>工号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -536,9 +566,6 @@
   <si>
     <t>客户店铺</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>收件人</t>
   </si>
   <si>
     <t>收件人</t>
@@ -751,42 +778,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>varchar2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>主键</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -803,54 +794,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>返回为null，计算出来后再填</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>“大客户”</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>varchar2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>timestamp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>varchar2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number(,2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number(,1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>甲</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -961,9 +912,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>广东省 深圳市 罗湖区 东湖街道深圳市罗湖区布心花园三区6栋505</t>
-  </si>
-  <si>
     <t>10069982063502799</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -973,85 +921,834 @@
   </si>
   <si>
     <t>713968246/111126</t>
-  </si>
-  <si>
-    <t>西部大区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宝安</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>南油分部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>河南</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>西部大区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宝安</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>南油分部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘丽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鞋子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10069982063502745</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>西部大区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宝安</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>南油分部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>辽宁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>衣服</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10069982063502767</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>省份名称</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>varchar2</t>
+    <t>source_import</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>source_zm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>source_third_party</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctm_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctm_bar_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addressee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配送成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱仕达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衣服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>的风格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配送失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘丽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>额晚饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>壳子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配送中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3让我</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鞋子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河南</t>
+  </si>
+  <si>
+    <t>配送成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱仕达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10069982063502742</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>713968246/111122</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衣服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京</t>
+  </si>
+  <si>
+    <t>配送失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘丽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>额晚饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10069982063502745</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>壳子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辽宁</t>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10069982063502767</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鞋子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>713968246/111122</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衣服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10069982063502742</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西部大区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘丽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西部大区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝安</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辽宁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝安</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南油分部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东省 深圳市 罗湖区 东湖街道深圳市罗湖区布心花园三区6栋501</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东省 深圳市 罗湖区 东湖街道深圳市罗湖区布心花园三区6栋502</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>713968246/111123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23543715102934</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南油分部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东省 深圳市 罗湖区 东湖街道深圳市罗湖区布心花园三区6栋503</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>713968246/111124</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>037758965487</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number(6,2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>广东省</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>深圳市</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>罗湖区</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>东湖街道深圳市罗湖区布心花园三区</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>栋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>501</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>广东省</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>深圳市</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>罗湖区</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>东湖街道深圳市罗湖区布心花园三区</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>栋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>505</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(200)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timestamp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number(15)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number(25,0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(25)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(30)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number(3,0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(30)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>courier_number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>courier_company</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goods</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delivery_state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sign_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>send_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goods_cost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>始发中转站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>province</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hour_cost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红色字体为第三方返回的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该表用户可编辑数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2（20）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2（40）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number（7,0）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number（1,0）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2（20）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2（20）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number(15，0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2（20）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2（200）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2（100）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>province</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>courier_number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(30)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number(6,2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number(3,0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number(6,2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goods</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(30)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>large_area</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slice_area</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fenbu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctm_bar_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2（20）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number(15)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctm_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timestamp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>courier_number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>province</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(200)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(25)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time_out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timestamp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number(6,2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goods</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(30)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null 0/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2（20）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>signatory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addressee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sign_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abnormal_cause</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2（200）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number(3,0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goods</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goods_cost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number（7,2）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_time_out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>courier_company</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>begin_province</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2（20）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>end_province</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number(3,1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time_limit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sign</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>courier_number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delivery_state</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1059,12 +1756,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
     <numFmt numFmtId="177" formatCode="0.0_);[Red]\(0.0\)"/>
     <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="179" formatCode="yyyy/m/d\ h:mm;@"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1183,8 +1881,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF555555"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1194,12 +1912,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFD4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1247,7 +1959,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1316,47 +2028,110 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2080,70 +2855,66 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:Q16"/>
+  <dimension ref="B3:Q17"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9" style="26"/>
-    <col min="2" max="2" width="5.25" style="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="26" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5" style="26" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5" style="26" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5" style="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.875" style="26" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="53.75" style="26" customWidth="1"/>
-    <col min="9" max="9" width="19.375" style="26" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5" style="26" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.75" style="26" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.875" style="26" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.625" style="26" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10" style="26" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.625" style="26" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.5" style="26" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11" style="26" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="26"/>
+    <col min="1" max="1" width="9" style="24"/>
+    <col min="2" max="2" width="5.25" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" style="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="13.875" style="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.125" style="24" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="61.125" style="24" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.375" style="24" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13.875" style="24" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.875" style="24" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.75" style="24" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.25" style="24" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.75" style="24" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="13.875" style="24" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:17" ht="20.100000000000001" customHeight="1">
-      <c r="B3" s="23"/>
-      <c r="C3" s="24" t="s">
+      <c r="B3" s="22"/>
+      <c r="C3" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="56"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
     </row>
     <row r="4" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B4" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="25" t="s">
         <v>68</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="26" t="s">
         <v>72</v>
       </c>
       <c r="H4" s="11" t="s">
@@ -2175,257 +2946,263 @@
       </c>
     </row>
     <row r="5" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="C5" s="29">
+      <c r="C5" s="28">
+        <v>42613.958321759259</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="E5" s="27">
         <v>518786</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="F5" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="G5" s="29">
+        <v>3908550182939</v>
+      </c>
+      <c r="H5" s="27" t="s">
+        <v>254</v>
+      </c>
+      <c r="I5" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="J5" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="K5" s="48">
+        <v>13715102933</v>
+      </c>
+      <c r="L5" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="M5" s="24">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="N5" s="24">
+        <v>11</v>
+      </c>
+      <c r="O5" s="24">
+        <v>12.23</v>
+      </c>
+      <c r="P5" s="24" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="C6" s="28">
+        <v>42614.958321701386</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="E6" s="27">
+        <v>518787</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="G6" s="29">
+        <v>3908550182940</v>
+      </c>
+      <c r="H6" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="I6" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="J6" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="K6" s="48">
+        <v>13715102934</v>
+      </c>
+      <c r="L6" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="M6" s="24">
+        <v>2.12</v>
+      </c>
+      <c r="N6" s="24">
+        <v>22</v>
+      </c>
+      <c r="O6" s="24">
+        <v>12.23</v>
+      </c>
+      <c r="P6" s="24" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="C7" s="28">
+        <v>42615.958321701386</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="E7" s="27">
+        <v>518788</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="G7" s="29">
+        <v>3908550182941</v>
+      </c>
+      <c r="H7" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="I7" s="30" t="s">
+        <v>172</v>
+      </c>
+      <c r="J7" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="K7" s="49" t="s">
+        <v>252</v>
+      </c>
+      <c r="L7" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="M7" s="24">
+        <v>3.13</v>
+      </c>
+      <c r="N7" s="24">
+        <v>33</v>
+      </c>
+      <c r="O7" s="24">
+        <v>12.23</v>
+      </c>
+      <c r="P7" s="24" t="s">
         <v>175</v>
       </c>
-      <c r="E5" s="30">
-        <v>42613.958321759259</v>
-      </c>
-      <c r="F5" s="26" t="s">
+    </row>
+    <row r="8" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="C8" s="28">
+        <v>42616.958321701386</v>
+      </c>
+      <c r="D8" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="G5" s="31">
-        <v>3908550182939</v>
-      </c>
-      <c r="H5" s="29" t="s">
+      <c r="E8" s="27">
+        <v>518789</v>
+      </c>
+      <c r="F8" s="24" t="s">
         <v>177</v>
       </c>
-      <c r="I5" s="32" t="s">
+      <c r="G8" s="29">
+        <v>3908550182942</v>
+      </c>
+      <c r="H8" s="27" t="s">
         <v>178</v>
       </c>
-      <c r="J5" s="26" t="s">
+      <c r="I8" s="30" t="s">
         <v>179</v>
       </c>
-      <c r="K5" s="33">
-        <v>13715102933</v>
-      </c>
-      <c r="L5" s="26" t="s">
+      <c r="J8" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="M5" s="26">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="N5" s="26">
-        <v>11</v>
-      </c>
-      <c r="O5" s="26">
+      <c r="K8" s="48">
+        <v>13715102936</v>
+      </c>
+      <c r="L8" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="M8" s="24">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="N8" s="24">
+        <v>44</v>
+      </c>
+      <c r="O8" s="24">
         <v>12.23</v>
       </c>
-      <c r="P5" s="26" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="6" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="C6" s="29">
-        <v>518787</v>
-      </c>
-      <c r="D6" s="26" t="s">
+      <c r="P8" s="24" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="C9" s="28">
+        <v>42617.958321701386</v>
+      </c>
+      <c r="D9" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="E6" s="30">
-        <v>42614.958321701386</v>
-      </c>
-      <c r="F6" s="26" t="s">
+      <c r="E9" s="27">
+        <v>518790</v>
+      </c>
+      <c r="F9" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="G6" s="31">
-        <v>3908550182940</v>
-      </c>
-      <c r="H6" s="29" t="s">
+      <c r="G9" s="29">
+        <v>3908550182943</v>
+      </c>
+      <c r="H9" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="I9" s="30" t="s">
         <v>184</v>
       </c>
-      <c r="I6" s="32" t="s">
+      <c r="J9" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="J6" s="26" t="s">
+      <c r="K9" s="48">
+        <v>13715102937</v>
+      </c>
+      <c r="L9" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="K6" s="33">
-        <v>13715102934</v>
-      </c>
-      <c r="L6" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="M6" s="26">
-        <v>2.12</v>
-      </c>
-      <c r="N6" s="26">
-        <v>22</v>
-      </c>
-      <c r="O6" s="26">
+      <c r="M9" s="24">
+        <v>5.16</v>
+      </c>
+      <c r="N9" s="24">
+        <v>55</v>
+      </c>
+      <c r="O9" s="24">
         <v>12.23</v>
       </c>
-      <c r="P6" s="26" t="s">
+      <c r="P9" s="24" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" ht="20.100000000000001" customHeight="1">
+      <c r="C12" s="33" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="7" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="C7" s="29">
-        <v>518788</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="E7" s="30">
-        <v>42615.958321701386</v>
-      </c>
-      <c r="F7" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="G7" s="31">
-        <v>3908550182941</v>
-      </c>
-      <c r="H7" s="29" t="s">
-        <v>191</v>
-      </c>
-      <c r="I7" s="32" t="s">
-        <v>192</v>
-      </c>
-      <c r="J7" s="26" t="s">
-        <v>193</v>
-      </c>
-      <c r="K7" s="33">
-        <v>13715102935</v>
-      </c>
-      <c r="L7" s="26" t="s">
-        <v>194</v>
-      </c>
-      <c r="M7" s="26">
-        <v>3.13</v>
-      </c>
-      <c r="N7" s="26">
-        <v>33</v>
-      </c>
-      <c r="O7" s="26">
-        <v>12.23</v>
-      </c>
-      <c r="P7" s="26" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="8" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="C8" s="29">
-        <v>518789</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>196</v>
-      </c>
-      <c r="E8" s="30">
-        <v>42616.958321701386</v>
-      </c>
-      <c r="F8" s="26" t="s">
-        <v>197</v>
-      </c>
-      <c r="G8" s="31">
-        <v>3908550182942</v>
-      </c>
-      <c r="H8" s="29" t="s">
-        <v>198</v>
-      </c>
-      <c r="I8" s="32" t="s">
-        <v>199</v>
-      </c>
-      <c r="J8" s="26" t="s">
-        <v>200</v>
-      </c>
-      <c r="K8" s="33">
-        <v>13715102936</v>
-      </c>
-      <c r="L8" s="26" t="s">
-        <v>201</v>
-      </c>
-      <c r="M8" s="26">
-        <v>4.1500000000000004</v>
-      </c>
-      <c r="N8" s="26">
-        <v>44</v>
-      </c>
-      <c r="O8" s="26">
-        <v>12.23</v>
-      </c>
-      <c r="P8" s="26" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="9" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="C9" s="29">
-        <v>518790</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>202</v>
-      </c>
-      <c r="E9" s="30">
-        <v>42617.958321701386</v>
-      </c>
-      <c r="F9" s="26" t="s">
-        <v>203</v>
-      </c>
-      <c r="G9" s="31">
-        <v>3908550182943</v>
-      </c>
-      <c r="H9" s="29" t="s">
-        <v>204</v>
-      </c>
-      <c r="I9" s="32" t="s">
-        <v>205</v>
-      </c>
-      <c r="J9" s="26" t="s">
-        <v>206</v>
-      </c>
-      <c r="K9" s="33">
-        <v>13715102937</v>
-      </c>
-      <c r="L9" s="26" t="s">
-        <v>207</v>
-      </c>
-      <c r="M9" s="26">
-        <v>5.16</v>
-      </c>
-      <c r="N9" s="26">
-        <v>55</v>
-      </c>
-      <c r="O9" s="26">
-        <v>12.23</v>
-      </c>
-      <c r="P9" s="26" t="s">
-        <v>195</v>
-      </c>
-    </row>
     <row r="13" spans="2:17" ht="20.100000000000001" customHeight="1">
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22"/>
     </row>
     <row r="14" spans="2:17" ht="20.100000000000001" customHeight="1">
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="25" t="s">
         <v>68</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="E14" s="28" t="s">
+      <c r="E14" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="F14" s="28" t="s">
+      <c r="F14" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="G14" s="28" t="s">
+      <c r="G14" s="26" t="s">
         <v>72</v>
       </c>
       <c r="H14" s="11" t="s">
@@ -2455,78 +3232,125 @@
       <c r="P14" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="Q14" s="26" t="s">
-        <v>160</v>
+      <c r="Q14" s="22" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="2:17" ht="20.100000000000001" customHeight="1">
-      <c r="C15" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="D15" s="23" t="s">
+      <c r="C15" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>261</v>
+      </c>
+      <c r="H15" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="I15" s="22" t="s">
+        <v>261</v>
+      </c>
+      <c r="J15" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="K15" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="L15" s="22" t="s">
+        <v>295</v>
+      </c>
+      <c r="M15" s="22" t="s">
+        <v>297</v>
+      </c>
+      <c r="N15" s="22" t="s">
+        <v>298</v>
+      </c>
+      <c r="O15" s="22" t="s">
+        <v>300</v>
+      </c>
+      <c r="P15" s="22" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q15" s="22" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" ht="20.100000000000001" customHeight="1">
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="E15" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="F15" s="23" t="s">
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="G15" s="23" t="s">
-        <v>153</v>
-      </c>
-      <c r="H15" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="I15" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="J15" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="K15" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="L15" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="M15" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="N15" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="O15" s="23" t="s">
-        <v>167</v>
-      </c>
-      <c r="P15" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q15" s="26" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="16" spans="2:17" ht="20.100000000000001" customHeight="1">
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23" t="s">
-        <v>158</v>
-      </c>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="26" t="s">
-        <v>163</v>
+    </row>
+    <row r="17" spans="3:17" ht="20.100000000000001" customHeight="1">
+      <c r="C17" s="24" t="s">
+        <v>272</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="G17" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="H17" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="I17" s="24" t="s">
+        <v>293</v>
+      </c>
+      <c r="J17" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="K17" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="L17" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="M17" s="24" t="s">
+        <v>296</v>
+      </c>
+      <c r="N17" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="O17" s="24" t="s">
+        <v>299</v>
+      </c>
+      <c r="P17" s="24" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q17" s="24" t="s">
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -2543,422 +3367,485 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:S20"/>
+  <dimension ref="B3:S27"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9" style="26"/>
-    <col min="2" max="4" width="11" style="26" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13" style="26" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" style="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5" style="26" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.875" style="26" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5" style="26" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="55.5" style="26" customWidth="1"/>
-    <col min="11" max="11" width="18.375" style="26" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11" style="26" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.75" style="26" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.375" style="26" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.375" style="26" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9" style="26" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.5" style="26" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.5" style="26" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.375" style="26" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="26"/>
+    <col min="1" max="1" width="9" style="24"/>
+    <col min="2" max="2" width="19.25" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="15.875" style="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.875" style="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5" style="24" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.125" style="24" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.875" style="24" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="62.375" style="24" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.375" style="24" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.875" style="24" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="16.125" style="24" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.375" style="24" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.25" style="24" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.75" style="24" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.875" style="24" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.375" style="24" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:19" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B3" s="34" t="s">
+    <row r="3" spans="2:19" ht="20.100000000000001" customHeight="1">
+      <c r="B3" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="E3" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="F3" s="35" t="s">
+      <c r="F3" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="G3" s="35" t="s">
+      <c r="G3" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="H3" s="35" t="s">
+      <c r="H3" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="I3" s="28" t="s">
+      <c r="I3" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="J3" s="35" t="s">
+      <c r="J3" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="K3" s="34" t="s">
+      <c r="K3" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="L3" s="34" t="s">
+      <c r="L3" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="M3" s="34" t="s">
+      <c r="M3" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="N3" s="34" t="s">
+      <c r="N3" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="O3" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="P3" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q3" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="R3" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="S3" s="31" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="2:19" ht="20.100000000000001" customHeight="1">
+      <c r="B4" s="36" t="s">
+        <v>236</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>241</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>242</v>
+      </c>
+      <c r="E4" s="36">
+        <v>518786</v>
+      </c>
+      <c r="F4" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="G4" s="38">
+        <v>42613.958321759259</v>
+      </c>
+      <c r="H4" s="47">
+        <v>3908550182939</v>
+      </c>
+      <c r="I4" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="J4" s="36" t="s">
+        <v>243</v>
+      </c>
+      <c r="K4" s="36" t="s">
+        <v>232</v>
+      </c>
+      <c r="L4" s="36" t="s">
+        <v>233</v>
+      </c>
+      <c r="M4" s="36">
+        <v>13715102933</v>
+      </c>
+      <c r="N4" s="50">
+        <v>42616.958321759259</v>
+      </c>
+      <c r="O4" s="36">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="P4" s="36">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="36">
+        <v>12.23</v>
+      </c>
+      <c r="R4" s="36" t="s">
+        <v>234</v>
+      </c>
+      <c r="S4" s="36" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="5" spans="2:19" ht="20.100000000000001" customHeight="1">
+      <c r="B5" s="36" t="s">
+        <v>236</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>241</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>242</v>
+      </c>
+      <c r="E5" s="36">
+        <v>518787</v>
+      </c>
+      <c r="F5" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="G5" s="38">
+        <v>42614.958321701386</v>
+      </c>
+      <c r="H5" s="47">
+        <v>3908550182940</v>
+      </c>
+      <c r="I5" s="36" t="s">
+        <v>244</v>
+      </c>
+      <c r="J5" s="36" t="s">
+        <v>245</v>
+      </c>
+      <c r="K5" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="L5" s="36" t="s">
+        <v>237</v>
+      </c>
+      <c r="M5" s="36" t="s">
+        <v>247</v>
+      </c>
+      <c r="N5" s="50">
+        <v>42617.958321759259</v>
+      </c>
+      <c r="O5" s="36">
+        <v>2.12</v>
+      </c>
+      <c r="P5" s="36">
+        <v>33</v>
+      </c>
+      <c r="Q5" s="36">
+        <v>12.56</v>
+      </c>
+      <c r="R5" s="36" t="s">
+        <v>210</v>
+      </c>
+      <c r="S5" s="36" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" ht="20.100000000000001" customHeight="1">
+      <c r="B6" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>239</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>248</v>
+      </c>
+      <c r="E6" s="36">
+        <v>518788</v>
+      </c>
+      <c r="F6" s="36" t="s">
+        <v>249</v>
+      </c>
+      <c r="G6" s="38">
+        <v>42615.958321701386</v>
+      </c>
+      <c r="H6" s="47">
+        <v>3908550182941</v>
+      </c>
+      <c r="I6" s="36" t="s">
+        <v>240</v>
+      </c>
+      <c r="J6" s="36" t="s">
+        <v>250</v>
+      </c>
+      <c r="K6" s="36" t="s">
+        <v>251</v>
+      </c>
+      <c r="L6" s="36" t="s">
+        <v>208</v>
+      </c>
+      <c r="M6" s="36">
+        <v>13715102935</v>
+      </c>
+      <c r="N6" s="50">
+        <v>42618.958321759259</v>
+      </c>
+      <c r="O6" s="46">
+        <v>3.1</v>
+      </c>
+      <c r="P6" s="36">
+        <v>22</v>
+      </c>
+      <c r="Q6" s="36">
+        <v>13.45</v>
+      </c>
+      <c r="R6" s="36" t="s">
+        <v>218</v>
+      </c>
+      <c r="S6" s="36" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19" ht="20.100000000000001" customHeight="1">
+      <c r="B16" s="24" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19" ht="20.100000000000001" customHeight="1">
+      <c r="B17" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="G17" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="H17" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="I17" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="J17" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="K17" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="L17" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="M17" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="N17" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="O17" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="P17" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q17" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="R17" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="S17" s="31" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="2:19" ht="20.100000000000001" customHeight="1">
+      <c r="B18" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="G18" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="H18" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="K18" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="L18" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="O18" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="O3" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="P3" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q3" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="R3" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="S3" s="34" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="2:19" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B4" s="26" t="s">
-        <v>208</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>209</v>
-      </c>
-      <c r="D4" s="26" t="s">
-        <v>210</v>
-      </c>
-      <c r="E4" s="29">
-        <v>518786</v>
-      </c>
-      <c r="F4" s="26" t="s">
-        <v>174</v>
-      </c>
-      <c r="G4" s="30">
-        <v>42613.958321759259</v>
-      </c>
-      <c r="H4" s="31">
-        <v>3908550182939</v>
-      </c>
-      <c r="I4" s="31" t="s">
-        <v>211</v>
-      </c>
-      <c r="J4" s="29" t="s">
-        <v>177</v>
-      </c>
-      <c r="K4" s="26" t="s">
-        <v>180</v>
-      </c>
-      <c r="L4" s="26" t="s">
-        <v>179</v>
-      </c>
-      <c r="M4" s="33">
-        <v>13715102933</v>
-      </c>
-      <c r="N4" s="30">
-        <v>42616.958321759259</v>
-      </c>
-      <c r="O4" s="26">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="P4" s="26">
-        <v>11</v>
-      </c>
-      <c r="Q4" s="26">
-        <v>12.01</v>
-      </c>
-      <c r="R4" s="26" t="s">
-        <v>181</v>
-      </c>
-      <c r="S4" s="32" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="5" spans="2:19" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B5" s="26" t="s">
-        <v>212</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>214</v>
-      </c>
-      <c r="E5" s="29">
-        <v>518787</v>
-      </c>
-      <c r="F5" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="G5" s="30">
-        <v>42614.958321701386</v>
-      </c>
-      <c r="H5" s="31">
-        <v>3908550182940</v>
-      </c>
-      <c r="I5" s="31" t="s">
-        <v>215</v>
-      </c>
-      <c r="J5" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="K5" s="26" t="s">
-        <v>187</v>
-      </c>
-      <c r="L5" s="26" t="s">
-        <v>216</v>
-      </c>
-      <c r="M5" s="33">
-        <v>13715102934</v>
-      </c>
-      <c r="N5" s="30">
-        <v>42617.958321759259</v>
-      </c>
-      <c r="O5" s="26">
-        <v>2.13</v>
-      </c>
-      <c r="P5" s="26">
-        <v>22</v>
-      </c>
-      <c r="Q5" s="26">
-        <v>12.22</v>
-      </c>
-      <c r="R5" s="26" t="s">
-        <v>217</v>
-      </c>
-      <c r="S5" s="32" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="6" spans="2:19" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B6" s="26" t="s">
-        <v>219</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>220</v>
-      </c>
-      <c r="D6" s="26" t="s">
-        <v>221</v>
-      </c>
-      <c r="E6" s="29">
-        <v>518788</v>
-      </c>
-      <c r="F6" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="G6" s="30">
-        <v>42615.958321701386</v>
-      </c>
-      <c r="H6" s="31">
-        <v>3908550182941</v>
-      </c>
-      <c r="I6" s="31" t="s">
-        <v>222</v>
-      </c>
-      <c r="J6" s="29" t="s">
-        <v>191</v>
-      </c>
-      <c r="K6" s="26" t="s">
-        <v>194</v>
-      </c>
-      <c r="L6" s="26" t="s">
-        <v>223</v>
-      </c>
-      <c r="M6" s="33">
-        <v>13715102935</v>
-      </c>
-      <c r="N6" s="30">
-        <v>42618.958321759259</v>
-      </c>
-      <c r="O6" s="26">
-        <v>3.15</v>
-      </c>
-      <c r="P6" s="26">
-        <v>33</v>
-      </c>
-      <c r="Q6" s="26">
-        <v>13.33</v>
-      </c>
-      <c r="R6" s="26" t="s">
-        <v>224</v>
-      </c>
-      <c r="S6" s="32" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="17" spans="2:19" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="C17" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="D17" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="E17" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="F17" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="G17" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="H17" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="I17" s="35" t="s">
-        <v>226</v>
-      </c>
-      <c r="J17" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="K17" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="L17" s="34" t="s">
-        <v>103</v>
-      </c>
-      <c r="M17" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="N17" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="O17" s="34" t="s">
-        <v>109</v>
-      </c>
-      <c r="P17" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q17" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="R17" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="S17" s="34" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="18" spans="2:19" ht="20.100000000000001" customHeight="1">
-      <c r="B18" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="D18" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="E18" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="F18" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="G18" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="H18" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="K18" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="L18" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="M18" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="N18" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="O18" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="23"/>
-      <c r="R18" s="23"/>
-      <c r="S18" s="23"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="22"/>
+      <c r="S18" s="22"/>
     </row>
     <row r="19" spans="2:19" ht="20.100000000000001" customHeight="1">
-      <c r="B19" s="26" t="s">
-        <v>152</v>
-      </c>
-      <c r="C19" s="26" t="s">
-        <v>164</v>
-      </c>
-      <c r="D19" s="26" t="s">
-        <v>152</v>
-      </c>
-      <c r="E19" s="26" t="s">
-        <v>154</v>
-      </c>
-      <c r="F19" s="26" t="s">
-        <v>152</v>
-      </c>
-      <c r="G19" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="H19" s="26" t="s">
-        <v>154</v>
-      </c>
-      <c r="I19" s="26" t="s">
-        <v>227</v>
-      </c>
-      <c r="J19" s="26" t="s">
-        <v>166</v>
-      </c>
-      <c r="K19" s="26" t="s">
-        <v>152</v>
-      </c>
-      <c r="L19" s="26" t="s">
-        <v>152</v>
-      </c>
-      <c r="M19" s="26" t="s">
-        <v>154</v>
-      </c>
-      <c r="N19" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="O19" s="26" t="s">
-        <v>167</v>
-      </c>
-      <c r="P19" s="26" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q19" s="26" t="s">
-        <v>154</v>
-      </c>
-      <c r="R19" s="26" t="s">
-        <v>152</v>
-      </c>
-      <c r="S19" s="26" t="s">
-        <v>154</v>
+      <c r="B19" s="24" t="s">
+        <v>309</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>280</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>280</v>
+      </c>
+      <c r="E19" s="22" t="s">
+        <v>310</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>312</v>
+      </c>
+      <c r="G19" s="24" t="s">
+        <v>313</v>
+      </c>
+      <c r="H19" s="22" t="s">
+        <v>261</v>
+      </c>
+      <c r="I19" s="22" t="s">
+        <v>316</v>
+      </c>
+      <c r="J19" s="22" t="s">
+        <v>317</v>
+      </c>
+      <c r="K19" s="22" t="s">
+        <v>263</v>
+      </c>
+      <c r="L19" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="M19" s="22" t="s">
+        <v>319</v>
+      </c>
+      <c r="N19" s="24" t="s">
+        <v>321</v>
+      </c>
+      <c r="O19" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="P19" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q19" s="22" t="s">
+        <v>324</v>
+      </c>
+      <c r="R19" s="22" t="s">
+        <v>326</v>
+      </c>
+      <c r="S19" s="22" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="20" spans="2:19" ht="20.100000000000001" customHeight="1">
-      <c r="H20" s="26" t="s">
-        <v>158</v>
-      </c>
-      <c r="P20" s="26" t="s">
-        <v>161</v>
+      <c r="H20" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="P20" s="24" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="21" spans="2:19" ht="20.100000000000001" customHeight="1">
+      <c r="B21" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>307</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>308</v>
+      </c>
+      <c r="F21" s="24" t="s">
+        <v>311</v>
+      </c>
+      <c r="G21" s="24" t="s">
+        <v>272</v>
+      </c>
+      <c r="H21" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="I21" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="J21" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="K21" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="L21" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="M21" s="24" t="s">
+        <v>318</v>
+      </c>
+      <c r="N21" s="24" t="s">
+        <v>320</v>
+      </c>
+      <c r="O21" s="24" t="s">
+        <v>322</v>
+      </c>
+      <c r="P21" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q21" s="24" t="s">
+        <v>323</v>
+      </c>
+      <c r="R21" s="24" t="s">
+        <v>325</v>
+      </c>
+      <c r="S21" s="24" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="27" spans="2:19" ht="20.100000000000001" customHeight="1">
+      <c r="B27" s="33" t="s">
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -2969,190 +3856,524 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:W14"/>
+  <dimension ref="B3:V21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9" style="7"/>
-    <col min="2" max="2" width="8" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="8" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="6.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.875" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="8" style="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.125" style="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.375" style="7" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8" style="7" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="8" style="7" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.75" style="7" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9" style="7"/>
+    <col min="1" max="1" width="9" style="39"/>
+    <col min="2" max="2" width="8" style="39" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" style="39" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.875" style="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.875" style="39" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.875" style="39" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.125" style="39" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="64.75" style="39" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.125" style="39" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13.875" style="39" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5" style="39" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.875" style="39" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.875" style="39" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.375" style="39" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.375" style="39" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.875" style="39" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.75" style="39" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.25" style="39" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.875" style="39" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.875" style="39" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.75" style="39" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5" style="39" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9" style="39"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:23" ht="19.5" customHeight="1"/>
-    <row r="4" spans="2:23" ht="57.75" customHeight="1">
+    <row r="3" spans="2:22" ht="19.5" customHeight="1"/>
+    <row r="4" spans="2:22" ht="57.75" customHeight="1">
       <c r="B4" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C4" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q4" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="R4" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="S4" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="T4" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="U4" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="V4" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="2:22" ht="18">
+      <c r="B5" s="39">
+        <v>1</v>
+      </c>
+      <c r="C5" s="42">
+        <v>42613.958321759259</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="E5" s="43">
+        <v>518786</v>
+      </c>
+      <c r="F5" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="G5" s="44">
+        <v>3908550182939</v>
+      </c>
+      <c r="H5" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="I5" s="39" t="s">
+        <v>212</v>
+      </c>
+      <c r="J5" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="K5" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="L5" s="42">
+        <v>42613.958321759259</v>
+      </c>
+      <c r="M5" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="N5" s="39" t="s">
+        <v>215</v>
+      </c>
+      <c r="O5" s="45" t="s">
+        <v>216</v>
+      </c>
+      <c r="P5" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="R5" s="36">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="S5" s="39">
+        <v>11</v>
+      </c>
+      <c r="T5" s="39" t="s">
+        <v>218</v>
+      </c>
+      <c r="U5" s="40">
+        <v>99.99</v>
+      </c>
+      <c r="V5" s="40">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:22" ht="20.100000000000001" customHeight="1">
+      <c r="B6" s="39">
+        <v>2</v>
+      </c>
+      <c r="C6" s="42">
+        <v>42614.958321701386</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>219</v>
+      </c>
+      <c r="E6" s="43">
+        <v>518787</v>
+      </c>
+      <c r="F6" s="39" t="s">
+        <v>220</v>
+      </c>
+      <c r="G6" s="44">
+        <v>3908550182940</v>
+      </c>
+      <c r="H6" s="43" t="s">
+        <v>164</v>
+      </c>
+      <c r="I6" s="39" t="s">
+        <v>221</v>
+      </c>
+      <c r="J6" s="36" t="s">
+        <v>222</v>
+      </c>
+      <c r="K6" s="36" t="s">
+        <v>222</v>
+      </c>
+      <c r="L6" s="42">
+        <v>42614.958321701386</v>
+      </c>
+      <c r="M6" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="N6" s="39" t="s">
+        <v>224</v>
+      </c>
+      <c r="O6" s="45" t="s">
+        <v>225</v>
+      </c>
+      <c r="P6" s="36" t="s">
+        <v>167</v>
+      </c>
+      <c r="R6" s="36">
+        <v>2.12</v>
+      </c>
+      <c r="S6" s="39">
+        <v>22</v>
+      </c>
+      <c r="T6" s="39" t="s">
+        <v>226</v>
+      </c>
+      <c r="U6" s="40">
+        <v>10</v>
+      </c>
+      <c r="V6" s="40">
+        <v>2.12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:22" ht="20.100000000000001" customHeight="1">
+      <c r="B7" s="39">
+        <v>3</v>
+      </c>
+      <c r="C7" s="42">
+        <v>42615.958321701386</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="E7" s="43">
+        <v>518788</v>
+      </c>
+      <c r="F7" s="39" t="s">
+        <v>227</v>
+      </c>
+      <c r="G7" s="44">
+        <v>3908550182941</v>
+      </c>
+      <c r="H7" s="43" t="s">
+        <v>171</v>
+      </c>
+      <c r="I7" s="39" t="s">
+        <v>207</v>
+      </c>
+      <c r="J7" s="36" t="s">
+        <v>208</v>
+      </c>
+      <c r="K7" s="36" t="s">
+        <v>208</v>
+      </c>
+      <c r="L7" s="42">
+        <v>42615.958321701386</v>
+      </c>
+      <c r="M7" s="39" t="s">
+        <v>209</v>
+      </c>
+      <c r="N7" s="39" t="s">
+        <v>228</v>
+      </c>
+      <c r="O7" s="45" t="s">
+        <v>229</v>
+      </c>
+      <c r="P7" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="R7" s="46">
+        <v>3.1</v>
+      </c>
+      <c r="S7" s="39">
+        <v>33</v>
+      </c>
+      <c r="T7" s="39" t="s">
+        <v>230</v>
+      </c>
+      <c r="U7" s="40">
+        <v>55.2</v>
+      </c>
+      <c r="V7" s="40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22" ht="20.100000000000001" customHeight="1">
+      <c r="C11" s="39" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="12" spans="2:22" ht="27">
+      <c r="C12" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="G12" s="51" t="s">
+        <v>120</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="I12" s="51" t="s">
+        <v>118</v>
+      </c>
+      <c r="J12" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="L12" s="51" t="s">
+        <v>115</v>
+      </c>
+      <c r="M12" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="N12" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="O12" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="P12" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q12" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="R12" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="S12" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="T12" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="U12" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="V12" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="2:22" ht="20.100000000000001" customHeight="1">
+      <c r="C13" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="G13" s="22" t="s">
+        <v>261</v>
+      </c>
+      <c r="H13" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="I13" s="53" t="s">
+        <v>330</v>
+      </c>
+      <c r="J13" s="53" t="s">
+        <v>279</v>
+      </c>
+      <c r="K13" s="53" t="s">
+        <v>285</v>
+      </c>
+      <c r="L13" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="M13" s="53" t="s">
+        <v>335</v>
+      </c>
+      <c r="N13" s="53" t="s">
+        <v>282</v>
+      </c>
+      <c r="O13" s="22" t="s">
+        <v>261</v>
+      </c>
+      <c r="P13" s="22" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q13" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="R13" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="S13" s="22" t="s">
+        <v>336</v>
+      </c>
+      <c r="T13" s="22" t="s">
+        <v>263</v>
+      </c>
+      <c r="U13" s="53" t="s">
+        <v>339</v>
+      </c>
+      <c r="V13" s="22" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="14" spans="2:22" ht="20.100000000000001" customHeight="1">
+      <c r="G14" s="39" t="s">
         <v>148</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="O4" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="P4" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q4" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="R4" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="S4" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="T4" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="U4" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="V4" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="W4" s="9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="2:23" ht="12">
-      <c r="N5" s="22"/>
-    </row>
-    <row r="12" spans="2:23" ht="39">
-      <c r="C12" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="L12" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="M12" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="N12" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="O12" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="P12" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q12" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="R12" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="S12" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="T12" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="U12" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="V12" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="W12" s="9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="13" spans="2:23" ht="12"/>
-    <row r="14" spans="2:23" ht="48">
-      <c r="G14" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="N14" s="22" t="s">
-        <v>162</v>
+      <c r="I14" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="N14" s="41" t="s">
+        <v>329</v>
+      </c>
+      <c r="S14" s="39" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="15" spans="2:22" ht="20.100000000000001" customHeight="1">
+      <c r="C15" s="24" t="s">
+        <v>272</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>275</v>
+      </c>
+      <c r="G15" s="24" t="s">
+        <v>267</v>
+      </c>
+      <c r="H15" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="I15" s="39" t="s">
+        <v>270</v>
+      </c>
+      <c r="J15" s="39" t="s">
+        <v>331</v>
+      </c>
+      <c r="K15" s="24" t="s">
+        <v>332</v>
+      </c>
+      <c r="L15" s="39" t="s">
+        <v>333</v>
+      </c>
+      <c r="M15" s="39" t="s">
+        <v>334</v>
+      </c>
+      <c r="N15" s="39" t="s">
+        <v>341</v>
+      </c>
+      <c r="O15" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="P15" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q15" s="39" t="s">
+        <v>196</v>
+      </c>
+      <c r="R15" s="39" t="s">
+        <v>266</v>
+      </c>
+      <c r="S15" s="24" t="s">
+        <v>342</v>
+      </c>
+      <c r="T15" s="24" t="s">
+        <v>337</v>
+      </c>
+      <c r="U15" s="24" t="s">
+        <v>338</v>
+      </c>
+      <c r="V15" s="39" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="16" spans="2:22" ht="20.100000000000001" customHeight="1">
+      <c r="N16" s="39" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" ht="20.100000000000001" customHeight="1">
+      <c r="C20" s="52" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" ht="20.100000000000001" customHeight="1">
+      <c r="C21" s="33" t="s">
+        <v>278</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C6:L15"/>
+  <dimension ref="C5:L15"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -3163,37 +4384,42 @@
     <col min="5" max="5" width="9" style="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.5" style="10" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9" style="10"/>
-    <col min="9" max="9" width="7.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.625" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.875" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.125" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.875" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.75" style="10" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
+    <row r="5" spans="3:12" ht="20.100000000000001" customHeight="1">
+      <c r="I5" s="34" t="s">
+        <v>348</v>
+      </c>
+    </row>
     <row r="6" spans="3:12" ht="20.100000000000001" customHeight="1">
       <c r="C6" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="E6" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="F6" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="F6" s="13" t="s">
-        <v>129</v>
-      </c>
       <c r="I6" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J6" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="K6" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="K6" s="13" t="s">
+      <c r="L6" s="13" t="s">
         <v>128</v>
-      </c>
-      <c r="L6" s="13" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="7" spans="3:12" ht="20.100000000000001" customHeight="1">
@@ -3201,25 +4427,25 @@
         <v>1</v>
       </c>
       <c r="D7" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="E7" s="16" t="s">
         <v>130</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>131</v>
       </c>
       <c r="F7" s="17">
         <v>48</v>
       </c>
-      <c r="I7" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="K7" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="L7" s="10" t="s">
-        <v>169</v>
+      <c r="I7" s="54" t="s">
+        <v>283</v>
+      </c>
+      <c r="J7" s="54" t="s">
+        <v>345</v>
+      </c>
+      <c r="K7" s="54" t="s">
+        <v>284</v>
+      </c>
+      <c r="L7" s="54" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="8" spans="3:12" ht="20.100000000000001" customHeight="1">
@@ -3227,16 +4453,16 @@
         <v>2</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F8" s="17">
         <v>72</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="3:12" ht="20.100000000000001" customHeight="1">
@@ -3244,13 +4470,25 @@
         <v>3</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F9" s="17">
         <v>48</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="10" spans="3:12" ht="20.100000000000001" customHeight="1">
@@ -3258,10 +4496,10 @@
         <v>4</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F10" s="17">
         <v>96</v>
@@ -3272,10 +4510,10 @@
         <v>5</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F11" s="17">
         <v>24</v>
@@ -3286,10 +4524,10 @@
         <v>6</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F12" s="17">
         <v>48</v>
@@ -3300,10 +4538,10 @@
         <v>7</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F13" s="17">
         <v>48</v>
@@ -3314,10 +4552,10 @@
         <v>8</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F14" s="17">
         <v>48</v>
@@ -3328,10 +4566,10 @@
         <v>9</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F15" s="17">
         <v>72</v>
@@ -3345,85 +4583,220 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:I16"/>
+  <dimension ref="C3:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9" style="10"/>
-    <col min="2" max="2" width="7.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.125" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="10"/>
+    <col min="1" max="1" width="9" style="36"/>
+    <col min="2" max="2" width="7.5" style="36" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.125" style="36" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.125" style="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.875" style="36" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5" style="36" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.875" style="36" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.875" style="36" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.875" style="36" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.875" style="36" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="36"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9" ht="20.100000000000001" customHeight="1">
-      <c r="B3" s="19" t="s">
+    <row r="3" spans="3:10" ht="20.100000000000001" customHeight="1">
+      <c r="C3" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="D3" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="E3" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="F3" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="G3" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="H3" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="I3" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="G3" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="H3" s="21" t="s">
+      <c r="J3" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="I3" s="20" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" ht="20.100000000000001" customHeight="1">
-      <c r="B4" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" ht="20.100000000000001" customHeight="1">
-      <c r="B5" s="10" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" ht="20.100000000000001" customHeight="1">
-      <c r="G16" s="10" t="s">
-        <v>173</v>
+    </row>
+    <row r="4" spans="3:10" ht="20.100000000000001" customHeight="1">
+      <c r="C4" s="37">
+        <v>3908550182939</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>199</v>
+      </c>
+      <c r="F4" s="38">
+        <v>42613.958321759259</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="H4" s="35">
+        <v>99.99</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="J4" s="36" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="5" spans="3:10" ht="20.100000000000001" customHeight="1">
+      <c r="C5" s="37">
+        <v>3908550182940</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>203</v>
+      </c>
+      <c r="E5" s="36" t="s">
+        <v>204</v>
+      </c>
+      <c r="F5" s="38">
+        <v>42614.958321701386</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="H5" s="35">
+        <v>10</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="J5" s="36">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="3:10" ht="20.100000000000001" customHeight="1">
+      <c r="C6" s="37">
+        <v>3908550182941</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>207</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>208</v>
+      </c>
+      <c r="F6" s="38">
+        <v>42615.958321701386</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="H6" s="35">
+        <v>55.2</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="J6" s="36">
+        <v>55464</v>
+      </c>
+    </row>
+    <row r="12" spans="3:10" ht="20.100000000000001" customHeight="1">
+      <c r="C12" s="34" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="13" spans="3:10" ht="20.100000000000001" customHeight="1">
+      <c r="C13" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="H13" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="I13" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="J13" s="20" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="3:10" ht="20.100000000000001" customHeight="1">
+      <c r="C14" s="22" t="s">
+        <v>261</v>
+      </c>
+      <c r="D14" s="53" t="s">
+        <v>287</v>
+      </c>
+      <c r="E14" s="53" t="s">
+        <v>287</v>
+      </c>
+      <c r="F14" s="55" t="s">
+        <v>153</v>
+      </c>
+      <c r="G14" s="53" t="s">
+        <v>288</v>
+      </c>
+      <c r="H14" s="53" t="s">
+        <v>281</v>
+      </c>
+      <c r="I14" s="22" t="s">
+        <v>265</v>
+      </c>
+      <c r="J14" s="55" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="15" spans="3:10" ht="20.100000000000001" customHeight="1">
+      <c r="C15" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="D15" s="36" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="16" spans="3:10" ht="20.100000000000001" customHeight="1">
+      <c r="C16" s="36" t="s">
+        <v>350</v>
+      </c>
+      <c r="D16" s="39" t="s">
+        <v>352</v>
+      </c>
+      <c r="E16" s="39" t="s">
+        <v>331</v>
+      </c>
+      <c r="F16" s="39" t="s">
+        <v>271</v>
+      </c>
+      <c r="G16" s="39" t="s">
+        <v>334</v>
+      </c>
+      <c r="H16" s="24" t="s">
+        <v>273</v>
+      </c>
+      <c r="I16" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="J16" s="36" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/文档/数据库表结构.xlsx
+++ b/文档/数据库表结构.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="用户表" sheetId="1" r:id="rId1"/>
@@ -164,7 +164,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="351">
   <si>
     <t>工号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -495,9 +495,6 @@
   </si>
   <si>
     <t>快递公司</t>
-  </si>
-  <si>
-    <t>金额</t>
   </si>
   <si>
     <t>物品</t>
@@ -1632,19 +1629,75 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>goods</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(30)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null 0/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2（20）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>signatory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addressee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sign_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abnormal_cause</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2（200）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number(3,0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goods</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goods_cost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number（7,2）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>fee</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>number(6,2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>goods</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2(30)</t>
+    <t>is_time_out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>courier_company</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1652,7 +1705,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>null 0/1</t>
+    <t>begin_province</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2（20）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>end_province</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number(3,1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time_limit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sign</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>courier_number</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1660,95 +1737,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>varchar2（20）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>signatory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addressee</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sign_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>abnormal_cause</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2（200）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number(3,0)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>goods</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>goods_cost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number（7,2）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fee</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>is_time_out</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>courier_company</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>order_number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>begin_province</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2（20）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>end_province</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number(3,1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>time_limit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sign</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>courier_number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>delivery_state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品价值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2950,31 +2943,31 @@
         <v>42613.958321759259</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E5" s="27">
         <v>518786</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G5" s="29">
         <v>3908550182939</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I5" s="30" t="s">
+        <v>157</v>
+      </c>
+      <c r="J5" s="24" t="s">
         <v>158</v>
-      </c>
-      <c r="J5" s="24" t="s">
-        <v>159</v>
       </c>
       <c r="K5" s="48">
         <v>13715102933</v>
       </c>
       <c r="L5" s="24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M5" s="24">
         <v>1.1200000000000001</v>
@@ -2986,7 +2979,7 @@
         <v>12.23</v>
       </c>
       <c r="P5" s="24" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1">
@@ -2994,31 +2987,31 @@
         <v>42614.958321701386</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E6" s="27">
         <v>518787</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G6" s="29">
         <v>3908550182940</v>
       </c>
       <c r="H6" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="I6" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="I6" s="30" t="s">
+      <c r="J6" s="24" t="s">
         <v>165</v>
-      </c>
-      <c r="J6" s="24" t="s">
-        <v>166</v>
       </c>
       <c r="K6" s="48">
         <v>13715102934</v>
       </c>
       <c r="L6" s="24" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M6" s="24">
         <v>2.12</v>
@@ -3030,7 +3023,7 @@
         <v>12.23</v>
       </c>
       <c r="P6" s="24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1">
@@ -3038,31 +3031,31 @@
         <v>42615.958321701386</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E7" s="27">
         <v>518788</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G7" s="29">
         <v>3908550182941</v>
       </c>
       <c r="H7" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="I7" s="30" t="s">
         <v>171</v>
       </c>
-      <c r="I7" s="30" t="s">
+      <c r="J7" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="J7" s="24" t="s">
+      <c r="K7" s="49" t="s">
+        <v>251</v>
+      </c>
+      <c r="L7" s="24" t="s">
         <v>173</v>
-      </c>
-      <c r="K7" s="49" t="s">
-        <v>252</v>
-      </c>
-      <c r="L7" s="24" t="s">
-        <v>174</v>
       </c>
       <c r="M7" s="24">
         <v>3.13</v>
@@ -3074,7 +3067,7 @@
         <v>12.23</v>
       </c>
       <c r="P7" s="24" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1">
@@ -3082,31 +3075,31 @@
         <v>42616.958321701386</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E8" s="27">
         <v>518789</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G8" s="29">
         <v>3908550182942</v>
       </c>
       <c r="H8" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="I8" s="30" t="s">
         <v>178</v>
       </c>
-      <c r="I8" s="30" t="s">
+      <c r="J8" s="24" t="s">
         <v>179</v>
-      </c>
-      <c r="J8" s="24" t="s">
-        <v>180</v>
       </c>
       <c r="K8" s="48">
         <v>13715102936</v>
       </c>
       <c r="L8" s="24" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="M8" s="24">
         <v>4.1500000000000004</v>
@@ -3118,7 +3111,7 @@
         <v>12.23</v>
       </c>
       <c r="P8" s="24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1">
@@ -3126,31 +3119,31 @@
         <v>42617.958321701386</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E9" s="27">
         <v>518790</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G9" s="29">
         <v>3908550182943</v>
       </c>
       <c r="H9" s="27" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I9" s="30" t="s">
+        <v>183</v>
+      </c>
+      <c r="J9" s="24" t="s">
         <v>184</v>
-      </c>
-      <c r="J9" s="24" t="s">
-        <v>185</v>
       </c>
       <c r="K9" s="48">
         <v>13715102937</v>
       </c>
       <c r="L9" s="24" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M9" s="24">
         <v>5.16</v>
@@ -3162,12 +3155,12 @@
         <v>12.23</v>
       </c>
       <c r="P9" s="24" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="2:17" ht="20.100000000000001" customHeight="1">
       <c r="C12" s="33" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13" spans="2:17" ht="20.100000000000001" customHeight="1">
@@ -3233,54 +3226,54 @@
         <v>81</v>
       </c>
       <c r="Q14" s="22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="2:17" ht="20.100000000000001" customHeight="1">
       <c r="C15" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="D15" s="22" t="s">
         <v>257</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="E15" s="22" t="s">
         <v>258</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="F15" s="22" t="s">
         <v>259</v>
       </c>
-      <c r="F15" s="22" t="s">
+      <c r="G15" s="22" t="s">
         <v>260</v>
       </c>
-      <c r="G15" s="22" t="s">
+      <c r="H15" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="I15" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="J15" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="K15" s="22" t="s">
         <v>261</v>
       </c>
-      <c r="H15" s="22" t="s">
-        <v>256</v>
-      </c>
-      <c r="I15" s="22" t="s">
-        <v>261</v>
-      </c>
-      <c r="J15" s="22" t="s">
-        <v>258</v>
-      </c>
-      <c r="K15" s="22" t="s">
-        <v>262</v>
-      </c>
       <c r="L15" s="22" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="M15" s="22" t="s">
+        <v>296</v>
+      </c>
+      <c r="N15" s="22" t="s">
         <v>297</v>
       </c>
-      <c r="N15" s="22" t="s">
-        <v>298</v>
-      </c>
       <c r="O15" s="22" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="P15" s="22" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Q15" s="22" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="16" spans="2:17" ht="20.100000000000001" customHeight="1">
@@ -3289,7 +3282,7 @@
       <c r="E16" s="22"/>
       <c r="F16" s="22"/>
       <c r="G16" s="22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H16" s="22"/>
       <c r="I16" s="22"/>
@@ -3298,59 +3291,59 @@
       <c r="L16" s="22"/>
       <c r="M16" s="22"/>
       <c r="N16" s="22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O16" s="22"/>
       <c r="P16" s="22"/>
       <c r="Q16" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="3:17" ht="20.100000000000001" customHeight="1">
       <c r="C17" s="24" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D17" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="E17" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="E17" s="24" t="s">
-        <v>192</v>
-      </c>
       <c r="F17" s="24" t="s">
+        <v>289</v>
+      </c>
+      <c r="G17" s="24" t="s">
         <v>290</v>
       </c>
-      <c r="G17" s="24" t="s">
+      <c r="H17" s="24" t="s">
         <v>291</v>
       </c>
-      <c r="H17" s="24" t="s">
+      <c r="I17" s="24" t="s">
         <v>292</v>
       </c>
-      <c r="I17" s="24" t="s">
+      <c r="J17" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="K17" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="L17" s="24" t="s">
         <v>293</v>
       </c>
-      <c r="J17" s="24" t="s">
-        <v>195</v>
-      </c>
-      <c r="K17" s="24" t="s">
-        <v>196</v>
-      </c>
-      <c r="L17" s="24" t="s">
-        <v>294</v>
-      </c>
       <c r="M17" s="24" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N17" s="24" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="O17" s="24" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="P17" s="24" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="Q17" s="24" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -3369,8 +3362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:S27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -3396,25 +3389,25 @@
   <sheetData>
     <row r="3" spans="2:19" ht="20.100000000000001" customHeight="1">
       <c r="B3" s="31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D3" s="31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E3" s="32" t="s">
         <v>70</v>
       </c>
       <c r="F3" s="32" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G3" s="32" t="s">
         <v>68</v>
       </c>
       <c r="H3" s="32" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I3" s="26" t="s">
         <v>71</v>
@@ -3423,7 +3416,7 @@
         <v>73</v>
       </c>
       <c r="K3" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L3" s="31" t="s">
         <v>75</v>
@@ -3432,7 +3425,7 @@
         <v>76</v>
       </c>
       <c r="N3" s="31" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O3" s="31" t="s">
         <v>78</v>
@@ -3441,30 +3434,30 @@
         <v>82</v>
       </c>
       <c r="Q3" s="31" t="s">
+        <v>350</v>
+      </c>
+      <c r="R3" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="R3" s="31" t="s">
+      <c r="S3" s="31" t="s">
         <v>84</v>
-      </c>
-      <c r="S3" s="31" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="4" spans="2:19" ht="20.100000000000001" customHeight="1">
       <c r="B4" s="36" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C4" s="36" t="s">
+        <v>240</v>
+      </c>
+      <c r="D4" s="36" t="s">
         <v>241</v>
-      </c>
-      <c r="D4" s="36" t="s">
-        <v>242</v>
       </c>
       <c r="E4" s="36">
         <v>518786</v>
       </c>
       <c r="F4" s="36" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G4" s="38">
         <v>42613.958321759259</v>
@@ -3473,16 +3466,16 @@
         <v>3908550182939</v>
       </c>
       <c r="I4" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="J4" s="36" t="s">
+        <v>242</v>
+      </c>
+      <c r="K4" s="36" t="s">
         <v>231</v>
       </c>
-      <c r="J4" s="36" t="s">
-        <v>243</v>
-      </c>
-      <c r="K4" s="36" t="s">
+      <c r="L4" s="36" t="s">
         <v>232</v>
-      </c>
-      <c r="L4" s="36" t="s">
-        <v>233</v>
       </c>
       <c r="M4" s="36">
         <v>13715102933</v>
@@ -3500,27 +3493,27 @@
         <v>12.23</v>
       </c>
       <c r="R4" s="36" t="s">
+        <v>233</v>
+      </c>
+      <c r="S4" s="36" t="s">
         <v>234</v>
-      </c>
-      <c r="S4" s="36" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="5" spans="2:19" ht="20.100000000000001" customHeight="1">
       <c r="B5" s="36" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C5" s="36" t="s">
+        <v>240</v>
+      </c>
+      <c r="D5" s="36" t="s">
         <v>241</v>
-      </c>
-      <c r="D5" s="36" t="s">
-        <v>242</v>
       </c>
       <c r="E5" s="36">
         <v>518787</v>
       </c>
       <c r="F5" s="36" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G5" s="38">
         <v>42614.958321701386</v>
@@ -3529,19 +3522,19 @@
         <v>3908550182940</v>
       </c>
       <c r="I5" s="36" t="s">
+        <v>243</v>
+      </c>
+      <c r="J5" s="36" t="s">
         <v>244</v>
       </c>
-      <c r="J5" s="36" t="s">
+      <c r="K5" s="36" t="s">
         <v>245</v>
       </c>
-      <c r="K5" s="36" t="s">
+      <c r="L5" s="36" t="s">
+        <v>236</v>
+      </c>
+      <c r="M5" s="36" t="s">
         <v>246</v>
-      </c>
-      <c r="L5" s="36" t="s">
-        <v>237</v>
-      </c>
-      <c r="M5" s="36" t="s">
-        <v>247</v>
       </c>
       <c r="N5" s="50">
         <v>42617.958321759259</v>
@@ -3556,27 +3549,27 @@
         <v>12.56</v>
       </c>
       <c r="R5" s="36" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="S5" s="36" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" spans="2:19" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="36" t="s">
+        <v>237</v>
+      </c>
+      <c r="C6" s="36" t="s">
         <v>238</v>
       </c>
-      <c r="C6" s="36" t="s">
-        <v>239</v>
-      </c>
       <c r="D6" s="36" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E6" s="36">
         <v>518788</v>
       </c>
       <c r="F6" s="36" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G6" s="38">
         <v>42615.958321701386</v>
@@ -3585,16 +3578,16 @@
         <v>3908550182941</v>
       </c>
       <c r="I6" s="36" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J6" s="36" t="s">
+        <v>249</v>
+      </c>
+      <c r="K6" s="36" t="s">
         <v>250</v>
       </c>
-      <c r="K6" s="36" t="s">
-        <v>251</v>
-      </c>
       <c r="L6" s="36" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M6" s="36">
         <v>13715102935</v>
@@ -3612,111 +3605,111 @@
         <v>13.45</v>
       </c>
       <c r="R6" s="36" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="S6" s="36" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="16" spans="2:19" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="24" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="2:19" ht="20.100000000000001" customHeight="1">
       <c r="B17" s="31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E17" s="32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F17" s="32" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G17" s="32" t="s">
         <v>68</v>
       </c>
       <c r="H17" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="I17" s="32" t="s">
+        <v>186</v>
+      </c>
+      <c r="J17" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="I17" s="32" t="s">
-        <v>187</v>
-      </c>
-      <c r="J17" s="32" t="s">
+      <c r="K17" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="K17" s="31" t="s">
+      <c r="L17" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="L17" s="31" t="s">
-        <v>102</v>
-      </c>
       <c r="M17" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="N17" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="N17" s="31" t="s">
-        <v>105</v>
-      </c>
       <c r="O17" s="31" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P17" s="31" t="s">
         <v>82</v>
       </c>
       <c r="Q17" s="31" t="s">
+        <v>350</v>
+      </c>
+      <c r="R17" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="R17" s="31" t="s">
+      <c r="S17" s="31" t="s">
         <v>84</v>
-      </c>
-      <c r="S17" s="31" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="18" spans="2:19" ht="20.100000000000001" customHeight="1">
       <c r="B18" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F18" s="22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G18" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="H18" s="22" t="s">
         <v>97</v>
-      </c>
-      <c r="H18" s="22" t="s">
-        <v>98</v>
       </c>
       <c r="I18" s="22"/>
       <c r="J18" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K18" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L18" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M18" s="22"/>
       <c r="N18" s="22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O18" s="22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P18" s="22"/>
       <c r="Q18" s="22"/>
@@ -3725,132 +3718,134 @@
     </row>
     <row r="19" spans="2:19" ht="20.100000000000001" customHeight="1">
       <c r="B19" s="24" t="s">
+        <v>308</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>279</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>279</v>
+      </c>
+      <c r="E19" s="22" t="s">
         <v>309</v>
       </c>
-      <c r="C19" s="24" t="s">
-        <v>280</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>280</v>
-      </c>
-      <c r="E19" s="22" t="s">
-        <v>310</v>
-      </c>
       <c r="F19" s="22" t="s">
+        <v>311</v>
+      </c>
+      <c r="G19" s="24" t="s">
         <v>312</v>
       </c>
-      <c r="G19" s="24" t="s">
-        <v>313</v>
-      </c>
       <c r="H19" s="22" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I19" s="22" t="s">
+        <v>315</v>
+      </c>
+      <c r="J19" s="22" t="s">
         <v>316</v>
       </c>
-      <c r="J19" s="22" t="s">
-        <v>317</v>
-      </c>
       <c r="K19" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="L19" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="M19" s="22" t="s">
+        <v>318</v>
+      </c>
+      <c r="N19" s="24" t="s">
+        <v>320</v>
+      </c>
+      <c r="O19" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="P19" s="22" t="s">
         <v>263</v>
       </c>
-      <c r="L19" s="22" t="s">
-        <v>258</v>
-      </c>
-      <c r="M19" s="22" t="s">
-        <v>319</v>
-      </c>
-      <c r="N19" s="24" t="s">
-        <v>321</v>
-      </c>
-      <c r="O19" s="22" t="s">
-        <v>253</v>
-      </c>
-      <c r="P19" s="22" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q19" s="22" t="s">
-        <v>324</v>
+      <c r="Q19" s="53" t="s">
+        <v>336</v>
       </c>
       <c r="R19" s="22" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="S19" s="22" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="20" spans="2:19" ht="20.100000000000001" customHeight="1">
       <c r="H20" s="24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P20" s="24" t="s">
-        <v>151</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="Q20" s="39"/>
     </row>
     <row r="21" spans="2:19" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="24" t="s">
+        <v>304</v>
+      </c>
+      <c r="C21" s="24" t="s">
         <v>305</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="D21" s="24" t="s">
         <v>306</v>
       </c>
-      <c r="D21" s="24" t="s">
+      <c r="E21" s="24" t="s">
         <v>307</v>
       </c>
-      <c r="E21" s="24" t="s">
-        <v>308</v>
-      </c>
       <c r="F21" s="24" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G21" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="H21" s="24" t="s">
+        <v>313</v>
+      </c>
+      <c r="I21" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="J21" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="K21" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="L21" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="M21" s="24" t="s">
+        <v>317</v>
+      </c>
+      <c r="N21" s="24" t="s">
+        <v>319</v>
+      </c>
+      <c r="O21" s="24" t="s">
+        <v>321</v>
+      </c>
+      <c r="P21" s="24" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q21" s="24" t="s">
         <v>272</v>
       </c>
-      <c r="H21" s="24" t="s">
-        <v>314</v>
-      </c>
-      <c r="I21" s="24" t="s">
-        <v>315</v>
-      </c>
-      <c r="J21" s="24" t="s">
-        <v>193</v>
-      </c>
-      <c r="K21" s="24" t="s">
-        <v>197</v>
-      </c>
-      <c r="L21" s="24" t="s">
-        <v>195</v>
-      </c>
-      <c r="M21" s="24" t="s">
-        <v>318</v>
-      </c>
-      <c r="N21" s="24" t="s">
-        <v>320</v>
-      </c>
-      <c r="O21" s="24" t="s">
+      <c r="R21" s="24" t="s">
         <v>322</v>
       </c>
-      <c r="P21" s="24" t="s">
-        <v>268</v>
-      </c>
-      <c r="Q21" s="24" t="s">
-        <v>323</v>
-      </c>
-      <c r="R21" s="24" t="s">
-        <v>325</v>
-      </c>
       <c r="S21" s="24" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="27" spans="2:19" ht="20.100000000000001" customHeight="1">
       <c r="B27" s="33" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3858,8 +3853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:V21"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -3892,67 +3887,67 @@
     <row r="3" spans="2:22" ht="19.5" customHeight="1"/>
     <row r="4" spans="2:22" ht="57.75" customHeight="1">
       <c r="B4" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O4" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Q4" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="R4" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="S4" s="9" t="s">
         <v>82</v>
       </c>
       <c r="T4" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="U4" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="V4" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="2:22" ht="18">
@@ -3963,43 +3958,43 @@
         <v>42613.958321759259</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E5" s="43">
         <v>518786</v>
       </c>
       <c r="F5" s="39" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G5" s="44">
         <v>3908550182939</v>
       </c>
       <c r="H5" s="43" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I5" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="J5" s="36" t="s">
         <v>212</v>
       </c>
-      <c r="J5" s="36" t="s">
-        <v>213</v>
-      </c>
       <c r="K5" s="36" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L5" s="42">
         <v>42613.958321759259</v>
       </c>
       <c r="M5" s="39" t="s">
+        <v>213</v>
+      </c>
+      <c r="N5" s="39" t="s">
         <v>214</v>
       </c>
-      <c r="N5" s="39" t="s">
+      <c r="O5" s="45" t="s">
         <v>215</v>
       </c>
-      <c r="O5" s="45" t="s">
+      <c r="P5" s="36" t="s">
         <v>216</v>
-      </c>
-      <c r="P5" s="36" t="s">
-        <v>217</v>
       </c>
       <c r="R5" s="36">
         <v>1.1100000000000001</v>
@@ -4008,7 +4003,7 @@
         <v>11</v>
       </c>
       <c r="T5" s="39" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="U5" s="40">
         <v>99.99</v>
@@ -4025,43 +4020,43 @@
         <v>42614.958321701386</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E6" s="43">
         <v>518787</v>
       </c>
       <c r="F6" s="39" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G6" s="44">
         <v>3908550182940</v>
       </c>
       <c r="H6" s="43" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I6" s="39" t="s">
+        <v>220</v>
+      </c>
+      <c r="J6" s="36" t="s">
         <v>221</v>
       </c>
-      <c r="J6" s="36" t="s">
-        <v>222</v>
-      </c>
       <c r="K6" s="36" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L6" s="42">
         <v>42614.958321701386</v>
       </c>
       <c r="M6" s="39" t="s">
+        <v>222</v>
+      </c>
+      <c r="N6" s="39" t="s">
         <v>223</v>
       </c>
-      <c r="N6" s="39" t="s">
+      <c r="O6" s="45" t="s">
         <v>224</v>
       </c>
-      <c r="O6" s="45" t="s">
-        <v>225</v>
-      </c>
       <c r="P6" s="36" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="R6" s="36">
         <v>2.12</v>
@@ -4070,7 +4065,7 @@
         <v>22</v>
       </c>
       <c r="T6" s="39" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="U6" s="40">
         <v>10</v>
@@ -4087,43 +4082,43 @@
         <v>42615.958321701386</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E7" s="43">
         <v>518788</v>
       </c>
       <c r="F7" s="39" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G7" s="44">
         <v>3908550182941</v>
       </c>
       <c r="H7" s="43" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I7" s="39" t="s">
+        <v>206</v>
+      </c>
+      <c r="J7" s="36" t="s">
         <v>207</v>
       </c>
-      <c r="J7" s="36" t="s">
-        <v>208</v>
-      </c>
       <c r="K7" s="36" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L7" s="42">
         <v>42615.958321701386</v>
       </c>
       <c r="M7" s="39" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N7" s="39" t="s">
+        <v>227</v>
+      </c>
+      <c r="O7" s="45" t="s">
         <v>228</v>
       </c>
-      <c r="O7" s="45" t="s">
-        <v>229</v>
-      </c>
       <c r="P7" s="36" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="R7" s="46">
         <v>3.1</v>
@@ -4132,7 +4127,7 @@
         <v>33</v>
       </c>
       <c r="T7" s="39" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="U7" s="40">
         <v>55.2</v>
@@ -4143,69 +4138,69 @@
     </row>
     <row r="11" spans="2:22" ht="20.100000000000001" customHeight="1">
       <c r="C11" s="39" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12" spans="2:22" ht="27">
       <c r="C12" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G12" s="51" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I12" s="51" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J12" s="51" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L12" s="51" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M12" s="51" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N12" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O12" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P12" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Q12" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="R12" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="S12" s="9" t="s">
         <v>82</v>
       </c>
       <c r="T12" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="U12" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="V12" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="2:22" ht="20.100000000000001" customHeight="1">
@@ -4213,152 +4208,152 @@
         <v>16</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G13" s="22" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I13" s="53" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="J13" s="53" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K13" s="53" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="L13" s="53" t="s">
         <v>16</v>
       </c>
       <c r="M13" s="53" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="N13" s="53" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O13" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="P13" s="22" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q13" s="22" t="s">
         <v>261</v>
       </c>
-      <c r="P13" s="22" t="s">
-        <v>302</v>
-      </c>
-      <c r="Q13" s="22" t="s">
+      <c r="R13" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="S13" s="22" t="s">
+        <v>333</v>
+      </c>
+      <c r="T13" s="22" t="s">
         <v>262</v>
       </c>
-      <c r="R13" s="22" t="s">
-        <v>253</v>
-      </c>
-      <c r="S13" s="22" t="s">
+      <c r="U13" s="53" t="s">
         <v>336</v>
       </c>
-      <c r="T13" s="22" t="s">
-        <v>263</v>
-      </c>
-      <c r="U13" s="53" t="s">
-        <v>339</v>
-      </c>
       <c r="V13" s="22" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="14" spans="2:22" ht="20.100000000000001" customHeight="1">
       <c r="G14" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="I14" s="39" t="s">
         <v>148</v>
       </c>
-      <c r="I14" s="39" t="s">
-        <v>149</v>
-      </c>
       <c r="N14" s="41" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="S14" s="39" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="2:22" ht="20.100000000000001" customHeight="1">
       <c r="C15" s="24" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D15" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="E15" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="E15" s="24" t="s">
+      <c r="F15" s="24" t="s">
+        <v>274</v>
+      </c>
+      <c r="G15" s="24" t="s">
+        <v>266</v>
+      </c>
+      <c r="H15" s="24" t="s">
         <v>192</v>
       </c>
-      <c r="F15" s="24" t="s">
-        <v>275</v>
-      </c>
-      <c r="G15" s="24" t="s">
-        <v>267</v>
-      </c>
-      <c r="H15" s="24" t="s">
+      <c r="I15" s="39" t="s">
+        <v>269</v>
+      </c>
+      <c r="J15" s="39" t="s">
+        <v>328</v>
+      </c>
+      <c r="K15" s="24" t="s">
+        <v>329</v>
+      </c>
+      <c r="L15" s="39" t="s">
+        <v>330</v>
+      </c>
+      <c r="M15" s="39" t="s">
+        <v>331</v>
+      </c>
+      <c r="N15" s="39" t="s">
+        <v>338</v>
+      </c>
+      <c r="O15" s="24" t="s">
         <v>193</v>
       </c>
-      <c r="I15" s="39" t="s">
-        <v>270</v>
-      </c>
-      <c r="J15" s="39" t="s">
-        <v>331</v>
-      </c>
-      <c r="K15" s="24" t="s">
-        <v>332</v>
-      </c>
-      <c r="L15" s="39" t="s">
-        <v>333</v>
-      </c>
-      <c r="M15" s="39" t="s">
+      <c r="P15" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q15" s="39" t="s">
+        <v>195</v>
+      </c>
+      <c r="R15" s="39" t="s">
+        <v>265</v>
+      </c>
+      <c r="S15" s="24" t="s">
+        <v>339</v>
+      </c>
+      <c r="T15" s="24" t="s">
         <v>334</v>
       </c>
-      <c r="N15" s="39" t="s">
-        <v>341</v>
-      </c>
-      <c r="O15" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="P15" s="24" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q15" s="39" t="s">
-        <v>196</v>
-      </c>
-      <c r="R15" s="39" t="s">
-        <v>266</v>
-      </c>
-      <c r="S15" s="24" t="s">
-        <v>342</v>
-      </c>
-      <c r="T15" s="24" t="s">
+      <c r="U15" s="24" t="s">
+        <v>335</v>
+      </c>
+      <c r="V15" s="39" t="s">
         <v>337</v>
-      </c>
-      <c r="U15" s="24" t="s">
-        <v>338</v>
-      </c>
-      <c r="V15" s="39" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="16" spans="2:22" ht="20.100000000000001" customHeight="1">
       <c r="N16" s="39" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="20" spans="3:3" ht="20.100000000000001" customHeight="1">
       <c r="C20" s="52" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="21" spans="3:3" ht="20.100000000000001" customHeight="1">
       <c r="C21" s="33" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -4393,33 +4388,33 @@
   <sheetData>
     <row r="5" spans="3:12" ht="20.100000000000001" customHeight="1">
       <c r="I5" s="34" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="6" spans="3:12" ht="20.100000000000001" customHeight="1">
       <c r="C6" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="E6" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="F6" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="F6" s="13" t="s">
-        <v>128</v>
-      </c>
       <c r="I6" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K6" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="L6" s="13" t="s">
         <v>127</v>
-      </c>
-      <c r="L6" s="13" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="7" spans="3:12" ht="20.100000000000001" customHeight="1">
@@ -4427,25 +4422,25 @@
         <v>1</v>
       </c>
       <c r="D7" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="E7" s="16" t="s">
         <v>129</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>130</v>
       </c>
       <c r="F7" s="17">
         <v>48</v>
       </c>
       <c r="I7" s="54" t="s">
+        <v>282</v>
+      </c>
+      <c r="J7" s="54" t="s">
+        <v>342</v>
+      </c>
+      <c r="K7" s="54" t="s">
         <v>283</v>
       </c>
-      <c r="J7" s="54" t="s">
-        <v>345</v>
-      </c>
-      <c r="K7" s="54" t="s">
-        <v>284</v>
-      </c>
       <c r="L7" s="54" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="8" spans="3:12" ht="20.100000000000001" customHeight="1">
@@ -4453,16 +4448,16 @@
         <v>2</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F8" s="17">
         <v>72</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="3:12" ht="20.100000000000001" customHeight="1">
@@ -4470,25 +4465,25 @@
         <v>3</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F9" s="17">
         <v>48</v>
       </c>
       <c r="I9" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="K9" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="J9" s="10" t="s">
-        <v>344</v>
-      </c>
-      <c r="K9" s="10" t="s">
-        <v>346</v>
-      </c>
       <c r="L9" s="10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="10" spans="3:12" ht="20.100000000000001" customHeight="1">
@@ -4496,10 +4491,10 @@
         <v>4</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F10" s="17">
         <v>96</v>
@@ -4510,10 +4505,10 @@
         <v>5</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F11" s="17">
         <v>24</v>
@@ -4524,10 +4519,10 @@
         <v>6</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F12" s="17">
         <v>48</v>
@@ -4538,10 +4533,10 @@
         <v>7</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F13" s="17">
         <v>48</v>
@@ -4552,10 +4547,10 @@
         <v>8</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F14" s="17">
         <v>48</v>
@@ -4566,10 +4561,10 @@
         <v>9</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F15" s="17">
         <v>72</v>
@@ -4585,7 +4580,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -4606,28 +4601,28 @@
   <sheetData>
     <row r="3" spans="3:10" ht="20.100000000000001" customHeight="1">
       <c r="C3" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="D3" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="E3" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="F3" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="G3" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="H3" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="I3" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="H3" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="I3" s="21" t="s">
+      <c r="J3" s="20" t="s">
         <v>144</v>
-      </c>
-      <c r="J3" s="20" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="4" spans="3:10" ht="20.100000000000001" customHeight="1">
@@ -4635,25 +4630,25 @@
         <v>3908550182939</v>
       </c>
       <c r="D4" s="36" t="s">
+        <v>197</v>
+      </c>
+      <c r="E4" s="36" t="s">
         <v>198</v>
-      </c>
-      <c r="E4" s="36" t="s">
-        <v>199</v>
       </c>
       <c r="F4" s="38">
         <v>42613.958321759259</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H4" s="35">
         <v>99.99</v>
       </c>
       <c r="I4" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="J4" s="36" t="s">
         <v>201</v>
-      </c>
-      <c r="J4" s="36" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="5" spans="3:10" ht="20.100000000000001" customHeight="1">
@@ -4661,22 +4656,22 @@
         <v>3908550182940</v>
       </c>
       <c r="D5" s="36" t="s">
+        <v>202</v>
+      </c>
+      <c r="E5" s="36" t="s">
         <v>203</v>
-      </c>
-      <c r="E5" s="36" t="s">
-        <v>204</v>
       </c>
       <c r="F5" s="38">
         <v>42614.958321701386</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H5" s="35">
         <v>10</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J5" s="36">
         <v>123</v>
@@ -4687,22 +4682,22 @@
         <v>3908550182941</v>
       </c>
       <c r="D6" s="36" t="s">
+        <v>206</v>
+      </c>
+      <c r="E6" s="36" t="s">
         <v>207</v>
-      </c>
-      <c r="E6" s="36" t="s">
-        <v>208</v>
       </c>
       <c r="F6" s="38">
         <v>42615.958321701386</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H6" s="35">
         <v>55.2</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J6" s="36">
         <v>55464</v>
@@ -4710,90 +4705,90 @@
     </row>
     <row r="12" spans="3:10" ht="20.100000000000001" customHeight="1">
       <c r="C12" s="34" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="13" spans="3:10" ht="20.100000000000001" customHeight="1">
       <c r="C13" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="D13" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="E13" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="F13" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="G13" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="G13" s="20" t="s">
+      <c r="H13" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="I13" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="H13" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="I13" s="21" t="s">
+      <c r="J13" s="20" t="s">
         <v>144</v>
-      </c>
-      <c r="J13" s="20" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="14" spans="3:10" ht="20.100000000000001" customHeight="1">
       <c r="C14" s="22" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D14" s="53" t="s">
+        <v>286</v>
+      </c>
+      <c r="E14" s="53" t="s">
+        <v>286</v>
+      </c>
+      <c r="F14" s="55" t="s">
+        <v>152</v>
+      </c>
+      <c r="G14" s="53" t="s">
         <v>287</v>
       </c>
-      <c r="E14" s="53" t="s">
-        <v>287</v>
-      </c>
-      <c r="F14" s="55" t="s">
-        <v>153</v>
-      </c>
-      <c r="G14" s="53" t="s">
+      <c r="H14" s="53" t="s">
+        <v>280</v>
+      </c>
+      <c r="I14" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="J14" s="55" t="s">
         <v>288</v>
-      </c>
-      <c r="H14" s="53" t="s">
-        <v>281</v>
-      </c>
-      <c r="I14" s="22" t="s">
-        <v>265</v>
-      </c>
-      <c r="J14" s="55" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="15" spans="3:10" ht="20.100000000000001" customHeight="1">
       <c r="C15" s="36" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D15" s="36" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="16" spans="3:10" ht="20.100000000000001" customHeight="1">
       <c r="C16" s="36" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D16" s="39" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E16" s="39" t="s">
+        <v>328</v>
+      </c>
+      <c r="F16" s="39" t="s">
+        <v>270</v>
+      </c>
+      <c r="G16" s="39" t="s">
         <v>331</v>
       </c>
-      <c r="F16" s="39" t="s">
-        <v>271</v>
-      </c>
-      <c r="G16" s="39" t="s">
-        <v>334</v>
-      </c>
       <c r="H16" s="24" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I16" s="24" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J16" s="36" t="s">
         <v>19</v>

--- a/文档/数据库表结构.xlsx
+++ b/文档/数据库表结构.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="用户表" sheetId="1" r:id="rId1"/>
@@ -164,7 +164,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="352">
   <si>
     <t>工号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1742,6 +1742,10 @@
   </si>
   <si>
     <t>物品价值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctm_bar_code</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2850,8 +2854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:Q17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -3307,7 +3311,7 @@
         <v>190</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>191</v>
+        <v>351</v>
       </c>
       <c r="F17" s="24" t="s">
         <v>289</v>
@@ -3853,8 +3857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:V21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>

--- a/文档/数据库表结构.xlsx
+++ b/文档/数据库表结构.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="用户表" sheetId="1" r:id="rId1"/>
@@ -99,6 +99,43 @@
     <author>作者</author>
   </authors>
   <commentList>
+    <comment ref="T17" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+已发货
+未发货</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
     <comment ref="D3" authorId="0" shapeId="0">
       <text>
         <r>
@@ -164,7 +201,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="360">
   <si>
     <t>工号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1746,6 +1783,42 @@
   </si>
   <si>
     <t>ctm_bar_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本表功能说明：
+①本表各个栏位的内容均可手动调整（除了快件单号，）；
+②本表需给予批量处理导入功能——即本报表可导出，导出后用户批量修改，改完之后可以上传，并覆盖原数据
+③本表给予查询功能，可按照客户条码查询，快件单号批量查询，
+④通用查询，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发货状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传给哲盟的只传快递公司为11,22的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goods_state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timestamp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_time</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1956,7 +2029,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2129,6 +2202,12 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2852,10 +2931,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:Q17"/>
+  <dimension ref="B3:R20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView topLeftCell="G3" workbookViewId="0">
+      <selection activeCell="R13" sqref="R13:R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -2873,10 +2952,11 @@
     <col min="14" max="14" width="17.25" style="24" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.75" style="24" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="13.875" style="24" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="24"/>
+    <col min="18" max="18" width="11.875" style="24" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:17" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="2:18" ht="20.100000000000001" customHeight="1">
       <c r="B3" s="22"/>
       <c r="C3" s="56" t="s">
         <v>66</v>
@@ -2895,7 +2975,7 @@
       <c r="O3" s="22"/>
       <c r="P3" s="22"/>
     </row>
-    <row r="4" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="4" spans="2:18" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B4" s="11" t="s">
         <v>67</v>
       </c>
@@ -2942,7 +3022,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="5" spans="2:18" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="C5" s="28">
         <v>42613.958321759259</v>
       </c>
@@ -2986,7 +3066,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="6" spans="2:18" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="C6" s="28">
         <v>42614.958321701386</v>
       </c>
@@ -3030,7 +3110,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="7" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="7" spans="2:18" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="C7" s="28">
         <v>42615.958321701386</v>
       </c>
@@ -3074,7 +3154,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="8" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="8" spans="2:18" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="C8" s="28">
         <v>42616.958321701386</v>
       </c>
@@ -3118,7 +3198,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="9" spans="2:17" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="9" spans="2:18" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="C9" s="28">
         <v>42617.958321701386</v>
       </c>
@@ -3162,12 +3242,12 @@
         <v>174</v>
       </c>
     </row>
-    <row r="12" spans="2:17" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="2:18" ht="20.100000000000001" customHeight="1">
       <c r="C12" s="33" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="13" spans="2:17" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="2:18" ht="20.100000000000001" customHeight="1">
       <c r="C13" s="56" t="s">
         <v>66</v>
       </c>
@@ -3185,8 +3265,9 @@
       <c r="O13" s="22"/>
       <c r="P13" s="22"/>
       <c r="Q13" s="22"/>
-    </row>
-    <row r="14" spans="2:17" ht="20.100000000000001" customHeight="1">
+      <c r="R13" s="22"/>
+    </row>
+    <row r="14" spans="2:18" ht="20.100000000000001" customHeight="1">
       <c r="C14" s="25" t="s">
         <v>68</v>
       </c>
@@ -3229,11 +3310,14 @@
       <c r="P14" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="Q14" s="22" t="s">
+      <c r="Q14" s="11" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="15" spans="2:17" ht="20.100000000000001" customHeight="1">
+      <c r="R14" s="11" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" ht="20.100000000000001" customHeight="1">
       <c r="C15" s="22" t="s">
         <v>256</v>
       </c>
@@ -3279,8 +3363,11 @@
       <c r="Q15" s="22" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="16" spans="2:17" ht="20.100000000000001" customHeight="1">
+      <c r="R15" s="22" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" ht="20.100000000000001" customHeight="1">
       <c r="C16" s="22"/>
       <c r="D16" s="22"/>
       <c r="E16" s="22"/>
@@ -3302,8 +3389,9 @@
       <c r="Q16" s="22" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="17" spans="3:17" ht="20.100000000000001" customHeight="1">
+      <c r="R16" s="22"/>
+    </row>
+    <row r="17" spans="3:18" ht="20.100000000000001" customHeight="1">
       <c r="C17" s="24" t="s">
         <v>271</v>
       </c>
@@ -3348,6 +3436,14 @@
       </c>
       <c r="Q17" s="24" t="s">
         <v>302</v>
+      </c>
+      <c r="R17" s="24" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="20" spans="3:18" ht="20.100000000000001" customHeight="1">
+      <c r="C20" s="33" t="s">
+        <v>355</v>
       </c>
     </row>
   </sheetData>
@@ -3363,11 +3459,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:S27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:U27"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+    <sheetView tabSelected="1" topLeftCell="K10" workbookViewId="0">
+      <selection activeCell="V21" sqref="V21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -3388,7 +3484,9 @@
     <col min="17" max="17" width="12.75" style="24" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="13.875" style="24" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="19.375" style="24" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="24"/>
+    <col min="20" max="20" width="16.125" style="24" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.75" style="24" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:19" ht="20.100000000000001" customHeight="1">
@@ -3620,7 +3718,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="17" spans="2:19" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="2:21" ht="20.100000000000001" customHeight="1">
       <c r="B17" s="31" t="s">
         <v>86</v>
       </c>
@@ -3675,8 +3773,14 @@
       <c r="S17" s="31" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="18" spans="2:19" ht="20.100000000000001" customHeight="1">
+      <c r="T17" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="U17" s="11" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="18" spans="2:21" ht="20.100000000000001" customHeight="1">
       <c r="B18" s="22" t="s">
         <v>85</v>
       </c>
@@ -3719,15 +3823,17 @@
       <c r="Q18" s="22"/>
       <c r="R18" s="22"/>
       <c r="S18" s="22"/>
-    </row>
-    <row r="19" spans="2:19" ht="20.100000000000001" customHeight="1">
-      <c r="B19" s="24" t="s">
+      <c r="T18" s="22"/>
+      <c r="U18" s="22"/>
+    </row>
+    <row r="19" spans="2:21" ht="20.100000000000001" customHeight="1">
+      <c r="B19" s="22" t="s">
         <v>308</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="22" t="s">
         <v>279</v>
       </c>
-      <c r="D19" s="24" t="s">
+      <c r="D19" s="22" t="s">
         <v>279</v>
       </c>
       <c r="E19" s="22" t="s">
@@ -3736,7 +3842,7 @@
       <c r="F19" s="22" t="s">
         <v>311</v>
       </c>
-      <c r="G19" s="24" t="s">
+      <c r="G19" s="22" t="s">
         <v>312</v>
       </c>
       <c r="H19" s="22" t="s">
@@ -3757,7 +3863,7 @@
       <c r="M19" s="22" t="s">
         <v>318</v>
       </c>
-      <c r="N19" s="24" t="s">
+      <c r="N19" s="22" t="s">
         <v>320</v>
       </c>
       <c r="O19" s="22" t="s">
@@ -3775,8 +3881,14 @@
       <c r="S19" s="22" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="20" spans="2:19" ht="20.100000000000001" customHeight="1">
+      <c r="T19" s="22" t="s">
+        <v>354</v>
+      </c>
+      <c r="U19" s="22" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="20" spans="2:21" ht="20.100000000000001" customHeight="1">
       <c r="H20" s="24" t="s">
         <v>147</v>
       </c>
@@ -3785,7 +3897,7 @@
       </c>
       <c r="Q20" s="39"/>
     </row>
-    <row r="21" spans="2:19" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="2:21" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="24" t="s">
         <v>304</v>
       </c>
@@ -3840,25 +3952,71 @@
       <c r="S21" s="24" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="27" spans="2:19" ht="20.100000000000001" customHeight="1">
+      <c r="T21" s="24" t="s">
+        <v>356</v>
+      </c>
+      <c r="U21" s="24" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="24" spans="2:21" ht="20.100000000000001" customHeight="1">
+      <c r="C24" s="57" t="s">
+        <v>352</v>
+      </c>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="58"/>
+    </row>
+    <row r="25" spans="2:21" ht="20.100000000000001" customHeight="1">
+      <c r="C25" s="58"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="58"/>
+    </row>
+    <row r="26" spans="2:21" ht="20.100000000000001" customHeight="1">
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="58"/>
+    </row>
+    <row r="27" spans="2:21" ht="20.100000000000001" customHeight="1">
       <c r="B27" s="33" t="s">
         <v>277</v>
       </c>
+      <c r="C27" s="58"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="58"/>
+      <c r="I27" s="58"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C24:I27"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:V21"/>
+  <dimension ref="B3:W21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="U18" sqref="U18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -3883,13 +4041,12 @@
     <col min="19" max="19" width="17.25" style="39" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13.875" style="39" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="12.875" style="39" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.75" style="39" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="5" style="39" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="12.75" style="39" bestFit="1" customWidth="1"/>
     <col min="24" max="16384" width="9" style="39"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:22" ht="19.5" customHeight="1"/>
-    <row r="4" spans="2:22" ht="57.75" customHeight="1">
+    <row r="3" spans="2:23" ht="19.5" customHeight="1"/>
+    <row r="4" spans="2:23" ht="57.75" customHeight="1">
       <c r="B4" s="8" t="s">
         <v>123</v>
       </c>
@@ -3954,7 +4111,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="2:22" ht="18">
+    <row r="5" spans="2:23" ht="18">
       <c r="B5" s="39">
         <v>1</v>
       </c>
@@ -4016,7 +4173,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="6" spans="2:22" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="2:23" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="39">
         <v>2</v>
       </c>
@@ -4078,7 +4235,7 @@
         <v>2.12</v>
       </c>
     </row>
-    <row r="7" spans="2:22" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="2:23" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="39">
         <v>3</v>
       </c>
@@ -4140,12 +4297,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="2:22" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="2:23" ht="20.100000000000001" customHeight="1">
       <c r="C11" s="39" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="12" spans="2:22" ht="27">
+    <row r="12" spans="2:23" ht="27">
       <c r="C12" s="8" t="s">
         <v>146</v>
       </c>
@@ -4206,8 +4363,11 @@
       <c r="V12" s="9" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="13" spans="2:22" ht="20.100000000000001" customHeight="1">
+      <c r="W12" s="11" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23" ht="20.100000000000001" customHeight="1">
       <c r="C13" s="53" t="s">
         <v>16</v>
       </c>
@@ -4268,8 +4428,11 @@
       <c r="V13" s="22" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="14" spans="2:22" ht="20.100000000000001" customHeight="1">
+      <c r="W13" s="22" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="14" spans="2:23" ht="20.100000000000001" customHeight="1">
       <c r="G14" s="39" t="s">
         <v>147</v>
       </c>
@@ -4283,7 +4446,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="15" spans="2:22" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="2:23" ht="20.100000000000001" customHeight="1">
       <c r="C15" s="24" t="s">
         <v>271</v>
       </c>
@@ -4344,8 +4507,11 @@
       <c r="V15" s="39" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="16" spans="2:22" ht="20.100000000000001" customHeight="1">
+      <c r="W15" s="24" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="16" spans="2:23" ht="20.100000000000001" customHeight="1">
       <c r="N16" s="39" t="s">
         <v>325</v>
       </c>

--- a/文档/数据库表结构.xlsx
+++ b/文档/数据库表结构.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="用户表" sheetId="1" r:id="rId1"/>
@@ -1454,10 +1454,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>delivery_state</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sign_time</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1695,10 +1691,6 @@
   </si>
   <si>
     <t>addressee</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sign_time</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1798,27 +1790,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>传给哲盟的只传快递公司为11,22的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goods_state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timestamp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>varchar2(20)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>传给哲盟的只传快递公司为11,22的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>goods_state</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>timestamp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>create_time</t>
+    <t>delivery_state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sign_time</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2933,8 +2933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:R20"/>
   <sheetViews>
-    <sheetView topLeftCell="G3" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13:R17"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -3314,7 +3314,7 @@
         <v>149</v>
       </c>
       <c r="R14" s="11" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="15" spans="2:18" ht="20.100000000000001" customHeight="1">
@@ -3346,25 +3346,25 @@
         <v>261</v>
       </c>
       <c r="L15" s="22" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="M15" s="22" t="s">
+        <v>295</v>
+      </c>
+      <c r="N15" s="22" t="s">
         <v>296</v>
       </c>
-      <c r="N15" s="22" t="s">
-        <v>297</v>
-      </c>
       <c r="O15" s="22" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="P15" s="22" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="Q15" s="22" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="R15" s="22" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="16" spans="2:18" ht="20.100000000000001" customHeight="1">
@@ -3393,25 +3393,25 @@
     </row>
     <row r="17" spans="3:18" ht="20.100000000000001" customHeight="1">
       <c r="C17" s="24" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D17" s="24" t="s">
         <v>190</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F17" s="24" t="s">
+        <v>288</v>
+      </c>
+      <c r="G17" s="24" t="s">
         <v>289</v>
       </c>
-      <c r="G17" s="24" t="s">
+      <c r="H17" s="24" t="s">
         <v>290</v>
       </c>
-      <c r="H17" s="24" t="s">
+      <c r="I17" s="24" t="s">
         <v>291</v>
-      </c>
-      <c r="I17" s="24" t="s">
-        <v>292</v>
       </c>
       <c r="J17" s="24" t="s">
         <v>194</v>
@@ -3420,30 +3420,30 @@
         <v>195</v>
       </c>
       <c r="L17" s="24" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="M17" s="24" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="N17" s="24" t="s">
         <v>267</v>
       </c>
       <c r="O17" s="24" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="P17" s="24" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="Q17" s="24" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="R17" s="24" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="20" spans="3:18" ht="20.100000000000001" customHeight="1">
       <c r="C20" s="33" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -3462,8 +3462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:U27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K10" workbookViewId="0">
-      <selection activeCell="V21" sqref="V21"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -3536,7 +3536,7 @@
         <v>82</v>
       </c>
       <c r="Q3" s="31" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="R3" s="31" t="s">
         <v>83</v>
@@ -3765,7 +3765,7 @@
         <v>82</v>
       </c>
       <c r="Q17" s="31" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="R17" s="31" t="s">
         <v>83</v>
@@ -3774,10 +3774,10 @@
         <v>84</v>
       </c>
       <c r="T17" s="11" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="U17" s="11" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="18" spans="2:21" ht="20.100000000000001" customHeight="1">
@@ -3828,31 +3828,31 @@
     </row>
     <row r="19" spans="2:21" ht="20.100000000000001" customHeight="1">
       <c r="B19" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>278</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>278</v>
+      </c>
+      <c r="E19" s="22" t="s">
         <v>308</v>
       </c>
-      <c r="C19" s="22" t="s">
-        <v>279</v>
-      </c>
-      <c r="D19" s="22" t="s">
-        <v>279</v>
-      </c>
-      <c r="E19" s="22" t="s">
-        <v>309</v>
-      </c>
       <c r="F19" s="22" t="s">
+        <v>310</v>
+      </c>
+      <c r="G19" s="22" t="s">
         <v>311</v>
-      </c>
-      <c r="G19" s="22" t="s">
-        <v>312</v>
       </c>
       <c r="H19" s="22" t="s">
         <v>260</v>
       </c>
       <c r="I19" s="22" t="s">
+        <v>314</v>
+      </c>
+      <c r="J19" s="22" t="s">
         <v>315</v>
-      </c>
-      <c r="J19" s="22" t="s">
-        <v>316</v>
       </c>
       <c r="K19" s="22" t="s">
         <v>262</v>
@@ -3861,10 +3861,10 @@
         <v>257</v>
       </c>
       <c r="M19" s="22" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="N19" s="22" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="O19" s="22" t="s">
         <v>252</v>
@@ -3873,19 +3873,19 @@
         <v>263</v>
       </c>
       <c r="Q19" s="53" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="R19" s="22" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="S19" s="22" t="s">
         <v>260</v>
       </c>
       <c r="T19" s="22" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="U19" s="22" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="20" spans="2:21" ht="20.100000000000001" customHeight="1">
@@ -3899,28 +3899,28 @@
     </row>
     <row r="21" spans="2:21" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="24" t="s">
+        <v>303</v>
+      </c>
+      <c r="C21" s="24" t="s">
         <v>304</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="D21" s="24" t="s">
         <v>305</v>
       </c>
-      <c r="D21" s="24" t="s">
+      <c r="E21" s="24" t="s">
         <v>306</v>
       </c>
-      <c r="E21" s="24" t="s">
-        <v>307</v>
-      </c>
       <c r="F21" s="24" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G21" s="24" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H21" s="24" t="s">
+        <v>312</v>
+      </c>
+      <c r="I21" s="24" t="s">
         <v>313</v>
-      </c>
-      <c r="I21" s="24" t="s">
-        <v>314</v>
       </c>
       <c r="J21" s="24" t="s">
         <v>192</v>
@@ -3932,36 +3932,36 @@
         <v>194</v>
       </c>
       <c r="M21" s="24" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="N21" s="24" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="O21" s="24" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="P21" s="24" t="s">
         <v>267</v>
       </c>
       <c r="Q21" s="24" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="R21" s="24" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="S21" s="24" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="T21" s="24" t="s">
+        <v>353</v>
+      </c>
+      <c r="U21" s="24" t="s">
         <v>356</v>
-      </c>
-      <c r="U21" s="24" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="24" spans="2:21" ht="20.100000000000001" customHeight="1">
       <c r="C24" s="57" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D24" s="58"/>
       <c r="E24" s="58"/>
@@ -3990,7 +3990,7 @@
     </row>
     <row r="27" spans="2:21" ht="20.100000000000001" customHeight="1">
       <c r="B27" s="33" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C27" s="58"/>
       <c r="D27" s="58"/>
@@ -4015,8 +4015,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:W21"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="U18" sqref="U18"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -4364,7 +4364,7 @@
         <v>108</v>
       </c>
       <c r="W12" s="11" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="13" spans="2:23" ht="20.100000000000001" customHeight="1">
@@ -4375,7 +4375,7 @@
         <v>257</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F13" s="22" t="s">
         <v>257</v>
@@ -4387,28 +4387,28 @@
         <v>255</v>
       </c>
       <c r="I13" s="53" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="J13" s="53" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K13" s="53" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L13" s="53" t="s">
         <v>16</v>
       </c>
       <c r="M13" s="53" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="N13" s="53" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O13" s="22" t="s">
         <v>260</v>
       </c>
       <c r="P13" s="22" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="Q13" s="22" t="s">
         <v>261</v>
@@ -4417,19 +4417,19 @@
         <v>252</v>
       </c>
       <c r="S13" s="22" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="T13" s="22" t="s">
         <v>262</v>
       </c>
       <c r="U13" s="53" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="V13" s="22" t="s">
         <v>252</v>
       </c>
       <c r="W13" s="22" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="14" spans="2:23" ht="20.100000000000001" customHeight="1">
@@ -4440,7 +4440,7 @@
         <v>148</v>
       </c>
       <c r="N14" s="41" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="S14" s="39" t="s">
         <v>148</v>
@@ -4448,7 +4448,7 @@
     </row>
     <row r="15" spans="2:23" ht="20.100000000000001" customHeight="1">
       <c r="C15" s="24" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D15" s="24" t="s">
         <v>190</v>
@@ -4457,7 +4457,7 @@
         <v>191</v>
       </c>
       <c r="F15" s="24" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G15" s="24" t="s">
         <v>266</v>
@@ -4466,22 +4466,22 @@
         <v>192</v>
       </c>
       <c r="I15" s="39" t="s">
-        <v>269</v>
+        <v>358</v>
       </c>
       <c r="J15" s="39" t="s">
+        <v>327</v>
+      </c>
+      <c r="K15" s="24" t="s">
         <v>328</v>
       </c>
-      <c r="K15" s="24" t="s">
+      <c r="L15" s="39" t="s">
+        <v>359</v>
+      </c>
+      <c r="M15" s="39" t="s">
         <v>329</v>
       </c>
-      <c r="L15" s="39" t="s">
-        <v>330</v>
-      </c>
-      <c r="M15" s="39" t="s">
-        <v>331</v>
-      </c>
       <c r="N15" s="39" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="O15" s="24" t="s">
         <v>193</v>
@@ -4496,34 +4496,34 @@
         <v>265</v>
       </c>
       <c r="S15" s="24" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="T15" s="24" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="U15" s="24" t="s">
+        <v>333</v>
+      </c>
+      <c r="V15" s="39" t="s">
         <v>335</v>
       </c>
-      <c r="V15" s="39" t="s">
-        <v>337</v>
-      </c>
       <c r="W15" s="24" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="16" spans="2:23" ht="20.100000000000001" customHeight="1">
       <c r="N16" s="39" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="20" spans="3:3" ht="20.100000000000001" customHeight="1">
       <c r="C20" s="52" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="21" spans="3:3" ht="20.100000000000001" customHeight="1">
       <c r="C21" s="33" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -4558,7 +4558,7 @@
   <sheetData>
     <row r="5" spans="3:12" ht="20.100000000000001" customHeight="1">
       <c r="I5" s="34" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="6" spans="3:12" ht="20.100000000000001" customHeight="1">
@@ -4578,7 +4578,7 @@
         <v>124</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K6" s="13" t="s">
         <v>126</v>
@@ -4601,16 +4601,16 @@
         <v>48</v>
       </c>
       <c r="I7" s="54" t="s">
+        <v>281</v>
+      </c>
+      <c r="J7" s="54" t="s">
+        <v>340</v>
+      </c>
+      <c r="K7" s="54" t="s">
         <v>282</v>
       </c>
-      <c r="J7" s="54" t="s">
+      <c r="L7" s="54" t="s">
         <v>342</v>
-      </c>
-      <c r="K7" s="54" t="s">
-        <v>283</v>
-      </c>
-      <c r="L7" s="54" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="8" spans="3:12" ht="20.100000000000001" customHeight="1">
@@ -4644,16 +4644,16 @@
         <v>48</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="J9" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="K9" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="K9" s="10" t="s">
-        <v>343</v>
-      </c>
       <c r="L9" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="10" spans="3:12" ht="20.100000000000001" customHeight="1">
@@ -4750,8 +4750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:J16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -4875,7 +4875,7 @@
     </row>
     <row r="12" spans="3:10" ht="20.100000000000001" customHeight="1">
       <c r="C12" s="34" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="13" spans="3:10" ht="20.100000000000001" customHeight="1">
@@ -4909,25 +4909,25 @@
         <v>260</v>
       </c>
       <c r="D14" s="53" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E14" s="53" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F14" s="55" t="s">
         <v>152</v>
       </c>
       <c r="G14" s="53" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H14" s="53" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I14" s="22" t="s">
         <v>264</v>
       </c>
       <c r="J14" s="55" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="15" spans="3:10" ht="20.100000000000001" customHeight="1">
@@ -4935,27 +4935,27 @@
         <v>147</v>
       </c>
       <c r="D15" s="36" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="16" spans="3:10" ht="20.100000000000001" customHeight="1">
       <c r="C16" s="36" t="s">
+        <v>345</v>
+      </c>
+      <c r="D16" s="39" t="s">
         <v>347</v>
       </c>
-      <c r="D16" s="39" t="s">
-        <v>349</v>
-      </c>
       <c r="E16" s="39" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F16" s="39" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G16" s="39" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H16" s="24" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I16" s="24" t="s">
         <v>268</v>

--- a/文档/数据库表结构.xlsx
+++ b/文档/数据库表结构.xlsx
@@ -59,6 +59,37 @@
       </text>
     </comment>
     <comment ref="N14" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>快递类型说明:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+'11'代表'韵达实物',
+'22'代表'韵达刷单',
+'33'代表'圆通',
+'44'代表'顺丰',
+'55'代表'EMS',
+'66'代表'邮政小包'</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K24" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -201,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="374">
   <si>
     <t>工号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1526,10 +1557,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>varchar2（100）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>province</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1819,6 +1846,66 @@
   </si>
   <si>
     <t>sign_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(15)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(30)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否已推送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_pushed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>courier_company</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>courier_number</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1986,7 +2073,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -2024,12 +2111,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2200,14 +2313,35 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2931,41 +3065,45 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:R20"/>
+  <dimension ref="B3:R28"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" style="24"/>
     <col min="2" max="2" width="5.25" style="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5" style="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="13.875" style="24" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.125" style="24" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="61.125" style="24" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.375" style="24" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="13.875" style="24" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.875" style="24" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.75" style="24" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.25" style="24" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.75" style="24" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="13.875" style="24" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.875" style="24" customWidth="1"/>
+    <col min="3" max="3" width="13.875" style="24" customWidth="1"/>
+    <col min="4" max="4" width="13.875" style="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.875" style="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.125" style="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.75" style="24" customWidth="1"/>
+    <col min="8" max="8" width="15" style="24" customWidth="1"/>
+    <col min="9" max="9" width="13.875" style="24" customWidth="1"/>
+    <col min="10" max="10" width="13.875" style="24" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.25" style="24" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.875" style="24" customWidth="1"/>
+    <col min="13" max="13" width="12.875" style="24" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.875" style="24" customWidth="1"/>
+    <col min="15" max="15" width="13.875" style="24" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.75" style="24" customWidth="1"/>
+    <col min="17" max="17" width="11" style="24" customWidth="1"/>
+    <col min="18" max="18" width="12.75" style="24" bestFit="1" customWidth="1"/>
     <col min="19" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:18" ht="20.100000000000001" customHeight="1">
       <c r="B3" s="22"/>
-      <c r="C3" s="56" t="s">
+      <c r="C3" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
       <c r="I3" s="23"/>
       <c r="J3" s="22"/>
       <c r="K3" s="22"/>
@@ -3248,14 +3386,14 @@
       </c>
     </row>
     <row r="13" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="C13" s="56" t="s">
+      <c r="C13" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
       <c r="I13" s="23"/>
       <c r="J13" s="22"/>
       <c r="K13" s="22"/>
@@ -3314,7 +3452,7 @@
         <v>149</v>
       </c>
       <c r="R14" s="11" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="15" spans="2:18" ht="20.100000000000001" customHeight="1">
@@ -3346,25 +3484,25 @@
         <v>261</v>
       </c>
       <c r="L15" s="22" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="M15" s="22" t="s">
+        <v>294</v>
+      </c>
+      <c r="N15" s="22" t="s">
         <v>295</v>
       </c>
-      <c r="N15" s="22" t="s">
-        <v>296</v>
-      </c>
       <c r="O15" s="22" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="P15" s="22" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="Q15" s="22" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="R15" s="22" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="16" spans="2:18" ht="20.100000000000001" customHeight="1">
@@ -3399,19 +3537,19 @@
         <v>190</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F17" s="24" t="s">
+        <v>287</v>
+      </c>
+      <c r="G17" s="24" t="s">
         <v>288</v>
       </c>
-      <c r="G17" s="24" t="s">
+      <c r="H17" s="24" t="s">
         <v>289</v>
       </c>
-      <c r="H17" s="24" t="s">
+      <c r="I17" s="24" t="s">
         <v>290</v>
-      </c>
-      <c r="I17" s="24" t="s">
-        <v>291</v>
       </c>
       <c r="J17" s="24" t="s">
         <v>194</v>
@@ -3420,36 +3558,209 @@
         <v>195</v>
       </c>
       <c r="L17" s="24" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="M17" s="24" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="N17" s="24" t="s">
         <v>267</v>
       </c>
       <c r="O17" s="24" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="P17" s="24" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="Q17" s="24" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="R17" s="24" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="20" spans="3:18" ht="20.100000000000001" customHeight="1">
       <c r="C20" s="33" t="s">
-        <v>352</v>
+        <v>351</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" ht="20.100000000000001" customHeight="1">
+      <c r="C23" s="56" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" ht="20.100000000000001" customHeight="1">
+      <c r="C24" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="F24" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="K24" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="L24" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="M24" s="31" t="s">
+        <v>347</v>
+      </c>
+      <c r="N24" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="O24" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="P24" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="11" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" ht="20.100000000000001" customHeight="1">
+      <c r="C25" s="22" t="s">
+        <v>362</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="F25" s="22" t="s">
+        <v>363</v>
+      </c>
+      <c r="G25" s="22" t="s">
+        <v>361</v>
+      </c>
+      <c r="H25" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="I25" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="J25" s="22" t="s">
+        <v>261</v>
+      </c>
+      <c r="K25" s="22" t="s">
+        <v>371</v>
+      </c>
+      <c r="L25" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="M25" s="53" t="s">
+        <v>333</v>
+      </c>
+      <c r="N25" s="22" t="s">
+        <v>364</v>
+      </c>
+      <c r="O25" s="22" t="s">
+        <v>301</v>
+      </c>
+      <c r="P25" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q25" s="22" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" ht="20.100000000000001" customHeight="1">
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="60" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" s="60"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="L26" s="22"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="22"/>
+      <c r="P26" s="22"/>
+      <c r="Q26" s="22"/>
+    </row>
+    <row r="27" spans="3:18" ht="20.100000000000001" customHeight="1">
+      <c r="C27" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="F27" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="G27" s="22" t="s">
+        <v>359</v>
+      </c>
+      <c r="H27" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="I27" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="J27" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="K27" s="22" t="s">
+        <v>372</v>
+      </c>
+      <c r="L27" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="M27" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="N27" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="O27" s="22" t="s">
+        <v>300</v>
+      </c>
+      <c r="P27" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q27" s="22" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" ht="20.100000000000001" customHeight="1">
+      <c r="Q28" s="24" t="s">
+        <v>370</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="C3:H3"/>
     <mergeCell ref="C13:H13"/>
+    <mergeCell ref="F26:G26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3460,10 +3771,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:U27"/>
+  <dimension ref="B3:U36"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView topLeftCell="E13" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -3536,7 +3847,7 @@
         <v>82</v>
       </c>
       <c r="Q3" s="31" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="R3" s="31" t="s">
         <v>83</v>
@@ -3765,7 +4076,7 @@
         <v>82</v>
       </c>
       <c r="Q17" s="31" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="R17" s="31" t="s">
         <v>83</v>
@@ -3774,10 +4085,10 @@
         <v>84</v>
       </c>
       <c r="T17" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="U17" s="11" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="18" spans="2:21" ht="20.100000000000001" customHeight="1">
@@ -3828,7 +4139,7 @@
     </row>
     <row r="19" spans="2:21" ht="20.100000000000001" customHeight="1">
       <c r="B19" s="22" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C19" s="22" t="s">
         <v>278</v>
@@ -3837,22 +4148,22 @@
         <v>278</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F19" s="22" t="s">
+        <v>309</v>
+      </c>
+      <c r="G19" s="22" t="s">
         <v>310</v>
-      </c>
-      <c r="G19" s="22" t="s">
-        <v>311</v>
       </c>
       <c r="H19" s="22" t="s">
         <v>260</v>
       </c>
       <c r="I19" s="22" t="s">
+        <v>313</v>
+      </c>
+      <c r="J19" s="22" t="s">
         <v>314</v>
-      </c>
-      <c r="J19" s="22" t="s">
-        <v>315</v>
       </c>
       <c r="K19" s="22" t="s">
         <v>262</v>
@@ -3861,10 +4172,10 @@
         <v>257</v>
       </c>
       <c r="M19" s="22" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="N19" s="22" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="O19" s="22" t="s">
         <v>252</v>
@@ -3873,19 +4184,19 @@
         <v>263</v>
       </c>
       <c r="Q19" s="53" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="R19" s="22" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="S19" s="22" t="s">
         <v>260</v>
       </c>
       <c r="T19" s="22" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="U19" s="22" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="20" spans="2:21" ht="20.100000000000001" customHeight="1">
@@ -3899,28 +4210,28 @@
     </row>
     <row r="21" spans="2:21" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="24" t="s">
+        <v>302</v>
+      </c>
+      <c r="C21" s="24" t="s">
         <v>303</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="D21" s="24" t="s">
         <v>304</v>
       </c>
-      <c r="D21" s="24" t="s">
+      <c r="E21" s="24" t="s">
         <v>305</v>
       </c>
-      <c r="E21" s="24" t="s">
-        <v>306</v>
-      </c>
       <c r="F21" s="24" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G21" s="24" t="s">
         <v>270</v>
       </c>
       <c r="H21" s="24" t="s">
+        <v>311</v>
+      </c>
+      <c r="I21" s="24" t="s">
         <v>312</v>
-      </c>
-      <c r="I21" s="24" t="s">
-        <v>313</v>
       </c>
       <c r="J21" s="24" t="s">
         <v>192</v>
@@ -3932,13 +4243,13 @@
         <v>194</v>
       </c>
       <c r="M21" s="24" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="N21" s="24" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="O21" s="24" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="P21" s="24" t="s">
         <v>267</v>
@@ -3947,62 +4258,313 @@
         <v>271</v>
       </c>
       <c r="R21" s="24" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="S21" s="24" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="T21" s="24" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="U21" s="24" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="24" spans="2:21" ht="20.100000000000001" customHeight="1">
-      <c r="C24" s="57" t="s">
-        <v>350</v>
-      </c>
-      <c r="D24" s="58"/>
-      <c r="E24" s="58"/>
-      <c r="F24" s="58"/>
-      <c r="G24" s="58"/>
-      <c r="H24" s="58"/>
-      <c r="I24" s="58"/>
+      <c r="C24" s="61" t="s">
+        <v>349</v>
+      </c>
+      <c r="D24" s="62"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="62"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="62"/>
     </row>
     <row r="25" spans="2:21" ht="20.100000000000001" customHeight="1">
-      <c r="C25" s="58"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="58"/>
-      <c r="H25" s="58"/>
-      <c r="I25" s="58"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="62"/>
+      <c r="I25" s="62"/>
     </row>
     <row r="26" spans="2:21" ht="20.100000000000001" customHeight="1">
-      <c r="C26" s="58"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="58"/>
-      <c r="I26" s="58"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="62"/>
+      <c r="I26" s="62"/>
     </row>
     <row r="27" spans="2:21" ht="20.100000000000001" customHeight="1">
       <c r="B27" s="33" t="s">
         <v>276</v>
       </c>
-      <c r="C27" s="58"/>
-      <c r="D27" s="58"/>
-      <c r="E27" s="58"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="58"/>
-      <c r="H27" s="58"/>
-      <c r="I27" s="58"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="62"/>
+      <c r="I27" s="62"/>
+    </row>
+    <row r="31" spans="2:21" ht="20.100000000000001" customHeight="1">
+      <c r="B31" s="24" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="32" spans="2:21" ht="20.100000000000001" customHeight="1">
+      <c r="B32" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="D32" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="E32" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="F32" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="G32" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="H32" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="I32" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="J32" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="K32" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="L32" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="M32" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="N32" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="O32" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="P32" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q32" s="31" t="s">
+        <v>347</v>
+      </c>
+      <c r="R32" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="S32" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="T32" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" ht="20.100000000000001" customHeight="1">
+      <c r="B33" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="E33" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="F33" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="G33" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="H33" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="K33" s="22"/>
+      <c r="L33" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="M33" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="N33" s="22"/>
+      <c r="O33" s="22"/>
+      <c r="P33" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q33" s="22"/>
+      <c r="R33" s="22"/>
+      <c r="S33" s="22"/>
+      <c r="T33" s="22"/>
+    </row>
+    <row r="34" spans="2:20" ht="20.100000000000001" customHeight="1">
+      <c r="B34" s="22" t="s">
+        <v>277</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>278</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>278</v>
+      </c>
+      <c r="E34" s="22" t="s">
+        <v>362</v>
+      </c>
+      <c r="F34" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="G34" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="H34" s="22" t="s">
+        <v>363</v>
+      </c>
+      <c r="I34" s="22" t="s">
+        <v>361</v>
+      </c>
+      <c r="J34" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="K34" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="L34" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="M34" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="N34" s="22" t="s">
+        <v>261</v>
+      </c>
+      <c r="O34" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="P34" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q34" s="53" t="s">
+        <v>333</v>
+      </c>
+      <c r="R34" s="57" t="s">
+        <v>371</v>
+      </c>
+      <c r="S34" s="22" t="s">
+        <v>364</v>
+      </c>
+      <c r="T34" s="22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" ht="20.100000000000001" customHeight="1">
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="60" t="s">
+        <v>9</v>
+      </c>
+      <c r="I35" s="60"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="22"/>
+      <c r="N35" s="22"/>
+      <c r="O35" s="22"/>
+      <c r="P35" s="22"/>
+      <c r="Q35" s="53"/>
+      <c r="R35" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="S35" s="22"/>
+      <c r="T35" s="22"/>
+    </row>
+    <row r="36" spans="2:20" ht="20.100000000000001" customHeight="1">
+      <c r="B36" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>303</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>304</v>
+      </c>
+      <c r="E36" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="F36" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="G36" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="H36" s="22" t="s">
+        <v>373</v>
+      </c>
+      <c r="I36" s="22" t="s">
+        <v>366</v>
+      </c>
+      <c r="J36" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="K36" s="22" t="s">
+        <v>273</v>
+      </c>
+      <c r="L36" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="M36" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="N36" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="O36" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="P36" s="22" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q36" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="R36" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="S36" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="T36" s="22" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="C24:I27"/>
+    <mergeCell ref="H35:I35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4013,10 +4575,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:W21"/>
+  <dimension ref="B3:AA30"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView topLeftCell="L7" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -4024,25 +4586,26 @@
     <col min="1" max="1" width="9" style="39"/>
     <col min="2" max="2" width="8" style="39" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" style="39" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.875" style="39" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.875" style="39" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="15.875" style="39" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.875" style="39" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.125" style="39" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="64.75" style="39" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.125" style="39" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="13.875" style="39" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="16.125" style="39" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.125" style="39" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.5" style="39" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.875" style="39" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.875" style="39" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15" style="39" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.875" style="39" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="19.375" style="39" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.375" style="39" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.875" style="39" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.75" style="39" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="18.375" style="39" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.875" style="39" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="17.25" style="39" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.875" style="39" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.875" style="39" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="12.75" style="39" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9" style="39"/>
+    <col min="20" max="21" width="13.875" style="39" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.75" style="39" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.25" style="39" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.875" style="39" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.875" style="39" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="12.75" style="39" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9" style="39"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:23" ht="19.5" customHeight="1"/>
@@ -4364,7 +4927,7 @@
         <v>108</v>
       </c>
       <c r="W12" s="11" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="13" spans="2:23" ht="20.100000000000001" customHeight="1">
@@ -4387,7 +4950,7 @@
         <v>255</v>
       </c>
       <c r="I13" s="53" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J13" s="53" t="s">
         <v>277</v>
@@ -4399,7 +4962,7 @@
         <v>16</v>
       </c>
       <c r="M13" s="53" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="N13" s="53" t="s">
         <v>280</v>
@@ -4408,7 +4971,7 @@
         <v>260</v>
       </c>
       <c r="P13" s="22" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="Q13" s="22" t="s">
         <v>261</v>
@@ -4417,19 +4980,19 @@
         <v>252</v>
       </c>
       <c r="S13" s="22" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="T13" s="22" t="s">
         <v>262</v>
       </c>
       <c r="U13" s="53" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="V13" s="22" t="s">
         <v>252</v>
       </c>
       <c r="W13" s="22" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="14" spans="2:23" ht="20.100000000000001" customHeight="1">
@@ -4440,7 +5003,7 @@
         <v>148</v>
       </c>
       <c r="N14" s="41" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="S14" s="39" t="s">
         <v>148</v>
@@ -4466,22 +5029,22 @@
         <v>192</v>
       </c>
       <c r="I15" s="39" t="s">
+        <v>357</v>
+      </c>
+      <c r="J15" s="39" t="s">
+        <v>326</v>
+      </c>
+      <c r="K15" s="24" t="s">
+        <v>327</v>
+      </c>
+      <c r="L15" s="39" t="s">
         <v>358</v>
       </c>
-      <c r="J15" s="39" t="s">
-        <v>327</v>
-      </c>
-      <c r="K15" s="24" t="s">
+      <c r="M15" s="39" t="s">
         <v>328</v>
       </c>
-      <c r="L15" s="39" t="s">
-        <v>359</v>
-      </c>
-      <c r="M15" s="39" t="s">
-        <v>329</v>
-      </c>
       <c r="N15" s="39" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="O15" s="24" t="s">
         <v>193</v>
@@ -4496,37 +5059,316 @@
         <v>265</v>
       </c>
       <c r="S15" s="24" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="T15" s="24" t="s">
+        <v>331</v>
+      </c>
+      <c r="U15" s="24" t="s">
         <v>332</v>
       </c>
-      <c r="U15" s="24" t="s">
-        <v>333</v>
-      </c>
       <c r="V15" s="39" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="W15" s="24" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="16" spans="2:23" ht="20.100000000000001" customHeight="1">
       <c r="N16" s="39" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="20" spans="3:3" ht="20.100000000000001" customHeight="1">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="20" spans="3:27" ht="20.100000000000001" customHeight="1">
       <c r="C20" s="52" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="21" spans="3:3" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="3:27" ht="20.100000000000001" customHeight="1">
       <c r="C21" s="33" t="s">
         <v>276</v>
       </c>
     </row>
+    <row r="25" spans="3:27" ht="20.100000000000001" customHeight="1">
+      <c r="C25" s="39" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" ht="20.100000000000001" customHeight="1">
+      <c r="C26" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="E26" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="F26" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="G26" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="H26" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="I26" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="J26" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="K26" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="L26" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="M26" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="N26" s="51" t="s">
+        <v>116</v>
+      </c>
+      <c r="O26" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="P26" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q26" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="R26" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="S26" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="T26" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="U26" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="V26" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="W26" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="X26" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y26" s="31" t="s">
+        <v>347</v>
+      </c>
+      <c r="Z26" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA26" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" ht="20.100000000000001" customHeight="1">
+      <c r="C27" s="22" t="s">
+        <v>277</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>278</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>278</v>
+      </c>
+      <c r="F27" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="H27" s="22" t="s">
+        <v>362</v>
+      </c>
+      <c r="I27" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="J27" s="22" t="s">
+        <v>363</v>
+      </c>
+      <c r="K27" s="57" t="s">
+        <v>361</v>
+      </c>
+      <c r="L27" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="M27" s="53" t="s">
+        <v>277</v>
+      </c>
+      <c r="N27" s="53" t="s">
+        <v>277</v>
+      </c>
+      <c r="O27" s="53" t="s">
+        <v>277</v>
+      </c>
+      <c r="P27" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q27" s="53" t="s">
+        <v>286</v>
+      </c>
+      <c r="R27" s="53" t="s">
+        <v>280</v>
+      </c>
+      <c r="S27" s="22" t="s">
+        <v>364</v>
+      </c>
+      <c r="T27" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="U27" s="22" t="s">
+        <v>261</v>
+      </c>
+      <c r="V27" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="W27" s="57" t="s">
+        <v>371</v>
+      </c>
+      <c r="X27" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="Y27" s="53" t="s">
+        <v>333</v>
+      </c>
+      <c r="Z27" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="AA27" s="22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" ht="20.100000000000001" customHeight="1">
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="K28" s="65"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="53" t="s">
+        <v>148</v>
+      </c>
+      <c r="N28" s="53"/>
+      <c r="O28" s="53"/>
+      <c r="P28" s="53"/>
+      <c r="Q28" s="53"/>
+      <c r="R28" s="58" t="s">
+        <v>148</v>
+      </c>
+      <c r="S28" s="22"/>
+      <c r="T28" s="22"/>
+      <c r="U28" s="53"/>
+      <c r="V28" s="22"/>
+      <c r="W28" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="X28" s="22"/>
+      <c r="Y28" s="53"/>
+      <c r="Z28" s="53"/>
+      <c r="AA28" s="63"/>
+    </row>
+    <row r="29" spans="3:27" ht="20.100000000000001" customHeight="1">
+      <c r="C29" s="22" t="s">
+        <v>302</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>303</v>
+      </c>
+      <c r="E29" s="22" t="s">
+        <v>304</v>
+      </c>
+      <c r="F29" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="G29" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="H29" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="I29" s="22" t="s">
+        <v>273</v>
+      </c>
+      <c r="J29" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="K29" s="57" t="s">
+        <v>359</v>
+      </c>
+      <c r="L29" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="M29" s="53" t="s">
+        <v>346</v>
+      </c>
+      <c r="N29" s="53" t="s">
+        <v>326</v>
+      </c>
+      <c r="O29" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="P29" s="53" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q29" s="53" t="s">
+        <v>328</v>
+      </c>
+      <c r="R29" s="53" t="s">
+        <v>335</v>
+      </c>
+      <c r="S29" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="T29" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="U29" s="53" t="s">
+        <v>195</v>
+      </c>
+      <c r="V29" s="22" t="s">
+        <v>265</v>
+      </c>
+      <c r="W29" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="X29" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="Y29" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="Z29" s="53" t="s">
+        <v>296</v>
+      </c>
+      <c r="AA29" s="22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" ht="20.100000000000001" customHeight="1">
+      <c r="R30" s="39" t="s">
+        <v>323</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="J28:K28"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4538,7 +5380,7 @@
   <dimension ref="C5:L15"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -4558,7 +5400,7 @@
   <sheetData>
     <row r="5" spans="3:12" ht="20.100000000000001" customHeight="1">
       <c r="I5" s="34" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="6" spans="3:12" ht="20.100000000000001" customHeight="1">
@@ -4604,13 +5446,13 @@
         <v>281</v>
       </c>
       <c r="J7" s="54" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K7" s="54" t="s">
         <v>282</v>
       </c>
       <c r="L7" s="54" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="8" spans="3:12" ht="20.100000000000001" customHeight="1">
@@ -4644,13 +5486,13 @@
         <v>48</v>
       </c>
       <c r="I9" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="J9" s="10" t="s">
         <v>338</v>
       </c>
-      <c r="J9" s="10" t="s">
-        <v>339</v>
-      </c>
       <c r="K9" s="10" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="L9" s="10" t="s">
         <v>274</v>
@@ -4751,7 +5593,7 @@
   <dimension ref="C3:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -4875,7 +5717,7 @@
     </row>
     <row r="12" spans="3:10" ht="20.100000000000001" customHeight="1">
       <c r="C12" s="34" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="13" spans="3:10" ht="20.100000000000001" customHeight="1">
@@ -4900,13 +5742,10 @@
       <c r="I13" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="J13" s="20" t="s">
-        <v>144</v>
-      </c>
     </row>
     <row r="14" spans="3:10" ht="20.100000000000001" customHeight="1">
-      <c r="C14" s="22" t="s">
-        <v>260</v>
+      <c r="C14" s="57" t="s">
+        <v>262</v>
       </c>
       <c r="D14" s="53" t="s">
         <v>285</v>
@@ -4926,42 +5765,41 @@
       <c r="I14" s="22" t="s">
         <v>264</v>
       </c>
-      <c r="J14" s="55" t="s">
-        <v>287</v>
-      </c>
     </row>
     <row r="15" spans="3:10" ht="20.100000000000001" customHeight="1">
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="55" t="s">
         <v>147</v>
       </c>
-      <c r="D15" s="36" t="s">
+      <c r="D15" s="55" t="s">
+        <v>345</v>
+      </c>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="55"/>
+    </row>
+    <row r="16" spans="3:10" ht="20.100000000000001" customHeight="1">
+      <c r="C16" s="55" t="s">
+        <v>344</v>
+      </c>
+      <c r="D16" s="53" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="16" spans="3:10" ht="20.100000000000001" customHeight="1">
-      <c r="C16" s="36" t="s">
-        <v>345</v>
-      </c>
-      <c r="D16" s="39" t="s">
-        <v>347</v>
-      </c>
-      <c r="E16" s="39" t="s">
-        <v>327</v>
-      </c>
-      <c r="F16" s="39" t="s">
+      <c r="E16" s="53" t="s">
+        <v>326</v>
+      </c>
+      <c r="F16" s="53" t="s">
         <v>269</v>
       </c>
-      <c r="G16" s="39" t="s">
-        <v>329</v>
-      </c>
-      <c r="H16" s="24" t="s">
+      <c r="G16" s="53" t="s">
+        <v>328</v>
+      </c>
+      <c r="H16" s="22" t="s">
         <v>271</v>
       </c>
-      <c r="I16" s="24" t="s">
+      <c r="I16" s="22" t="s">
         <v>268</v>
-      </c>
-      <c r="J16" s="36" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/文档/数据库表结构.xlsx
+++ b/文档/数据库表结构.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="用户表" sheetId="1" r:id="rId1"/>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="375">
   <si>
     <t>工号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1902,6 +1902,14 @@
   </si>
   <si>
     <t>courier_number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自增</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2765,7 +2773,7 @@
   <dimension ref="C3:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -3063,8 +3071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:R28"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -4573,8 +4581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:AA30"/>
   <sheetViews>
-    <sheetView topLeftCell="L7" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -5375,8 +5383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5:L15"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -5482,7 +5490,7 @@
         <v>48</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>193</v>
+        <v>373</v>
       </c>
       <c r="J9" s="10" t="s">
         <v>337</v>
@@ -5506,6 +5514,9 @@
       </c>
       <c r="F10" s="17">
         <v>96</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="11" spans="3:12" ht="20.100000000000001" customHeight="1">
@@ -5588,7 +5599,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>

--- a/文档/数据库表结构.xlsx
+++ b/文档/数据库表结构.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="8"/>
+    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="用户表" sheetId="1" r:id="rId1"/>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="373">
   <si>
     <t>工号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1754,10 +1754,6 @@
   </si>
   <si>
     <t>courier_company</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>order_number</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2322,6 +2318,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2333,9 +2332,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2865,7 +2861,7 @@
   <dimension ref="C4:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -3067,8 +3063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:R28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+    <sheetView topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -3096,14 +3092,14 @@
   <sheetData>
     <row r="3" spans="2:18" ht="20.100000000000001" customHeight="1">
       <c r="B3" s="22"/>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
       <c r="I3" s="23"/>
       <c r="J3" s="22"/>
       <c r="K3" s="22"/>
@@ -3386,14 +3382,14 @@
       </c>
     </row>
     <row r="13" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="C13" s="59" t="s">
+      <c r="C13" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="60"/>
       <c r="I13" s="23"/>
       <c r="J13" s="22"/>
       <c r="K13" s="22"/>
@@ -3452,7 +3448,7 @@
         <v>149</v>
       </c>
       <c r="R14" s="11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="15" spans="2:18" ht="20.100000000000001" customHeight="1">
@@ -3502,7 +3498,7 @@
         <v>301</v>
       </c>
       <c r="R15" s="22" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="16" spans="2:18" ht="20.100000000000001" customHeight="1">
@@ -3537,7 +3533,7 @@
         <v>190</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F17" s="24" t="s">
         <v>287</v>
@@ -3576,12 +3572,12 @@
         <v>300</v>
       </c>
       <c r="R17" s="24" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="20" spans="3:18" ht="20.100000000000001" customHeight="1">
       <c r="C20" s="33" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="23" spans="3:18" ht="20.100000000000001" customHeight="1">
@@ -3603,7 +3599,7 @@
         <v>72</v>
       </c>
       <c r="G24" s="11" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H24" s="11" t="s">
         <v>73</v>
@@ -3621,7 +3617,7 @@
         <v>81</v>
       </c>
       <c r="M24" s="31" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="N24" s="11" t="s">
         <v>74</v>
@@ -3633,12 +3629,12 @@
         <v>1</v>
       </c>
       <c r="Q24" s="11" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="25" spans="3:18" ht="20.100000000000001" customHeight="1">
       <c r="C25" s="22" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D25" s="22" t="s">
         <v>257</v>
@@ -3647,10 +3643,10 @@
         <v>262</v>
       </c>
       <c r="F25" s="22" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G25" s="22" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H25" s="22" t="s">
         <v>255</v>
@@ -3662,7 +3658,7 @@
         <v>261</v>
       </c>
       <c r="K25" s="22" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L25" s="22" t="s">
         <v>262</v>
@@ -3671,7 +3667,7 @@
         <v>333</v>
       </c>
       <c r="N25" s="22" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O25" s="22" t="s">
         <v>301</v>
@@ -3680,17 +3676,17 @@
         <v>16</v>
       </c>
       <c r="Q25" s="22" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="26" spans="3:18" ht="20.100000000000001" customHeight="1">
       <c r="C26" s="22"/>
       <c r="D26" s="22"/>
       <c r="E26" s="22"/>
-      <c r="F26" s="60" t="s">
+      <c r="F26" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="G26" s="60"/>
+      <c r="G26" s="61"/>
       <c r="H26" s="22"/>
       <c r="I26" s="22"/>
       <c r="J26" s="22"/>
@@ -3718,7 +3714,7 @@
         <v>266</v>
       </c>
       <c r="G27" s="22" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H27" s="22" t="s">
         <v>192</v>
@@ -3730,7 +3726,7 @@
         <v>195</v>
       </c>
       <c r="K27" s="22" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="L27" s="22" t="s">
         <v>268</v>
@@ -3748,12 +3744,12 @@
         <v>20</v>
       </c>
       <c r="Q27" s="22" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="28" spans="3:18" ht="20.100000000000001" customHeight="1">
       <c r="Q28" s="24" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
   </sheetData>
@@ -3847,7 +3843,7 @@
         <v>82</v>
       </c>
       <c r="Q3" s="31" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="R3" s="31" t="s">
         <v>83</v>
@@ -4076,7 +4072,7 @@
         <v>82</v>
       </c>
       <c r="Q17" s="31" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="R17" s="31" t="s">
         <v>83</v>
@@ -4085,10 +4081,10 @@
         <v>84</v>
       </c>
       <c r="T17" s="11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="U17" s="11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="18" spans="2:21" ht="20.100000000000001" customHeight="1">
@@ -4193,10 +4189,10 @@
         <v>260</v>
       </c>
       <c r="T19" s="22" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="U19" s="22" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="20" spans="2:21" ht="20.100000000000001" customHeight="1">
@@ -4264,52 +4260,52 @@
         <v>322</v>
       </c>
       <c r="T21" s="24" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="U21" s="24" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="24" spans="2:21" ht="20.100000000000001" customHeight="1">
-      <c r="C24" s="61" t="s">
-        <v>349</v>
-      </c>
-      <c r="D24" s="62"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="62"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="62"/>
+      <c r="C24" s="62" t="s">
+        <v>348</v>
+      </c>
+      <c r="D24" s="63"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="63"/>
     </row>
     <row r="25" spans="2:21" ht="20.100000000000001" customHeight="1">
-      <c r="C25" s="62"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="62"/>
-      <c r="H25" s="62"/>
-      <c r="I25" s="62"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="63"/>
     </row>
     <row r="26" spans="2:21" ht="20.100000000000001" customHeight="1">
-      <c r="C26" s="62"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="62"/>
-      <c r="H26" s="62"/>
-      <c r="I26" s="62"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="63"/>
     </row>
     <row r="27" spans="2:21" ht="20.100000000000001" customHeight="1">
       <c r="B27" s="33" t="s">
         <v>276</v>
       </c>
-      <c r="C27" s="62"/>
-      <c r="D27" s="62"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="62"/>
-      <c r="H27" s="62"/>
-      <c r="I27" s="62"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="63"/>
     </row>
     <row r="31" spans="2:21" ht="20.100000000000001" customHeight="1">
       <c r="B31" s="24" t="s">
@@ -4339,7 +4335,7 @@
         <v>98</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J32" s="32" t="s">
         <v>68</v>
@@ -4363,7 +4359,7 @@
         <v>78</v>
       </c>
       <c r="Q32" s="31" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="R32" s="31" t="s">
         <v>82</v>
@@ -4429,7 +4425,7 @@
         <v>278</v>
       </c>
       <c r="E34" s="22" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F34" s="22" t="s">
         <v>257</v>
@@ -4438,10 +4434,10 @@
         <v>262</v>
       </c>
       <c r="H34" s="22" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I34" s="22" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="J34" s="22" t="s">
         <v>16</v>
@@ -4468,10 +4464,10 @@
         <v>333</v>
       </c>
       <c r="R34" s="57" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="S34" s="22" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="T34" s="22" t="s">
         <v>16</v>
@@ -4484,10 +4480,10 @@
       <c r="E35" s="22"/>
       <c r="F35" s="22"/>
       <c r="G35" s="22"/>
-      <c r="H35" s="60" t="s">
+      <c r="H35" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="I35" s="60"/>
+      <c r="I35" s="61"/>
       <c r="J35" s="22"/>
       <c r="K35" s="22"/>
       <c r="L35" s="22"/>
@@ -4522,10 +4518,10 @@
         <v>196</v>
       </c>
       <c r="H36" s="22" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I36" s="22" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="J36" s="22" t="s">
         <v>270</v>
@@ -4927,7 +4923,7 @@
         <v>108</v>
       </c>
       <c r="W12" s="11" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="13" spans="2:23" ht="20.100000000000001" customHeight="1">
@@ -4992,7 +4988,7 @@
         <v>252</v>
       </c>
       <c r="W13" s="22" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="14" spans="2:23" ht="20.100000000000001" customHeight="1">
@@ -5029,7 +5025,7 @@
         <v>192</v>
       </c>
       <c r="I15" s="39" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="J15" s="39" t="s">
         <v>326</v>
@@ -5038,7 +5034,7 @@
         <v>327</v>
       </c>
       <c r="L15" s="39" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M15" s="39" t="s">
         <v>328</v>
@@ -5071,7 +5067,7 @@
         <v>334</v>
       </c>
       <c r="W15" s="24" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="16" spans="2:23" ht="20.100000000000001" customHeight="1">
@@ -5120,7 +5116,7 @@
         <v>98</v>
       </c>
       <c r="K26" s="11" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="L26" s="32" t="s">
         <v>73</v>
@@ -5162,7 +5158,7 @@
         <v>83</v>
       </c>
       <c r="Y26" s="31" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="Z26" s="9" t="s">
         <v>108</v>
@@ -5188,16 +5184,16 @@
         <v>257</v>
       </c>
       <c r="H27" s="22" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="I27" s="22" t="s">
         <v>257</v>
       </c>
       <c r="J27" s="22" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="K27" s="57" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="L27" s="22" t="s">
         <v>255</v>
@@ -5221,7 +5217,7 @@
         <v>280</v>
       </c>
       <c r="S27" s="22" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="T27" s="22" t="s">
         <v>262</v>
@@ -5233,7 +5229,7 @@
         <v>252</v>
       </c>
       <c r="W27" s="57" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="X27" s="22" t="s">
         <v>262</v>
@@ -5281,7 +5277,7 @@
       <c r="X28" s="22"/>
       <c r="Y28" s="53"/>
       <c r="Z28" s="53"/>
-      <c r="AA28" s="63"/>
+      <c r="AA28" s="59"/>
     </row>
     <row r="29" spans="3:27" ht="20.100000000000001" customHeight="1">
       <c r="C29" s="22" t="s">
@@ -5309,13 +5305,13 @@
         <v>266</v>
       </c>
       <c r="K29" s="57" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="L29" s="22" t="s">
         <v>192</v>
       </c>
       <c r="M29" s="53" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="N29" s="53" t="s">
         <v>326</v>
@@ -5380,7 +5376,7 @@
   <dimension ref="C5:L15"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -5400,7 +5396,7 @@
   <sheetData>
     <row r="5" spans="3:12" ht="20.100000000000001" customHeight="1">
       <c r="I5" s="34" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="6" spans="3:12" ht="20.100000000000001" customHeight="1">
@@ -5446,13 +5442,13 @@
         <v>281</v>
       </c>
       <c r="J7" s="54" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="K7" s="54" t="s">
         <v>282</v>
       </c>
       <c r="L7" s="54" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="8" spans="3:12" ht="20.100000000000001" customHeight="1">
@@ -5486,13 +5482,13 @@
         <v>48</v>
       </c>
       <c r="I9" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="J9" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="J9" s="10" t="s">
-        <v>338</v>
-      </c>
       <c r="K9" s="10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="L9" s="10" t="s">
         <v>274</v>
@@ -5593,7 +5589,7 @@
   <dimension ref="C3:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -5717,7 +5713,7 @@
     </row>
     <row r="12" spans="3:10" ht="20.100000000000001" customHeight="1">
       <c r="C12" s="34" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="13" spans="3:10" ht="20.100000000000001" customHeight="1">
@@ -5771,7 +5767,7 @@
         <v>147</v>
       </c>
       <c r="D15" s="55" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E15" s="55"/>
       <c r="F15" s="55"/>
@@ -5781,10 +5777,10 @@
     </row>
     <row r="16" spans="3:10" ht="20.100000000000001" customHeight="1">
       <c r="C16" s="55" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D16" s="53" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E16" s="53" t="s">
         <v>326</v>

--- a/文档/数据库表结构.xlsx
+++ b/文档/数据库表结构.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="7"/>
+    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="用户表" sheetId="1" r:id="rId1"/>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="381">
   <si>
     <t>工号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1910,6 +1910,30 @@
   </si>
   <si>
     <t>自增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>province</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number(6,2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>courier_number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>courier_state</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3071,8 +3095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:R28"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView topLeftCell="E10" workbookViewId="0">
+      <selection activeCell="R24" sqref="R24:R27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -3651,7 +3675,7 @@
         <v>262</v>
       </c>
       <c r="F25" s="22" t="s">
-        <v>362</v>
+        <v>262</v>
       </c>
       <c r="G25" s="22" t="s">
         <v>360</v>
@@ -3719,7 +3743,7 @@
         <v>196</v>
       </c>
       <c r="F27" s="22" t="s">
-        <v>266</v>
+        <v>379</v>
       </c>
       <c r="G27" s="22" t="s">
         <v>358</v>
@@ -3777,8 +3801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:U36"/>
   <sheetViews>
-    <sheetView topLeftCell="E13" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" topLeftCell="N25" workbookViewId="0">
+      <selection activeCell="U36" sqref="U36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -4378,8 +4402,11 @@
       <c r="T32" s="11" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" ht="20.100000000000001" customHeight="1">
+      <c r="U32" s="11" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" ht="20.100000000000001" customHeight="1">
       <c r="B33" s="22" t="s">
         <v>85</v>
       </c>
@@ -4422,7 +4449,7 @@
       <c r="S33" s="22"/>
       <c r="T33" s="22"/>
     </row>
-    <row r="34" spans="2:20" ht="20.100000000000001" customHeight="1">
+    <row r="34" spans="2:21" ht="20.100000000000001" customHeight="1">
       <c r="B34" s="22" t="s">
         <v>277</v>
       </c>
@@ -4442,7 +4469,7 @@
         <v>262</v>
       </c>
       <c r="H34" s="22" t="s">
-        <v>362</v>
+        <v>262</v>
       </c>
       <c r="I34" s="22" t="s">
         <v>360</v>
@@ -4466,7 +4493,7 @@
         <v>262</v>
       </c>
       <c r="P34" s="22" t="s">
-        <v>252</v>
+        <v>376</v>
       </c>
       <c r="Q34" s="53" t="s">
         <v>333</v>
@@ -4480,8 +4507,11 @@
       <c r="T34" s="22" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" ht="20.100000000000001" customHeight="1">
+      <c r="U34" s="24" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" ht="20.100000000000001" customHeight="1">
       <c r="B35" s="22"/>
       <c r="C35" s="22"/>
       <c r="D35" s="22"/>
@@ -4506,7 +4536,7 @@
       <c r="S35" s="22"/>
       <c r="T35" s="22"/>
     </row>
-    <row r="36" spans="2:20" ht="20.100000000000001" customHeight="1">
+    <row r="36" spans="2:21" ht="20.100000000000001" customHeight="1">
       <c r="B36" s="22" t="s">
         <v>31</v>
       </c>
@@ -4535,7 +4565,7 @@
         <v>270</v>
       </c>
       <c r="K36" s="22" t="s">
-        <v>273</v>
+        <v>375</v>
       </c>
       <c r="L36" s="22" t="s">
         <v>192</v>
@@ -4563,6 +4593,9 @@
       </c>
       <c r="T36" s="22" t="s">
         <v>20</v>
+      </c>
+      <c r="U36" s="24" t="s">
+        <v>380</v>
       </c>
     </row>
   </sheetData>
@@ -5383,8 +5416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>

--- a/文档/数据库表结构.xlsx
+++ b/文档/数据库表结构.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="用户表" sheetId="1" r:id="rId1"/>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="372">
   <si>
     <t>工号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1897,10 +1897,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>courier_company</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>courier_number</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1908,14 +1904,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
     <numFmt numFmtId="177" formatCode="0.0_);[Red]\(0.0\)"/>
     <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="179" formatCode="yyyy/m/d\ h:mm;@"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2358,7 +2354,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2650,7 +2646,7 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="12.75" style="2" bestFit="1" customWidth="1"/>
@@ -2662,12 +2658,12 @@
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
@@ -2690,7 +2686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -2707,7 +2703,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="5" t="s">
         <v>18</v>
       </c>
@@ -2730,7 +2726,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="2" t="s">
         <v>14</v>
       </c>
@@ -2768,7 +2764,7 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="4" width="9" style="2"/>
     <col min="5" max="5" width="9.5" style="2" bestFit="1" customWidth="1"/>
@@ -2777,12 +2773,12 @@
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:7" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C3" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="3:7" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C4" s="3" t="s">
         <v>34</v>
       </c>
@@ -2799,7 +2795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="3:7" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C5" s="4" t="s">
         <v>41</v>
       </c>
@@ -2810,7 +2806,7 @@
       </c>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="3:7" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="2" t="s">
         <v>43</v>
       </c>
@@ -2827,7 +2823,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="3:7" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C7" s="2" t="s">
         <v>47</v>
       </c>
@@ -2844,7 +2840,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="3:7" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="2" t="s">
         <v>48</v>
       </c>
@@ -2864,7 +2860,7 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="9" style="2"/>
     <col min="3" max="3" width="12.75" style="2" bestFit="1" customWidth="1"/>
@@ -2873,12 +2869,12 @@
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:7" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C4" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="3:7" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C5" s="3" t="s">
         <v>38</v>
       </c>
@@ -2895,7 +2891,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="3:7" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="4" t="s">
         <v>9</v>
       </c>
@@ -2904,7 +2900,7 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="3:7" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C7" s="2" t="s">
         <v>52</v>
       </c>
@@ -2921,7 +2917,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="3:7" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="2" t="s">
         <v>47</v>
       </c>
@@ -2938,7 +2934,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="3:7" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D14" s="6"/>
     </row>
   </sheetData>
@@ -2956,7 +2952,7 @@
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="3" width="9.5" style="2" bestFit="1" customWidth="1"/>
@@ -2968,12 +2964,12 @@
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
@@ -2996,7 +2992,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
         <v>17</v>
       </c>
@@ -3007,7 +3003,7 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="2:8" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="5" t="s">
         <v>26</v>
       </c>
@@ -3030,7 +3026,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="2" t="s">
         <v>14</v>
       </c>
@@ -3063,11 +3059,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:R28"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="24"/>
     <col min="2" max="2" width="5.25" style="24" bestFit="1" customWidth="1"/>
@@ -3090,7 +3086,7 @@
     <col min="19" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:18" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="22"/>
       <c r="C3" s="60" t="s">
         <v>66</v>
@@ -3109,7 +3105,7 @@
       <c r="O3" s="22"/>
       <c r="P3" s="22"/>
     </row>
-    <row r="4" spans="2:18" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="4" spans="2:18" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="11" t="s">
         <v>67</v>
       </c>
@@ -3156,7 +3152,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="2:18" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="5" spans="2:18" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="28">
         <v>42613.958321759259</v>
       </c>
@@ -3200,7 +3196,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="2:18" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="6" spans="2:18" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="28">
         <v>42614.958321701386</v>
       </c>
@@ -3244,7 +3240,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="7" spans="2:18" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="7" spans="2:18" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C7" s="28">
         <v>42615.958321701386</v>
       </c>
@@ -3288,7 +3284,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="8" spans="2:18" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="8" spans="2:18" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C8" s="28">
         <v>42616.958321701386</v>
       </c>
@@ -3332,7 +3328,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="9" spans="2:18" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="9" spans="2:18" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C9" s="28">
         <v>42617.958321701386</v>
       </c>
@@ -3376,12 +3372,12 @@
         <v>174</v>
       </c>
     </row>
-    <row r="12" spans="2:18" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" s="33" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="13" spans="2:18" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C13" s="60" t="s">
         <v>66</v>
       </c>
@@ -3401,7 +3397,7 @@
       <c r="Q13" s="22"/>
       <c r="R13" s="22"/>
     </row>
-    <row r="14" spans="2:18" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C14" s="25" t="s">
         <v>68</v>
       </c>
@@ -3451,7 +3447,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="15" spans="2:18" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C15" s="22" t="s">
         <v>256</v>
       </c>
@@ -3501,7 +3497,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="16" spans="2:18" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C16" s="22"/>
       <c r="D16" s="22"/>
       <c r="E16" s="22"/>
@@ -3525,7 +3521,7 @@
       </c>
       <c r="R16" s="22"/>
     </row>
-    <row r="17" spans="3:18" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C17" s="24" t="s">
         <v>270</v>
       </c>
@@ -3575,17 +3571,17 @@
         <v>354</v>
       </c>
     </row>
-    <row r="20" spans="3:18" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C20" s="33" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="23" spans="3:18" ht="20.100000000000001" customHeight="1">
+    <row r="23" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="56" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="24" spans="3:18" ht="20.100000000000001" customHeight="1">
+    <row r="24" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C24" s="26" t="s">
         <v>70</v>
       </c>
@@ -3632,7 +3628,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="25" spans="3:18" ht="20.100000000000001" customHeight="1">
+    <row r="25" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C25" s="22" t="s">
         <v>361</v>
       </c>
@@ -3679,7 +3675,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="26" spans="3:18" ht="20.100000000000001" customHeight="1">
+    <row r="26" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C26" s="22"/>
       <c r="D26" s="22"/>
       <c r="E26" s="22"/>
@@ -3700,7 +3696,7 @@
       <c r="P26" s="22"/>
       <c r="Q26" s="22"/>
     </row>
-    <row r="27" spans="3:18" ht="20.100000000000001" customHeight="1">
+    <row r="27" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C27" s="22" t="s">
         <v>191</v>
       </c>
@@ -3726,7 +3722,7 @@
         <v>195</v>
       </c>
       <c r="K27" s="22" t="s">
-        <v>371</v>
+        <v>336</v>
       </c>
       <c r="L27" s="22" t="s">
         <v>268</v>
@@ -3747,7 +3743,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="28" spans="3:18" ht="20.100000000000001" customHeight="1">
+    <row r="28" spans="3:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Q28" s="24" t="s">
         <v>369</v>
       </c>
@@ -3773,7 +3769,7 @@
       <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="24"/>
     <col min="2" max="2" width="19.25" style="24" bestFit="1" customWidth="1"/>
@@ -3796,7 +3792,7 @@
     <col min="22" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:19" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="31" t="s">
         <v>86</v>
       </c>
@@ -3852,7 +3848,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="2:19" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="36" t="s">
         <v>235</v>
       </c>
@@ -3908,7 +3904,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="5" spans="2:19" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="36" t="s">
         <v>235</v>
       </c>
@@ -3964,7 +3960,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="6" spans="2:19" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="36" t="s">
         <v>237</v>
       </c>
@@ -4020,12 +4016,12 @@
         <v>228</v>
       </c>
     </row>
-    <row r="16" spans="2:19" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="24" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="17" spans="2:21" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="31" t="s">
         <v>86</v>
       </c>
@@ -4087,7 +4083,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="18" spans="2:21" ht="20.100000000000001" customHeight="1">
+    <row r="18" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="22" t="s">
         <v>85</v>
       </c>
@@ -4133,7 +4129,7 @@
       <c r="T18" s="22"/>
       <c r="U18" s="22"/>
     </row>
-    <row r="19" spans="2:21" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="22" t="s">
         <v>306</v>
       </c>
@@ -4195,7 +4191,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="20" spans="2:21" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H20" s="24" t="s">
         <v>147</v>
       </c>
@@ -4204,7 +4200,7 @@
       </c>
       <c r="Q20" s="39"/>
     </row>
-    <row r="21" spans="2:21" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="24" t="s">
         <v>302</v>
       </c>
@@ -4266,7 +4262,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="24" spans="2:21" ht="20.100000000000001" customHeight="1">
+    <row r="24" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C24" s="62" t="s">
         <v>348</v>
       </c>
@@ -4277,7 +4273,7 @@
       <c r="H24" s="63"/>
       <c r="I24" s="63"/>
     </row>
-    <row r="25" spans="2:21" ht="20.100000000000001" customHeight="1">
+    <row r="25" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C25" s="63"/>
       <c r="D25" s="63"/>
       <c r="E25" s="63"/>
@@ -4286,7 +4282,7 @@
       <c r="H25" s="63"/>
       <c r="I25" s="63"/>
     </row>
-    <row r="26" spans="2:21" ht="20.100000000000001" customHeight="1">
+    <row r="26" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C26" s="63"/>
       <c r="D26" s="63"/>
       <c r="E26" s="63"/>
@@ -4295,7 +4291,7 @@
       <c r="H26" s="63"/>
       <c r="I26" s="63"/>
     </row>
-    <row r="27" spans="2:21" ht="20.100000000000001" customHeight="1">
+    <row r="27" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="33" t="s">
         <v>276</v>
       </c>
@@ -4307,12 +4303,12 @@
       <c r="H27" s="63"/>
       <c r="I27" s="63"/>
     </row>
-    <row r="31" spans="2:21" ht="20.100000000000001" customHeight="1">
+    <row r="31" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="24" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="32" spans="2:21" ht="20.100000000000001" customHeight="1">
+    <row r="32" spans="2:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="31" t="s">
         <v>86</v>
       </c>
@@ -4371,7 +4367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:20" ht="20.100000000000001" customHeight="1">
+    <row r="33" spans="2:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="22" t="s">
         <v>85</v>
       </c>
@@ -4414,7 +4410,7 @@
       <c r="S33" s="22"/>
       <c r="T33" s="22"/>
     </row>
-    <row r="34" spans="2:20" ht="20.100000000000001" customHeight="1">
+    <row r="34" spans="2:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="22" t="s">
         <v>277</v>
       </c>
@@ -4473,7 +4469,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="2:20" ht="20.100000000000001" customHeight="1">
+    <row r="35" spans="2:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="22"/>
       <c r="C35" s="22"/>
       <c r="D35" s="22"/>
@@ -4498,7 +4494,7 @@
       <c r="S35" s="22"/>
       <c r="T35" s="22"/>
     </row>
-    <row r="36" spans="2:20" ht="20.100000000000001" customHeight="1">
+    <row r="36" spans="2:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="22" t="s">
         <v>31</v>
       </c>
@@ -4518,7 +4514,7 @@
         <v>196</v>
       </c>
       <c r="H36" s="22" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I36" s="22" t="s">
         <v>365</v>
@@ -4577,7 +4573,7 @@
       <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="39"/>
     <col min="2" max="2" width="8" style="39" bestFit="1" customWidth="1"/>
@@ -4604,8 +4600,8 @@
     <col min="28" max="16384" width="9" style="39"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:23" ht="19.5" customHeight="1"/>
-    <row r="4" spans="2:23" ht="57.75" customHeight="1">
+    <row r="3" spans="2:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="2:23" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="8" t="s">
         <v>123</v>
       </c>
@@ -4670,7 +4666,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="2:23" ht="18">
+    <row r="5" spans="2:23" ht="18" x14ac:dyDescent="0.15">
       <c r="B5" s="39">
         <v>1</v>
       </c>
@@ -4732,7 +4728,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="6" spans="2:23" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="39">
         <v>2</v>
       </c>
@@ -4794,7 +4790,7 @@
         <v>2.12</v>
       </c>
     </row>
-    <row r="7" spans="2:23" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="39">
         <v>3</v>
       </c>
@@ -4856,12 +4852,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="2:23" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="39" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="12" spans="2:23" ht="27">
+    <row r="12" spans="2:23" ht="27" x14ac:dyDescent="0.15">
       <c r="C12" s="8" t="s">
         <v>146</v>
       </c>
@@ -4926,7 +4922,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="13" spans="2:23" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C13" s="53" t="s">
         <v>16</v>
       </c>
@@ -4991,7 +4987,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="14" spans="2:23" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G14" s="39" t="s">
         <v>147</v>
       </c>
@@ -5005,7 +5001,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="15" spans="2:23" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C15" s="24" t="s">
         <v>270</v>
       </c>
@@ -5070,27 +5066,27 @@
         <v>354</v>
       </c>
     </row>
-    <row r="16" spans="2:23" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="N16" s="39" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="20" spans="3:27" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="3:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C20" s="52" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="21" spans="3:27" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="3:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C21" s="33" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="25" spans="3:27" ht="20.100000000000001" customHeight="1">
+    <row r="25" spans="3:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C25" s="39" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="26" spans="3:27" ht="20.100000000000001" customHeight="1">
+    <row r="26" spans="3:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C26" s="31" t="s">
         <v>86</v>
       </c>
@@ -5167,7 +5163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="3:27" ht="20.100000000000001" customHeight="1">
+    <row r="27" spans="3:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C27" s="22" t="s">
         <v>277</v>
       </c>
@@ -5244,7 +5240,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="3:27" ht="20.100000000000001" customHeight="1">
+    <row r="28" spans="3:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C28" s="22"/>
       <c r="D28" s="22"/>
       <c r="E28" s="22"/>
@@ -5279,7 +5275,7 @@
       <c r="Z28" s="53"/>
       <c r="AA28" s="59"/>
     </row>
-    <row r="29" spans="3:27" ht="20.100000000000001" customHeight="1">
+    <row r="29" spans="3:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C29" s="22" t="s">
         <v>302</v>
       </c>
@@ -5356,7 +5352,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="3:27" ht="20.100000000000001" customHeight="1">
+    <row r="30" spans="3:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="R30" s="39" t="s">
         <v>323</v>
       </c>
@@ -5379,7 +5375,7 @@
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="9" style="10"/>
     <col min="3" max="3" width="5.25" style="10" bestFit="1" customWidth="1"/>
@@ -5394,12 +5390,12 @@
     <col min="13" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:12" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I5" s="34" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="6" spans="3:12" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="12" t="s">
         <v>124</v>
       </c>
@@ -5425,7 +5421,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="7" spans="3:12" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C7" s="14">
         <v>1</v>
       </c>
@@ -5451,7 +5447,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="8" spans="3:12" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="14">
         <v>2</v>
       </c>
@@ -5468,7 +5464,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="9" spans="3:12" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C9" s="14">
         <v>3</v>
       </c>
@@ -5494,7 +5490,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="10" spans="3:12" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" s="14">
         <v>4</v>
       </c>
@@ -5508,7 +5504,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="3:12" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="14">
         <v>5</v>
       </c>
@@ -5522,7 +5518,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="3:12" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" s="14">
         <v>6</v>
       </c>
@@ -5536,7 +5532,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="3:12" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C13" s="14">
         <v>7</v>
       </c>
@@ -5550,7 +5546,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="3:12" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C14" s="14">
         <v>8</v>
       </c>
@@ -5564,7 +5560,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="3:12" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C15" s="14">
         <v>9</v>
       </c>
@@ -5588,11 +5584,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="36"/>
     <col min="2" max="2" width="7.5" style="36" bestFit="1" customWidth="1"/>
@@ -5607,7 +5603,7 @@
     <col min="11" max="16384" width="9" style="36"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:10" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C3" s="19" t="s">
         <v>138</v>
       </c>
@@ -5633,7 +5629,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="4" spans="3:10" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C4" s="37">
         <v>3908550182939</v>
       </c>
@@ -5659,7 +5655,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="5" spans="3:10" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C5" s="37">
         <v>3908550182940</v>
       </c>
@@ -5685,7 +5681,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="3:10" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C6" s="37">
         <v>3908550182941</v>
       </c>
@@ -5711,12 +5707,12 @@
         <v>55464</v>
       </c>
     </row>
-    <row r="12" spans="3:10" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" s="34" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="13" spans="3:10" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C13" s="19" t="s">
         <v>138</v>
       </c>
@@ -5739,7 +5735,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="14" spans="3:10" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C14" s="57" t="s">
         <v>262</v>
       </c>
@@ -5762,7 +5758,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="15" spans="3:10" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C15" s="55" t="s">
         <v>147</v>
       </c>
@@ -5775,7 +5771,7 @@
       <c r="H15" s="55"/>
       <c r="I15" s="55"/>
     </row>
-    <row r="16" spans="3:10" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C16" s="55" t="s">
         <v>343</v>
       </c>

--- a/文档/数据库表结构.xlsx
+++ b/文档/数据库表结构.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="用户表" sheetId="1" r:id="rId1"/>
@@ -12,10 +12,11 @@
     <sheet name="权限" sheetId="6" r:id="rId3"/>
     <sheet name="客户条码信息表" sheetId="4" r:id="rId4"/>
     <sheet name="数据导入表(源)" sheetId="7" r:id="rId5"/>
-    <sheet name="哲盟返回表(源)" sheetId="8" r:id="rId6"/>
-    <sheet name="第三方返回签收数据表(源)" sheetId="9" r:id="rId7"/>
-    <sheet name="时效控制表" sheetId="10" r:id="rId8"/>
-    <sheet name="签收报表" sheetId="11" r:id="rId9"/>
+    <sheet name="数据导入失败表" sheetId="13" r:id="rId6"/>
+    <sheet name="哲盟返回表(源)" sheetId="8" r:id="rId7"/>
+    <sheet name="第三方返回签收数据表(源)" sheetId="9" r:id="rId8"/>
+    <sheet name="时效控制表" sheetId="10" r:id="rId9"/>
+    <sheet name="签收报表" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -130,6 +131,43 @@
     <author>作者</author>
   </authors>
   <commentList>
+    <comment ref="G4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+格式错误
+必填字段为空</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
     <comment ref="T17" authorId="0" shapeId="0">
       <text>
         <r>
@@ -161,7 +199,7 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
@@ -232,7 +270,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="397">
   <si>
     <t>工号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1877,10 +1915,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>是否已推送</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>number(1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1934,6 +1968,74 @@
   </si>
   <si>
     <t>courier_state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否已推送成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自增，主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timestamp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varcahr2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>source_import_failed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sif_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fail_info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失败的数据详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失败类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fail_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2170,7 +2272,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2353,6 +2455,9 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2370,6 +2475,15 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2679,7 +2793,7 @@
   <dimension ref="B3:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -2789,6 +2903,227 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:J16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="9" style="36"/>
+    <col min="2" max="2" width="7.5" style="36" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.125" style="36" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.125" style="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.875" style="36" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5" style="36" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.875" style="36" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.875" style="36" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.875" style="36" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.875" style="36" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="36"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:10" ht="20.100000000000001" customHeight="1">
+      <c r="C3" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="J3" s="20" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="3:10" ht="20.100000000000001" customHeight="1">
+      <c r="C4" s="37">
+        <v>3908550182939</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>197</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="F4" s="38">
+        <v>42613.958321759259</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="H4" s="35">
+        <v>99.99</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="J4" s="36" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5" spans="3:10" ht="20.100000000000001" customHeight="1">
+      <c r="C5" s="37">
+        <v>3908550182940</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>202</v>
+      </c>
+      <c r="E5" s="36" t="s">
+        <v>203</v>
+      </c>
+      <c r="F5" s="38">
+        <v>42614.958321701386</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="H5" s="35">
+        <v>10</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="J5" s="36">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="3:10" ht="20.100000000000001" customHeight="1">
+      <c r="C6" s="37">
+        <v>3908550182941</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>206</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>207</v>
+      </c>
+      <c r="F6" s="38">
+        <v>42615.958321701386</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="H6" s="35">
+        <v>55.2</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="J6" s="36">
+        <v>55464</v>
+      </c>
+    </row>
+    <row r="12" spans="3:10" ht="20.100000000000001" customHeight="1">
+      <c r="C12" s="34" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="13" spans="3:10" ht="20.100000000000001" customHeight="1">
+      <c r="C13" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="H13" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="I13" s="21" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14" spans="3:10" ht="20.100000000000001" customHeight="1">
+      <c r="C14" s="57" t="s">
+        <v>262</v>
+      </c>
+      <c r="D14" s="53" t="s">
+        <v>285</v>
+      </c>
+      <c r="E14" s="53" t="s">
+        <v>285</v>
+      </c>
+      <c r="F14" s="55" t="s">
+        <v>152</v>
+      </c>
+      <c r="G14" s="53" t="s">
+        <v>286</v>
+      </c>
+      <c r="H14" s="53" t="s">
+        <v>279</v>
+      </c>
+      <c r="I14" s="22" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="15" spans="3:10" ht="20.100000000000001" customHeight="1">
+      <c r="C15" s="55" t="s">
+        <v>147</v>
+      </c>
+      <c r="D15" s="55" t="s">
+        <v>344</v>
+      </c>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="55"/>
+    </row>
+    <row r="16" spans="3:10" ht="20.100000000000001" customHeight="1">
+      <c r="C16" s="55" t="s">
+        <v>343</v>
+      </c>
+      <c r="D16" s="53" t="s">
+        <v>345</v>
+      </c>
+      <c r="E16" s="53" t="s">
+        <v>326</v>
+      </c>
+      <c r="F16" s="53" t="s">
+        <v>269</v>
+      </c>
+      <c r="G16" s="53" t="s">
+        <v>328</v>
+      </c>
+      <c r="H16" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="I16" s="22" t="s">
+        <v>268</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3095,8 +3430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:R28"/>
   <sheetViews>
-    <sheetView topLeftCell="E10" workbookViewId="0">
-      <selection activeCell="R24" sqref="R24:R27"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -3117,21 +3452,21 @@
     <col min="14" max="14" width="13.875" style="24" customWidth="1"/>
     <col min="15" max="15" width="13.875" style="24" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.75" style="24" customWidth="1"/>
-    <col min="17" max="17" width="11" style="24" customWidth="1"/>
+    <col min="17" max="17" width="15.125" style="24" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12.75" style="24" bestFit="1" customWidth="1"/>
     <col min="19" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:18" ht="20.100000000000001" customHeight="1">
       <c r="B3" s="22"/>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
       <c r="I3" s="23"/>
       <c r="J3" s="22"/>
       <c r="K3" s="22"/>
@@ -3414,14 +3749,14 @@
       </c>
     </row>
     <row r="13" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="C13" s="60" t="s">
+      <c r="C13" s="61" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="60"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
       <c r="I13" s="23"/>
       <c r="J13" s="22"/>
       <c r="K13" s="22"/>
@@ -3661,7 +3996,7 @@
         <v>1</v>
       </c>
       <c r="Q24" s="11" t="s">
-        <v>366</v>
+        <v>380</v>
       </c>
     </row>
     <row r="25" spans="3:18" ht="20.100000000000001" customHeight="1">
@@ -3690,7 +4025,7 @@
         <v>261</v>
       </c>
       <c r="K25" s="22" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="L25" s="22" t="s">
         <v>262</v>
@@ -3708,17 +4043,17 @@
         <v>16</v>
       </c>
       <c r="Q25" s="22" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="26" spans="3:18" ht="20.100000000000001" customHeight="1">
       <c r="C26" s="22"/>
       <c r="D26" s="22"/>
       <c r="E26" s="22"/>
-      <c r="F26" s="61" t="s">
+      <c r="F26" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="G26" s="61"/>
+      <c r="G26" s="62"/>
       <c r="H26" s="22"/>
       <c r="I26" s="22"/>
       <c r="J26" s="22"/>
@@ -3743,7 +4078,7 @@
         <v>196</v>
       </c>
       <c r="F27" s="22" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G27" s="22" t="s">
         <v>358</v>
@@ -3758,7 +4093,7 @@
         <v>195</v>
       </c>
       <c r="K27" s="22" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L27" s="22" t="s">
         <v>268</v>
@@ -3776,12 +4111,12 @@
         <v>20</v>
       </c>
       <c r="Q27" s="22" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="28" spans="3:18" ht="20.100000000000001" customHeight="1">
       <c r="Q28" s="24" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
   </sheetData>
@@ -3799,9 +4134,103 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:G7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <cols>
+    <col min="1" max="2" width="9" style="67"/>
+    <col min="3" max="3" width="22.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="67" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.75" style="67" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.125" style="67" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" style="67" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="67"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:7" ht="20.100000000000001" customHeight="1">
+      <c r="C3" s="60" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="4" spans="3:7" ht="20.100000000000001" customHeight="1">
+      <c r="C4" s="68" t="s">
+        <v>381</v>
+      </c>
+      <c r="D4" s="68" t="s">
+        <v>382</v>
+      </c>
+      <c r="E4" s="68" t="s">
+        <v>383</v>
+      </c>
+      <c r="F4" s="68" t="s">
+        <v>393</v>
+      </c>
+      <c r="G4" s="68" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7" ht="20.100000000000001" customHeight="1">
+      <c r="C5" s="69" t="s">
+        <v>384</v>
+      </c>
+      <c r="D5" s="69" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="69" t="s">
+        <v>386</v>
+      </c>
+      <c r="F5" s="69" t="s">
+        <v>387</v>
+      </c>
+      <c r="G5" s="69" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7" ht="20.100000000000001" customHeight="1">
+      <c r="C6" s="69" t="s">
+        <v>385</v>
+      </c>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69" t="s">
+        <v>396</v>
+      </c>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+    </row>
+    <row r="7" spans="3:7" ht="20.100000000000001" customHeight="1">
+      <c r="C7" s="69" t="s">
+        <v>390</v>
+      </c>
+      <c r="D7" s="69" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="69" t="s">
+        <v>391</v>
+      </c>
+      <c r="F7" s="69" t="s">
+        <v>392</v>
+      </c>
+      <c r="G7" s="69" t="s">
+        <v>395</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:U36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N25" workbookViewId="0">
+    <sheetView topLeftCell="N25" workbookViewId="0">
       <selection activeCell="U36" sqref="U36"/>
     </sheetView>
   </sheetViews>
@@ -4299,45 +4728,45 @@
       </c>
     </row>
     <row r="24" spans="2:21" ht="20.100000000000001" customHeight="1">
-      <c r="C24" s="62" t="s">
+      <c r="C24" s="63" t="s">
         <v>348</v>
       </c>
-      <c r="D24" s="63"/>
-      <c r="E24" s="63"/>
-      <c r="F24" s="63"/>
-      <c r="G24" s="63"/>
-      <c r="H24" s="63"/>
-      <c r="I24" s="63"/>
+      <c r="D24" s="64"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="64"/>
     </row>
     <row r="25" spans="2:21" ht="20.100000000000001" customHeight="1">
-      <c r="C25" s="63"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="63"/>
-      <c r="F25" s="63"/>
-      <c r="G25" s="63"/>
-      <c r="H25" s="63"/>
-      <c r="I25" s="63"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="64"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="64"/>
     </row>
     <row r="26" spans="2:21" ht="20.100000000000001" customHeight="1">
-      <c r="C26" s="63"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="63"/>
-      <c r="F26" s="63"/>
-      <c r="G26" s="63"/>
-      <c r="H26" s="63"/>
-      <c r="I26" s="63"/>
+      <c r="C26" s="64"/>
+      <c r="D26" s="64"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="64"/>
+      <c r="I26" s="64"/>
     </row>
     <row r="27" spans="2:21" ht="20.100000000000001" customHeight="1">
       <c r="B27" s="33" t="s">
         <v>276</v>
       </c>
-      <c r="C27" s="63"/>
-      <c r="D27" s="63"/>
-      <c r="E27" s="63"/>
-      <c r="F27" s="63"/>
-      <c r="G27" s="63"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="63"/>
+      <c r="C27" s="64"/>
+      <c r="D27" s="64"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="64"/>
     </row>
     <row r="31" spans="2:21" ht="20.100000000000001" customHeight="1">
       <c r="B31" s="24" t="s">
@@ -4403,7 +4832,7 @@
         <v>1</v>
       </c>
       <c r="U32" s="11" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="33" spans="2:21" ht="20.100000000000001" customHeight="1">
@@ -4493,13 +4922,13 @@
         <v>262</v>
       </c>
       <c r="P34" s="22" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Q34" s="53" t="s">
         <v>333</v>
       </c>
       <c r="R34" s="57" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="S34" s="22" t="s">
         <v>363</v>
@@ -4508,7 +4937,7 @@
         <v>16</v>
       </c>
       <c r="U34" s="24" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="35" spans="2:21" ht="20.100000000000001" customHeight="1">
@@ -4518,10 +4947,10 @@
       <c r="E35" s="22"/>
       <c r="F35" s="22"/>
       <c r="G35" s="22"/>
-      <c r="H35" s="61" t="s">
+      <c r="H35" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="I35" s="61"/>
+      <c r="I35" s="62"/>
       <c r="J35" s="22"/>
       <c r="K35" s="22"/>
       <c r="L35" s="22"/>
@@ -4556,7 +4985,7 @@
         <v>196</v>
       </c>
       <c r="H36" s="22" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I36" s="22" t="s">
         <v>365</v>
@@ -4565,7 +4994,7 @@
         <v>270</v>
       </c>
       <c r="K36" s="22" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="L36" s="22" t="s">
         <v>192</v>
@@ -4595,7 +5024,7 @@
         <v>20</v>
       </c>
       <c r="U36" s="24" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
   </sheetData>
@@ -4610,7 +5039,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:AA30"/>
   <sheetViews>
@@ -5270,7 +5699,7 @@
         <v>252</v>
       </c>
       <c r="W27" s="57" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="X27" s="22" t="s">
         <v>262</v>
@@ -5293,10 +5722,10 @@
       <c r="G28" s="22"/>
       <c r="H28" s="22"/>
       <c r="I28" s="22"/>
-      <c r="J28" s="64" t="s">
+      <c r="J28" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="K28" s="65"/>
+      <c r="K28" s="66"/>
       <c r="L28" s="22"/>
       <c r="M28" s="53" t="s">
         <v>148</v>
@@ -5412,7 +5841,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C5:L15"/>
   <sheetViews>
@@ -5523,7 +5952,7 @@
         <v>48</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="J9" s="10" t="s">
         <v>337</v>
@@ -5549,7 +5978,7 @@
         <v>96</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="11" spans="3:12" ht="20.100000000000001" customHeight="1">
@@ -5626,225 +6055,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:J16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="9" style="36"/>
-    <col min="2" max="2" width="7.5" style="36" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.125" style="36" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.125" style="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="36" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5" style="36" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.875" style="36" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.875" style="36" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.875" style="36" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.875" style="36" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="36"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="3:10" ht="20.100000000000001" customHeight="1">
-      <c r="C3" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="G3" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="H3" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="I3" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="J3" s="20" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="4" spans="3:10" ht="20.100000000000001" customHeight="1">
-      <c r="C4" s="37">
-        <v>3908550182939</v>
-      </c>
-      <c r="D4" s="36" t="s">
-        <v>197</v>
-      </c>
-      <c r="E4" s="36" t="s">
-        <v>198</v>
-      </c>
-      <c r="F4" s="38">
-        <v>42613.958321759259</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="H4" s="35">
-        <v>99.99</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="J4" s="36" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="5" spans="3:10" ht="20.100000000000001" customHeight="1">
-      <c r="C5" s="37">
-        <v>3908550182940</v>
-      </c>
-      <c r="D5" s="36" t="s">
-        <v>202</v>
-      </c>
-      <c r="E5" s="36" t="s">
-        <v>203</v>
-      </c>
-      <c r="F5" s="38">
-        <v>42614.958321701386</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="H5" s="35">
-        <v>10</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="J5" s="36">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="6" spans="3:10" ht="20.100000000000001" customHeight="1">
-      <c r="C6" s="37">
-        <v>3908550182941</v>
-      </c>
-      <c r="D6" s="36" t="s">
-        <v>206</v>
-      </c>
-      <c r="E6" s="36" t="s">
-        <v>207</v>
-      </c>
-      <c r="F6" s="38">
-        <v>42615.958321701386</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="H6" s="35">
-        <v>55.2</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="J6" s="36">
-        <v>55464</v>
-      </c>
-    </row>
-    <row r="12" spans="3:10" ht="20.100000000000001" customHeight="1">
-      <c r="C12" s="34" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="13" spans="3:10" ht="20.100000000000001" customHeight="1">
-      <c r="C13" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="G13" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="H13" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="I13" s="21" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="14" spans="3:10" ht="20.100000000000001" customHeight="1">
-      <c r="C14" s="57" t="s">
-        <v>262</v>
-      </c>
-      <c r="D14" s="53" t="s">
-        <v>285</v>
-      </c>
-      <c r="E14" s="53" t="s">
-        <v>285</v>
-      </c>
-      <c r="F14" s="55" t="s">
-        <v>152</v>
-      </c>
-      <c r="G14" s="53" t="s">
-        <v>286</v>
-      </c>
-      <c r="H14" s="53" t="s">
-        <v>279</v>
-      </c>
-      <c r="I14" s="22" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="15" spans="3:10" ht="20.100000000000001" customHeight="1">
-      <c r="C15" s="55" t="s">
-        <v>147</v>
-      </c>
-      <c r="D15" s="55" t="s">
-        <v>344</v>
-      </c>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="55"/>
-    </row>
-    <row r="16" spans="3:10" ht="20.100000000000001" customHeight="1">
-      <c r="C16" s="55" t="s">
-        <v>343</v>
-      </c>
-      <c r="D16" s="53" t="s">
-        <v>345</v>
-      </c>
-      <c r="E16" s="53" t="s">
-        <v>326</v>
-      </c>
-      <c r="F16" s="53" t="s">
-        <v>269</v>
-      </c>
-      <c r="G16" s="53" t="s">
-        <v>328</v>
-      </c>
-      <c r="H16" s="22" t="s">
-        <v>271</v>
-      </c>
-      <c r="I16" s="22" t="s">
-        <v>268</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/文档/数据库表结构.xlsx
+++ b/文档/数据库表结构.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="用户表" sheetId="1" r:id="rId1"/>
@@ -270,7 +270,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="402">
   <si>
     <t>工号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2036,6 +2036,26 @@
   </si>
   <si>
     <t>触发器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否已发货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属分拨点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2（80）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fbd_area</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fbd_area</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2272,7 +2292,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2458,6 +2478,18 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2475,15 +2507,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3459,14 +3482,14 @@
   <sheetData>
     <row r="3" spans="2:18" ht="20.100000000000001" customHeight="1">
       <c r="B3" s="22"/>
-      <c r="C3" s="61" t="s">
+      <c r="C3" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
       <c r="I3" s="23"/>
       <c r="J3" s="22"/>
       <c r="K3" s="22"/>
@@ -3749,14 +3772,14 @@
       </c>
     </row>
     <row r="13" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="C13" s="61" t="s">
+      <c r="C13" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
       <c r="I13" s="23"/>
       <c r="J13" s="22"/>
       <c r="K13" s="22"/>
@@ -4050,10 +4073,10 @@
       <c r="C26" s="22"/>
       <c r="D26" s="22"/>
       <c r="E26" s="22"/>
-      <c r="F26" s="62" t="s">
+      <c r="F26" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="G26" s="62"/>
+      <c r="G26" s="66"/>
       <c r="H26" s="22"/>
       <c r="I26" s="22"/>
       <c r="J26" s="22"/>
@@ -4136,19 +4159,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="9" style="67"/>
-    <col min="3" max="3" width="22.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5" style="67" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.75" style="67" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.125" style="67" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5" style="67" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="67"/>
+    <col min="1" max="2" width="9" style="62"/>
+    <col min="3" max="3" width="22.75" style="62" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="62" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.75" style="62" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.125" style="62" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" style="62" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="62"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:7" ht="20.100000000000001" customHeight="1">
@@ -4157,64 +4180,64 @@
       </c>
     </row>
     <row r="4" spans="3:7" ht="20.100000000000001" customHeight="1">
-      <c r="C4" s="68" t="s">
+      <c r="C4" s="63" t="s">
         <v>381</v>
       </c>
-      <c r="D4" s="68" t="s">
+      <c r="D4" s="63" t="s">
         <v>382</v>
       </c>
-      <c r="E4" s="68" t="s">
+      <c r="E4" s="63" t="s">
         <v>383</v>
       </c>
-      <c r="F4" s="68" t="s">
+      <c r="F4" s="63" t="s">
         <v>393</v>
       </c>
-      <c r="G4" s="68" t="s">
+      <c r="G4" s="63" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="5" spans="3:7" ht="20.100000000000001" customHeight="1">
-      <c r="C5" s="69" t="s">
+      <c r="C5" s="64" t="s">
         <v>384</v>
       </c>
-      <c r="D5" s="69" t="s">
+      <c r="D5" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="69" t="s">
+      <c r="E5" s="64" t="s">
         <v>386</v>
       </c>
-      <c r="F5" s="69" t="s">
+      <c r="F5" s="64" t="s">
         <v>387</v>
       </c>
-      <c r="G5" s="69" t="s">
+      <c r="G5" s="64" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="6" spans="3:7" ht="20.100000000000001" customHeight="1">
-      <c r="C6" s="69" t="s">
+      <c r="C6" s="64" t="s">
         <v>385</v>
       </c>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69" t="s">
+      <c r="D6" s="64"/>
+      <c r="E6" s="64" t="s">
         <v>396</v>
       </c>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="64"/>
     </row>
     <row r="7" spans="3:7" ht="20.100000000000001" customHeight="1">
-      <c r="C7" s="69" t="s">
+      <c r="C7" s="64" t="s">
         <v>390</v>
       </c>
-      <c r="D7" s="69" t="s">
+      <c r="D7" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="69" t="s">
+      <c r="E7" s="64" t="s">
         <v>391</v>
       </c>
-      <c r="F7" s="69" t="s">
+      <c r="F7" s="64" t="s">
         <v>392</v>
       </c>
-      <c r="G7" s="69" t="s">
+      <c r="G7" s="64" t="s">
         <v>395</v>
       </c>
     </row>
@@ -4228,18 +4251,18 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:U36"/>
+  <dimension ref="B3:V38"/>
   <sheetViews>
-    <sheetView topLeftCell="N25" workbookViewId="0">
-      <selection activeCell="U36" sqref="U36"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" style="24"/>
     <col min="2" max="2" width="19.25" style="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="15.875" style="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.875" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="15.875" style="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.875" style="24" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.5" style="24" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.125" style="24" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.875" style="24" bestFit="1" customWidth="1"/>
@@ -4254,7 +4277,8 @@
     <col min="19" max="19" width="19.375" style="24" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="16.125" style="24" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="12.75" style="24" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9" style="24"/>
+    <col min="22" max="22" width="15" style="24" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:19" ht="20.100000000000001" customHeight="1">
@@ -4486,7 +4510,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="17" spans="2:21" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="2:22" ht="20.100000000000001" customHeight="1">
       <c r="B17" s="31" t="s">
         <v>86</v>
       </c>
@@ -4548,7 +4572,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="18" spans="2:21" ht="20.100000000000001" customHeight="1">
+    <row r="18" spans="2:22" ht="20.100000000000001" customHeight="1">
       <c r="B18" s="22" t="s">
         <v>85</v>
       </c>
@@ -4594,7 +4618,7 @@
       <c r="T18" s="22"/>
       <c r="U18" s="22"/>
     </row>
-    <row r="19" spans="2:21" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="2:22" ht="20.100000000000001" customHeight="1">
       <c r="B19" s="22" t="s">
         <v>306</v>
       </c>
@@ -4656,7 +4680,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="20" spans="2:21" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="2:22" ht="20.100000000000001" customHeight="1">
       <c r="H20" s="24" t="s">
         <v>147</v>
       </c>
@@ -4665,7 +4689,7 @@
       </c>
       <c r="Q20" s="39"/>
     </row>
-    <row r="21" spans="2:21" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="2:22" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="24" t="s">
         <v>302</v>
       </c>
@@ -4727,53 +4751,53 @@
         <v>354</v>
       </c>
     </row>
-    <row r="24" spans="2:21" ht="20.100000000000001" customHeight="1">
-      <c r="C24" s="63" t="s">
+    <row r="24" spans="2:22" ht="20.100000000000001" customHeight="1">
+      <c r="C24" s="67" t="s">
         <v>348</v>
       </c>
-      <c r="D24" s="64"/>
-      <c r="E24" s="64"/>
-      <c r="F24" s="64"/>
-      <c r="G24" s="64"/>
-      <c r="H24" s="64"/>
-      <c r="I24" s="64"/>
-    </row>
-    <row r="25" spans="2:21" ht="20.100000000000001" customHeight="1">
-      <c r="C25" s="64"/>
-      <c r="D25" s="64"/>
-      <c r="E25" s="64"/>
-      <c r="F25" s="64"/>
-      <c r="G25" s="64"/>
-      <c r="H25" s="64"/>
-      <c r="I25" s="64"/>
-    </row>
-    <row r="26" spans="2:21" ht="20.100000000000001" customHeight="1">
-      <c r="C26" s="64"/>
-      <c r="D26" s="64"/>
-      <c r="E26" s="64"/>
-      <c r="F26" s="64"/>
-      <c r="G26" s="64"/>
-      <c r="H26" s="64"/>
-      <c r="I26" s="64"/>
-    </row>
-    <row r="27" spans="2:21" ht="20.100000000000001" customHeight="1">
+      <c r="D24" s="68"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="68"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="68"/>
+      <c r="I24" s="68"/>
+    </row>
+    <row r="25" spans="2:22" ht="20.100000000000001" customHeight="1">
+      <c r="C25" s="68"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="68"/>
+      <c r="F25" s="68"/>
+      <c r="G25" s="68"/>
+      <c r="H25" s="68"/>
+      <c r="I25" s="68"/>
+    </row>
+    <row r="26" spans="2:22" ht="20.100000000000001" customHeight="1">
+      <c r="C26" s="68"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="68"/>
+      <c r="H26" s="68"/>
+      <c r="I26" s="68"/>
+    </row>
+    <row r="27" spans="2:22" ht="20.100000000000001" customHeight="1">
       <c r="B27" s="33" t="s">
         <v>276</v>
       </c>
-      <c r="C27" s="64"/>
-      <c r="D27" s="64"/>
-      <c r="E27" s="64"/>
-      <c r="F27" s="64"/>
-      <c r="G27" s="64"/>
-      <c r="H27" s="64"/>
-      <c r="I27" s="64"/>
-    </row>
-    <row r="31" spans="2:21" ht="20.100000000000001" customHeight="1">
+      <c r="C27" s="68"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="68"/>
+      <c r="F27" s="68"/>
+      <c r="G27" s="68"/>
+      <c r="H27" s="68"/>
+      <c r="I27" s="68"/>
+    </row>
+    <row r="31" spans="2:22" ht="20.100000000000001" customHeight="1">
       <c r="B31" s="24" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="32" spans="2:21" ht="20.100000000000001" customHeight="1">
+    <row r="32" spans="2:22" ht="20.100000000000001" customHeight="1">
       <c r="B32" s="31" t="s">
         <v>86</v>
       </c>
@@ -4783,59 +4807,62 @@
       <c r="D32" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="E32" s="32" t="s">
+      <c r="E32" s="31" t="s">
+        <v>398</v>
+      </c>
+      <c r="F32" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="F32" s="32" t="s">
+      <c r="G32" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="G32" s="31" t="s">
+      <c r="H32" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="H32" s="32" t="s">
+      <c r="I32" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="I32" s="11" t="s">
+      <c r="J32" s="11" t="s">
         <v>364</v>
       </c>
-      <c r="J32" s="32" t="s">
+      <c r="K32" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="K32" s="32" t="s">
+      <c r="L32" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="L32" s="32" t="s">
+      <c r="M32" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="M32" s="31" t="s">
+      <c r="N32" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="N32" s="31" t="s">
+      <c r="O32" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="O32" s="31" t="s">
+      <c r="P32" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="P32" s="31" t="s">
+      <c r="Q32" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="Q32" s="31" t="s">
+      <c r="R32" s="31" t="s">
         <v>346</v>
       </c>
-      <c r="R32" s="31" t="s">
+      <c r="S32" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="S32" s="31" t="s">
+      <c r="T32" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="T32" s="11" t="s">
+      <c r="U32" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="U32" s="11" t="s">
+      <c r="V32" s="11" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="33" spans="2:21" ht="20.100000000000001" customHeight="1">
+    <row r="33" spans="2:22" ht="20.100000000000001" customHeight="1">
       <c r="B33" s="22" t="s">
         <v>85</v>
       </c>
@@ -4845,40 +4872,41 @@
       <c r="D33" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="E33" s="22" t="s">
+      <c r="E33" s="61"/>
+      <c r="F33" s="22" t="s">
         <v>91</v>
-      </c>
-      <c r="F33" s="22" t="s">
-        <v>87</v>
       </c>
       <c r="G33" s="22" t="s">
         <v>87</v>
       </c>
       <c r="H33" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="I33" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="I33" s="22"/>
-      <c r="J33" s="22" t="s">
+      <c r="J33" s="22"/>
+      <c r="K33" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="K33" s="22"/>
-      <c r="L33" s="22" t="s">
-        <v>87</v>
-      </c>
+      <c r="L33" s="22"/>
       <c r="M33" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="N33" s="22"/>
+      <c r="N33" s="22" t="s">
+        <v>87</v>
+      </c>
       <c r="O33" s="22"/>
-      <c r="P33" s="22" t="s">
+      <c r="P33" s="22"/>
+      <c r="Q33" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="Q33" s="22"/>
       <c r="R33" s="22"/>
       <c r="S33" s="22"/>
       <c r="T33" s="22"/>
-    </row>
-    <row r="34" spans="2:21" ht="20.100000000000001" customHeight="1">
+      <c r="U33" s="22"/>
+    </row>
+    <row r="34" spans="2:22" ht="20.100000000000001" customHeight="1">
       <c r="B34" s="22" t="s">
         <v>277</v>
       </c>
@@ -4888,84 +4916,88 @@
       <c r="D34" s="22" t="s">
         <v>278</v>
       </c>
-      <c r="E34" s="22" t="s">
+      <c r="E34" s="61" t="s">
+        <v>399</v>
+      </c>
+      <c r="F34" s="22" t="s">
         <v>361</v>
       </c>
-      <c r="F34" s="22" t="s">
+      <c r="G34" s="22" t="s">
         <v>257</v>
-      </c>
-      <c r="G34" s="22" t="s">
-        <v>262</v>
       </c>
       <c r="H34" s="22" t="s">
         <v>262</v>
       </c>
       <c r="I34" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="J34" s="22" t="s">
         <v>360</v>
       </c>
-      <c r="J34" s="22" t="s">
+      <c r="K34" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="K34" s="22" t="s">
+      <c r="L34" s="22" t="s">
         <v>257</v>
       </c>
-      <c r="L34" s="22" t="s">
+      <c r="M34" s="22" t="s">
         <v>255</v>
       </c>
-      <c r="M34" s="22" t="s">
+      <c r="N34" s="22" t="s">
         <v>257</v>
       </c>
-      <c r="N34" s="22" t="s">
+      <c r="O34" s="22" t="s">
         <v>261</v>
       </c>
-      <c r="O34" s="22" t="s">
+      <c r="P34" s="22" t="s">
         <v>262</v>
       </c>
-      <c r="P34" s="22" t="s">
+      <c r="Q34" s="22" t="s">
         <v>375</v>
       </c>
-      <c r="Q34" s="53" t="s">
+      <c r="R34" s="53" t="s">
         <v>333</v>
       </c>
-      <c r="R34" s="57" t="s">
+      <c r="S34" s="57" t="s">
         <v>369</v>
       </c>
-      <c r="S34" s="22" t="s">
+      <c r="T34" s="22" t="s">
         <v>363</v>
       </c>
-      <c r="T34" s="22" t="s">
+      <c r="U34" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="U34" s="24" t="s">
+      <c r="V34" s="24" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="35" spans="2:21" ht="20.100000000000001" customHeight="1">
+    <row r="35" spans="2:22" ht="20.100000000000001" customHeight="1">
       <c r="B35" s="22"/>
       <c r="C35" s="22"/>
       <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
+      <c r="E35" s="61"/>
       <c r="F35" s="22"/>
       <c r="G35" s="22"/>
-      <c r="H35" s="62" t="s">
+      <c r="H35" s="22"/>
+      <c r="I35" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="I35" s="62"/>
-      <c r="J35" s="22"/>
+      <c r="J35" s="66"/>
       <c r="K35" s="22"/>
       <c r="L35" s="22"/>
       <c r="M35" s="22"/>
       <c r="N35" s="22"/>
       <c r="O35" s="22"/>
       <c r="P35" s="22"/>
-      <c r="Q35" s="53"/>
-      <c r="R35" s="22" t="s">
+      <c r="Q35" s="22"/>
+      <c r="R35" s="53"/>
+      <c r="S35" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="S35" s="22"/>
       <c r="T35" s="22"/>
-    </row>
-    <row r="36" spans="2:21" ht="20.100000000000001" customHeight="1">
+      <c r="U35" s="22"/>
+    </row>
+    <row r="36" spans="2:22" ht="20.100000000000001" customHeight="1">
       <c r="B36" s="22" t="s">
         <v>31</v>
       </c>
@@ -4975,62 +5007,70 @@
       <c r="D36" s="22" t="s">
         <v>304</v>
       </c>
-      <c r="E36" s="22" t="s">
+      <c r="E36" s="61" t="s">
+        <v>401</v>
+      </c>
+      <c r="F36" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="F36" s="22" t="s">
+      <c r="G36" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="G36" s="22" t="s">
+      <c r="H36" s="22" t="s">
         <v>196</v>
       </c>
-      <c r="H36" s="22" t="s">
+      <c r="I36" s="22" t="s">
         <v>371</v>
       </c>
-      <c r="I36" s="22" t="s">
+      <c r="J36" s="22" t="s">
         <v>365</v>
       </c>
-      <c r="J36" s="22" t="s">
+      <c r="K36" s="22" t="s">
         <v>270</v>
       </c>
-      <c r="K36" s="22" t="s">
+      <c r="L36" s="22" t="s">
         <v>374</v>
       </c>
-      <c r="L36" s="22" t="s">
+      <c r="M36" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="M36" s="22" t="s">
+      <c r="N36" s="22" t="s">
         <v>194</v>
       </c>
-      <c r="N36" s="22" t="s">
+      <c r="O36" s="22" t="s">
         <v>195</v>
       </c>
-      <c r="O36" s="22" t="s">
+      <c r="P36" s="22" t="s">
         <v>268</v>
       </c>
-      <c r="P36" s="22" t="s">
+      <c r="Q36" s="22" t="s">
         <v>265</v>
       </c>
-      <c r="Q36" s="22" t="s">
+      <c r="R36" s="22" t="s">
         <v>271</v>
       </c>
-      <c r="R36" s="22" t="s">
+      <c r="S36" s="22" t="s">
         <v>267</v>
       </c>
-      <c r="S36" s="22" t="s">
+      <c r="T36" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="T36" s="22" t="s">
+      <c r="U36" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="U36" s="24" t="s">
+      <c r="V36" s="24" t="s">
         <v>379</v>
+      </c>
+    </row>
+    <row r="38" spans="2:22" ht="20.100000000000001" customHeight="1">
+      <c r="V38" s="24" t="s">
+        <v>397</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C24:I27"/>
-    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="I35:J35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5041,10 +5081,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:AA30"/>
+  <dimension ref="B3:AB30"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -5052,8 +5092,7 @@
     <col min="1" max="1" width="9" style="39"/>
     <col min="2" max="2" width="8" style="39" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" style="39" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="15.875" style="39" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.875" style="39" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="15.875" style="39" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.125" style="39" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="64.75" style="39" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="16.125" style="39" bestFit="1" customWidth="1"/>
@@ -5545,22 +5584,22 @@
         <v>323</v>
       </c>
     </row>
-    <row r="20" spans="3:27" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="3:28" ht="20.100000000000001" customHeight="1">
       <c r="C20" s="52" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="21" spans="3:27" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="3:28" ht="20.100000000000001" customHeight="1">
       <c r="C21" s="33" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="25" spans="3:27" ht="20.100000000000001" customHeight="1">
+    <row r="25" spans="3:28" ht="20.100000000000001" customHeight="1">
       <c r="C25" s="39" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="26" spans="3:27" ht="20.100000000000001" customHeight="1">
+    <row r="26" spans="3:28" ht="20.100000000000001" customHeight="1">
       <c r="C26" s="31" t="s">
         <v>86</v>
       </c>
@@ -5570,74 +5609,77 @@
       <c r="E26" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="F26" s="32" t="s">
+      <c r="F26" s="31" t="s">
+        <v>398</v>
+      </c>
+      <c r="G26" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="G26" s="32" t="s">
+      <c r="H26" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="H26" s="32" t="s">
+      <c r="I26" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="I26" s="32" t="s">
+      <c r="J26" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="J26" s="32" t="s">
+      <c r="K26" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="K26" s="11" t="s">
+      <c r="L26" s="11" t="s">
         <v>359</v>
       </c>
-      <c r="L26" s="32" t="s">
+      <c r="M26" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="M26" s="51" t="s">
+      <c r="N26" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="N26" s="51" t="s">
+      <c r="O26" s="51" t="s">
         <v>116</v>
       </c>
-      <c r="O26" s="8" t="s">
+      <c r="P26" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="P26" s="51" t="s">
+      <c r="Q26" s="51" t="s">
         <v>114</v>
       </c>
-      <c r="Q26" s="51" t="s">
+      <c r="R26" s="51" t="s">
         <v>113</v>
       </c>
-      <c r="R26" s="8" t="s">
+      <c r="S26" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="S26" s="31" t="s">
+      <c r="T26" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="T26" s="31" t="s">
+      <c r="U26" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="U26" s="9" t="s">
+      <c r="V26" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="V26" s="31" t="s">
+      <c r="W26" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="W26" s="31" t="s">
+      <c r="X26" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="X26" s="31" t="s">
+      <c r="Y26" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="Y26" s="31" t="s">
+      <c r="Z26" s="31" t="s">
         <v>346</v>
       </c>
-      <c r="Z26" s="9" t="s">
+      <c r="AA26" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="AA26" s="11" t="s">
+      <c r="AB26" s="11" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="3:27" ht="20.100000000000001" customHeight="1">
+    <row r="27" spans="3:28" ht="20.100000000000001" customHeight="1">
       <c r="C27" s="22" t="s">
         <v>277</v>
       </c>
@@ -5647,29 +5689,29 @@
       <c r="E27" s="22" t="s">
         <v>278</v>
       </c>
-      <c r="F27" s="22" t="s">
+      <c r="F27" s="61" t="s">
+        <v>399</v>
+      </c>
+      <c r="G27" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="22" t="s">
+      <c r="H27" s="22" t="s">
         <v>257</v>
       </c>
-      <c r="H27" s="22" t="s">
+      <c r="I27" s="22" t="s">
         <v>361</v>
       </c>
-      <c r="I27" s="22" t="s">
+      <c r="J27" s="22" t="s">
         <v>257</v>
       </c>
-      <c r="J27" s="22" t="s">
+      <c r="K27" s="22" t="s">
         <v>362</v>
       </c>
-      <c r="K27" s="57" t="s">
+      <c r="L27" s="57" t="s">
         <v>360</v>
       </c>
-      <c r="L27" s="22" t="s">
+      <c r="M27" s="22" t="s">
         <v>255</v>
-      </c>
-      <c r="M27" s="53" t="s">
-        <v>277</v>
       </c>
       <c r="N27" s="53" t="s">
         <v>277</v>
@@ -5678,78 +5720,82 @@
         <v>277</v>
       </c>
       <c r="P27" s="53" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q27" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="Q27" s="53" t="s">
+      <c r="R27" s="53" t="s">
         <v>286</v>
       </c>
-      <c r="R27" s="53" t="s">
+      <c r="S27" s="53" t="s">
         <v>280</v>
       </c>
-      <c r="S27" s="22" t="s">
+      <c r="T27" s="22" t="s">
         <v>363</v>
       </c>
-      <c r="T27" s="22" t="s">
+      <c r="U27" s="22" t="s">
         <v>262</v>
       </c>
-      <c r="U27" s="22" t="s">
+      <c r="V27" s="22" t="s">
         <v>261</v>
       </c>
-      <c r="V27" s="22" t="s">
+      <c r="W27" s="22" t="s">
         <v>252</v>
       </c>
-      <c r="W27" s="57" t="s">
+      <c r="X27" s="57" t="s">
         <v>369</v>
       </c>
-      <c r="X27" s="22" t="s">
+      <c r="Y27" s="22" t="s">
         <v>262</v>
       </c>
-      <c r="Y27" s="53" t="s">
+      <c r="Z27" s="53" t="s">
         <v>333</v>
       </c>
-      <c r="Z27" s="22" t="s">
+      <c r="AA27" s="22" t="s">
         <v>252</v>
       </c>
-      <c r="AA27" s="22" t="s">
+      <c r="AB27" s="22" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="3:27" ht="20.100000000000001" customHeight="1">
+    <row r="28" spans="3:28" ht="20.100000000000001" customHeight="1">
       <c r="C28" s="22"/>
       <c r="D28" s="22"/>
       <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
+      <c r="F28" s="61"/>
       <c r="G28" s="22"/>
       <c r="H28" s="22"/>
       <c r="I28" s="22"/>
-      <c r="J28" s="65" t="s">
+      <c r="J28" s="22"/>
+      <c r="K28" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="K28" s="66"/>
-      <c r="L28" s="22"/>
-      <c r="M28" s="53" t="s">
+      <c r="L28" s="70"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="53" t="s">
         <v>148</v>
       </c>
-      <c r="N28" s="53"/>
       <c r="O28" s="53"/>
       <c r="P28" s="53"/>
       <c r="Q28" s="53"/>
-      <c r="R28" s="58" t="s">
+      <c r="R28" s="53"/>
+      <c r="S28" s="58" t="s">
         <v>148</v>
       </c>
-      <c r="S28" s="22"/>
       <c r="T28" s="22"/>
-      <c r="U28" s="53"/>
-      <c r="V28" s="22"/>
-      <c r="W28" s="22" t="s">
+      <c r="U28" s="22"/>
+      <c r="V28" s="53"/>
+      <c r="W28" s="22"/>
+      <c r="X28" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="X28" s="22"/>
-      <c r="Y28" s="53"/>
+      <c r="Y28" s="22"/>
       <c r="Z28" s="53"/>
-      <c r="AA28" s="59"/>
-    </row>
-    <row r="29" spans="3:27" ht="20.100000000000001" customHeight="1">
+      <c r="AA28" s="53"/>
+      <c r="AB28" s="59"/>
+    </row>
+    <row r="29" spans="3:28" ht="20.100000000000001" customHeight="1">
       <c r="C29" s="22" t="s">
         <v>302</v>
       </c>
@@ -5759,81 +5805,84 @@
       <c r="E29" s="22" t="s">
         <v>304</v>
       </c>
-      <c r="F29" s="22" t="s">
+      <c r="F29" s="61" t="s">
+        <v>400</v>
+      </c>
+      <c r="G29" s="22" t="s">
         <v>270</v>
       </c>
-      <c r="G29" s="22" t="s">
+      <c r="H29" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="H29" s="22" t="s">
+      <c r="I29" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="I29" s="22" t="s">
+      <c r="J29" s="22" t="s">
         <v>273</v>
       </c>
-      <c r="J29" s="22" t="s">
+      <c r="K29" s="22" t="s">
         <v>266</v>
       </c>
-      <c r="K29" s="57" t="s">
+      <c r="L29" s="57" t="s">
         <v>358</v>
       </c>
-      <c r="L29" s="22" t="s">
+      <c r="M29" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="M29" s="53" t="s">
+      <c r="N29" s="53" t="s">
         <v>345</v>
       </c>
-      <c r="N29" s="53" t="s">
+      <c r="O29" s="53" t="s">
         <v>326</v>
       </c>
-      <c r="O29" s="22" t="s">
+      <c r="P29" s="22" t="s">
         <v>194</v>
       </c>
-      <c r="P29" s="53" t="s">
+      <c r="Q29" s="53" t="s">
         <v>269</v>
       </c>
-      <c r="Q29" s="53" t="s">
+      <c r="R29" s="53" t="s">
         <v>328</v>
       </c>
-      <c r="R29" s="53" t="s">
+      <c r="S29" s="53" t="s">
         <v>335</v>
       </c>
-      <c r="S29" s="22" t="s">
+      <c r="T29" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="T29" s="22" t="s">
+      <c r="U29" s="22" t="s">
         <v>196</v>
       </c>
-      <c r="U29" s="53" t="s">
+      <c r="V29" s="53" t="s">
         <v>195</v>
       </c>
-      <c r="V29" s="22" t="s">
+      <c r="W29" s="22" t="s">
         <v>265</v>
       </c>
-      <c r="W29" s="22" t="s">
+      <c r="X29" s="22" t="s">
         <v>267</v>
       </c>
-      <c r="X29" s="22" t="s">
+      <c r="Y29" s="22" t="s">
         <v>268</v>
       </c>
-      <c r="Y29" s="22" t="s">
+      <c r="Z29" s="22" t="s">
         <v>271</v>
       </c>
-      <c r="Z29" s="53" t="s">
+      <c r="AA29" s="53" t="s">
         <v>296</v>
       </c>
-      <c r="AA29" s="22" t="s">
+      <c r="AB29" s="22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="3:27" ht="20.100000000000001" customHeight="1">
-      <c r="R30" s="39" t="s">
+    <row r="30" spans="3:28" ht="20.100000000000001" customHeight="1">
+      <c r="S30" s="39" t="s">
         <v>323</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="K28:L28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/文档/数据库表结构.xlsx
+++ b/文档/数据库表结构.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="用户表" sheetId="1" r:id="rId1"/>
@@ -270,7 +270,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="417">
   <si>
     <t>工号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2058,6 +2058,66 @@
     <t>fbd_area</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>返回日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配送状态</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>签收人</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>签收时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>异常原因</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否超时</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法获取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算后再来填上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由用户手动填</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:未发货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：已发货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -2069,7 +2129,7 @@
     <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="179" formatCode="yyyy/m/d\ h:mm;@"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2208,6 +2268,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2262,10 +2348,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right style="thin">
         <color indexed="64"/>
-      </left>
-      <right/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -2275,10 +2361,10 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
+      <left style="thin">
         <color indexed="64"/>
-      </right>
+      </left>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -2292,7 +2378,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2469,9 +2555,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2490,22 +2573,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3454,7 +3573,7 @@
   <dimension ref="B3:R28"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="I24" sqref="I24:K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -3463,7 +3582,7 @@
     <col min="2" max="2" width="5.25" style="24" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.875" style="24" customWidth="1"/>
     <col min="4" max="4" width="13.875" style="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.875" style="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.375" style="24" customWidth="1"/>
     <col min="6" max="6" width="16.125" style="24" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.75" style="24" customWidth="1"/>
     <col min="8" max="8" width="15" style="24" customWidth="1"/>
@@ -3482,14 +3601,14 @@
   <sheetData>
     <row r="3" spans="2:18" ht="20.100000000000001" customHeight="1">
       <c r="B3" s="22"/>
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="76" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
       <c r="I3" s="23"/>
       <c r="J3" s="22"/>
       <c r="K3" s="22"/>
@@ -3772,14 +3891,14 @@
       </c>
     </row>
     <row r="13" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="C13" s="65" t="s">
+      <c r="C13" s="76" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="65"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="65"/>
-      <c r="H13" s="65"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="76"/>
       <c r="I13" s="23"/>
       <c r="J13" s="22"/>
       <c r="K13" s="22"/>
@@ -4073,10 +4192,10 @@
       <c r="C26" s="22"/>
       <c r="D26" s="22"/>
       <c r="E26" s="22"/>
-      <c r="F26" s="66" t="s">
+      <c r="F26" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="G26" s="66"/>
+      <c r="G26" s="58"/>
       <c r="H26" s="22"/>
       <c r="I26" s="22"/>
       <c r="J26" s="22"/>
@@ -4143,10 +4262,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="C3:H3"/>
     <mergeCell ref="C13:H13"/>
-    <mergeCell ref="F26:G26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4165,79 +4283,79 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="9" style="62"/>
-    <col min="3" max="3" width="22.75" style="62" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5" style="62" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.75" style="62" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.125" style="62" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5" style="62" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="62"/>
+    <col min="1" max="2" width="9" style="61"/>
+    <col min="3" max="3" width="22.75" style="61" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="61" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.75" style="61" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.125" style="61" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" style="61" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="61"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:7" ht="20.100000000000001" customHeight="1">
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="59" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="4" spans="3:7" ht="20.100000000000001" customHeight="1">
-      <c r="C4" s="63" t="s">
+      <c r="C4" s="62" t="s">
         <v>381</v>
       </c>
-      <c r="D4" s="63" t="s">
+      <c r="D4" s="62" t="s">
         <v>382</v>
       </c>
-      <c r="E4" s="63" t="s">
+      <c r="E4" s="62" t="s">
         <v>383</v>
       </c>
-      <c r="F4" s="63" t="s">
+      <c r="F4" s="62" t="s">
         <v>393</v>
       </c>
-      <c r="G4" s="63" t="s">
+      <c r="G4" s="62" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="5" spans="3:7" ht="20.100000000000001" customHeight="1">
-      <c r="C5" s="64" t="s">
+      <c r="C5" s="63" t="s">
         <v>384</v>
       </c>
-      <c r="D5" s="64" t="s">
+      <c r="D5" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="64" t="s">
+      <c r="E5" s="63" t="s">
         <v>386</v>
       </c>
-      <c r="F5" s="64" t="s">
+      <c r="F5" s="63" t="s">
         <v>387</v>
       </c>
-      <c r="G5" s="64" t="s">
+      <c r="G5" s="63" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="6" spans="3:7" ht="20.100000000000001" customHeight="1">
-      <c r="C6" s="64" t="s">
+      <c r="C6" s="63" t="s">
         <v>385</v>
       </c>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64" t="s">
+      <c r="D6" s="63"/>
+      <c r="E6" s="63" t="s">
         <v>396</v>
       </c>
-      <c r="F6" s="64"/>
-      <c r="G6" s="64"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
     </row>
     <row r="7" spans="3:7" ht="20.100000000000001" customHeight="1">
-      <c r="C7" s="64" t="s">
+      <c r="C7" s="63" t="s">
         <v>390</v>
       </c>
-      <c r="D7" s="64" t="s">
+      <c r="D7" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="64" t="s">
+      <c r="E7" s="63" t="s">
         <v>391</v>
       </c>
-      <c r="F7" s="64" t="s">
+      <c r="F7" s="63" t="s">
         <v>392</v>
       </c>
-      <c r="G7" s="64" t="s">
+      <c r="G7" s="63" t="s">
         <v>395</v>
       </c>
     </row>
@@ -4251,10 +4369,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:V38"/>
+  <dimension ref="B3:W40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="K16" workbookViewId="0">
+      <selection activeCell="W42" sqref="W42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -4266,7 +4384,7 @@
     <col min="7" max="7" width="16.5" style="24" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.125" style="24" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.875" style="24" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="62.375" style="24" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5" style="24" customWidth="1"/>
     <col min="11" max="11" width="18.375" style="24" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.875" style="24" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="16.125" style="24" bestFit="1" customWidth="1"/>
@@ -4277,8 +4395,8 @@
     <col min="19" max="19" width="19.375" style="24" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="16.125" style="24" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="12.75" style="24" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15" style="24" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9" style="24"/>
+    <col min="22" max="23" width="15" style="24" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:19" ht="20.100000000000001" customHeight="1">
@@ -4510,7 +4628,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="17" spans="2:22" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="2:23" ht="20.100000000000001" customHeight="1">
       <c r="B17" s="31" t="s">
         <v>86</v>
       </c>
@@ -4572,7 +4690,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="18" spans="2:22" ht="20.100000000000001" customHeight="1">
+    <row r="18" spans="2:23" ht="20.100000000000001" customHeight="1">
       <c r="B18" s="22" t="s">
         <v>85</v>
       </c>
@@ -4618,7 +4736,7 @@
       <c r="T18" s="22"/>
       <c r="U18" s="22"/>
     </row>
-    <row r="19" spans="2:22" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="2:23" ht="20.100000000000001" customHeight="1">
       <c r="B19" s="22" t="s">
         <v>306</v>
       </c>
@@ -4680,7 +4798,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="20" spans="2:22" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="2:23" ht="20.100000000000001" customHeight="1">
       <c r="H20" s="24" t="s">
         <v>147</v>
       </c>
@@ -4689,7 +4807,7 @@
       </c>
       <c r="Q20" s="39"/>
     </row>
-    <row r="21" spans="2:22" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="2:23" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="24" t="s">
         <v>302</v>
       </c>
@@ -4751,66 +4869,66 @@
         <v>354</v>
       </c>
     </row>
-    <row r="24" spans="2:22" ht="20.100000000000001" customHeight="1">
-      <c r="C24" s="67" t="s">
+    <row r="24" spans="2:23" ht="20.100000000000001" customHeight="1">
+      <c r="C24" s="77" t="s">
         <v>348</v>
       </c>
-      <c r="D24" s="68"/>
-      <c r="E24" s="68"/>
-      <c r="F24" s="68"/>
-      <c r="G24" s="68"/>
-      <c r="H24" s="68"/>
-      <c r="I24" s="68"/>
-    </row>
-    <row r="25" spans="2:22" ht="20.100000000000001" customHeight="1">
-      <c r="C25" s="68"/>
-      <c r="D25" s="68"/>
-      <c r="E25" s="68"/>
-      <c r="F25" s="68"/>
-      <c r="G25" s="68"/>
-      <c r="H25" s="68"/>
-      <c r="I25" s="68"/>
-    </row>
-    <row r="26" spans="2:22" ht="20.100000000000001" customHeight="1">
-      <c r="C26" s="68"/>
-      <c r="D26" s="68"/>
-      <c r="E26" s="68"/>
-      <c r="F26" s="68"/>
-      <c r="G26" s="68"/>
-      <c r="H26" s="68"/>
-      <c r="I26" s="68"/>
-    </row>
-    <row r="27" spans="2:22" ht="20.100000000000001" customHeight="1">
+      <c r="D24" s="78"/>
+      <c r="E24" s="78"/>
+      <c r="F24" s="78"/>
+      <c r="G24" s="78"/>
+      <c r="H24" s="78"/>
+      <c r="I24" s="78"/>
+    </row>
+    <row r="25" spans="2:23" ht="20.100000000000001" customHeight="1">
+      <c r="C25" s="78"/>
+      <c r="D25" s="78"/>
+      <c r="E25" s="78"/>
+      <c r="F25" s="78"/>
+      <c r="G25" s="78"/>
+      <c r="H25" s="78"/>
+      <c r="I25" s="78"/>
+    </row>
+    <row r="26" spans="2:23" ht="20.100000000000001" customHeight="1">
+      <c r="C26" s="78"/>
+      <c r="D26" s="78"/>
+      <c r="E26" s="78"/>
+      <c r="F26" s="78"/>
+      <c r="G26" s="78"/>
+      <c r="H26" s="78"/>
+      <c r="I26" s="78"/>
+    </row>
+    <row r="27" spans="2:23" ht="20.100000000000001" customHeight="1">
       <c r="B27" s="33" t="s">
         <v>276</v>
       </c>
-      <c r="C27" s="68"/>
-      <c r="D27" s="68"/>
-      <c r="E27" s="68"/>
-      <c r="F27" s="68"/>
-      <c r="G27" s="68"/>
-      <c r="H27" s="68"/>
-      <c r="I27" s="68"/>
-    </row>
-    <row r="31" spans="2:22" ht="20.100000000000001" customHeight="1">
+      <c r="C27" s="78"/>
+      <c r="D27" s="78"/>
+      <c r="E27" s="78"/>
+      <c r="F27" s="78"/>
+      <c r="G27" s="78"/>
+      <c r="H27" s="78"/>
+      <c r="I27" s="78"/>
+    </row>
+    <row r="31" spans="2:23" ht="20.100000000000001" customHeight="1">
       <c r="B31" s="24" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="32" spans="2:22" ht="20.100000000000001" customHeight="1">
-      <c r="B32" s="31" t="s">
+    <row r="32" spans="2:23" ht="20.100000000000001" customHeight="1">
+      <c r="B32" s="69" t="s">
         <v>86</v>
       </c>
-      <c r="C32" s="31" t="s">
+      <c r="C32" s="69" t="s">
         <v>88</v>
       </c>
-      <c r="D32" s="31" t="s">
+      <c r="D32" s="69" t="s">
         <v>90</v>
       </c>
-      <c r="E32" s="31" t="s">
+      <c r="E32" s="69" t="s">
         <v>398</v>
       </c>
-      <c r="F32" s="32" t="s">
+      <c r="F32" s="70" t="s">
         <v>70</v>
       </c>
       <c r="G32" s="32" t="s">
@@ -4819,50 +4937,53 @@
       <c r="H32" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="I32" s="32" t="s">
+      <c r="I32" s="70" t="s">
         <v>98</v>
       </c>
-      <c r="J32" s="11" t="s">
+      <c r="J32" s="32" t="s">
+        <v>402</v>
+      </c>
+      <c r="K32" s="11" t="s">
         <v>364</v>
       </c>
-      <c r="K32" s="32" t="s">
+      <c r="L32" s="70" t="s">
         <v>68</v>
       </c>
-      <c r="L32" s="32" t="s">
+      <c r="M32" s="70" t="s">
         <v>71</v>
       </c>
-      <c r="M32" s="32" t="s">
+      <c r="N32" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="N32" s="31" t="s">
+      <c r="O32" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="O32" s="31" t="s">
+      <c r="P32" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="P32" s="31" t="s">
+      <c r="Q32" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="Q32" s="31" t="s">
+      <c r="R32" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="R32" s="31" t="s">
+      <c r="S32" s="31" t="s">
         <v>346</v>
       </c>
-      <c r="S32" s="31" t="s">
+      <c r="T32" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="T32" s="31" t="s">
+      <c r="U32" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="U32" s="11" t="s">
+      <c r="V32" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="V32" s="11" t="s">
+      <c r="W32" s="71" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="33" spans="2:22" ht="20.100000000000001" customHeight="1">
+    <row r="33" spans="2:23" ht="20.100000000000001" customHeight="1">
       <c r="B33" s="22" t="s">
         <v>85</v>
       </c>
@@ -4872,7 +4993,7 @@
       <c r="D33" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="E33" s="61"/>
+      <c r="E33" s="60"/>
       <c r="F33" s="22" t="s">
         <v>91</v>
       </c>
@@ -4885,28 +5006,30 @@
       <c r="I33" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="J33" s="22"/>
-      <c r="K33" s="22" t="s">
+      <c r="J33" s="64"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="L33" s="22"/>
-      <c r="M33" s="22" t="s">
-        <v>87</v>
-      </c>
+      <c r="M33" s="22"/>
       <c r="N33" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="O33" s="22"/>
+      <c r="O33" s="22" t="s">
+        <v>87</v>
+      </c>
       <c r="P33" s="22"/>
-      <c r="Q33" s="22" t="s">
+      <c r="Q33" s="22"/>
+      <c r="R33" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="R33" s="22"/>
       <c r="S33" s="22"/>
       <c r="T33" s="22"/>
       <c r="U33" s="22"/>
-    </row>
-    <row r="34" spans="2:22" ht="20.100000000000001" customHeight="1">
+      <c r="V33" s="22"/>
+      <c r="W33" s="64"/>
+    </row>
+    <row r="34" spans="2:23" ht="20.100000000000001" customHeight="1">
       <c r="B34" s="22" t="s">
         <v>277</v>
       </c>
@@ -4916,7 +5039,7 @@
       <c r="D34" s="22" t="s">
         <v>278</v>
       </c>
-      <c r="E34" s="61" t="s">
+      <c r="E34" s="60" t="s">
         <v>399</v>
       </c>
       <c r="F34" s="22" t="s">
@@ -4931,73 +5054,78 @@
       <c r="I34" s="22" t="s">
         <v>262</v>
       </c>
-      <c r="J34" s="22" t="s">
+      <c r="J34" s="64" t="s">
+        <v>403</v>
+      </c>
+      <c r="K34" s="22" t="s">
         <v>360</v>
       </c>
-      <c r="K34" s="22" t="s">
+      <c r="L34" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="L34" s="22" t="s">
+      <c r="M34" s="22" t="s">
         <v>257</v>
       </c>
-      <c r="M34" s="22" t="s">
+      <c r="N34" s="22" t="s">
         <v>255</v>
       </c>
-      <c r="N34" s="22" t="s">
+      <c r="O34" s="22" t="s">
         <v>257</v>
       </c>
-      <c r="O34" s="22" t="s">
+      <c r="P34" s="22" t="s">
         <v>261</v>
       </c>
-      <c r="P34" s="22" t="s">
+      <c r="Q34" s="22" t="s">
         <v>262</v>
       </c>
-      <c r="Q34" s="22" t="s">
+      <c r="R34" s="22" t="s">
         <v>375</v>
       </c>
-      <c r="R34" s="53" t="s">
+      <c r="S34" s="53" t="s">
         <v>333</v>
       </c>
-      <c r="S34" s="57" t="s">
+      <c r="T34" s="57" t="s">
         <v>369</v>
       </c>
-      <c r="T34" s="22" t="s">
+      <c r="U34" s="22" t="s">
         <v>363</v>
       </c>
-      <c r="U34" s="22" t="s">
+      <c r="V34" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="V34" s="24" t="s">
+      <c r="W34" s="64" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="35" spans="2:22" ht="20.100000000000001" customHeight="1">
+    <row r="35" spans="2:23" ht="20.100000000000001" customHeight="1">
       <c r="B35" s="22"/>
       <c r="C35" s="22"/>
       <c r="D35" s="22"/>
-      <c r="E35" s="61"/>
+      <c r="E35" s="60"/>
       <c r="F35" s="22"/>
       <c r="G35" s="22"/>
       <c r="H35" s="22"/>
-      <c r="I35" s="66" t="s">
+      <c r="I35" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="J35" s="66"/>
-      <c r="K35" s="22"/>
+      <c r="J35" s="80"/>
+      <c r="K35" s="58"/>
       <c r="L35" s="22"/>
       <c r="M35" s="22"/>
       <c r="N35" s="22"/>
       <c r="O35" s="22"/>
       <c r="P35" s="22"/>
       <c r="Q35" s="22"/>
-      <c r="R35" s="53"/>
-      <c r="S35" s="22" t="s">
+      <c r="R35" s="22"/>
+      <c r="S35" s="53"/>
+      <c r="T35" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="T35" s="22"/>
       <c r="U35" s="22"/>
-    </row>
-    <row r="36" spans="2:22" ht="20.100000000000001" customHeight="1">
+      <c r="V35" s="22"/>
+      <c r="W35" s="64"/>
+    </row>
+    <row r="36" spans="2:23" ht="20.100000000000001" customHeight="1">
       <c r="B36" s="22" t="s">
         <v>31</v>
       </c>
@@ -5007,7 +5135,7 @@
       <c r="D36" s="22" t="s">
         <v>304</v>
       </c>
-      <c r="E36" s="61" t="s">
+      <c r="E36" s="60" t="s">
         <v>401</v>
       </c>
       <c r="F36" s="22" t="s">
@@ -5022,49 +5150,67 @@
       <c r="I36" s="22" t="s">
         <v>371</v>
       </c>
-      <c r="J36" s="22" t="s">
+      <c r="J36" s="64" t="s">
+        <v>404</v>
+      </c>
+      <c r="K36" s="22" t="s">
         <v>365</v>
       </c>
-      <c r="K36" s="22" t="s">
+      <c r="L36" s="22" t="s">
         <v>270</v>
       </c>
-      <c r="L36" s="22" t="s">
+      <c r="M36" s="22" t="s">
         <v>374</v>
       </c>
-      <c r="M36" s="22" t="s">
+      <c r="N36" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="N36" s="22" t="s">
+      <c r="O36" s="22" t="s">
         <v>194</v>
       </c>
-      <c r="O36" s="22" t="s">
+      <c r="P36" s="22" t="s">
         <v>195</v>
       </c>
-      <c r="P36" s="22" t="s">
+      <c r="Q36" s="22" t="s">
         <v>268</v>
       </c>
-      <c r="Q36" s="22" t="s">
+      <c r="R36" s="22" t="s">
         <v>265</v>
       </c>
-      <c r="R36" s="22" t="s">
+      <c r="S36" s="22" t="s">
         <v>271</v>
       </c>
-      <c r="S36" s="22" t="s">
+      <c r="T36" s="22" t="s">
         <v>267</v>
       </c>
-      <c r="T36" s="22" t="s">
+      <c r="U36" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="U36" s="22" t="s">
+      <c r="V36" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="V36" s="24" t="s">
+      <c r="W36" s="64" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="38" spans="2:22" ht="20.100000000000001" customHeight="1">
-      <c r="V38" s="24" t="s">
+    <row r="37" spans="2:23" ht="20.100000000000001" customHeight="1">
+      <c r="W37" s="24" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="38" spans="2:23" ht="20.100000000000001" customHeight="1">
+      <c r="W38" s="24" t="s">
         <v>397</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" ht="20.100000000000001" customHeight="1">
+      <c r="W39" s="24" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="40" spans="2:23" ht="20.100000000000001" customHeight="1">
+      <c r="W40" s="24" t="s">
+        <v>416</v>
       </c>
     </row>
   </sheetData>
@@ -5081,10 +5227,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:AB30"/>
+  <dimension ref="B3:AC32"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView topLeftCell="N7" workbookViewId="0">
+      <selection activeCell="X21" sqref="X21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -5094,7 +5240,7 @@
     <col min="3" max="3" width="24" style="39" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="15.875" style="39" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.125" style="39" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="64.75" style="39" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5" style="39" customWidth="1"/>
     <col min="9" max="10" width="16.125" style="39" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.125" style="39" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.5" style="39" bestFit="1" customWidth="1"/>
@@ -5110,7 +5256,9 @@
     <col min="24" max="24" width="13.875" style="39" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="12.875" style="39" bestFit="1" customWidth="1"/>
     <col min="26" max="27" width="12.75" style="39" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9" style="39"/>
+    <col min="28" max="28" width="9" style="39"/>
+    <col min="29" max="29" width="12.75" style="39" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9" style="39"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:23" ht="19.5" customHeight="1"/>
@@ -5584,32 +5732,33 @@
         <v>323</v>
       </c>
     </row>
-    <row r="20" spans="3:28" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="3:29" ht="20.100000000000001" customHeight="1">
       <c r="C20" s="52" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="21" spans="3:28" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="3:29" ht="20.100000000000001" customHeight="1">
       <c r="C21" s="33" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="25" spans="3:28" ht="20.100000000000001" customHeight="1">
+    <row r="25" spans="3:29" ht="20.100000000000001" customHeight="1">
       <c r="C25" s="39" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" ht="20.100000000000001" customHeight="1">
+      <c r="R25" s="73"/>
+    </row>
+    <row r="26" spans="3:29" ht="20.100000000000001" customHeight="1">
       <c r="C26" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="D26" s="31" t="s">
+      <c r="D26" s="72" t="s">
         <v>88</v>
       </c>
-      <c r="E26" s="31" t="s">
+      <c r="E26" s="72" t="s">
         <v>90</v>
       </c>
-      <c r="F26" s="31" t="s">
+      <c r="F26" s="72" t="s">
         <v>398</v>
       </c>
       <c r="G26" s="32" t="s">
@@ -5624,260 +5773,309 @@
       <c r="J26" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="K26" s="32" t="s">
+      <c r="K26" s="70" t="s">
         <v>98</v>
       </c>
-      <c r="L26" s="11" t="s">
+      <c r="L26" s="32" t="s">
+        <v>402</v>
+      </c>
+      <c r="M26" s="66" t="s">
         <v>359</v>
       </c>
-      <c r="M26" s="32" t="s">
+      <c r="N26" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="N26" s="51" t="s">
-        <v>117</v>
-      </c>
-      <c r="O26" s="51" t="s">
-        <v>116</v>
-      </c>
-      <c r="P26" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q26" s="51" t="s">
-        <v>114</v>
-      </c>
-      <c r="R26" s="51" t="s">
-        <v>113</v>
-      </c>
-      <c r="S26" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="T26" s="31" t="s">
+      <c r="O26" s="70" t="s">
+        <v>406</v>
+      </c>
+      <c r="P26" s="32" t="s">
+        <v>407</v>
+      </c>
+      <c r="Q26" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="R26" s="70" t="s">
+        <v>408</v>
+      </c>
+      <c r="S26" s="32" t="s">
+        <v>409</v>
+      </c>
+      <c r="T26" s="32" t="s">
+        <v>410</v>
+      </c>
+      <c r="U26" s="72" t="s">
         <v>84</v>
       </c>
-      <c r="U26" s="31" t="s">
+      <c r="V26" s="72" t="s">
         <v>100</v>
       </c>
-      <c r="V26" s="9" t="s">
+      <c r="W26" s="74" t="s">
         <v>102</v>
       </c>
-      <c r="W26" s="31" t="s">
+      <c r="X26" s="72" t="s">
         <v>78</v>
       </c>
-      <c r="X26" s="31" t="s">
+      <c r="Y26" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="Y26" s="31" t="s">
+      <c r="Z26" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="Z26" s="31" t="s">
+      <c r="AA26" s="72" t="s">
         <v>346</v>
       </c>
-      <c r="AA26" s="9" t="s">
+      <c r="AB26" s="74" t="s">
         <v>108</v>
       </c>
-      <c r="AB26" s="11" t="s">
+      <c r="AC26" s="11" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="3:28" ht="20.100000000000001" customHeight="1">
-      <c r="C27" s="22" t="s">
+    <row r="27" spans="3:29" ht="20.100000000000001" customHeight="1">
+      <c r="C27" s="68" t="s">
         <v>277</v>
       </c>
-      <c r="D27" s="22" t="s">
+      <c r="D27" s="68" t="s">
         <v>278</v>
       </c>
-      <c r="E27" s="22" t="s">
+      <c r="E27" s="68" t="s">
         <v>278</v>
       </c>
-      <c r="F27" s="61" t="s">
+      <c r="F27" s="68" t="s">
         <v>399</v>
       </c>
-      <c r="G27" s="22" t="s">
+      <c r="G27" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="H27" s="22" t="s">
+      <c r="H27" s="68" t="s">
         <v>257</v>
       </c>
-      <c r="I27" s="22" t="s">
+      <c r="I27" s="68" t="s">
         <v>361</v>
       </c>
-      <c r="J27" s="22" t="s">
+      <c r="J27" s="68" t="s">
         <v>257</v>
       </c>
-      <c r="K27" s="22" t="s">
+      <c r="K27" s="68" t="s">
         <v>362</v>
       </c>
-      <c r="L27" s="57" t="s">
+      <c r="L27" s="68" t="s">
+        <v>403</v>
+      </c>
+      <c r="M27" s="67" t="s">
         <v>360</v>
       </c>
-      <c r="M27" s="22" t="s">
+      <c r="N27" s="68" t="s">
         <v>255</v>
       </c>
-      <c r="N27" s="53" t="s">
+      <c r="O27" s="68" t="s">
         <v>277</v>
       </c>
-      <c r="O27" s="53" t="s">
+      <c r="P27" s="68" t="s">
         <v>277</v>
       </c>
-      <c r="P27" s="53" t="s">
+      <c r="Q27" s="68" t="s">
         <v>277</v>
       </c>
-      <c r="Q27" s="53" t="s">
+      <c r="R27" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="R27" s="53" t="s">
+      <c r="S27" s="68" t="s">
         <v>286</v>
       </c>
-      <c r="S27" s="53" t="s">
+      <c r="T27" s="68" t="s">
         <v>280</v>
       </c>
-      <c r="T27" s="22" t="s">
+      <c r="U27" s="68" t="s">
         <v>363</v>
       </c>
-      <c r="U27" s="22" t="s">
+      <c r="V27" s="68" t="s">
         <v>262</v>
       </c>
-      <c r="V27" s="22" t="s">
+      <c r="W27" s="68" t="s">
         <v>261</v>
       </c>
-      <c r="W27" s="22" t="s">
+      <c r="X27" s="68" t="s">
         <v>252</v>
       </c>
-      <c r="X27" s="57" t="s">
+      <c r="Y27" s="68" t="s">
         <v>369</v>
       </c>
-      <c r="Y27" s="22" t="s">
+      <c r="Z27" s="68" t="s">
         <v>262</v>
       </c>
-      <c r="Z27" s="53" t="s">
+      <c r="AA27" s="68" t="s">
         <v>333</v>
       </c>
-      <c r="AA27" s="22" t="s">
+      <c r="AB27" s="68" t="s">
         <v>252</v>
       </c>
-      <c r="AB27" s="22" t="s">
+      <c r="AC27" s="68" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="3:28" ht="20.100000000000001" customHeight="1">
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="69" t="s">
+    <row r="28" spans="3:29" ht="20.100000000000001" customHeight="1">
+      <c r="C28" s="68"/>
+      <c r="D28" s="68"/>
+      <c r="E28" s="68"/>
+      <c r="F28" s="68"/>
+      <c r="G28" s="68"/>
+      <c r="H28" s="68"/>
+      <c r="I28" s="68"/>
+      <c r="J28" s="68"/>
+      <c r="K28" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="L28" s="70"/>
-      <c r="M28" s="22"/>
-      <c r="N28" s="53" t="s">
+      <c r="L28" s="81"/>
+      <c r="M28" s="65"/>
+      <c r="N28" s="68"/>
+      <c r="O28" s="68" t="s">
         <v>148</v>
       </c>
-      <c r="O28" s="53"/>
-      <c r="P28" s="53"/>
-      <c r="Q28" s="53"/>
-      <c r="R28" s="53"/>
-      <c r="S28" s="58" t="s">
+      <c r="P28" s="68"/>
+      <c r="Q28" s="68"/>
+      <c r="R28" s="68"/>
+      <c r="S28" s="68"/>
+      <c r="T28" s="75" t="s">
         <v>148</v>
       </c>
-      <c r="T28" s="22"/>
-      <c r="U28" s="22"/>
-      <c r="V28" s="53"/>
-      <c r="W28" s="22"/>
-      <c r="X28" s="22" t="s">
+      <c r="U28" s="68"/>
+      <c r="V28" s="68"/>
+      <c r="W28" s="68"/>
+      <c r="X28" s="68"/>
+      <c r="Y28" s="68" t="s">
         <v>148</v>
       </c>
-      <c r="Y28" s="22"/>
-      <c r="Z28" s="53"/>
-      <c r="AA28" s="53"/>
-      <c r="AB28" s="59"/>
-    </row>
-    <row r="29" spans="3:28" ht="20.100000000000001" customHeight="1">
-      <c r="C29" s="22" t="s">
+      <c r="Z28" s="68"/>
+      <c r="AA28" s="68"/>
+      <c r="AB28" s="68"/>
+      <c r="AC28" s="58"/>
+    </row>
+    <row r="29" spans="3:29" ht="20.100000000000001" customHeight="1">
+      <c r="C29" s="68" t="s">
         <v>302</v>
       </c>
-      <c r="D29" s="22" t="s">
+      <c r="D29" s="68" t="s">
         <v>303</v>
       </c>
-      <c r="E29" s="22" t="s">
+      <c r="E29" s="68" t="s">
         <v>304</v>
       </c>
-      <c r="F29" s="61" t="s">
+      <c r="F29" s="68" t="s">
         <v>400</v>
       </c>
-      <c r="G29" s="22" t="s">
+      <c r="G29" s="68" t="s">
         <v>270</v>
       </c>
-      <c r="H29" s="22" t="s">
+      <c r="H29" s="68" t="s">
         <v>190</v>
       </c>
-      <c r="I29" s="22" t="s">
+      <c r="I29" s="68" t="s">
         <v>191</v>
       </c>
-      <c r="J29" s="22" t="s">
+      <c r="J29" s="68" t="s">
         <v>273</v>
       </c>
-      <c r="K29" s="22" t="s">
+      <c r="K29" s="68" t="s">
         <v>266</v>
       </c>
-      <c r="L29" s="57" t="s">
+      <c r="L29" s="68" t="s">
+        <v>405</v>
+      </c>
+      <c r="M29" s="67" t="s">
         <v>358</v>
       </c>
-      <c r="M29" s="22" t="s">
+      <c r="N29" s="68" t="s">
         <v>192</v>
       </c>
-      <c r="N29" s="53" t="s">
+      <c r="O29" s="68" t="s">
         <v>345</v>
       </c>
-      <c r="O29" s="53" t="s">
+      <c r="P29" s="68" t="s">
         <v>326</v>
       </c>
-      <c r="P29" s="22" t="s">
+      <c r="Q29" s="68" t="s">
         <v>194</v>
       </c>
-      <c r="Q29" s="53" t="s">
+      <c r="R29" s="68" t="s">
         <v>269</v>
       </c>
-      <c r="R29" s="53" t="s">
+      <c r="S29" s="68" t="s">
         <v>328</v>
       </c>
-      <c r="S29" s="53" t="s">
+      <c r="T29" s="68" t="s">
         <v>335</v>
       </c>
-      <c r="T29" s="22" t="s">
+      <c r="U29" s="68" t="s">
         <v>193</v>
       </c>
-      <c r="U29" s="22" t="s">
+      <c r="V29" s="68" t="s">
         <v>196</v>
       </c>
-      <c r="V29" s="53" t="s">
+      <c r="W29" s="68" t="s">
         <v>195</v>
       </c>
-      <c r="W29" s="22" t="s">
+      <c r="X29" s="68" t="s">
         <v>265</v>
       </c>
-      <c r="X29" s="22" t="s">
+      <c r="Y29" s="68" t="s">
         <v>267</v>
       </c>
-      <c r="Y29" s="22" t="s">
+      <c r="Z29" s="68" t="s">
         <v>268</v>
       </c>
-      <c r="Z29" s="22" t="s">
+      <c r="AA29" s="68" t="s">
         <v>271</v>
       </c>
-      <c r="AA29" s="53" t="s">
+      <c r="AB29" s="68" t="s">
         <v>296</v>
       </c>
-      <c r="AB29" s="22" t="s">
+      <c r="AC29" s="68" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="3:28" ht="20.100000000000001" customHeight="1">
-      <c r="S30" s="39" t="s">
+    <row r="30" spans="3:29" ht="20.100000000000001" customHeight="1">
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="24"/>
+      <c r="N30" s="24"/>
+      <c r="O30" s="24"/>
+      <c r="P30" s="24"/>
+      <c r="Q30" s="24"/>
+      <c r="R30" s="24"/>
+      <c r="T30" s="24" t="s">
         <v>323</v>
+      </c>
+      <c r="U30" s="24"/>
+      <c r="V30" s="24"/>
+      <c r="W30" s="24"/>
+      <c r="X30" s="24"/>
+      <c r="Y30" s="24"/>
+      <c r="Z30" s="24"/>
+      <c r="AA30" s="24"/>
+      <c r="AB30" s="24"/>
+      <c r="AC30" s="24"/>
+    </row>
+    <row r="32" spans="3:29" ht="20.100000000000001" customHeight="1">
+      <c r="P32" s="39" t="s">
+        <v>411</v>
+      </c>
+      <c r="S32" s="39" t="s">
+        <v>413</v>
+      </c>
+      <c r="T32" s="39" t="s">
+        <v>412</v>
+      </c>
+      <c r="AB32" s="39" t="s">
+        <v>411</v>
       </c>
     </row>
   </sheetData>

--- a/文档/数据库表结构.xlsx
+++ b/文档/数据库表结构.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="用户表" sheetId="1" r:id="rId1"/>
@@ -270,7 +270,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="420">
   <si>
     <t>工号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2116,6 +2116,18 @@
   </si>
   <si>
     <t>1：已发货</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入者id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stu_num</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2378,7 +2390,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2608,6 +2620,9 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2935,7 +2950,7 @@
   <dimension ref="B3:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -3572,8 +3587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:R28"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24:K27"/>
+    <sheetView tabSelected="1" topLeftCell="E10" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -3601,14 +3616,14 @@
   <sheetData>
     <row r="3" spans="2:18" ht="20.100000000000001" customHeight="1">
       <c r="B3" s="22"/>
-      <c r="C3" s="76" t="s">
+      <c r="C3" s="77" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
       <c r="I3" s="23"/>
       <c r="J3" s="22"/>
       <c r="K3" s="22"/>
@@ -3891,14 +3906,14 @@
       </c>
     </row>
     <row r="13" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="C13" s="76" t="s">
+      <c r="C13" s="77" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="76"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="76"/>
-      <c r="G13" s="76"/>
-      <c r="H13" s="76"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="77"/>
+      <c r="H13" s="77"/>
       <c r="I13" s="23"/>
       <c r="J13" s="22"/>
       <c r="K13" s="22"/>
@@ -4140,6 +4155,9 @@
       <c r="Q24" s="11" t="s">
         <v>380</v>
       </c>
+      <c r="R24" s="11" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="25" spans="3:18" ht="20.100000000000001" customHeight="1">
       <c r="C25" s="22" t="s">
@@ -4186,6 +4204,9 @@
       </c>
       <c r="Q25" s="22" t="s">
         <v>366</v>
+      </c>
+      <c r="R25" s="76" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="26" spans="3:18" ht="20.100000000000001" customHeight="1">
@@ -4208,6 +4229,7 @@
       <c r="O26" s="22"/>
       <c r="P26" s="22"/>
       <c r="Q26" s="22"/>
+      <c r="R26" s="76"/>
     </row>
     <row r="27" spans="3:18" ht="20.100000000000001" customHeight="1">
       <c r="C27" s="22" t="s">
@@ -4254,6 +4276,9 @@
       </c>
       <c r="Q27" s="22" t="s">
         <v>367</v>
+      </c>
+      <c r="R27" s="76" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="28" spans="3:18" ht="20.100000000000001" customHeight="1">
@@ -4278,7 +4303,7 @@
   <dimension ref="C3:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -4371,7 +4396,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:W40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K16" workbookViewId="0">
+    <sheetView topLeftCell="K16" workbookViewId="0">
       <selection activeCell="W42" sqref="W42"/>
     </sheetView>
   </sheetViews>
@@ -4870,45 +4895,45 @@
       </c>
     </row>
     <row r="24" spans="2:23" ht="20.100000000000001" customHeight="1">
-      <c r="C24" s="77" t="s">
+      <c r="C24" s="78" t="s">
         <v>348</v>
       </c>
-      <c r="D24" s="78"/>
-      <c r="E24" s="78"/>
-      <c r="F24" s="78"/>
-      <c r="G24" s="78"/>
-      <c r="H24" s="78"/>
-      <c r="I24" s="78"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="79"/>
+      <c r="H24" s="79"/>
+      <c r="I24" s="79"/>
     </row>
     <row r="25" spans="2:23" ht="20.100000000000001" customHeight="1">
-      <c r="C25" s="78"/>
-      <c r="D25" s="78"/>
-      <c r="E25" s="78"/>
-      <c r="F25" s="78"/>
-      <c r="G25" s="78"/>
-      <c r="H25" s="78"/>
-      <c r="I25" s="78"/>
+      <c r="C25" s="79"/>
+      <c r="D25" s="79"/>
+      <c r="E25" s="79"/>
+      <c r="F25" s="79"/>
+      <c r="G25" s="79"/>
+      <c r="H25" s="79"/>
+      <c r="I25" s="79"/>
     </row>
     <row r="26" spans="2:23" ht="20.100000000000001" customHeight="1">
-      <c r="C26" s="78"/>
-      <c r="D26" s="78"/>
-      <c r="E26" s="78"/>
-      <c r="F26" s="78"/>
-      <c r="G26" s="78"/>
-      <c r="H26" s="78"/>
-      <c r="I26" s="78"/>
+      <c r="C26" s="79"/>
+      <c r="D26" s="79"/>
+      <c r="E26" s="79"/>
+      <c r="F26" s="79"/>
+      <c r="G26" s="79"/>
+      <c r="H26" s="79"/>
+      <c r="I26" s="79"/>
     </row>
     <row r="27" spans="2:23" ht="20.100000000000001" customHeight="1">
       <c r="B27" s="33" t="s">
         <v>276</v>
       </c>
-      <c r="C27" s="78"/>
-      <c r="D27" s="78"/>
-      <c r="E27" s="78"/>
-      <c r="F27" s="78"/>
-      <c r="G27" s="78"/>
-      <c r="H27" s="78"/>
-      <c r="I27" s="78"/>
+      <c r="C27" s="79"/>
+      <c r="D27" s="79"/>
+      <c r="E27" s="79"/>
+      <c r="F27" s="79"/>
+      <c r="G27" s="79"/>
+      <c r="H27" s="79"/>
+      <c r="I27" s="79"/>
     </row>
     <row r="31" spans="2:23" ht="20.100000000000001" customHeight="1">
       <c r="B31" s="24" t="s">
@@ -5105,10 +5130,10 @@
       <c r="F35" s="22"/>
       <c r="G35" s="22"/>
       <c r="H35" s="22"/>
-      <c r="I35" s="79" t="s">
+      <c r="I35" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="J35" s="80"/>
+      <c r="J35" s="81"/>
       <c r="K35" s="58"/>
       <c r="L35" s="22"/>
       <c r="M35" s="22"/>
@@ -5923,10 +5948,10 @@
       <c r="H28" s="68"/>
       <c r="I28" s="68"/>
       <c r="J28" s="68"/>
-      <c r="K28" s="81" t="s">
+      <c r="K28" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="L28" s="81"/>
+      <c r="L28" s="82"/>
       <c r="M28" s="65"/>
       <c r="N28" s="68"/>
       <c r="O28" s="68" t="s">

--- a/文档/数据库表结构.xlsx
+++ b/文档/数据库表结构.xlsx
@@ -270,7 +270,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="424">
   <si>
     <t>工号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2128,6 +2128,22 @@
   </si>
   <si>
     <t>stu_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一段码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>one_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必须</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2390,7 +2406,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2620,6 +2636,9 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3585,10 +3604,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:R28"/>
+  <dimension ref="B3:S29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E10" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView tabSelected="1" topLeftCell="E13" workbookViewId="0">
+      <selection activeCell="S29" sqref="S29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -3610,20 +3629,20 @@
     <col min="15" max="15" width="13.875" style="24" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.75" style="24" customWidth="1"/>
     <col min="17" max="17" width="15.125" style="24" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.75" style="24" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="24"/>
+    <col min="18" max="19" width="12.75" style="24" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:18" ht="20.100000000000001" customHeight="1">
       <c r="B3" s="22"/>
-      <c r="C3" s="77" t="s">
+      <c r="C3" s="78" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
       <c r="I3" s="23"/>
       <c r="J3" s="22"/>
       <c r="K3" s="22"/>
@@ -3906,14 +3925,14 @@
       </c>
     </row>
     <row r="13" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="C13" s="77" t="s">
+      <c r="C13" s="78" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="77"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="77"/>
+      <c r="D13" s="78"/>
+      <c r="E13" s="78"/>
+      <c r="F13" s="78"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="78"/>
       <c r="I13" s="23"/>
       <c r="J13" s="22"/>
       <c r="K13" s="22"/>
@@ -4049,7 +4068,7 @@
       </c>
       <c r="R16" s="22"/>
     </row>
-    <row r="17" spans="3:18" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="3:19" ht="20.100000000000001" customHeight="1">
       <c r="C17" s="24" t="s">
         <v>270</v>
       </c>
@@ -4099,17 +4118,17 @@
         <v>354</v>
       </c>
     </row>
-    <row r="20" spans="3:18" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="3:19" ht="20.100000000000001" customHeight="1">
       <c r="C20" s="33" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="23" spans="3:18" ht="20.100000000000001" customHeight="1">
+    <row r="23" spans="3:19" ht="20.100000000000001" customHeight="1">
       <c r="C23" s="56" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="24" spans="3:18" ht="20.100000000000001" customHeight="1">
+    <row r="24" spans="3:19" ht="20.100000000000001" customHeight="1">
       <c r="C24" s="26" t="s">
         <v>70</v>
       </c>
@@ -4158,8 +4177,11 @@
       <c r="R24" s="11" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" ht="20.100000000000001" customHeight="1">
+      <c r="S24" s="11" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" ht="20.100000000000001" customHeight="1">
       <c r="C25" s="22" t="s">
         <v>361</v>
       </c>
@@ -4208,8 +4230,11 @@
       <c r="R25" s="76" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" ht="20.100000000000001" customHeight="1">
+      <c r="S25" s="77" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" ht="20.100000000000001" customHeight="1">
       <c r="C26" s="22"/>
       <c r="D26" s="22"/>
       <c r="E26" s="22"/>
@@ -4230,8 +4255,9 @@
       <c r="P26" s="22"/>
       <c r="Q26" s="22"/>
       <c r="R26" s="76"/>
-    </row>
-    <row r="27" spans="3:18" ht="20.100000000000001" customHeight="1">
+      <c r="S26" s="77"/>
+    </row>
+    <row r="27" spans="3:19" ht="20.100000000000001" customHeight="1">
       <c r="C27" s="22" t="s">
         <v>191</v>
       </c>
@@ -4280,10 +4306,18 @@
       <c r="R27" s="76" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" ht="20.100000000000001" customHeight="1">
+      <c r="S27" s="77" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" ht="20.100000000000001" customHeight="1">
       <c r="Q28" s="24" t="s">
         <v>368</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" ht="20.100000000000001" customHeight="1">
+      <c r="S29" s="24" t="s">
+        <v>423</v>
       </c>
     </row>
   </sheetData>
@@ -4895,45 +4929,45 @@
       </c>
     </row>
     <row r="24" spans="2:23" ht="20.100000000000001" customHeight="1">
-      <c r="C24" s="78" t="s">
+      <c r="C24" s="79" t="s">
         <v>348</v>
       </c>
-      <c r="D24" s="79"/>
-      <c r="E24" s="79"/>
-      <c r="F24" s="79"/>
-      <c r="G24" s="79"/>
-      <c r="H24" s="79"/>
-      <c r="I24" s="79"/>
+      <c r="D24" s="80"/>
+      <c r="E24" s="80"/>
+      <c r="F24" s="80"/>
+      <c r="G24" s="80"/>
+      <c r="H24" s="80"/>
+      <c r="I24" s="80"/>
     </row>
     <row r="25" spans="2:23" ht="20.100000000000001" customHeight="1">
-      <c r="C25" s="79"/>
-      <c r="D25" s="79"/>
-      <c r="E25" s="79"/>
-      <c r="F25" s="79"/>
-      <c r="G25" s="79"/>
-      <c r="H25" s="79"/>
-      <c r="I25" s="79"/>
+      <c r="C25" s="80"/>
+      <c r="D25" s="80"/>
+      <c r="E25" s="80"/>
+      <c r="F25" s="80"/>
+      <c r="G25" s="80"/>
+      <c r="H25" s="80"/>
+      <c r="I25" s="80"/>
     </row>
     <row r="26" spans="2:23" ht="20.100000000000001" customHeight="1">
-      <c r="C26" s="79"/>
-      <c r="D26" s="79"/>
-      <c r="E26" s="79"/>
-      <c r="F26" s="79"/>
-      <c r="G26" s="79"/>
-      <c r="H26" s="79"/>
-      <c r="I26" s="79"/>
+      <c r="C26" s="80"/>
+      <c r="D26" s="80"/>
+      <c r="E26" s="80"/>
+      <c r="F26" s="80"/>
+      <c r="G26" s="80"/>
+      <c r="H26" s="80"/>
+      <c r="I26" s="80"/>
     </row>
     <row r="27" spans="2:23" ht="20.100000000000001" customHeight="1">
       <c r="B27" s="33" t="s">
         <v>276</v>
       </c>
-      <c r="C27" s="79"/>
-      <c r="D27" s="79"/>
-      <c r="E27" s="79"/>
-      <c r="F27" s="79"/>
-      <c r="G27" s="79"/>
-      <c r="H27" s="79"/>
-      <c r="I27" s="79"/>
+      <c r="C27" s="80"/>
+      <c r="D27" s="80"/>
+      <c r="E27" s="80"/>
+      <c r="F27" s="80"/>
+      <c r="G27" s="80"/>
+      <c r="H27" s="80"/>
+      <c r="I27" s="80"/>
     </row>
     <row r="31" spans="2:23" ht="20.100000000000001" customHeight="1">
       <c r="B31" s="24" t="s">
@@ -5130,10 +5164,10 @@
       <c r="F35" s="22"/>
       <c r="G35" s="22"/>
       <c r="H35" s="22"/>
-      <c r="I35" s="80" t="s">
+      <c r="I35" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="J35" s="81"/>
+      <c r="J35" s="82"/>
       <c r="K35" s="58"/>
       <c r="L35" s="22"/>
       <c r="M35" s="22"/>
@@ -5948,10 +5982,10 @@
       <c r="H28" s="68"/>
       <c r="I28" s="68"/>
       <c r="J28" s="68"/>
-      <c r="K28" s="82" t="s">
+      <c r="K28" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="L28" s="82"/>
+      <c r="L28" s="83"/>
       <c r="M28" s="65"/>
       <c r="N28" s="68"/>
       <c r="O28" s="68" t="s">

--- a/文档/数据库表结构.xlsx
+++ b/文档/数据库表结构.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="10"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="用户表" sheetId="1" r:id="rId1"/>
@@ -271,7 +271,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="435">
   <si>
     <t>工号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2168,6 +2168,26 @@
   </si>
   <si>
     <t>province_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唯一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>省份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>province</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:未超时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：超时</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2430,7 +2450,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2660,6 +2680,9 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3114,7 +3137,7 @@
   <dimension ref="C3:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -3334,8 +3357,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -3347,10 +3370,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" ht="20.100000000000001" customHeight="1">
-      <c r="B2" s="84" t="s">
+      <c r="B2" s="85" t="s">
         <v>429</v>
       </c>
-      <c r="C2" s="84"/>
+      <c r="C2" s="85"/>
     </row>
     <row r="3" spans="2:3" ht="20.100000000000001" customHeight="1">
       <c r="B3" s="62" t="s">
@@ -3693,10 +3716,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:S29"/>
+  <dimension ref="B3:T29"/>
   <sheetViews>
-    <sheetView topLeftCell="E13" workbookViewId="0">
-      <selection activeCell="S29" sqref="S29"/>
+    <sheetView topLeftCell="F13" workbookViewId="0">
+      <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -3719,19 +3742,20 @@
     <col min="16" max="16" width="12.75" style="24" customWidth="1"/>
     <col min="17" max="17" width="15.125" style="24" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="12.75" style="24" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="24"/>
+    <col min="20" max="20" width="13.875" style="24" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:18" ht="20.100000000000001" customHeight="1">
       <c r="B3" s="22"/>
-      <c r="C3" s="78" t="s">
+      <c r="C3" s="79" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
       <c r="I3" s="23"/>
       <c r="J3" s="22"/>
       <c r="K3" s="22"/>
@@ -4014,14 +4038,14 @@
       </c>
     </row>
     <row r="13" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="C13" s="78" t="s">
+      <c r="C13" s="79" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="78"/>
-      <c r="E13" s="78"/>
-      <c r="F13" s="78"/>
-      <c r="G13" s="78"/>
-      <c r="H13" s="78"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="79"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="79"/>
       <c r="I13" s="23"/>
       <c r="J13" s="22"/>
       <c r="K13" s="22"/>
@@ -4157,7 +4181,7 @@
       </c>
       <c r="R16" s="22"/>
     </row>
-    <row r="17" spans="3:19" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="3:20" ht="20.100000000000001" customHeight="1">
       <c r="C17" s="24" t="s">
         <v>270</v>
       </c>
@@ -4207,17 +4231,17 @@
         <v>354</v>
       </c>
     </row>
-    <row r="20" spans="3:19" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="3:20" ht="20.100000000000001" customHeight="1">
       <c r="C20" s="33" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="23" spans="3:19" ht="20.100000000000001" customHeight="1">
+    <row r="23" spans="3:20" ht="20.100000000000001" customHeight="1">
       <c r="C23" s="56" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="24" spans="3:19" ht="20.100000000000001" customHeight="1">
+    <row r="24" spans="3:20" ht="20.100000000000001" customHeight="1">
       <c r="C24" s="26" t="s">
         <v>70</v>
       </c>
@@ -4269,8 +4293,11 @@
       <c r="S24" s="11" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" ht="20.100000000000001" customHeight="1">
+      <c r="T24" s="11" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" ht="20.100000000000001" customHeight="1">
       <c r="C25" s="22" t="s">
         <v>361</v>
       </c>
@@ -4322,8 +4349,11 @@
       <c r="S25" s="77" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" ht="20.100000000000001" customHeight="1">
+      <c r="T25" s="78" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" ht="20.100000000000001" customHeight="1">
       <c r="C26" s="22"/>
       <c r="D26" s="22"/>
       <c r="E26" s="22"/>
@@ -4345,8 +4375,9 @@
       <c r="Q26" s="22"/>
       <c r="R26" s="76"/>
       <c r="S26" s="77"/>
-    </row>
-    <row r="27" spans="3:19" ht="20.100000000000001" customHeight="1">
+      <c r="T26" s="78"/>
+    </row>
+    <row r="27" spans="3:20" ht="20.100000000000001" customHeight="1">
       <c r="C27" s="22" t="s">
         <v>191</v>
       </c>
@@ -4398,14 +4429,17 @@
       <c r="S27" s="77" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" ht="20.100000000000001" customHeight="1">
+      <c r="T27" s="78" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" ht="20.100000000000001" customHeight="1">
       <c r="Q28" s="24" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="29" spans="3:19" ht="20.100000000000001" customHeight="1">
-      <c r="S29" s="24" t="s">
+    <row r="29" spans="3:20" ht="20.100000000000001" customHeight="1">
+      <c r="T29" s="24" t="s">
         <v>422</v>
       </c>
     </row>
@@ -5018,45 +5052,45 @@
       </c>
     </row>
     <row r="24" spans="2:23" ht="20.100000000000001" customHeight="1">
-      <c r="C24" s="79" t="s">
+      <c r="C24" s="80" t="s">
         <v>348</v>
       </c>
-      <c r="D24" s="80"/>
-      <c r="E24" s="80"/>
-      <c r="F24" s="80"/>
-      <c r="G24" s="80"/>
-      <c r="H24" s="80"/>
-      <c r="I24" s="80"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="81"/>
+      <c r="G24" s="81"/>
+      <c r="H24" s="81"/>
+      <c r="I24" s="81"/>
     </row>
     <row r="25" spans="2:23" ht="20.100000000000001" customHeight="1">
-      <c r="C25" s="80"/>
-      <c r="D25" s="80"/>
-      <c r="E25" s="80"/>
-      <c r="F25" s="80"/>
-      <c r="G25" s="80"/>
-      <c r="H25" s="80"/>
-      <c r="I25" s="80"/>
+      <c r="C25" s="81"/>
+      <c r="D25" s="81"/>
+      <c r="E25" s="81"/>
+      <c r="F25" s="81"/>
+      <c r="G25" s="81"/>
+      <c r="H25" s="81"/>
+      <c r="I25" s="81"/>
     </row>
     <row r="26" spans="2:23" ht="20.100000000000001" customHeight="1">
-      <c r="C26" s="80"/>
-      <c r="D26" s="80"/>
-      <c r="E26" s="80"/>
-      <c r="F26" s="80"/>
-      <c r="G26" s="80"/>
-      <c r="H26" s="80"/>
-      <c r="I26" s="80"/>
+      <c r="C26" s="81"/>
+      <c r="D26" s="81"/>
+      <c r="E26" s="81"/>
+      <c r="F26" s="81"/>
+      <c r="G26" s="81"/>
+      <c r="H26" s="81"/>
+      <c r="I26" s="81"/>
     </row>
     <row r="27" spans="2:23" ht="20.100000000000001" customHeight="1">
       <c r="B27" s="33" t="s">
         <v>276</v>
       </c>
-      <c r="C27" s="80"/>
-      <c r="D27" s="80"/>
-      <c r="E27" s="80"/>
-      <c r="F27" s="80"/>
-      <c r="G27" s="80"/>
-      <c r="H27" s="80"/>
-      <c r="I27" s="80"/>
+      <c r="C27" s="81"/>
+      <c r="D27" s="81"/>
+      <c r="E27" s="81"/>
+      <c r="F27" s="81"/>
+      <c r="G27" s="81"/>
+      <c r="H27" s="81"/>
+      <c r="I27" s="81"/>
     </row>
     <row r="31" spans="2:23" ht="20.100000000000001" customHeight="1">
       <c r="B31" s="24" t="s">
@@ -5253,10 +5287,10 @@
       <c r="F35" s="22"/>
       <c r="G35" s="22"/>
       <c r="H35" s="22"/>
-      <c r="I35" s="81" t="s">
+      <c r="I35" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="J35" s="82"/>
+      <c r="J35" s="83"/>
       <c r="K35" s="58"/>
       <c r="L35" s="22"/>
       <c r="M35" s="22"/>
@@ -5375,10 +5409,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:AC32"/>
+  <dimension ref="B3:AC34"/>
   <sheetViews>
-    <sheetView topLeftCell="N7" workbookViewId="0">
-      <selection activeCell="X21" sqref="X21"/>
+    <sheetView tabSelected="1" topLeftCell="N7" workbookViewId="0">
+      <selection activeCell="V32" sqref="V32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -6071,10 +6105,10 @@
       <c r="H28" s="68"/>
       <c r="I28" s="68"/>
       <c r="J28" s="68"/>
-      <c r="K28" s="83" t="s">
+      <c r="K28" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="L28" s="83"/>
+      <c r="L28" s="84"/>
       <c r="M28" s="65"/>
       <c r="N28" s="68"/>
       <c r="O28" s="68" t="s">
@@ -6226,6 +6260,16 @@
         <v>410</v>
       </c>
     </row>
+    <row r="33" spans="20:20" ht="20.100000000000001" customHeight="1">
+      <c r="T33" s="39" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="34" spans="20:20" ht="20.100000000000001" customHeight="1">
+      <c r="T34" s="39" t="s">
+        <v>434</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="K28:L28"/>
@@ -6241,7 +6285,7 @@
   <dimension ref="C5:L15"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -6375,6 +6419,9 @@
       <c r="I10" s="10" t="s">
         <v>373</v>
       </c>
+      <c r="K10" s="10" t="s">
+        <v>430</v>
+      </c>
     </row>
     <row r="11" spans="3:12" ht="20.100000000000001" customHeight="1">
       <c r="C11" s="14">
@@ -6449,5 +6496,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/文档/数据库表结构.xlsx
+++ b/文档/数据库表结构.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="用户表" sheetId="1" r:id="rId1"/>
@@ -17,8 +17,9 @@
     <sheet name="第三方返回签收数据表(源)" sheetId="9" r:id="rId8"/>
     <sheet name="时效控制表" sheetId="10" r:id="rId9"/>
     <sheet name="签收报表" sheetId="11" r:id="rId10"/>
+    <sheet name="省份码" sheetId="14" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -270,7 +271,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="429">
   <si>
     <t>工号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1947,10 +1948,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>province</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>number(6,2)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2145,6 +2142,29 @@
   <si>
     <t>必须</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>province</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>省份你名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>province_code</t>
   </si>
 </sst>
 </file>
@@ -2406,7 +2426,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2660,6 +2680,9 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3303,6 +3326,68 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="9" style="61"/>
+    <col min="2" max="2" width="15" style="61" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" style="61" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="61"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" ht="20.100000000000001" customHeight="1">
+      <c r="B2" s="84" t="s">
+        <v>428</v>
+      </c>
+      <c r="C2" s="84"/>
+    </row>
+    <row r="3" spans="2:3" ht="20.100000000000001" customHeight="1">
+      <c r="B3" s="62" t="s">
+        <v>419</v>
+      </c>
+      <c r="C3" s="62" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="20.100000000000001" customHeight="1">
+      <c r="B4" s="63" t="s">
+        <v>425</v>
+      </c>
+      <c r="C4" s="63" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="20.100000000000001" customHeight="1">
+      <c r="B5" s="63" t="s">
+        <v>427</v>
+      </c>
+      <c r="C5" s="63"/>
+    </row>
+    <row r="6" spans="2:3" ht="20.100000000000001" customHeight="1">
+      <c r="B6" s="63" t="s">
+        <v>428</v>
+      </c>
+      <c r="C6" s="63" t="s">
+        <v>273</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:G8"/>
@@ -3606,7 +3691,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:S29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E13" workbookViewId="0">
+    <sheetView topLeftCell="E13" workbookViewId="0">
       <selection activeCell="S29" sqref="S29"/>
     </sheetView>
   </sheetViews>
@@ -4172,13 +4257,13 @@
         <v>1</v>
       </c>
       <c r="Q24" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="R24" s="11" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="S24" s="11" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="25" spans="3:19" ht="20.100000000000001" customHeight="1">
@@ -4228,10 +4313,10 @@
         <v>366</v>
       </c>
       <c r="R25" s="76" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="S25" s="77" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="26" spans="3:19" ht="20.100000000000001" customHeight="1">
@@ -4268,7 +4353,7 @@
         <v>196</v>
       </c>
       <c r="F27" s="22" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G27" s="22" t="s">
         <v>358</v>
@@ -4304,10 +4389,10 @@
         <v>367</v>
       </c>
       <c r="R27" s="76" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="S27" s="77" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="28" spans="3:19" ht="20.100000000000001" customHeight="1">
@@ -4317,7 +4402,7 @@
     </row>
     <row r="29" spans="3:19" ht="20.100000000000001" customHeight="1">
       <c r="S29" s="24" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
   </sheetData>
@@ -4353,69 +4438,69 @@
   <sheetData>
     <row r="3" spans="3:7" ht="20.100000000000001" customHeight="1">
       <c r="C3" s="59" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="4" spans="3:7" ht="20.100000000000001" customHeight="1">
       <c r="C4" s="62" t="s">
+        <v>380</v>
+      </c>
+      <c r="D4" s="62" t="s">
         <v>381</v>
       </c>
-      <c r="D4" s="62" t="s">
+      <c r="E4" s="62" t="s">
         <v>382</v>
       </c>
-      <c r="E4" s="62" t="s">
-        <v>383</v>
-      </c>
       <c r="F4" s="62" t="s">
+        <v>392</v>
+      </c>
+      <c r="G4" s="62" t="s">
         <v>393</v>
-      </c>
-      <c r="G4" s="62" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="5" spans="3:7" ht="20.100000000000001" customHeight="1">
       <c r="C5" s="63" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D5" s="63" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="63" t="s">
+        <v>385</v>
+      </c>
+      <c r="F5" s="63" t="s">
         <v>386</v>
       </c>
-      <c r="F5" s="63" t="s">
-        <v>387</v>
-      </c>
       <c r="G5" s="63" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="6" spans="3:7" ht="20.100000000000001" customHeight="1">
       <c r="C6" s="63" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D6" s="63"/>
       <c r="E6" s="63" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F6" s="63"/>
       <c r="G6" s="63"/>
     </row>
     <row r="7" spans="3:7" ht="20.100000000000001" customHeight="1">
       <c r="C7" s="63" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D7" s="63" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="63" t="s">
+        <v>390</v>
+      </c>
+      <c r="F7" s="63" t="s">
         <v>391</v>
       </c>
-      <c r="F7" s="63" t="s">
-        <v>392</v>
-      </c>
       <c r="G7" s="63" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
   </sheetData>
@@ -4430,8 +4515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:W40"/>
   <sheetViews>
-    <sheetView topLeftCell="K16" workbookViewId="0">
-      <selection activeCell="W42" sqref="W42"/>
+    <sheetView topLeftCell="D16" workbookViewId="0">
+      <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -4985,7 +5070,7 @@
         <v>90</v>
       </c>
       <c r="E32" s="69" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F32" s="70" t="s">
         <v>70</v>
@@ -5000,7 +5085,7 @@
         <v>98</v>
       </c>
       <c r="J32" s="32" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="K32" s="11" t="s">
         <v>364</v>
@@ -5039,7 +5124,7 @@
         <v>1</v>
       </c>
       <c r="W32" s="71" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="33" spans="2:23" ht="20.100000000000001" customHeight="1">
@@ -5099,7 +5184,7 @@
         <v>278</v>
       </c>
       <c r="E34" s="60" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F34" s="22" t="s">
         <v>361</v>
@@ -5114,7 +5199,7 @@
         <v>262</v>
       </c>
       <c r="J34" s="64" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="K34" s="22" t="s">
         <v>360</v>
@@ -5138,7 +5223,7 @@
         <v>262</v>
       </c>
       <c r="R34" s="22" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="S34" s="53" t="s">
         <v>333</v>
@@ -5153,7 +5238,7 @@
         <v>16</v>
       </c>
       <c r="W34" s="64" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="35" spans="2:23" ht="20.100000000000001" customHeight="1">
@@ -5195,7 +5280,7 @@
         <v>304</v>
       </c>
       <c r="E36" s="60" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F36" s="22" t="s">
         <v>191</v>
@@ -5210,7 +5295,7 @@
         <v>371</v>
       </c>
       <c r="J36" s="64" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K36" s="22" t="s">
         <v>365</v>
@@ -5219,7 +5304,7 @@
         <v>270</v>
       </c>
       <c r="M36" s="22" t="s">
-        <v>374</v>
+        <v>423</v>
       </c>
       <c r="N36" s="22" t="s">
         <v>192</v>
@@ -5249,27 +5334,27 @@
         <v>20</v>
       </c>
       <c r="W36" s="64" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="37" spans="2:23" ht="20.100000000000001" customHeight="1">
       <c r="W37" s="24" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="38" spans="2:23" ht="20.100000000000001" customHeight="1">
       <c r="W38" s="24" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="39" spans="2:23" ht="20.100000000000001" customHeight="1">
       <c r="W39" s="24" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="40" spans="2:23" ht="20.100000000000001" customHeight="1">
       <c r="W40" s="24" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
   </sheetData>
@@ -5818,7 +5903,7 @@
         <v>90</v>
       </c>
       <c r="F26" s="72" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G26" s="32" t="s">
         <v>68</v>
@@ -5836,7 +5921,7 @@
         <v>98</v>
       </c>
       <c r="L26" s="32" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="M26" s="66" t="s">
         <v>359</v>
@@ -5845,22 +5930,22 @@
         <v>73</v>
       </c>
       <c r="O26" s="70" t="s">
+        <v>405</v>
+      </c>
+      <c r="P26" s="32" t="s">
         <v>406</v>
-      </c>
-      <c r="P26" s="32" t="s">
-        <v>407</v>
       </c>
       <c r="Q26" s="32" t="s">
         <v>75</v>
       </c>
       <c r="R26" s="70" t="s">
+        <v>407</v>
+      </c>
+      <c r="S26" s="32" t="s">
         <v>408</v>
       </c>
-      <c r="S26" s="32" t="s">
+      <c r="T26" s="32" t="s">
         <v>409</v>
-      </c>
-      <c r="T26" s="32" t="s">
-        <v>410</v>
       </c>
       <c r="U26" s="72" t="s">
         <v>84</v>
@@ -5901,7 +5986,7 @@
         <v>278</v>
       </c>
       <c r="F27" s="68" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G27" s="68" t="s">
         <v>16</v>
@@ -5919,7 +6004,7 @@
         <v>362</v>
       </c>
       <c r="L27" s="68" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="M27" s="67" t="s">
         <v>360</v>
@@ -6021,7 +6106,7 @@
         <v>304</v>
       </c>
       <c r="F29" s="68" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G29" s="68" t="s">
         <v>270</v>
@@ -6039,7 +6124,7 @@
         <v>266</v>
       </c>
       <c r="L29" s="68" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="M29" s="67" t="s">
         <v>358</v>
@@ -6125,16 +6210,16 @@
     </row>
     <row r="32" spans="3:29" ht="20.100000000000001" customHeight="1">
       <c r="P32" s="39" t="s">
+        <v>410</v>
+      </c>
+      <c r="S32" s="39" t="s">
+        <v>412</v>
+      </c>
+      <c r="T32" s="39" t="s">
         <v>411</v>
       </c>
-      <c r="S32" s="39" t="s">
-        <v>413</v>
-      </c>
-      <c r="T32" s="39" t="s">
-        <v>412</v>
-      </c>
       <c r="AB32" s="39" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
   </sheetData>

--- a/文档/数据库表结构.xlsx
+++ b/文档/数据库表结构.xlsx
@@ -271,7 +271,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="437">
   <si>
     <t>工号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2188,6 +2188,14 @@
   </si>
   <si>
     <t>1：超时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>签收站点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sign_port</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5409,10 +5417,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:AC34"/>
+  <dimension ref="B3:AD34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N7" workbookViewId="0">
-      <selection activeCell="V32" sqref="V32"/>
+    <sheetView tabSelected="1" topLeftCell="P7" workbookViewId="0">
+      <selection activeCell="AD30" sqref="AD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -5914,23 +5922,23 @@
         <v>323</v>
       </c>
     </row>
-    <row r="20" spans="3:29" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="3:30" ht="20.100000000000001" customHeight="1">
       <c r="C20" s="52" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="21" spans="3:29" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="3:30" ht="20.100000000000001" customHeight="1">
       <c r="C21" s="33" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="25" spans="3:29" ht="20.100000000000001" customHeight="1">
+    <row r="25" spans="3:30" ht="20.100000000000001" customHeight="1">
       <c r="C25" s="39" t="s">
         <v>189</v>
       </c>
       <c r="R25" s="73"/>
     </row>
-    <row r="26" spans="3:29" ht="20.100000000000001" customHeight="1">
+    <row r="26" spans="3:30" ht="20.100000000000001" customHeight="1">
       <c r="C26" s="31" t="s">
         <v>86</v>
       </c>
@@ -6012,8 +6020,11 @@
       <c r="AC26" s="11" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="3:29" ht="20.100000000000001" customHeight="1">
+      <c r="AD26" s="39" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="27" spans="3:30" ht="20.100000000000001" customHeight="1">
       <c r="C27" s="68" t="s">
         <v>277</v>
       </c>
@@ -6096,7 +6107,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="3:29" ht="20.100000000000001" customHeight="1">
+    <row r="28" spans="3:30" ht="20.100000000000001" customHeight="1">
       <c r="C28" s="68"/>
       <c r="D28" s="68"/>
       <c r="E28" s="68"/>
@@ -6133,7 +6144,7 @@
       <c r="AB28" s="68"/>
       <c r="AC28" s="58"/>
     </row>
-    <row r="29" spans="3:29" ht="20.100000000000001" customHeight="1">
+    <row r="29" spans="3:30" ht="20.100000000000001" customHeight="1">
       <c r="C29" s="68" t="s">
         <v>302</v>
       </c>
@@ -6215,8 +6226,11 @@
       <c r="AC29" s="68" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" ht="20.100000000000001" customHeight="1">
+      <c r="AD29" s="39" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" ht="20.100000000000001" customHeight="1">
       <c r="C30" s="24"/>
       <c r="D30" s="24"/>
       <c r="E30" s="24"/>
@@ -6246,7 +6260,7 @@
       <c r="AB30" s="24"/>
       <c r="AC30" s="24"/>
     </row>
-    <row r="32" spans="3:29" ht="20.100000000000001" customHeight="1">
+    <row r="32" spans="3:30" ht="20.100000000000001" customHeight="1">
       <c r="P32" s="39" t="s">
         <v>410</v>
       </c>

--- a/文档/数据库表结构.xlsx
+++ b/文档/数据库表结构.xlsx
@@ -271,7 +271,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="438">
   <si>
     <t>工号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2196,6 +2196,10 @@
   </si>
   <si>
     <t>sign_port</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(80)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2458,7 +2462,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2698,6 +2702,9 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2718,6 +2725,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3378,10 +3388,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" ht="20.100000000000001" customHeight="1">
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="86" t="s">
         <v>429</v>
       </c>
-      <c r="C2" s="85"/>
+      <c r="C2" s="86"/>
     </row>
     <row r="3" spans="2:3" ht="20.100000000000001" customHeight="1">
       <c r="B3" s="62" t="s">
@@ -3727,7 +3737,7 @@
   <dimension ref="B3:T29"/>
   <sheetViews>
     <sheetView topLeftCell="F13" workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
+      <selection activeCell="U28" sqref="U28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -3756,14 +3766,14 @@
   <sheetData>
     <row r="3" spans="2:18" ht="20.100000000000001" customHeight="1">
       <c r="B3" s="22"/>
-      <c r="C3" s="79" t="s">
+      <c r="C3" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
       <c r="I3" s="23"/>
       <c r="J3" s="22"/>
       <c r="K3" s="22"/>
@@ -4046,14 +4056,14 @@
       </c>
     </row>
     <row r="13" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="C13" s="79" t="s">
+      <c r="C13" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="79"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="80"/>
+      <c r="G13" s="80"/>
+      <c r="H13" s="80"/>
       <c r="I13" s="23"/>
       <c r="J13" s="22"/>
       <c r="K13" s="22"/>
@@ -4559,10 +4569,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:W40"/>
+  <dimension ref="B3:X40"/>
   <sheetViews>
-    <sheetView topLeftCell="D16" workbookViewId="0">
-      <selection activeCell="M36" sqref="M36"/>
+    <sheetView topLeftCell="K16" workbookViewId="0">
+      <selection activeCell="X38" sqref="X38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -4586,7 +4596,8 @@
     <col min="20" max="20" width="16.125" style="24" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="12.75" style="24" bestFit="1" customWidth="1"/>
     <col min="22" max="23" width="15" style="24" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9" style="24"/>
+    <col min="24" max="24" width="14.125" style="24" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:19" ht="20.100000000000001" customHeight="1">
@@ -4818,7 +4829,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="17" spans="2:23" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="2:24" ht="20.100000000000001" customHeight="1">
       <c r="B17" s="31" t="s">
         <v>86</v>
       </c>
@@ -4880,7 +4891,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="18" spans="2:23" ht="20.100000000000001" customHeight="1">
+    <row r="18" spans="2:24" ht="20.100000000000001" customHeight="1">
       <c r="B18" s="22" t="s">
         <v>85</v>
       </c>
@@ -4926,7 +4937,7 @@
       <c r="T18" s="22"/>
       <c r="U18" s="22"/>
     </row>
-    <row r="19" spans="2:23" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="2:24" ht="20.100000000000001" customHeight="1">
       <c r="B19" s="22" t="s">
         <v>306</v>
       </c>
@@ -4988,7 +4999,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="20" spans="2:23" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="2:24" ht="20.100000000000001" customHeight="1">
       <c r="H20" s="24" t="s">
         <v>147</v>
       </c>
@@ -4997,7 +5008,7 @@
       </c>
       <c r="Q20" s="39"/>
     </row>
-    <row r="21" spans="2:23" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="2:24" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="24" t="s">
         <v>302</v>
       </c>
@@ -5059,53 +5070,53 @@
         <v>354</v>
       </c>
     </row>
-    <row r="24" spans="2:23" ht="20.100000000000001" customHeight="1">
-      <c r="C24" s="80" t="s">
+    <row r="24" spans="2:24" ht="20.100000000000001" customHeight="1">
+      <c r="C24" s="81" t="s">
         <v>348</v>
       </c>
-      <c r="D24" s="81"/>
-      <c r="E24" s="81"/>
-      <c r="F24" s="81"/>
-      <c r="G24" s="81"/>
-      <c r="H24" s="81"/>
-      <c r="I24" s="81"/>
-    </row>
-    <row r="25" spans="2:23" ht="20.100000000000001" customHeight="1">
-      <c r="C25" s="81"/>
-      <c r="D25" s="81"/>
-      <c r="E25" s="81"/>
-      <c r="F25" s="81"/>
-      <c r="G25" s="81"/>
-      <c r="H25" s="81"/>
-      <c r="I25" s="81"/>
-    </row>
-    <row r="26" spans="2:23" ht="20.100000000000001" customHeight="1">
-      <c r="C26" s="81"/>
-      <c r="D26" s="81"/>
-      <c r="E26" s="81"/>
-      <c r="F26" s="81"/>
-      <c r="G26" s="81"/>
-      <c r="H26" s="81"/>
-      <c r="I26" s="81"/>
-    </row>
-    <row r="27" spans="2:23" ht="20.100000000000001" customHeight="1">
+      <c r="D24" s="82"/>
+      <c r="E24" s="82"/>
+      <c r="F24" s="82"/>
+      <c r="G24" s="82"/>
+      <c r="H24" s="82"/>
+      <c r="I24" s="82"/>
+    </row>
+    <row r="25" spans="2:24" ht="20.100000000000001" customHeight="1">
+      <c r="C25" s="82"/>
+      <c r="D25" s="82"/>
+      <c r="E25" s="82"/>
+      <c r="F25" s="82"/>
+      <c r="G25" s="82"/>
+      <c r="H25" s="82"/>
+      <c r="I25" s="82"/>
+    </row>
+    <row r="26" spans="2:24" ht="20.100000000000001" customHeight="1">
+      <c r="C26" s="82"/>
+      <c r="D26" s="82"/>
+      <c r="E26" s="82"/>
+      <c r="F26" s="82"/>
+      <c r="G26" s="82"/>
+      <c r="H26" s="82"/>
+      <c r="I26" s="82"/>
+    </row>
+    <row r="27" spans="2:24" ht="20.100000000000001" customHeight="1">
       <c r="B27" s="33" t="s">
         <v>276</v>
       </c>
-      <c r="C27" s="81"/>
-      <c r="D27" s="81"/>
-      <c r="E27" s="81"/>
-      <c r="F27" s="81"/>
-      <c r="G27" s="81"/>
-      <c r="H27" s="81"/>
-      <c r="I27" s="81"/>
-    </row>
-    <row r="31" spans="2:23" ht="20.100000000000001" customHeight="1">
+      <c r="C27" s="82"/>
+      <c r="D27" s="82"/>
+      <c r="E27" s="82"/>
+      <c r="F27" s="82"/>
+      <c r="G27" s="82"/>
+      <c r="H27" s="82"/>
+      <c r="I27" s="82"/>
+    </row>
+    <row r="31" spans="2:24" ht="20.100000000000001" customHeight="1">
       <c r="B31" s="24" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="32" spans="2:23" ht="20.100000000000001" customHeight="1">
+    <row r="32" spans="2:24" ht="20.100000000000001" customHeight="1">
       <c r="B32" s="69" t="s">
         <v>86</v>
       </c>
@@ -5172,8 +5183,11 @@
       <c r="W32" s="71" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" ht="20.100000000000001" customHeight="1">
+      <c r="X32" s="31" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" ht="20.100000000000001" customHeight="1">
       <c r="B33" s="22" t="s">
         <v>85</v>
       </c>
@@ -5218,8 +5232,11 @@
       <c r="U33" s="22"/>
       <c r="V33" s="22"/>
       <c r="W33" s="64"/>
-    </row>
-    <row r="34" spans="2:23" ht="20.100000000000001" customHeight="1">
+      <c r="X33" s="79" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" ht="20.100000000000001" customHeight="1">
       <c r="B34" s="22" t="s">
         <v>277</v>
       </c>
@@ -5286,8 +5303,11 @@
       <c r="W34" s="64" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" ht="20.100000000000001" customHeight="1">
+      <c r="X34" s="79" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" ht="20.100000000000001" customHeight="1">
       <c r="B35" s="22"/>
       <c r="C35" s="22"/>
       <c r="D35" s="22"/>
@@ -5295,10 +5315,10 @@
       <c r="F35" s="22"/>
       <c r="G35" s="22"/>
       <c r="H35" s="22"/>
-      <c r="I35" s="82" t="s">
+      <c r="I35" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="J35" s="83"/>
+      <c r="J35" s="84"/>
       <c r="K35" s="58"/>
       <c r="L35" s="22"/>
       <c r="M35" s="22"/>
@@ -5314,8 +5334,9 @@
       <c r="U35" s="22"/>
       <c r="V35" s="22"/>
       <c r="W35" s="64"/>
-    </row>
-    <row r="36" spans="2:23" ht="20.100000000000001" customHeight="1">
+      <c r="X35" s="79"/>
+    </row>
+    <row r="36" spans="2:24" ht="20.100000000000001" customHeight="1">
       <c r="B36" s="22" t="s">
         <v>31</v>
       </c>
@@ -5382,23 +5403,26 @@
       <c r="W36" s="64" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="37" spans="2:23" ht="20.100000000000001" customHeight="1">
+      <c r="X36" s="79" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" ht="20.100000000000001" customHeight="1">
       <c r="W37" s="24" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="38" spans="2:23" ht="20.100000000000001" customHeight="1">
+    <row r="38" spans="2:24" ht="20.100000000000001" customHeight="1">
       <c r="W38" s="24" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="39" spans="2:23" ht="20.100000000000001" customHeight="1">
+    <row r="39" spans="2:24" ht="20.100000000000001" customHeight="1">
       <c r="W39" s="24" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="40" spans="2:23" ht="20.100000000000001" customHeight="1">
+    <row r="40" spans="2:24" ht="20.100000000000001" customHeight="1">
       <c r="W40" s="24" t="s">
         <v>415</v>
       </c>
@@ -5419,8 +5443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:AD34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P7" workbookViewId="0">
-      <selection activeCell="AD30" sqref="AD30"/>
+    <sheetView tabSelected="1" topLeftCell="O7" workbookViewId="0">
+      <selection activeCell="AC29" sqref="AC29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -5445,10 +5469,9 @@
     <col min="23" max="23" width="17.25" style="39" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="13.875" style="39" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="12.875" style="39" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="12.75" style="39" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9" style="39"/>
-    <col min="29" max="29" width="12.75" style="39" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9" style="39"/>
+    <col min="26" max="29" width="12.75" style="39" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.25" style="39" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9" style="39"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:23" ht="19.5" customHeight="1"/>
@@ -6020,7 +6043,7 @@
       <c r="AC26" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="AD26" s="39" t="s">
+      <c r="AD26" s="87" t="s">
         <v>435</v>
       </c>
     </row>
@@ -6105,6 +6128,9 @@
       </c>
       <c r="AC27" s="68" t="s">
         <v>16</v>
+      </c>
+      <c r="AD27" s="53" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="28" spans="3:30" ht="20.100000000000001" customHeight="1">
@@ -6116,10 +6142,10 @@
       <c r="H28" s="68"/>
       <c r="I28" s="68"/>
       <c r="J28" s="68"/>
-      <c r="K28" s="84" t="s">
+      <c r="K28" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="L28" s="84"/>
+      <c r="L28" s="85"/>
       <c r="M28" s="65"/>
       <c r="N28" s="68"/>
       <c r="O28" s="68" t="s">
@@ -6143,6 +6169,7 @@
       <c r="AA28" s="68"/>
       <c r="AB28" s="68"/>
       <c r="AC28" s="58"/>
+      <c r="AD28" s="53"/>
     </row>
     <row r="29" spans="3:30" ht="20.100000000000001" customHeight="1">
       <c r="C29" s="68" t="s">
@@ -6226,7 +6253,7 @@
       <c r="AC29" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="AD29" s="39" t="s">
+      <c r="AD29" s="53" t="s">
         <v>436</v>
       </c>
     </row>
@@ -6299,7 +6326,7 @@
   <dimension ref="C5:L15"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>

--- a/文档/数据库表结构.xlsx
+++ b/文档/数据库表结构.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="用户表" sheetId="1" r:id="rId1"/>
@@ -271,7 +271,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="444">
   <si>
     <t>工号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2202,6 +2202,30 @@
     <t>varchar2(80)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>废弃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户条码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cte_bar_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>customer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -2213,7 +2237,7 @@
     <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="179" formatCode="yyyy/m/d\ h:mm;@"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2378,6 +2402,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2462,11 +2501,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2705,6 +2741,9 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2726,7 +2765,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3042,104 +3096,104 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="12.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11" style="2" customWidth="1"/>
-    <col min="8" max="8" width="12.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="4" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4" t="s">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4" t="s">
+      <c r="G5" s="3"/>
+      <c r="H5" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3160,207 +3214,207 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9" style="36"/>
-    <col min="2" max="2" width="7.5" style="36" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.125" style="36" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.125" style="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="36" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5" style="36" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.875" style="36" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.875" style="36" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.875" style="36" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.875" style="36" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="36"/>
+    <col min="1" max="1" width="9" style="35"/>
+    <col min="2" max="2" width="7.5" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.125" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.125" style="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.875" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5" style="35" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.875" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.875" style="35" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.875" style="35" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.875" style="35" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="35"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:10" ht="20.100000000000001" customHeight="1">
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="I3" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="J3" s="20" t="s">
+      <c r="J3" s="19" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="4" spans="3:10" ht="20.100000000000001" customHeight="1">
-      <c r="C4" s="37">
+      <c r="C4" s="36">
         <v>3908550182939</v>
       </c>
-      <c r="D4" s="36" t="s">
+      <c r="D4" s="35" t="s">
         <v>197</v>
       </c>
-      <c r="E4" s="36" t="s">
+      <c r="E4" s="35" t="s">
         <v>198</v>
       </c>
-      <c r="F4" s="38">
+      <c r="F4" s="37">
         <v>42613.958321759259</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="H4" s="35">
+      <c r="H4" s="34">
         <v>99.99</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="J4" s="36" t="s">
+      <c r="J4" s="35" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="5" spans="3:10" ht="20.100000000000001" customHeight="1">
-      <c r="C5" s="37">
+      <c r="C5" s="36">
         <v>3908550182940</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="D5" s="35" t="s">
         <v>202</v>
       </c>
-      <c r="E5" s="36" t="s">
+      <c r="E5" s="35" t="s">
         <v>203</v>
       </c>
-      <c r="F5" s="38">
+      <c r="F5" s="37">
         <v>42614.958321701386</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="H5" s="35">
+      <c r="H5" s="34">
         <v>10</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="J5" s="36">
+      <c r="J5" s="35">
         <v>123</v>
       </c>
     </row>
     <row r="6" spans="3:10" ht="20.100000000000001" customHeight="1">
-      <c r="C6" s="37">
+      <c r="C6" s="36">
         <v>3908550182941</v>
       </c>
-      <c r="D6" s="36" t="s">
+      <c r="D6" s="35" t="s">
         <v>206</v>
       </c>
-      <c r="E6" s="36" t="s">
+      <c r="E6" s="35" t="s">
         <v>207</v>
       </c>
-      <c r="F6" s="38">
+      <c r="F6" s="37">
         <v>42615.958321701386</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="H6" s="35">
+      <c r="H6" s="34">
         <v>55.2</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="J6" s="36">
+      <c r="J6" s="35">
         <v>55464</v>
       </c>
     </row>
     <row r="12" spans="3:10" ht="20.100000000000001" customHeight="1">
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="33" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="13" spans="3:10" ht="20.100000000000001" customHeight="1">
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="F13" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="G13" s="20" t="s">
+      <c r="G13" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="H13" s="21" t="s">
+      <c r="H13" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="I13" s="21" t="s">
+      <c r="I13" s="20" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="14" spans="3:10" ht="20.100000000000001" customHeight="1">
-      <c r="C14" s="57" t="s">
+      <c r="C14" s="56" t="s">
         <v>262</v>
       </c>
-      <c r="D14" s="53" t="s">
+      <c r="D14" s="52" t="s">
         <v>285</v>
       </c>
-      <c r="E14" s="53" t="s">
+      <c r="E14" s="52" t="s">
         <v>285</v>
       </c>
-      <c r="F14" s="55" t="s">
+      <c r="F14" s="54" t="s">
         <v>152</v>
       </c>
-      <c r="G14" s="53" t="s">
+      <c r="G14" s="52" t="s">
         <v>286</v>
       </c>
-      <c r="H14" s="53" t="s">
+      <c r="H14" s="52" t="s">
         <v>279</v>
       </c>
-      <c r="I14" s="22" t="s">
+      <c r="I14" s="21" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="15" spans="3:10" ht="20.100000000000001" customHeight="1">
-      <c r="C15" s="55" t="s">
+      <c r="C15" s="54" t="s">
         <v>147</v>
       </c>
-      <c r="D15" s="55" t="s">
+      <c r="D15" s="54" t="s">
         <v>344</v>
       </c>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="55"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
     </row>
     <row r="16" spans="3:10" ht="20.100000000000001" customHeight="1">
-      <c r="C16" s="55" t="s">
+      <c r="C16" s="54" t="s">
         <v>343</v>
       </c>
-      <c r="D16" s="53" t="s">
+      <c r="D16" s="52" t="s">
         <v>345</v>
       </c>
-      <c r="E16" s="53" t="s">
+      <c r="E16" s="52" t="s">
         <v>326</v>
       </c>
-      <c r="F16" s="53" t="s">
+      <c r="F16" s="52" t="s">
         <v>269</v>
       </c>
-      <c r="G16" s="53" t="s">
+      <c r="G16" s="52" t="s">
         <v>328</v>
       </c>
-      <c r="H16" s="22" t="s">
+      <c r="H16" s="21" t="s">
         <v>271</v>
       </c>
-      <c r="I16" s="22" t="s">
+      <c r="I16" s="21" t="s">
         <v>268</v>
       </c>
     </row>
@@ -3376,15 +3430,15 @@
   <dimension ref="B2:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9" style="61"/>
-    <col min="2" max="2" width="15" style="61" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.875" style="61" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="61"/>
+    <col min="1" max="1" width="9" style="60"/>
+    <col min="2" max="2" width="15" style="60" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" style="60" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="60"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:3" ht="20.100000000000001" customHeight="1">
@@ -3394,32 +3448,32 @@
       <c r="C2" s="86"/>
     </row>
     <row r="3" spans="2:3" ht="20.100000000000001" customHeight="1">
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="61" t="s">
         <v>419</v>
       </c>
-      <c r="C3" s="62" t="s">
+      <c r="C3" s="61" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="20.100000000000001" customHeight="1">
-      <c r="B4" s="63" t="s">
+      <c r="B4" s="62" t="s">
         <v>425</v>
       </c>
-      <c r="C4" s="63" t="s">
+      <c r="C4" s="62" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="20.100000000000001" customHeight="1">
-      <c r="B5" s="63" t="s">
+      <c r="B5" s="62" t="s">
         <v>427</v>
       </c>
-      <c r="C5" s="63"/>
+      <c r="C5" s="62"/>
     </row>
     <row r="6" spans="2:3" ht="20.100000000000001" customHeight="1">
-      <c r="B6" s="63" t="s">
+      <c r="B6" s="62" t="s">
         <v>428</v>
       </c>
-      <c r="C6" s="63" t="s">
+      <c r="C6" s="62" t="s">
         <v>273</v>
       </c>
     </row>
@@ -3443,82 +3497,82 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="9" style="2"/>
-    <col min="5" max="5" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="2"/>
+    <col min="1" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:7" ht="20.100000000000001" customHeight="1">
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="4" spans="3:7" ht="20.100000000000001" customHeight="1">
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="3:7" ht="20.100000000000001" customHeight="1">
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4" t="s">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="4"/>
+      <c r="G5" s="3"/>
     </row>
     <row r="6" spans="3:7" ht="20.100000000000001" customHeight="1">
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="3:7" ht="20.100000000000001" customHeight="1">
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="8" spans="3:7" ht="20.100000000000001" customHeight="1">
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>48</v>
       </c>
     </row>
@@ -3539,80 +3593,80 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="9" style="2"/>
-    <col min="3" max="3" width="12.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="12.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="2"/>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="12.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="3:7" ht="20.100000000000001" customHeight="1">
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="5" spans="3:7" ht="20.100000000000001" customHeight="1">
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="6" spans="3:7" ht="20.100000000000001" customHeight="1">
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
     </row>
     <row r="7" spans="3:7" ht="20.100000000000001" customHeight="1">
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="3:7" ht="20.100000000000001" customHeight="1">
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="14" spans="3:7" ht="20.100000000000001" customHeight="1">
-      <c r="D14" s="6"/>
+      <c r="D14" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3623,110 +3677,159 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:H7"/>
+  <dimension ref="B3:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="3" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="3" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="87" t="s">
         <v>25</v>
       </c>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
     </row>
     <row r="4" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="89" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="90"/>
     </row>
     <row r="6" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="91" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="92" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="92" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="92" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="87" t="s">
         <v>32</v>
       </c>
     </row>
+    <row r="9" spans="2:8" ht="20.100000000000001" customHeight="1">
+      <c r="B9" s="88" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="20.100000000000001" customHeight="1">
+      <c r="B11" s="86" t="s">
+        <v>442</v>
+      </c>
+      <c r="C11" s="86"/>
+    </row>
+    <row r="12" spans="2:8" ht="20.100000000000001" customHeight="1">
+      <c r="B12" s="61" t="s">
+        <v>439</v>
+      </c>
+      <c r="C12" s="61" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="20.100000000000001" customHeight="1">
+      <c r="B13" s="62" t="s">
+        <v>441</v>
+      </c>
+      <c r="C13" s="62" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="20.100000000000001" customHeight="1">
+      <c r="B14" s="62" t="s">
+        <v>361</v>
+      </c>
+      <c r="C14" s="62" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="20.100000000000001" customHeight="1">
+      <c r="B15" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B11:C11"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3736,36 +3839,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:T29"/>
   <sheetViews>
-    <sheetView topLeftCell="F13" workbookViewId="0">
-      <selection activeCell="U28" sqref="U28"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9" style="24"/>
-    <col min="2" max="2" width="5.25" style="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.875" style="24" customWidth="1"/>
-    <col min="4" max="4" width="13.875" style="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.375" style="24" customWidth="1"/>
-    <col min="6" max="6" width="16.125" style="24" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.75" style="24" customWidth="1"/>
-    <col min="8" max="8" width="15" style="24" customWidth="1"/>
-    <col min="9" max="9" width="13.875" style="24" customWidth="1"/>
-    <col min="10" max="10" width="13.875" style="24" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.25" style="24" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.875" style="24" customWidth="1"/>
-    <col min="13" max="13" width="12.875" style="24" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.875" style="24" customWidth="1"/>
-    <col min="15" max="15" width="13.875" style="24" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.75" style="24" customWidth="1"/>
-    <col min="17" max="17" width="15.125" style="24" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="12.75" style="24" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.875" style="24" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9" style="24"/>
+    <col min="1" max="1" width="9" style="23"/>
+    <col min="2" max="2" width="5.25" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" style="23" customWidth="1"/>
+    <col min="4" max="4" width="13.875" style="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.375" style="23" customWidth="1"/>
+    <col min="6" max="6" width="16.125" style="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.75" style="23" customWidth="1"/>
+    <col min="8" max="8" width="15" style="23" customWidth="1"/>
+    <col min="9" max="9" width="13.875" style="23" customWidth="1"/>
+    <col min="10" max="10" width="13.875" style="23" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.25" style="23" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.875" style="23" customWidth="1"/>
+    <col min="13" max="13" width="12.875" style="23" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.875" style="23" customWidth="1"/>
+    <col min="15" max="15" width="13.875" style="23" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.75" style="23" customWidth="1"/>
+    <col min="17" max="17" width="15.125" style="23" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="12.75" style="23" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.875" style="23" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B3" s="22"/>
+      <c r="B3" s="21"/>
       <c r="C3" s="80" t="s">
         <v>66</v>
       </c>
@@ -3774,284 +3877,284 @@
       <c r="F3" s="80"/>
       <c r="G3" s="80"/>
       <c r="H3" s="80"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
     </row>
     <row r="4" spans="2:18" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="G4" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="L4" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="M4" s="11" t="s">
+      <c r="M4" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="N4" s="11" t="s">
+      <c r="N4" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="O4" s="11" t="s">
+      <c r="O4" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="P4" s="11" t="s">
+      <c r="P4" s="10" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="5" spans="2:18" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="C5" s="28">
+      <c r="C5" s="27">
         <v>42613.958321759259</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="E5" s="27">
+      <c r="E5" s="26">
         <v>518786</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="G5" s="29">
+      <c r="G5" s="28">
         <v>3908550182939</v>
       </c>
-      <c r="H5" s="27" t="s">
+      <c r="H5" s="26" t="s">
         <v>253</v>
       </c>
-      <c r="I5" s="30" t="s">
+      <c r="I5" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="J5" s="24" t="s">
+      <c r="J5" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="K5" s="48">
+      <c r="K5" s="47">
         <v>13715102933</v>
       </c>
-      <c r="L5" s="24" t="s">
+      <c r="L5" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="M5" s="24">
+      <c r="M5" s="23">
         <v>1.1200000000000001</v>
       </c>
-      <c r="N5" s="24">
+      <c r="N5" s="23">
         <v>11</v>
       </c>
-      <c r="O5" s="24">
+      <c r="O5" s="23">
         <v>12.23</v>
       </c>
-      <c r="P5" s="24" t="s">
+      <c r="P5" s="23" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="6" spans="2:18" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="C6" s="28">
+      <c r="C6" s="27">
         <v>42614.958321701386</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="E6" s="27">
+      <c r="E6" s="26">
         <v>518787</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="G6" s="29">
+      <c r="G6" s="28">
         <v>3908550182940</v>
       </c>
-      <c r="H6" s="27" t="s">
+      <c r="H6" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="I6" s="30" t="s">
+      <c r="I6" s="29" t="s">
         <v>164</v>
       </c>
-      <c r="J6" s="24" t="s">
+      <c r="J6" s="23" t="s">
         <v>165</v>
       </c>
-      <c r="K6" s="48">
+      <c r="K6" s="47">
         <v>13715102934</v>
       </c>
-      <c r="L6" s="24" t="s">
+      <c r="L6" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="M6" s="24">
+      <c r="M6" s="23">
         <v>2.12</v>
       </c>
-      <c r="N6" s="24">
+      <c r="N6" s="23">
         <v>22</v>
       </c>
-      <c r="O6" s="24">
+      <c r="O6" s="23">
         <v>12.23</v>
       </c>
-      <c r="P6" s="24" t="s">
+      <c r="P6" s="23" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="7" spans="2:18" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="C7" s="28">
+      <c r="C7" s="27">
         <v>42615.958321701386</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="E7" s="27">
+      <c r="E7" s="26">
         <v>518788</v>
       </c>
-      <c r="F7" s="24" t="s">
+      <c r="F7" s="23" t="s">
         <v>169</v>
       </c>
-      <c r="G7" s="29">
+      <c r="G7" s="28">
         <v>3908550182941</v>
       </c>
-      <c r="H7" s="27" t="s">
+      <c r="H7" s="26" t="s">
         <v>170</v>
       </c>
-      <c r="I7" s="30" t="s">
+      <c r="I7" s="29" t="s">
         <v>171</v>
       </c>
-      <c r="J7" s="24" t="s">
+      <c r="J7" s="23" t="s">
         <v>172</v>
       </c>
-      <c r="K7" s="49" t="s">
+      <c r="K7" s="48" t="s">
         <v>251</v>
       </c>
-      <c r="L7" s="24" t="s">
+      <c r="L7" s="23" t="s">
         <v>173</v>
       </c>
-      <c r="M7" s="24">
+      <c r="M7" s="23">
         <v>3.13</v>
       </c>
-      <c r="N7" s="24">
+      <c r="N7" s="23">
         <v>33</v>
       </c>
-      <c r="O7" s="24">
+      <c r="O7" s="23">
         <v>12.23</v>
       </c>
-      <c r="P7" s="24" t="s">
+      <c r="P7" s="23" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="8" spans="2:18" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="C8" s="28">
+      <c r="C8" s="27">
         <v>42616.958321701386</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="E8" s="27">
+      <c r="E8" s="26">
         <v>518789</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="G8" s="29">
+      <c r="G8" s="28">
         <v>3908550182942</v>
       </c>
-      <c r="H8" s="27" t="s">
+      <c r="H8" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="I8" s="30" t="s">
+      <c r="I8" s="29" t="s">
         <v>178</v>
       </c>
-      <c r="J8" s="24" t="s">
+      <c r="J8" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="K8" s="48">
+      <c r="K8" s="47">
         <v>13715102936</v>
       </c>
-      <c r="L8" s="24" t="s">
+      <c r="L8" s="23" t="s">
         <v>180</v>
       </c>
-      <c r="M8" s="24">
+      <c r="M8" s="23">
         <v>4.1500000000000004</v>
       </c>
-      <c r="N8" s="24">
+      <c r="N8" s="23">
         <v>44</v>
       </c>
-      <c r="O8" s="24">
+      <c r="O8" s="23">
         <v>12.23</v>
       </c>
-      <c r="P8" s="24" t="s">
+      <c r="P8" s="23" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="9" spans="2:18" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="C9" s="28">
+      <c r="C9" s="27">
         <v>42617.958321701386</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="23" t="s">
         <v>181</v>
       </c>
-      <c r="E9" s="27">
+      <c r="E9" s="26">
         <v>518790</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="G9" s="29">
+      <c r="G9" s="28">
         <v>3908550182943</v>
       </c>
-      <c r="H9" s="27" t="s">
+      <c r="H9" s="26" t="s">
         <v>254</v>
       </c>
-      <c r="I9" s="30" t="s">
+      <c r="I9" s="29" t="s">
         <v>183</v>
       </c>
-      <c r="J9" s="24" t="s">
+      <c r="J9" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="K9" s="48">
+      <c r="K9" s="47">
         <v>13715102937</v>
       </c>
-      <c r="L9" s="24" t="s">
+      <c r="L9" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="M9" s="24">
+      <c r="M9" s="23">
         <v>5.16</v>
       </c>
-      <c r="N9" s="24">
+      <c r="N9" s="23">
         <v>55</v>
       </c>
-      <c r="O9" s="24">
+      <c r="O9" s="23">
         <v>12.23</v>
       </c>
-      <c r="P9" s="24" t="s">
+      <c r="P9" s="23" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="12" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="C12" s="33" t="s">
+      <c r="C12" s="32" t="s">
         <v>187</v>
       </c>
     </row>
@@ -4064,400 +4167,400 @@
       <c r="F13" s="80"/>
       <c r="G13" s="80"/>
       <c r="H13" s="80"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
     </row>
     <row r="14" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="E14" s="26" t="s">
+      <c r="E14" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="F14" s="26" t="s">
+      <c r="F14" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="G14" s="26" t="s">
+      <c r="G14" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="H14" s="11" t="s">
+      <c r="H14" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="I14" s="11" t="s">
+      <c r="I14" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="J14" s="11" t="s">
+      <c r="J14" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="K14" s="11" t="s">
+      <c r="K14" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="L14" s="11" t="s">
+      <c r="L14" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="M14" s="11" t="s">
+      <c r="M14" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="N14" s="11" t="s">
+      <c r="N14" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="O14" s="11" t="s">
+      <c r="O14" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="P14" s="11" t="s">
+      <c r="P14" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="Q14" s="11" t="s">
+      <c r="Q14" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="R14" s="11" t="s">
+      <c r="R14" s="10" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="15" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="21" t="s">
         <v>257</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E15" s="21" t="s">
         <v>258</v>
       </c>
-      <c r="F15" s="22" t="s">
+      <c r="F15" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="G15" s="22" t="s">
+      <c r="G15" s="21" t="s">
         <v>260</v>
       </c>
-      <c r="H15" s="22" t="s">
+      <c r="H15" s="21" t="s">
         <v>255</v>
       </c>
-      <c r="I15" s="22" t="s">
+      <c r="I15" s="21" t="s">
         <v>260</v>
       </c>
-      <c r="J15" s="22" t="s">
+      <c r="J15" s="21" t="s">
         <v>257</v>
       </c>
-      <c r="K15" s="22" t="s">
+      <c r="K15" s="21" t="s">
         <v>261</v>
       </c>
-      <c r="L15" s="22" t="s">
+      <c r="L15" s="21" t="s">
         <v>292</v>
       </c>
-      <c r="M15" s="22" t="s">
+      <c r="M15" s="21" t="s">
         <v>294</v>
       </c>
-      <c r="N15" s="22" t="s">
+      <c r="N15" s="21" t="s">
         <v>295</v>
       </c>
-      <c r="O15" s="22" t="s">
+      <c r="O15" s="21" t="s">
         <v>297</v>
       </c>
-      <c r="P15" s="22" t="s">
+      <c r="P15" s="21" t="s">
         <v>299</v>
       </c>
-      <c r="Q15" s="22" t="s">
+      <c r="Q15" s="21" t="s">
         <v>301</v>
       </c>
-      <c r="R15" s="22" t="s">
+      <c r="R15" s="21" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="16" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22" t="s">
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="22" t="s">
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="O16" s="22"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="22" t="s">
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="R16" s="22"/>
+      <c r="R16" s="21"/>
     </row>
     <row r="17" spans="3:20" ht="20.100000000000001" customHeight="1">
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="23" t="s">
         <v>270</v>
       </c>
-      <c r="D17" s="24" t="s">
+      <c r="D17" s="23" t="s">
         <v>190</v>
       </c>
-      <c r="E17" s="24" t="s">
+      <c r="E17" s="23" t="s">
         <v>347</v>
       </c>
-      <c r="F17" s="24" t="s">
+      <c r="F17" s="23" t="s">
         <v>287</v>
       </c>
-      <c r="G17" s="24" t="s">
+      <c r="G17" s="23" t="s">
         <v>288</v>
       </c>
-      <c r="H17" s="24" t="s">
+      <c r="H17" s="23" t="s">
         <v>289</v>
       </c>
-      <c r="I17" s="24" t="s">
+      <c r="I17" s="23" t="s">
         <v>290</v>
       </c>
-      <c r="J17" s="24" t="s">
+      <c r="J17" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="K17" s="24" t="s">
+      <c r="K17" s="23" t="s">
         <v>195</v>
       </c>
-      <c r="L17" s="24" t="s">
+      <c r="L17" s="23" t="s">
         <v>291</v>
       </c>
-      <c r="M17" s="24" t="s">
+      <c r="M17" s="23" t="s">
         <v>293</v>
       </c>
-      <c r="N17" s="24" t="s">
+      <c r="N17" s="23" t="s">
         <v>267</v>
       </c>
-      <c r="O17" s="24" t="s">
+      <c r="O17" s="23" t="s">
         <v>296</v>
       </c>
-      <c r="P17" s="24" t="s">
+      <c r="P17" s="23" t="s">
         <v>298</v>
       </c>
-      <c r="Q17" s="24" t="s">
+      <c r="Q17" s="23" t="s">
         <v>300</v>
       </c>
-      <c r="R17" s="24" t="s">
+      <c r="R17" s="23" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="20" spans="3:20" ht="20.100000000000001" customHeight="1">
-      <c r="C20" s="33" t="s">
+      <c r="C20" s="32" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="23" spans="3:20" ht="20.100000000000001" customHeight="1">
-      <c r="C23" s="56" t="s">
+      <c r="C23" s="55" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="24" spans="3:20" ht="20.100000000000001" customHeight="1">
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="E24" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="F24" s="26" t="s">
+      <c r="F24" s="25" t="s">
         <v>72</v>
       </c>
-      <c r="G24" s="11" t="s">
+      <c r="G24" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="H24" s="11" t="s">
+      <c r="H24" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="I24" s="11" t="s">
+      <c r="I24" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="J24" s="11" t="s">
+      <c r="J24" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="K24" s="11" t="s">
+      <c r="K24" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="L24" s="11" t="s">
+      <c r="L24" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="M24" s="31" t="s">
+      <c r="M24" s="30" t="s">
         <v>346</v>
       </c>
-      <c r="N24" s="11" t="s">
+      <c r="N24" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="O24" s="11" t="s">
+      <c r="O24" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="P24" s="11" t="s">
+      <c r="P24" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="Q24" s="11" t="s">
+      <c r="Q24" s="10" t="s">
         <v>379</v>
       </c>
-      <c r="R24" s="11" t="s">
+      <c r="R24" s="10" t="s">
         <v>416</v>
       </c>
-      <c r="S24" s="11" t="s">
+      <c r="S24" s="10" t="s">
         <v>419</v>
       </c>
-      <c r="T24" s="11" t="s">
+      <c r="T24" s="10" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="25" spans="3:20" ht="20.100000000000001" customHeight="1">
-      <c r="C25" s="22" t="s">
+      <c r="C25" s="21" t="s">
         <v>361</v>
       </c>
-      <c r="D25" s="22" t="s">
+      <c r="D25" s="21" t="s">
         <v>257</v>
       </c>
-      <c r="E25" s="22" t="s">
+      <c r="E25" s="21" t="s">
         <v>262</v>
       </c>
-      <c r="F25" s="22" t="s">
+      <c r="F25" s="21" t="s">
         <v>262</v>
       </c>
-      <c r="G25" s="22" t="s">
+      <c r="G25" s="21" t="s">
         <v>360</v>
       </c>
-      <c r="H25" s="22" t="s">
+      <c r="H25" s="21" t="s">
         <v>255</v>
       </c>
-      <c r="I25" s="22" t="s">
+      <c r="I25" s="21" t="s">
         <v>257</v>
       </c>
-      <c r="J25" s="22" t="s">
+      <c r="J25" s="21" t="s">
         <v>261</v>
       </c>
-      <c r="K25" s="22" t="s">
+      <c r="K25" s="21" t="s">
         <v>369</v>
       </c>
-      <c r="L25" s="22" t="s">
+      <c r="L25" s="21" t="s">
         <v>262</v>
       </c>
-      <c r="M25" s="53" t="s">
+      <c r="M25" s="52" t="s">
         <v>333</v>
       </c>
-      <c r="N25" s="22" t="s">
+      <c r="N25" s="21" t="s">
         <v>363</v>
       </c>
-      <c r="O25" s="22" t="s">
+      <c r="O25" s="21" t="s">
         <v>301</v>
       </c>
-      <c r="P25" s="22" t="s">
+      <c r="P25" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="Q25" s="22" t="s">
+      <c r="Q25" s="21" t="s">
         <v>366</v>
       </c>
-      <c r="R25" s="76" t="s">
+      <c r="R25" s="75" t="s">
         <v>417</v>
       </c>
-      <c r="S25" s="77" t="s">
+      <c r="S25" s="76" t="s">
         <v>420</v>
       </c>
-      <c r="T25" s="78" t="s">
+      <c r="T25" s="77" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="26" spans="3:20" ht="20.100000000000001" customHeight="1">
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="58" t="s">
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="G26" s="58"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22" t="s">
+      <c r="G26" s="57"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="L26" s="22"/>
-      <c r="M26" s="22"/>
-      <c r="N26" s="22"/>
-      <c r="O26" s="22"/>
-      <c r="P26" s="22"/>
-      <c r="Q26" s="22"/>
-      <c r="R26" s="76"/>
-      <c r="S26" s="77"/>
-      <c r="T26" s="78"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="21"/>
+      <c r="Q26" s="21"/>
+      <c r="R26" s="75"/>
+      <c r="S26" s="76"/>
+      <c r="T26" s="77"/>
     </row>
     <row r="27" spans="3:20" ht="20.100000000000001" customHeight="1">
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="D27" s="22" t="s">
+      <c r="D27" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="E27" s="22" t="s">
+      <c r="E27" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="F27" s="22" t="s">
+      <c r="F27" s="21" t="s">
         <v>377</v>
       </c>
-      <c r="G27" s="22" t="s">
+      <c r="G27" s="21" t="s">
         <v>358</v>
       </c>
-      <c r="H27" s="22" t="s">
+      <c r="H27" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="I27" s="22" t="s">
+      <c r="I27" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="J27" s="22" t="s">
+      <c r="J27" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="K27" s="22" t="s">
+      <c r="K27" s="21" t="s">
         <v>370</v>
       </c>
-      <c r="L27" s="22" t="s">
+      <c r="L27" s="21" t="s">
         <v>268</v>
       </c>
-      <c r="M27" s="22" t="s">
+      <c r="M27" s="21" t="s">
         <v>271</v>
       </c>
-      <c r="N27" s="22" t="s">
+      <c r="N27" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="O27" s="22" t="s">
+      <c r="O27" s="21" t="s">
         <v>300</v>
       </c>
-      <c r="P27" s="22" t="s">
+      <c r="P27" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="Q27" s="22" t="s">
+      <c r="Q27" s="21" t="s">
         <v>367</v>
       </c>
-      <c r="R27" s="76" t="s">
+      <c r="R27" s="75" t="s">
         <v>418</v>
       </c>
-      <c r="S27" s="77" t="s">
+      <c r="S27" s="76" t="s">
         <v>421</v>
       </c>
-      <c r="T27" s="78" t="s">
+      <c r="T27" s="77" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="28" spans="3:20" ht="20.100000000000001" customHeight="1">
-      <c r="Q28" s="24" t="s">
+      <c r="Q28" s="23" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="29" spans="3:20" ht="20.100000000000001" customHeight="1">
-      <c r="T29" s="24" t="s">
+      <c r="T29" s="23" t="s">
         <v>422</v>
       </c>
     </row>
@@ -4483,79 +4586,79 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="9" style="61"/>
-    <col min="3" max="3" width="22.75" style="61" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5" style="61" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.75" style="61" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.125" style="61" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5" style="61" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="61"/>
+    <col min="1" max="2" width="9" style="60"/>
+    <col min="3" max="3" width="22.75" style="60" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="60" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.75" style="60" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.125" style="60" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" style="60" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="60"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:7" ht="20.100000000000001" customHeight="1">
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="58" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="4" spans="3:7" ht="20.100000000000001" customHeight="1">
-      <c r="C4" s="62" t="s">
+      <c r="C4" s="61" t="s">
         <v>380</v>
       </c>
-      <c r="D4" s="62" t="s">
+      <c r="D4" s="61" t="s">
         <v>381</v>
       </c>
-      <c r="E4" s="62" t="s">
+      <c r="E4" s="61" t="s">
         <v>382</v>
       </c>
-      <c r="F4" s="62" t="s">
+      <c r="F4" s="61" t="s">
         <v>392</v>
       </c>
-      <c r="G4" s="62" t="s">
+      <c r="G4" s="61" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="5" spans="3:7" ht="20.100000000000001" customHeight="1">
-      <c r="C5" s="63" t="s">
+      <c r="C5" s="62" t="s">
         <v>383</v>
       </c>
-      <c r="D5" s="63" t="s">
+      <c r="D5" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="63" t="s">
+      <c r="E5" s="62" t="s">
         <v>385</v>
       </c>
-      <c r="F5" s="63" t="s">
+      <c r="F5" s="62" t="s">
         <v>386</v>
       </c>
-      <c r="G5" s="63" t="s">
+      <c r="G5" s="62" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="6" spans="3:7" ht="20.100000000000001" customHeight="1">
-      <c r="C6" s="63" t="s">
+      <c r="C6" s="62" t="s">
         <v>384</v>
       </c>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63" t="s">
+      <c r="D6" s="62"/>
+      <c r="E6" s="62" t="s">
         <v>395</v>
       </c>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
     </row>
     <row r="7" spans="3:7" ht="20.100000000000001" customHeight="1">
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="62" t="s">
         <v>389</v>
       </c>
-      <c r="D7" s="63" t="s">
+      <c r="D7" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="63" t="s">
+      <c r="E7" s="62" t="s">
         <v>390</v>
       </c>
-      <c r="F7" s="63" t="s">
+      <c r="F7" s="62" t="s">
         <v>391</v>
       </c>
-      <c r="G7" s="63" t="s">
+      <c r="G7" s="62" t="s">
         <v>394</v>
       </c>
     </row>
@@ -4577,496 +4680,496 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9" style="24"/>
-    <col min="2" max="2" width="19.25" style="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="15.875" style="24" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.875" style="24" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5" style="24" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.125" style="24" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.875" style="24" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5" style="24" customWidth="1"/>
-    <col min="11" max="11" width="18.375" style="24" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.875" style="24" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="16.125" style="24" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.375" style="24" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.25" style="24" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.75" style="24" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.875" style="24" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.375" style="24" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.125" style="24" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.75" style="24" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="15" style="24" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.125" style="24" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9" style="24"/>
+    <col min="1" max="1" width="9" style="23"/>
+    <col min="2" max="2" width="19.25" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="15.875" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.875" style="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5" style="23" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.125" style="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.875" style="23" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5" style="23" customWidth="1"/>
+    <col min="11" max="11" width="18.375" style="23" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.875" style="23" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="16.125" style="23" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.375" style="23" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.25" style="23" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.75" style="23" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.875" style="23" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.375" style="23" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.125" style="23" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.75" style="23" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="15" style="23" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.125" style="23" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:19" ht="20.100000000000001" customHeight="1">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="G3" s="32" t="s">
+      <c r="G3" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="H3" s="32" t="s">
+      <c r="H3" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="I3" s="26" t="s">
+      <c r="I3" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="J3" s="32" t="s">
+      <c r="J3" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="K3" s="31" t="s">
+      <c r="K3" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="L3" s="31" t="s">
+      <c r="L3" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="M3" s="31" t="s">
+      <c r="M3" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="N3" s="31" t="s">
+      <c r="N3" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="O3" s="31" t="s">
+      <c r="O3" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="P3" s="31" t="s">
+      <c r="P3" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="Q3" s="31" t="s">
+      <c r="Q3" s="30" t="s">
         <v>346</v>
       </c>
-      <c r="R3" s="31" t="s">
+      <c r="R3" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="S3" s="31" t="s">
+      <c r="S3" s="30" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4" spans="2:19" ht="20.100000000000001" customHeight="1">
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="35" t="s">
         <v>235</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="35" t="s">
         <v>240</v>
       </c>
-      <c r="D4" s="36" t="s">
+      <c r="D4" s="35" t="s">
         <v>241</v>
       </c>
-      <c r="E4" s="36">
+      <c r="E4" s="35">
         <v>518786</v>
       </c>
-      <c r="F4" s="36" t="s">
+      <c r="F4" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="G4" s="38">
+      <c r="G4" s="37">
         <v>42613.958321759259</v>
       </c>
-      <c r="H4" s="47">
+      <c r="H4" s="46">
         <v>3908550182939</v>
       </c>
-      <c r="I4" s="36" t="s">
+      <c r="I4" s="35" t="s">
         <v>230</v>
       </c>
-      <c r="J4" s="36" t="s">
+      <c r="J4" s="35" t="s">
         <v>242</v>
       </c>
-      <c r="K4" s="36" t="s">
+      <c r="K4" s="35" t="s">
         <v>231</v>
       </c>
-      <c r="L4" s="36" t="s">
+      <c r="L4" s="35" t="s">
         <v>232</v>
       </c>
-      <c r="M4" s="36">
+      <c r="M4" s="35">
         <v>13715102933</v>
       </c>
-      <c r="N4" s="50">
+      <c r="N4" s="49">
         <v>42616.958321759259</v>
       </c>
-      <c r="O4" s="36">
+      <c r="O4" s="35">
         <v>1.1100000000000001</v>
       </c>
-      <c r="P4" s="36">
+      <c r="P4" s="35">
         <v>11</v>
       </c>
-      <c r="Q4" s="36">
+      <c r="Q4" s="35">
         <v>12.23</v>
       </c>
-      <c r="R4" s="36" t="s">
+      <c r="R4" s="35" t="s">
         <v>233</v>
       </c>
-      <c r="S4" s="36" t="s">
+      <c r="S4" s="35" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="5" spans="2:19" ht="20.100000000000001" customHeight="1">
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="35" t="s">
         <v>235</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="35" t="s">
         <v>240</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="D5" s="35" t="s">
         <v>241</v>
       </c>
-      <c r="E5" s="36">
+      <c r="E5" s="35">
         <v>518787</v>
       </c>
-      <c r="F5" s="36" t="s">
+      <c r="F5" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="G5" s="38">
+      <c r="G5" s="37">
         <v>42614.958321701386</v>
       </c>
-      <c r="H5" s="47">
+      <c r="H5" s="46">
         <v>3908550182940</v>
       </c>
-      <c r="I5" s="36" t="s">
+      <c r="I5" s="35" t="s">
         <v>243</v>
       </c>
-      <c r="J5" s="36" t="s">
+      <c r="J5" s="35" t="s">
         <v>244</v>
       </c>
-      <c r="K5" s="36" t="s">
+      <c r="K5" s="35" t="s">
         <v>245</v>
       </c>
-      <c r="L5" s="36" t="s">
+      <c r="L5" s="35" t="s">
         <v>236</v>
       </c>
-      <c r="M5" s="36" t="s">
+      <c r="M5" s="35" t="s">
         <v>246</v>
       </c>
-      <c r="N5" s="50">
+      <c r="N5" s="49">
         <v>42617.958321759259</v>
       </c>
-      <c r="O5" s="36">
+      <c r="O5" s="35">
         <v>2.12</v>
       </c>
-      <c r="P5" s="36">
+      <c r="P5" s="35">
         <v>33</v>
       </c>
-      <c r="Q5" s="36">
+      <c r="Q5" s="35">
         <v>12.56</v>
       </c>
-      <c r="R5" s="36" t="s">
+      <c r="R5" s="35" t="s">
         <v>209</v>
       </c>
-      <c r="S5" s="36" t="s">
+      <c r="S5" s="35" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="6" spans="2:19" ht="20.100000000000001" customHeight="1">
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="35" t="s">
         <v>237</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="35" t="s">
         <v>238</v>
       </c>
-      <c r="D6" s="36" t="s">
+      <c r="D6" s="35" t="s">
         <v>247</v>
       </c>
-      <c r="E6" s="36">
+      <c r="E6" s="35">
         <v>518788</v>
       </c>
-      <c r="F6" s="36" t="s">
+      <c r="F6" s="35" t="s">
         <v>248</v>
       </c>
-      <c r="G6" s="38">
+      <c r="G6" s="37">
         <v>42615.958321701386</v>
       </c>
-      <c r="H6" s="47">
+      <c r="H6" s="46">
         <v>3908550182941</v>
       </c>
-      <c r="I6" s="36" t="s">
+      <c r="I6" s="35" t="s">
         <v>239</v>
       </c>
-      <c r="J6" s="36" t="s">
+      <c r="J6" s="35" t="s">
         <v>249</v>
       </c>
-      <c r="K6" s="36" t="s">
+      <c r="K6" s="35" t="s">
         <v>250</v>
       </c>
-      <c r="L6" s="36" t="s">
+      <c r="L6" s="35" t="s">
         <v>207</v>
       </c>
-      <c r="M6" s="36">
+      <c r="M6" s="35">
         <v>13715102935</v>
       </c>
-      <c r="N6" s="50">
+      <c r="N6" s="49">
         <v>42618.958321759259</v>
       </c>
-      <c r="O6" s="46">
+      <c r="O6" s="45">
         <v>3.1</v>
       </c>
-      <c r="P6" s="36">
+      <c r="P6" s="35">
         <v>22</v>
       </c>
-      <c r="Q6" s="36">
+      <c r="Q6" s="35">
         <v>13.45</v>
       </c>
-      <c r="R6" s="36" t="s">
+      <c r="R6" s="35" t="s">
         <v>217</v>
       </c>
-      <c r="S6" s="36" t="s">
+      <c r="S6" s="35" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="16" spans="2:19" ht="20.100000000000001" customHeight="1">
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="23" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="17" spans="2:24" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="C17" s="31" t="s">
+      <c r="C17" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="D17" s="31" t="s">
+      <c r="D17" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="E17" s="32" t="s">
+      <c r="E17" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="F17" s="32" t="s">
+      <c r="F17" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="G17" s="32" t="s">
+      <c r="G17" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="H17" s="32" t="s">
+      <c r="H17" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="I17" s="32" t="s">
+      <c r="I17" s="31" t="s">
         <v>186</v>
       </c>
-      <c r="J17" s="32" t="s">
+      <c r="J17" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="K17" s="31" t="s">
+      <c r="K17" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="L17" s="31" t="s">
+      <c r="L17" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="M17" s="31" t="s">
+      <c r="M17" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="N17" s="31" t="s">
+      <c r="N17" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="O17" s="31" t="s">
+      <c r="O17" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="P17" s="31" t="s">
+      <c r="P17" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="Q17" s="31" t="s">
+      <c r="Q17" s="30" t="s">
         <v>346</v>
       </c>
-      <c r="R17" s="31" t="s">
+      <c r="R17" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="S17" s="31" t="s">
+      <c r="S17" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="T17" s="11" t="s">
+      <c r="T17" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="U17" s="11" t="s">
+      <c r="U17" s="10" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="18" spans="2:24" ht="20.100000000000001" customHeight="1">
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="E18" s="22" t="s">
+      <c r="E18" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="F18" s="22" t="s">
+      <c r="F18" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="G18" s="22" t="s">
+      <c r="G18" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="H18" s="22" t="s">
+      <c r="H18" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22" t="s">
+      <c r="I18" s="21"/>
+      <c r="J18" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="K18" s="22" t="s">
+      <c r="K18" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="L18" s="22" t="s">
+      <c r="L18" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="M18" s="22"/>
-      <c r="N18" s="22" t="s">
+      <c r="M18" s="21"/>
+      <c r="N18" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="O18" s="22" t="s">
+      <c r="O18" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="22"/>
-      <c r="R18" s="22"/>
-      <c r="S18" s="22"/>
-      <c r="T18" s="22"/>
-      <c r="U18" s="22"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="21"/>
+      <c r="R18" s="21"/>
+      <c r="S18" s="21"/>
+      <c r="T18" s="21"/>
+      <c r="U18" s="21"/>
     </row>
     <row r="19" spans="2:24" ht="20.100000000000001" customHeight="1">
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="21" t="s">
         <v>306</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="21" t="s">
         <v>278</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="21" t="s">
         <v>278</v>
       </c>
-      <c r="E19" s="22" t="s">
+      <c r="E19" s="21" t="s">
         <v>307</v>
       </c>
-      <c r="F19" s="22" t="s">
+      <c r="F19" s="21" t="s">
         <v>309</v>
       </c>
-      <c r="G19" s="22" t="s">
+      <c r="G19" s="21" t="s">
         <v>310</v>
       </c>
-      <c r="H19" s="22" t="s">
+      <c r="H19" s="21" t="s">
         <v>260</v>
       </c>
-      <c r="I19" s="22" t="s">
+      <c r="I19" s="21" t="s">
         <v>313</v>
       </c>
-      <c r="J19" s="22" t="s">
+      <c r="J19" s="21" t="s">
         <v>314</v>
       </c>
-      <c r="K19" s="22" t="s">
+      <c r="K19" s="21" t="s">
         <v>262</v>
       </c>
-      <c r="L19" s="22" t="s">
+      <c r="L19" s="21" t="s">
         <v>257</v>
       </c>
-      <c r="M19" s="22" t="s">
+      <c r="M19" s="21" t="s">
         <v>316</v>
       </c>
-      <c r="N19" s="22" t="s">
+      <c r="N19" s="21" t="s">
         <v>318</v>
       </c>
-      <c r="O19" s="22" t="s">
+      <c r="O19" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="P19" s="22" t="s">
+      <c r="P19" s="21" t="s">
         <v>263</v>
       </c>
-      <c r="Q19" s="53" t="s">
+      <c r="Q19" s="52" t="s">
         <v>333</v>
       </c>
-      <c r="R19" s="22" t="s">
+      <c r="R19" s="21" t="s">
         <v>321</v>
       </c>
-      <c r="S19" s="22" t="s">
+      <c r="S19" s="21" t="s">
         <v>260</v>
       </c>
-      <c r="T19" s="22" t="s">
+      <c r="T19" s="21" t="s">
         <v>355</v>
       </c>
-      <c r="U19" s="22" t="s">
+      <c r="U19" s="21" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="20" spans="2:24" ht="20.100000000000001" customHeight="1">
-      <c r="H20" s="24" t="s">
+      <c r="H20" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="P20" s="24" t="s">
+      <c r="P20" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="Q20" s="39"/>
+      <c r="Q20" s="38"/>
     </row>
     <row r="21" spans="2:24" ht="20.100000000000001" customHeight="1">
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="23" t="s">
         <v>302</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="23" t="s">
         <v>303</v>
       </c>
-      <c r="D21" s="24" t="s">
+      <c r="D21" s="23" t="s">
         <v>304</v>
       </c>
-      <c r="E21" s="24" t="s">
+      <c r="E21" s="23" t="s">
         <v>305</v>
       </c>
-      <c r="F21" s="24" t="s">
+      <c r="F21" s="23" t="s">
         <v>308</v>
       </c>
-      <c r="G21" s="24" t="s">
+      <c r="G21" s="23" t="s">
         <v>270</v>
       </c>
-      <c r="H21" s="24" t="s">
+      <c r="H21" s="23" t="s">
         <v>311</v>
       </c>
-      <c r="I21" s="24" t="s">
+      <c r="I21" s="23" t="s">
         <v>312</v>
       </c>
-      <c r="J21" s="24" t="s">
+      <c r="J21" s="23" t="s">
         <v>192</v>
       </c>
-      <c r="K21" s="24" t="s">
+      <c r="K21" s="23" t="s">
         <v>196</v>
       </c>
-      <c r="L21" s="24" t="s">
+      <c r="L21" s="23" t="s">
         <v>194</v>
       </c>
-      <c r="M21" s="24" t="s">
+      <c r="M21" s="23" t="s">
         <v>315</v>
       </c>
-      <c r="N21" s="24" t="s">
+      <c r="N21" s="23" t="s">
         <v>317</v>
       </c>
-      <c r="O21" s="24" t="s">
+      <c r="O21" s="23" t="s">
         <v>319</v>
       </c>
-      <c r="P21" s="24" t="s">
+      <c r="P21" s="23" t="s">
         <v>267</v>
       </c>
-      <c r="Q21" s="24" t="s">
+      <c r="Q21" s="23" t="s">
         <v>271</v>
       </c>
-      <c r="R21" s="24" t="s">
+      <c r="R21" s="23" t="s">
         <v>320</v>
       </c>
-      <c r="S21" s="24" t="s">
+      <c r="S21" s="23" t="s">
         <v>322</v>
       </c>
-      <c r="T21" s="24" t="s">
+      <c r="T21" s="23" t="s">
         <v>351</v>
       </c>
-      <c r="U21" s="24" t="s">
+      <c r="U21" s="23" t="s">
         <v>354</v>
       </c>
     </row>
@@ -5100,7 +5203,7 @@
       <c r="I26" s="82"/>
     </row>
     <row r="27" spans="2:24" ht="20.100000000000001" customHeight="1">
-      <c r="B27" s="33" t="s">
+      <c r="B27" s="32" t="s">
         <v>276</v>
       </c>
       <c r="C27" s="82"/>
@@ -5112,318 +5215,318 @@
       <c r="I27" s="82"/>
     </row>
     <row r="31" spans="2:24" ht="20.100000000000001" customHeight="1">
-      <c r="B31" s="24" t="s">
+      <c r="B31" s="23" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="32" spans="2:24" ht="20.100000000000001" customHeight="1">
-      <c r="B32" s="69" t="s">
+      <c r="B32" s="68" t="s">
         <v>86</v>
       </c>
-      <c r="C32" s="69" t="s">
+      <c r="C32" s="68" t="s">
         <v>88</v>
       </c>
-      <c r="D32" s="69" t="s">
+      <c r="D32" s="68" t="s">
         <v>90</v>
       </c>
-      <c r="E32" s="69" t="s">
+      <c r="E32" s="68" t="s">
         <v>397</v>
       </c>
-      <c r="F32" s="70" t="s">
+      <c r="F32" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="G32" s="32" t="s">
+      <c r="G32" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="H32" s="31" t="s">
+      <c r="H32" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="I32" s="70" t="s">
+      <c r="I32" s="69" t="s">
         <v>98</v>
       </c>
-      <c r="J32" s="32" t="s">
+      <c r="J32" s="31" t="s">
         <v>401</v>
       </c>
-      <c r="K32" s="11" t="s">
+      <c r="K32" s="10" t="s">
         <v>364</v>
       </c>
-      <c r="L32" s="70" t="s">
+      <c r="L32" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="M32" s="70" t="s">
+      <c r="M32" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="N32" s="32" t="s">
+      <c r="N32" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="O32" s="31" t="s">
+      <c r="O32" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="P32" s="31" t="s">
+      <c r="P32" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="Q32" s="31" t="s">
+      <c r="Q32" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="R32" s="69" t="s">
+      <c r="R32" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="S32" s="31" t="s">
+      <c r="S32" s="30" t="s">
         <v>346</v>
       </c>
-      <c r="T32" s="31" t="s">
+      <c r="T32" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="U32" s="31" t="s">
+      <c r="U32" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="V32" s="11" t="s">
+      <c r="V32" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="W32" s="71" t="s">
+      <c r="W32" s="70" t="s">
         <v>375</v>
       </c>
-      <c r="X32" s="31" t="s">
+      <c r="X32" s="30" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="33" spans="2:24" ht="20.100000000000001" customHeight="1">
-      <c r="B33" s="22" t="s">
+      <c r="B33" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="C33" s="22" t="s">
+      <c r="C33" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="D33" s="22" t="s">
+      <c r="D33" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="E33" s="60"/>
-      <c r="F33" s="22" t="s">
+      <c r="E33" s="59"/>
+      <c r="F33" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="G33" s="22" t="s">
+      <c r="G33" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="H33" s="22" t="s">
+      <c r="H33" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="I33" s="22" t="s">
+      <c r="I33" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="J33" s="64"/>
-      <c r="K33" s="22"/>
-      <c r="L33" s="22" t="s">
+      <c r="J33" s="63"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="M33" s="22"/>
-      <c r="N33" s="22" t="s">
+      <c r="M33" s="21"/>
+      <c r="N33" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="O33" s="22" t="s">
+      <c r="O33" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="P33" s="22"/>
-      <c r="Q33" s="22"/>
-      <c r="R33" s="22" t="s">
+      <c r="P33" s="21"/>
+      <c r="Q33" s="21"/>
+      <c r="R33" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="S33" s="22"/>
-      <c r="T33" s="22"/>
-      <c r="U33" s="22"/>
-      <c r="V33" s="22"/>
-      <c r="W33" s="64"/>
-      <c r="X33" s="79" t="s">
+      <c r="S33" s="21"/>
+      <c r="T33" s="21"/>
+      <c r="U33" s="21"/>
+      <c r="V33" s="21"/>
+      <c r="W33" s="63"/>
+      <c r="X33" s="78" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="34" spans="2:24" ht="20.100000000000001" customHeight="1">
-      <c r="B34" s="22" t="s">
+      <c r="B34" s="21" t="s">
         <v>277</v>
       </c>
-      <c r="C34" s="22" t="s">
+      <c r="C34" s="21" t="s">
         <v>278</v>
       </c>
-      <c r="D34" s="22" t="s">
+      <c r="D34" s="21" t="s">
         <v>278</v>
       </c>
-      <c r="E34" s="60" t="s">
+      <c r="E34" s="59" t="s">
         <v>398</v>
       </c>
-      <c r="F34" s="22" t="s">
+      <c r="F34" s="21" t="s">
         <v>361</v>
       </c>
-      <c r="G34" s="22" t="s">
+      <c r="G34" s="21" t="s">
         <v>257</v>
       </c>
-      <c r="H34" s="22" t="s">
+      <c r="H34" s="21" t="s">
         <v>262</v>
       </c>
-      <c r="I34" s="22" t="s">
+      <c r="I34" s="21" t="s">
         <v>262</v>
       </c>
-      <c r="J34" s="64" t="s">
+      <c r="J34" s="63" t="s">
         <v>402</v>
       </c>
-      <c r="K34" s="22" t="s">
+      <c r="K34" s="21" t="s">
         <v>360</v>
       </c>
-      <c r="L34" s="22" t="s">
+      <c r="L34" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="M34" s="22" t="s">
+      <c r="M34" s="21" t="s">
         <v>257</v>
       </c>
-      <c r="N34" s="22" t="s">
+      <c r="N34" s="21" t="s">
         <v>255</v>
       </c>
-      <c r="O34" s="22" t="s">
+      <c r="O34" s="21" t="s">
         <v>257</v>
       </c>
-      <c r="P34" s="22" t="s">
+      <c r="P34" s="21" t="s">
         <v>261</v>
       </c>
-      <c r="Q34" s="22" t="s">
+      <c r="Q34" s="21" t="s">
         <v>262</v>
       </c>
-      <c r="R34" s="22" t="s">
+      <c r="R34" s="21" t="s">
         <v>374</v>
       </c>
-      <c r="S34" s="53" t="s">
+      <c r="S34" s="52" t="s">
         <v>333</v>
       </c>
-      <c r="T34" s="57" t="s">
+      <c r="T34" s="56" t="s">
         <v>369</v>
       </c>
-      <c r="U34" s="22" t="s">
+      <c r="U34" s="21" t="s">
         <v>363</v>
       </c>
-      <c r="V34" s="22" t="s">
+      <c r="V34" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="W34" s="64" t="s">
+      <c r="W34" s="63" t="s">
         <v>376</v>
       </c>
-      <c r="X34" s="79" t="s">
+      <c r="X34" s="78" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="35" spans="2:24" ht="20.100000000000001" customHeight="1">
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="60"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="59"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
       <c r="I35" s="83" t="s">
         <v>9</v>
       </c>
       <c r="J35" s="84"/>
-      <c r="K35" s="58"/>
-      <c r="L35" s="22"/>
-      <c r="M35" s="22"/>
-      <c r="N35" s="22"/>
-      <c r="O35" s="22"/>
-      <c r="P35" s="22"/>
-      <c r="Q35" s="22"/>
-      <c r="R35" s="22"/>
-      <c r="S35" s="53"/>
-      <c r="T35" s="22" t="s">
+      <c r="K35" s="57"/>
+      <c r="L35" s="21"/>
+      <c r="M35" s="21"/>
+      <c r="N35" s="21"/>
+      <c r="O35" s="21"/>
+      <c r="P35" s="21"/>
+      <c r="Q35" s="21"/>
+      <c r="R35" s="21"/>
+      <c r="S35" s="52"/>
+      <c r="T35" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="U35" s="22"/>
-      <c r="V35" s="22"/>
-      <c r="W35" s="64"/>
-      <c r="X35" s="79"/>
+      <c r="U35" s="21"/>
+      <c r="V35" s="21"/>
+      <c r="W35" s="63"/>
+      <c r="X35" s="78"/>
     </row>
     <row r="36" spans="2:24" ht="20.100000000000001" customHeight="1">
-      <c r="B36" s="22" t="s">
+      <c r="B36" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="22" t="s">
+      <c r="C36" s="21" t="s">
         <v>303</v>
       </c>
-      <c r="D36" s="22" t="s">
+      <c r="D36" s="21" t="s">
         <v>304</v>
       </c>
-      <c r="E36" s="60" t="s">
+      <c r="E36" s="59" t="s">
         <v>400</v>
       </c>
-      <c r="F36" s="22" t="s">
+      <c r="F36" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="G36" s="22" t="s">
+      <c r="G36" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="H36" s="22" t="s">
+      <c r="H36" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="I36" s="22" t="s">
+      <c r="I36" s="21" t="s">
         <v>371</v>
       </c>
-      <c r="J36" s="64" t="s">
+      <c r="J36" s="63" t="s">
         <v>403</v>
       </c>
-      <c r="K36" s="22" t="s">
+      <c r="K36" s="21" t="s">
         <v>365</v>
       </c>
-      <c r="L36" s="22" t="s">
+      <c r="L36" s="21" t="s">
         <v>270</v>
       </c>
-      <c r="M36" s="22" t="s">
+      <c r="M36" s="21" t="s">
         <v>423</v>
       </c>
-      <c r="N36" s="22" t="s">
+      <c r="N36" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="O36" s="22" t="s">
+      <c r="O36" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="P36" s="22" t="s">
+      <c r="P36" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="Q36" s="22" t="s">
+      <c r="Q36" s="21" t="s">
         <v>268</v>
       </c>
-      <c r="R36" s="22" t="s">
+      <c r="R36" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="S36" s="22" t="s">
+      <c r="S36" s="21" t="s">
         <v>271</v>
       </c>
-      <c r="T36" s="22" t="s">
+      <c r="T36" s="21" t="s">
         <v>267</v>
       </c>
-      <c r="U36" s="22" t="s">
+      <c r="U36" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="V36" s="22" t="s">
+      <c r="V36" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="W36" s="64" t="s">
+      <c r="W36" s="63" t="s">
         <v>378</v>
       </c>
-      <c r="X36" s="79" t="s">
+      <c r="X36" s="78" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="37" spans="2:24" ht="20.100000000000001" customHeight="1">
-      <c r="W37" s="24" t="s">
+      <c r="W37" s="23" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="38" spans="2:24" ht="20.100000000000001" customHeight="1">
-      <c r="W38" s="24" t="s">
+      <c r="W38" s="23" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="39" spans="2:24" ht="20.100000000000001" customHeight="1">
-      <c r="W39" s="24" t="s">
+      <c r="W39" s="23" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="40" spans="2:24" ht="20.100000000000001" customHeight="1">
-      <c r="W40" s="24" t="s">
+      <c r="W40" s="23" t="s">
         <v>415</v>
       </c>
     </row>
@@ -5443,871 +5546,871 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:AD34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O7" workbookViewId="0">
+    <sheetView topLeftCell="P7" workbookViewId="0">
       <selection activeCell="AC29" sqref="AC29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9" style="39"/>
-    <col min="2" max="2" width="8" style="39" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24" style="39" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="15.875" style="39" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.125" style="39" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5" style="39" customWidth="1"/>
-    <col min="9" max="10" width="16.125" style="39" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.125" style="39" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.5" style="39" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15" style="39" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.875" style="39" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.375" style="39" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="18.375" style="39" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.875" style="39" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.25" style="39" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="13.875" style="39" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.75" style="39" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="17.25" style="39" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.875" style="39" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.875" style="39" bestFit="1" customWidth="1"/>
-    <col min="26" max="29" width="12.75" style="39" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12.25" style="39" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9" style="39"/>
+    <col min="1" max="1" width="9" style="38"/>
+    <col min="2" max="2" width="8" style="38" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" style="38" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="15.875" style="38" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.125" style="38" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5" style="38" customWidth="1"/>
+    <col min="9" max="10" width="16.125" style="38" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.125" style="38" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5" style="38" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15" style="38" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.875" style="38" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.375" style="38" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="18.375" style="38" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.875" style="38" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.25" style="38" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="13.875" style="38" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.75" style="38" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.25" style="38" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.875" style="38" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.875" style="38" bestFit="1" customWidth="1"/>
+    <col min="26" max="29" width="12.75" style="38" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.25" style="38" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9" style="38"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:23" ht="19.5" customHeight="1"/>
     <row r="4" spans="2:23" ht="57.75" customHeight="1">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="L4" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="M4" s="8" t="s">
+      <c r="M4" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="N4" s="8" t="s">
+      <c r="N4" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="O4" s="8" t="s">
+      <c r="O4" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="P4" s="9" t="s">
+      <c r="P4" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="Q4" s="9" t="s">
+      <c r="Q4" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="R4" s="9" t="s">
+      <c r="R4" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="S4" s="9" t="s">
+      <c r="S4" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="T4" s="9" t="s">
+      <c r="T4" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="U4" s="9" t="s">
+      <c r="U4" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="V4" s="9" t="s">
+      <c r="V4" s="8" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="5" spans="2:23" ht="18">
-      <c r="B5" s="39">
+      <c r="B5" s="38">
         <v>1</v>
       </c>
-      <c r="C5" s="42">
+      <c r="C5" s="41">
         <v>42613.958321759259</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="D5" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="E5" s="43">
+      <c r="E5" s="42">
         <v>518786</v>
       </c>
-      <c r="F5" s="39" t="s">
+      <c r="F5" s="38" t="s">
         <v>210</v>
       </c>
-      <c r="G5" s="44">
+      <c r="G5" s="43">
         <v>3908550182939</v>
       </c>
-      <c r="H5" s="43" t="s">
+      <c r="H5" s="42" t="s">
         <v>156</v>
       </c>
-      <c r="I5" s="39" t="s">
+      <c r="I5" s="38" t="s">
         <v>211</v>
       </c>
-      <c r="J5" s="36" t="s">
+      <c r="J5" s="35" t="s">
         <v>212</v>
       </c>
-      <c r="K5" s="36" t="s">
+      <c r="K5" s="35" t="s">
         <v>212</v>
       </c>
-      <c r="L5" s="42">
+      <c r="L5" s="41">
         <v>42613.958321759259</v>
       </c>
-      <c r="M5" s="39" t="s">
+      <c r="M5" s="38" t="s">
         <v>213</v>
       </c>
-      <c r="N5" s="39" t="s">
+      <c r="N5" s="38" t="s">
         <v>214</v>
       </c>
-      <c r="O5" s="45" t="s">
+      <c r="O5" s="44" t="s">
         <v>215</v>
       </c>
-      <c r="P5" s="36" t="s">
+      <c r="P5" s="35" t="s">
         <v>216</v>
       </c>
-      <c r="R5" s="36">
+      <c r="R5" s="35">
         <v>1.1100000000000001</v>
       </c>
-      <c r="S5" s="39">
+      <c r="S5" s="38">
         <v>11</v>
       </c>
-      <c r="T5" s="39" t="s">
+      <c r="T5" s="38" t="s">
         <v>217</v>
       </c>
-      <c r="U5" s="40">
+      <c r="U5" s="39">
         <v>99.99</v>
       </c>
-      <c r="V5" s="40">
+      <c r="V5" s="39">
         <v>5.3</v>
       </c>
     </row>
     <row r="6" spans="2:23" ht="20.100000000000001" customHeight="1">
-      <c r="B6" s="39">
+      <c r="B6" s="38">
         <v>2</v>
       </c>
-      <c r="C6" s="42">
+      <c r="C6" s="41">
         <v>42614.958321701386</v>
       </c>
-      <c r="D6" s="36" t="s">
+      <c r="D6" s="35" t="s">
         <v>218</v>
       </c>
-      <c r="E6" s="43">
+      <c r="E6" s="42">
         <v>518787</v>
       </c>
-      <c r="F6" s="39" t="s">
+      <c r="F6" s="38" t="s">
         <v>219</v>
       </c>
-      <c r="G6" s="44">
+      <c r="G6" s="43">
         <v>3908550182940</v>
       </c>
-      <c r="H6" s="43" t="s">
+      <c r="H6" s="42" t="s">
         <v>163</v>
       </c>
-      <c r="I6" s="39" t="s">
+      <c r="I6" s="38" t="s">
         <v>220</v>
       </c>
-      <c r="J6" s="36" t="s">
+      <c r="J6" s="35" t="s">
         <v>221</v>
       </c>
-      <c r="K6" s="36" t="s">
+      <c r="K6" s="35" t="s">
         <v>221</v>
       </c>
-      <c r="L6" s="42">
+      <c r="L6" s="41">
         <v>42614.958321701386</v>
       </c>
-      <c r="M6" s="39" t="s">
+      <c r="M6" s="38" t="s">
         <v>222</v>
       </c>
-      <c r="N6" s="39" t="s">
+      <c r="N6" s="38" t="s">
         <v>223</v>
       </c>
-      <c r="O6" s="45" t="s">
+      <c r="O6" s="44" t="s">
         <v>224</v>
       </c>
-      <c r="P6" s="36" t="s">
+      <c r="P6" s="35" t="s">
         <v>166</v>
       </c>
-      <c r="R6" s="36">
+      <c r="R6" s="35">
         <v>2.12</v>
       </c>
-      <c r="S6" s="39">
+      <c r="S6" s="38">
         <v>22</v>
       </c>
-      <c r="T6" s="39" t="s">
+      <c r="T6" s="38" t="s">
         <v>225</v>
       </c>
-      <c r="U6" s="40">
+      <c r="U6" s="39">
         <v>10</v>
       </c>
-      <c r="V6" s="40">
+      <c r="V6" s="39">
         <v>2.12</v>
       </c>
     </row>
     <row r="7" spans="2:23" ht="20.100000000000001" customHeight="1">
-      <c r="B7" s="39">
+      <c r="B7" s="38">
         <v>3</v>
       </c>
-      <c r="C7" s="42">
+      <c r="C7" s="41">
         <v>42615.958321701386</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="D7" s="35" t="s">
         <v>168</v>
       </c>
-      <c r="E7" s="43">
+      <c r="E7" s="42">
         <v>518788</v>
       </c>
-      <c r="F7" s="39" t="s">
+      <c r="F7" s="38" t="s">
         <v>226</v>
       </c>
-      <c r="G7" s="44">
+      <c r="G7" s="43">
         <v>3908550182941</v>
       </c>
-      <c r="H7" s="43" t="s">
+      <c r="H7" s="42" t="s">
         <v>170</v>
       </c>
-      <c r="I7" s="39" t="s">
+      <c r="I7" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="J7" s="36" t="s">
+      <c r="J7" s="35" t="s">
         <v>207</v>
       </c>
-      <c r="K7" s="36" t="s">
+      <c r="K7" s="35" t="s">
         <v>207</v>
       </c>
-      <c r="L7" s="42">
+      <c r="L7" s="41">
         <v>42615.958321701386</v>
       </c>
-      <c r="M7" s="39" t="s">
+      <c r="M7" s="38" t="s">
         <v>208</v>
       </c>
-      <c r="N7" s="39" t="s">
+      <c r="N7" s="38" t="s">
         <v>227</v>
       </c>
-      <c r="O7" s="45" t="s">
+      <c r="O7" s="44" t="s">
         <v>228</v>
       </c>
-      <c r="P7" s="36" t="s">
+      <c r="P7" s="35" t="s">
         <v>173</v>
       </c>
-      <c r="R7" s="46">
+      <c r="R7" s="45">
         <v>3.1</v>
       </c>
-      <c r="S7" s="39">
+      <c r="S7" s="38">
         <v>33</v>
       </c>
-      <c r="T7" s="39" t="s">
+      <c r="T7" s="38" t="s">
         <v>229</v>
       </c>
-      <c r="U7" s="40">
+      <c r="U7" s="39">
         <v>55.2</v>
       </c>
-      <c r="V7" s="40">
+      <c r="V7" s="39">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="2:23" ht="20.100000000000001" customHeight="1">
-      <c r="C11" s="39" t="s">
+      <c r="C11" s="38" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="12" spans="2:23" ht="27">
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="G12" s="51" t="s">
+      <c r="G12" s="50" t="s">
         <v>119</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H12" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="I12" s="51" t="s">
+      <c r="I12" s="50" t="s">
         <v>117</v>
       </c>
-      <c r="J12" s="51" t="s">
+      <c r="J12" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="K12" s="8" t="s">
+      <c r="K12" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="L12" s="51" t="s">
+      <c r="L12" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="M12" s="51" t="s">
+      <c r="M12" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="N12" s="8" t="s">
+      <c r="N12" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="O12" s="8" t="s">
+      <c r="O12" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="P12" s="9" t="s">
+      <c r="P12" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="Q12" s="9" t="s">
+      <c r="Q12" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="R12" s="9" t="s">
+      <c r="R12" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="S12" s="9" t="s">
+      <c r="S12" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="T12" s="9" t="s">
+      <c r="T12" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="U12" s="9" t="s">
+      <c r="U12" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="V12" s="9" t="s">
+      <c r="V12" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="W12" s="11" t="s">
+      <c r="W12" s="10" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="13" spans="2:23" ht="20.100000000000001" customHeight="1">
-      <c r="C13" s="53" t="s">
+      <c r="C13" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="21" t="s">
         <v>257</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="F13" s="22" t="s">
+      <c r="F13" s="21" t="s">
         <v>257</v>
       </c>
-      <c r="G13" s="22" t="s">
+      <c r="G13" s="21" t="s">
         <v>260</v>
       </c>
-      <c r="H13" s="22" t="s">
+      <c r="H13" s="21" t="s">
         <v>255</v>
       </c>
-      <c r="I13" s="53" t="s">
+      <c r="I13" s="52" t="s">
         <v>325</v>
       </c>
-      <c r="J13" s="53" t="s">
+      <c r="J13" s="52" t="s">
         <v>277</v>
       </c>
-      <c r="K13" s="53" t="s">
+      <c r="K13" s="52" t="s">
         <v>283</v>
       </c>
-      <c r="L13" s="53" t="s">
+      <c r="L13" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="M13" s="53" t="s">
+      <c r="M13" s="52" t="s">
         <v>329</v>
       </c>
-      <c r="N13" s="53" t="s">
+      <c r="N13" s="52" t="s">
         <v>280</v>
       </c>
-      <c r="O13" s="22" t="s">
+      <c r="O13" s="21" t="s">
         <v>260</v>
       </c>
-      <c r="P13" s="22" t="s">
+      <c r="P13" s="21" t="s">
         <v>299</v>
       </c>
-      <c r="Q13" s="22" t="s">
+      <c r="Q13" s="21" t="s">
         <v>261</v>
       </c>
-      <c r="R13" s="22" t="s">
+      <c r="R13" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="S13" s="22" t="s">
+      <c r="S13" s="21" t="s">
         <v>330</v>
       </c>
-      <c r="T13" s="22" t="s">
+      <c r="T13" s="21" t="s">
         <v>262</v>
       </c>
-      <c r="U13" s="53" t="s">
+      <c r="U13" s="52" t="s">
         <v>333</v>
       </c>
-      <c r="V13" s="22" t="s">
+      <c r="V13" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="W13" s="22" t="s">
+      <c r="W13" s="21" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="14" spans="2:23" ht="20.100000000000001" customHeight="1">
-      <c r="G14" s="39" t="s">
+      <c r="G14" s="38" t="s">
         <v>147</v>
       </c>
-      <c r="I14" s="39" t="s">
+      <c r="I14" s="38" t="s">
         <v>148</v>
       </c>
-      <c r="N14" s="41" t="s">
+      <c r="N14" s="40" t="s">
         <v>324</v>
       </c>
-      <c r="S14" s="39" t="s">
+      <c r="S14" s="38" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="15" spans="2:23" ht="20.100000000000001" customHeight="1">
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="23" t="s">
         <v>270</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="23" t="s">
         <v>190</v>
       </c>
-      <c r="E15" s="24" t="s">
+      <c r="E15" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="F15" s="24" t="s">
+      <c r="F15" s="23" t="s">
         <v>273</v>
       </c>
-      <c r="G15" s="24" t="s">
+      <c r="G15" s="23" t="s">
         <v>266</v>
       </c>
-      <c r="H15" s="24" t="s">
+      <c r="H15" s="23" t="s">
         <v>192</v>
       </c>
-      <c r="I15" s="39" t="s">
+      <c r="I15" s="38" t="s">
         <v>356</v>
       </c>
-      <c r="J15" s="39" t="s">
+      <c r="J15" s="38" t="s">
         <v>326</v>
       </c>
-      <c r="K15" s="24" t="s">
+      <c r="K15" s="23" t="s">
         <v>327</v>
       </c>
-      <c r="L15" s="39" t="s">
+      <c r="L15" s="38" t="s">
         <v>357</v>
       </c>
-      <c r="M15" s="39" t="s">
+      <c r="M15" s="38" t="s">
         <v>328</v>
       </c>
-      <c r="N15" s="39" t="s">
+      <c r="N15" s="38" t="s">
         <v>335</v>
       </c>
-      <c r="O15" s="24" t="s">
+      <c r="O15" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="P15" s="24" t="s">
+      <c r="P15" s="23" t="s">
         <v>196</v>
       </c>
-      <c r="Q15" s="39" t="s">
+      <c r="Q15" s="38" t="s">
         <v>195</v>
       </c>
-      <c r="R15" s="39" t="s">
+      <c r="R15" s="38" t="s">
         <v>265</v>
       </c>
-      <c r="S15" s="24" t="s">
+      <c r="S15" s="23" t="s">
         <v>336</v>
       </c>
-      <c r="T15" s="24" t="s">
+      <c r="T15" s="23" t="s">
         <v>331</v>
       </c>
-      <c r="U15" s="24" t="s">
+      <c r="U15" s="23" t="s">
         <v>332</v>
       </c>
-      <c r="V15" s="39" t="s">
+      <c r="V15" s="38" t="s">
         <v>334</v>
       </c>
-      <c r="W15" s="24" t="s">
+      <c r="W15" s="23" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="16" spans="2:23" ht="20.100000000000001" customHeight="1">
-      <c r="N16" s="39" t="s">
+      <c r="N16" s="38" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="20" spans="3:30" ht="20.100000000000001" customHeight="1">
-      <c r="C20" s="52" t="s">
+      <c r="C20" s="51" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="21" spans="3:30" ht="20.100000000000001" customHeight="1">
-      <c r="C21" s="33" t="s">
+      <c r="C21" s="32" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="25" spans="3:30" ht="20.100000000000001" customHeight="1">
-      <c r="C25" s="39" t="s">
+      <c r="C25" s="38" t="s">
         <v>189</v>
       </c>
-      <c r="R25" s="73"/>
+      <c r="R25" s="72"/>
     </row>
     <row r="26" spans="3:30" ht="20.100000000000001" customHeight="1">
-      <c r="C26" s="31" t="s">
+      <c r="C26" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="D26" s="72" t="s">
+      <c r="D26" s="71" t="s">
         <v>88</v>
       </c>
-      <c r="E26" s="72" t="s">
+      <c r="E26" s="71" t="s">
         <v>90</v>
       </c>
-      <c r="F26" s="72" t="s">
+      <c r="F26" s="71" t="s">
         <v>397</v>
       </c>
-      <c r="G26" s="32" t="s">
+      <c r="G26" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="H26" s="32" t="s">
+      <c r="H26" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="I26" s="32" t="s">
+      <c r="I26" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="J26" s="32" t="s">
+      <c r="J26" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="K26" s="70" t="s">
+      <c r="K26" s="69" t="s">
         <v>98</v>
       </c>
-      <c r="L26" s="32" t="s">
+      <c r="L26" s="31" t="s">
         <v>401</v>
       </c>
-      <c r="M26" s="66" t="s">
+      <c r="M26" s="65" t="s">
         <v>359</v>
       </c>
-      <c r="N26" s="32" t="s">
+      <c r="N26" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="O26" s="70" t="s">
+      <c r="O26" s="69" t="s">
         <v>405</v>
       </c>
-      <c r="P26" s="32" t="s">
+      <c r="P26" s="31" t="s">
         <v>406</v>
       </c>
-      <c r="Q26" s="32" t="s">
+      <c r="Q26" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="R26" s="70" t="s">
+      <c r="R26" s="69" t="s">
         <v>407</v>
       </c>
-      <c r="S26" s="32" t="s">
+      <c r="S26" s="31" t="s">
         <v>408</v>
       </c>
-      <c r="T26" s="32" t="s">
+      <c r="T26" s="31" t="s">
         <v>409</v>
       </c>
-      <c r="U26" s="72" t="s">
+      <c r="U26" s="71" t="s">
         <v>84</v>
       </c>
-      <c r="V26" s="72" t="s">
+      <c r="V26" s="71" t="s">
         <v>100</v>
       </c>
-      <c r="W26" s="74" t="s">
+      <c r="W26" s="73" t="s">
         <v>102</v>
       </c>
-      <c r="X26" s="72" t="s">
+      <c r="X26" s="71" t="s">
         <v>78</v>
       </c>
-      <c r="Y26" s="72" t="s">
+      <c r="Y26" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="Z26" s="72" t="s">
+      <c r="Z26" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="AA26" s="72" t="s">
+      <c r="AA26" s="71" t="s">
         <v>346</v>
       </c>
-      <c r="AB26" s="74" t="s">
+      <c r="AB26" s="73" t="s">
         <v>108</v>
       </c>
-      <c r="AC26" s="11" t="s">
+      <c r="AC26" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="AD26" s="87" t="s">
+      <c r="AD26" s="79" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="27" spans="3:30" ht="20.100000000000001" customHeight="1">
-      <c r="C27" s="68" t="s">
+      <c r="C27" s="67" t="s">
         <v>277</v>
       </c>
-      <c r="D27" s="68" t="s">
+      <c r="D27" s="67" t="s">
         <v>278</v>
       </c>
-      <c r="E27" s="68" t="s">
+      <c r="E27" s="67" t="s">
         <v>278</v>
       </c>
-      <c r="F27" s="68" t="s">
+      <c r="F27" s="67" t="s">
         <v>398</v>
       </c>
-      <c r="G27" s="68" t="s">
+      <c r="G27" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="H27" s="68" t="s">
+      <c r="H27" s="67" t="s">
         <v>257</v>
       </c>
-      <c r="I27" s="68" t="s">
+      <c r="I27" s="67" t="s">
         <v>361</v>
       </c>
-      <c r="J27" s="68" t="s">
+      <c r="J27" s="67" t="s">
         <v>257</v>
       </c>
-      <c r="K27" s="68" t="s">
+      <c r="K27" s="67" t="s">
         <v>362</v>
       </c>
-      <c r="L27" s="68" t="s">
+      <c r="L27" s="67" t="s">
         <v>402</v>
       </c>
-      <c r="M27" s="67" t="s">
+      <c r="M27" s="66" t="s">
         <v>360</v>
       </c>
-      <c r="N27" s="68" t="s">
+      <c r="N27" s="67" t="s">
         <v>255</v>
       </c>
-      <c r="O27" s="68" t="s">
+      <c r="O27" s="67" t="s">
         <v>277</v>
       </c>
-      <c r="P27" s="68" t="s">
+      <c r="P27" s="67" t="s">
         <v>277</v>
       </c>
-      <c r="Q27" s="68" t="s">
+      <c r="Q27" s="67" t="s">
         <v>277</v>
       </c>
-      <c r="R27" s="68" t="s">
+      <c r="R27" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="S27" s="68" t="s">
+      <c r="S27" s="67" t="s">
         <v>286</v>
       </c>
-      <c r="T27" s="68" t="s">
+      <c r="T27" s="67" t="s">
         <v>280</v>
       </c>
-      <c r="U27" s="68" t="s">
+      <c r="U27" s="67" t="s">
         <v>363</v>
       </c>
-      <c r="V27" s="68" t="s">
+      <c r="V27" s="67" t="s">
         <v>262</v>
       </c>
-      <c r="W27" s="68" t="s">
+      <c r="W27" s="67" t="s">
         <v>261</v>
       </c>
-      <c r="X27" s="68" t="s">
+      <c r="X27" s="67" t="s">
         <v>252</v>
       </c>
-      <c r="Y27" s="68" t="s">
+      <c r="Y27" s="67" t="s">
         <v>369</v>
       </c>
-      <c r="Z27" s="68" t="s">
+      <c r="Z27" s="67" t="s">
         <v>262</v>
       </c>
-      <c r="AA27" s="68" t="s">
+      <c r="AA27" s="67" t="s">
         <v>333</v>
       </c>
-      <c r="AB27" s="68" t="s">
+      <c r="AB27" s="67" t="s">
         <v>252</v>
       </c>
-      <c r="AC27" s="68" t="s">
+      <c r="AC27" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="AD27" s="53" t="s">
+      <c r="AD27" s="52" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="28" spans="3:30" ht="20.100000000000001" customHeight="1">
-      <c r="C28" s="68"/>
-      <c r="D28" s="68"/>
-      <c r="E28" s="68"/>
-      <c r="F28" s="68"/>
-      <c r="G28" s="68"/>
-      <c r="H28" s="68"/>
-      <c r="I28" s="68"/>
-      <c r="J28" s="68"/>
+      <c r="C28" s="67"/>
+      <c r="D28" s="67"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="67"/>
+      <c r="H28" s="67"/>
+      <c r="I28" s="67"/>
+      <c r="J28" s="67"/>
       <c r="K28" s="85" t="s">
         <v>9</v>
       </c>
       <c r="L28" s="85"/>
-      <c r="M28" s="65"/>
-      <c r="N28" s="68"/>
-      <c r="O28" s="68" t="s">
+      <c r="M28" s="64"/>
+      <c r="N28" s="67"/>
+      <c r="O28" s="67" t="s">
         <v>148</v>
       </c>
-      <c r="P28" s="68"/>
-      <c r="Q28" s="68"/>
-      <c r="R28" s="68"/>
-      <c r="S28" s="68"/>
-      <c r="T28" s="75" t="s">
+      <c r="P28" s="67"/>
+      <c r="Q28" s="67"/>
+      <c r="R28" s="67"/>
+      <c r="S28" s="67"/>
+      <c r="T28" s="74" t="s">
         <v>148</v>
       </c>
-      <c r="U28" s="68"/>
-      <c r="V28" s="68"/>
-      <c r="W28" s="68"/>
-      <c r="X28" s="68"/>
-      <c r="Y28" s="68" t="s">
+      <c r="U28" s="67"/>
+      <c r="V28" s="67"/>
+      <c r="W28" s="67"/>
+      <c r="X28" s="67"/>
+      <c r="Y28" s="67" t="s">
         <v>148</v>
       </c>
-      <c r="Z28" s="68"/>
-      <c r="AA28" s="68"/>
-      <c r="AB28" s="68"/>
-      <c r="AC28" s="58"/>
-      <c r="AD28" s="53"/>
+      <c r="Z28" s="67"/>
+      <c r="AA28" s="67"/>
+      <c r="AB28" s="67"/>
+      <c r="AC28" s="57"/>
+      <c r="AD28" s="52"/>
     </row>
     <row r="29" spans="3:30" ht="20.100000000000001" customHeight="1">
-      <c r="C29" s="68" t="s">
+      <c r="C29" s="67" t="s">
         <v>302</v>
       </c>
-      <c r="D29" s="68" t="s">
+      <c r="D29" s="67" t="s">
         <v>303</v>
       </c>
-      <c r="E29" s="68" t="s">
+      <c r="E29" s="67" t="s">
         <v>304</v>
       </c>
-      <c r="F29" s="68" t="s">
+      <c r="F29" s="67" t="s">
         <v>399</v>
       </c>
-      <c r="G29" s="68" t="s">
+      <c r="G29" s="67" t="s">
         <v>270</v>
       </c>
-      <c r="H29" s="68" t="s">
+      <c r="H29" s="67" t="s">
         <v>190</v>
       </c>
-      <c r="I29" s="68" t="s">
+      <c r="I29" s="67" t="s">
         <v>191</v>
       </c>
-      <c r="J29" s="68" t="s">
+      <c r="J29" s="67" t="s">
         <v>273</v>
       </c>
-      <c r="K29" s="68" t="s">
+      <c r="K29" s="67" t="s">
         <v>266</v>
       </c>
-      <c r="L29" s="68" t="s">
+      <c r="L29" s="67" t="s">
         <v>404</v>
       </c>
-      <c r="M29" s="67" t="s">
+      <c r="M29" s="66" t="s">
         <v>358</v>
       </c>
-      <c r="N29" s="68" t="s">
+      <c r="N29" s="67" t="s">
         <v>192</v>
       </c>
-      <c r="O29" s="68" t="s">
+      <c r="O29" s="67" t="s">
         <v>345</v>
       </c>
-      <c r="P29" s="68" t="s">
+      <c r="P29" s="67" t="s">
         <v>326</v>
       </c>
-      <c r="Q29" s="68" t="s">
+      <c r="Q29" s="67" t="s">
         <v>194</v>
       </c>
-      <c r="R29" s="68" t="s">
+      <c r="R29" s="67" t="s">
         <v>269</v>
       </c>
-      <c r="S29" s="68" t="s">
+      <c r="S29" s="67" t="s">
         <v>328</v>
       </c>
-      <c r="T29" s="68" t="s">
+      <c r="T29" s="67" t="s">
         <v>335</v>
       </c>
-      <c r="U29" s="68" t="s">
+      <c r="U29" s="67" t="s">
         <v>193</v>
       </c>
-      <c r="V29" s="68" t="s">
+      <c r="V29" s="67" t="s">
         <v>196</v>
       </c>
-      <c r="W29" s="68" t="s">
+      <c r="W29" s="67" t="s">
         <v>195</v>
       </c>
-      <c r="X29" s="68" t="s">
+      <c r="X29" s="67" t="s">
         <v>265</v>
       </c>
-      <c r="Y29" s="68" t="s">
+      <c r="Y29" s="67" t="s">
         <v>267</v>
       </c>
-      <c r="Z29" s="68" t="s">
+      <c r="Z29" s="67" t="s">
         <v>268</v>
       </c>
-      <c r="AA29" s="68" t="s">
+      <c r="AA29" s="67" t="s">
         <v>271</v>
       </c>
-      <c r="AB29" s="68" t="s">
+      <c r="AB29" s="67" t="s">
         <v>296</v>
       </c>
-      <c r="AC29" s="68" t="s">
+      <c r="AC29" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="AD29" s="53" t="s">
+      <c r="AD29" s="52" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="30" spans="3:30" ht="20.100000000000001" customHeight="1">
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="24"/>
-      <c r="L30" s="24"/>
-      <c r="M30" s="24"/>
-      <c r="N30" s="24"/>
-      <c r="O30" s="24"/>
-      <c r="P30" s="24"/>
-      <c r="Q30" s="24"/>
-      <c r="R30" s="24"/>
-      <c r="T30" s="24" t="s">
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="23"/>
+      <c r="N30" s="23"/>
+      <c r="O30" s="23"/>
+      <c r="P30" s="23"/>
+      <c r="Q30" s="23"/>
+      <c r="R30" s="23"/>
+      <c r="T30" s="23" t="s">
         <v>323</v>
       </c>
-      <c r="U30" s="24"/>
-      <c r="V30" s="24"/>
-      <c r="W30" s="24"/>
-      <c r="X30" s="24"/>
-      <c r="Y30" s="24"/>
-      <c r="Z30" s="24"/>
-      <c r="AA30" s="24"/>
-      <c r="AB30" s="24"/>
-      <c r="AC30" s="24"/>
+      <c r="U30" s="23"/>
+      <c r="V30" s="23"/>
+      <c r="W30" s="23"/>
+      <c r="X30" s="23"/>
+      <c r="Y30" s="23"/>
+      <c r="Z30" s="23"/>
+      <c r="AA30" s="23"/>
+      <c r="AB30" s="23"/>
+      <c r="AC30" s="23"/>
     </row>
     <row r="32" spans="3:30" ht="20.100000000000001" customHeight="1">
-      <c r="P32" s="39" t="s">
+      <c r="P32" s="38" t="s">
         <v>410</v>
       </c>
-      <c r="S32" s="39" t="s">
+      <c r="S32" s="38" t="s">
         <v>412</v>
       </c>
-      <c r="T32" s="39" t="s">
+      <c r="T32" s="38" t="s">
         <v>411</v>
       </c>
-      <c r="AB32" s="39" t="s">
+      <c r="AB32" s="38" t="s">
         <v>410</v>
       </c>
     </row>
     <row r="33" spans="20:20" ht="20.100000000000001" customHeight="1">
-      <c r="T33" s="39" t="s">
+      <c r="T33" s="38" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="34" spans="20:20" ht="20.100000000000001" customHeight="1">
-      <c r="T34" s="39" t="s">
+      <c r="T34" s="38" t="s">
         <v>434</v>
       </c>
     </row>
@@ -6331,206 +6434,206 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="9" style="10"/>
-    <col min="3" max="3" width="5.25" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9" style="10"/>
-    <col min="9" max="9" width="13.875" style="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.125" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.875" style="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.75" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="10"/>
+    <col min="1" max="2" width="9" style="9"/>
+    <col min="3" max="3" width="5.25" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9" style="9"/>
+    <col min="9" max="9" width="13.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.875" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.75" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
     <row r="5" spans="3:12" ht="20.100000000000001" customHeight="1">
-      <c r="I5" s="34" t="s">
+      <c r="I5" s="33" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="6" spans="3:12" ht="20.100000000000001" customHeight="1">
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="J6" s="13" t="s">
+      <c r="J6" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="K6" s="13" t="s">
+      <c r="K6" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="L6" s="13" t="s">
+      <c r="L6" s="12" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="7" spans="3:12" ht="20.100000000000001" customHeight="1">
-      <c r="C7" s="14">
+      <c r="C7" s="13">
         <v>1</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="16">
         <v>48</v>
       </c>
-      <c r="I7" s="54" t="s">
+      <c r="I7" s="53" t="s">
         <v>281</v>
       </c>
-      <c r="J7" s="54" t="s">
+      <c r="J7" s="53" t="s">
         <v>338</v>
       </c>
-      <c r="K7" s="54" t="s">
+      <c r="K7" s="53" t="s">
         <v>282</v>
       </c>
-      <c r="L7" s="54" t="s">
+      <c r="L7" s="53" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="8" spans="3:12" ht="20.100000000000001" customHeight="1">
-      <c r="C8" s="14">
+      <c r="C8" s="13">
         <v>2</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="16">
         <v>72</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="I8" s="9" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="9" spans="3:12" ht="20.100000000000001" customHeight="1">
-      <c r="C9" s="14">
+      <c r="C9" s="13">
         <v>3</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="16">
         <v>48</v>
       </c>
-      <c r="I9" s="10" t="s">
+      <c r="I9" s="9" t="s">
         <v>372</v>
       </c>
-      <c r="J9" s="10" t="s">
+      <c r="J9" s="9" t="s">
         <v>337</v>
       </c>
-      <c r="K9" s="10" t="s">
+      <c r="K9" s="9" t="s">
         <v>339</v>
       </c>
-      <c r="L9" s="10" t="s">
+      <c r="L9" s="9" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="10" spans="3:12" ht="20.100000000000001" customHeight="1">
-      <c r="C10" s="14">
+      <c r="C10" s="13">
         <v>4</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="16">
         <v>96</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="I10" s="9" t="s">
         <v>373</v>
       </c>
-      <c r="K10" s="10" t="s">
+      <c r="K10" s="9" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="11" spans="3:12" ht="20.100000000000001" customHeight="1">
-      <c r="C11" s="14">
+      <c r="C11" s="13">
         <v>5</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="16">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="3:12" ht="20.100000000000001" customHeight="1">
-      <c r="C12" s="14">
+      <c r="C12" s="13">
         <v>6</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="16">
         <v>48</v>
       </c>
     </row>
     <row r="13" spans="3:12" ht="20.100000000000001" customHeight="1">
-      <c r="C13" s="14">
+      <c r="C13" s="13">
         <v>7</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13" s="16">
         <v>48</v>
       </c>
     </row>
     <row r="14" spans="3:12" ht="20.100000000000001" customHeight="1">
-      <c r="C14" s="14">
+      <c r="C14" s="13">
         <v>8</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F14" s="16">
         <v>48</v>
       </c>
     </row>
     <row r="15" spans="3:12" ht="20.100000000000001" customHeight="1">
-      <c r="C15" s="14">
+      <c r="C15" s="13">
         <v>9</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F15" s="16">
         <v>72</v>
       </c>
     </row>

--- a/文档/数据库表结构.xlsx
+++ b/文档/数据库表结构.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="用户表" sheetId="1" r:id="rId1"/>
@@ -1624,7 +1624,135 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>number(6,2)</t>
+    <t>fee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goods</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(30)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>large_area</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slice_area</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fenbu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctm_bar_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2（20）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number(15)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctm_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timestamp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>courier_number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>province</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(200)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(25)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time_out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timestamp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goods</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(30)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null 0/1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2（20）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>signatory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addressee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abnormal_cause</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2（200）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1632,43 +1760,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>goods</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goods_cost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number（7,2）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>fee</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>number(6,2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>goods</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2(30)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>large_area</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>slice_area</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fenbu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ctm_bar_code</t>
+    <t>is_time_out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>courier_company</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>begin_province</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1676,139 +1792,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>number(15)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ctm_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>timestamp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>courier_number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>province</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2(200)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2(25)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>time_out</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>timestamp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>weight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>goods</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2(30)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>order_number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>null 0/1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2（20）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>signatory</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addressee</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>abnormal_cause</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2（200）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number(3,0)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>goods</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>goods_cost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number（7,2）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fee</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>is_time_out</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>courier_company</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>begin_province</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2（20）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>end_province</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number(3,1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2224,6 +2208,22 @@
   </si>
   <si>
     <t>主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number(5,1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number(7,2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number(7,2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number(3)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2744,6 +2744,27 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2760,27 +2781,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3333,7 +3333,7 @@
     </row>
     <row r="12" spans="3:10" ht="20.100000000000001" customHeight="1">
       <c r="C12" s="33" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="13" spans="3:10" ht="20.100000000000001" customHeight="1">
@@ -3387,7 +3387,7 @@
         <v>147</v>
       </c>
       <c r="D15" s="54" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E15" s="54"/>
       <c r="F15" s="54"/>
@@ -3397,19 +3397,19 @@
     </row>
     <row r="16" spans="3:10" ht="20.100000000000001" customHeight="1">
       <c r="C16" s="54" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="D16" s="52" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="E16" s="52" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="F16" s="52" t="s">
         <v>269</v>
       </c>
       <c r="G16" s="52" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="H16" s="21" t="s">
         <v>271</v>
@@ -3443,35 +3443,35 @@
   <sheetData>
     <row r="2" spans="2:3" ht="20.100000000000001" customHeight="1">
       <c r="B2" s="86" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="C2" s="86"/>
     </row>
     <row r="3" spans="2:3" ht="20.100000000000001" customHeight="1">
       <c r="B3" s="61" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="C3" s="61" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="20.100000000000001" customHeight="1">
       <c r="B4" s="62" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C4" s="62" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="20.100000000000001" customHeight="1">
       <c r="B5" s="62" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="C5" s="62"/>
     </row>
     <row r="6" spans="2:3" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="62" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C6" s="62" t="s">
         <v>273</v>
@@ -3679,7 +3679,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -3696,118 +3696,118 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B3" s="87" t="s">
+      <c r="B3" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
     </row>
     <row r="4" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B4" s="89" t="s">
+      <c r="B4" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="89" t="s">
+      <c r="C4" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="89" t="s">
+      <c r="D4" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="89" t="s">
+      <c r="E4" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="89" t="s">
+      <c r="F4" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="89" t="s">
+      <c r="G4" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="89" t="s">
+      <c r="H4" s="82" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B5" s="90" t="s">
+      <c r="B5" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="90"/>
-      <c r="D5" s="90"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="90"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
     </row>
     <row r="6" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B6" s="91" t="s">
+      <c r="B6" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="91" t="s">
+      <c r="C6" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="92" t="s">
+      <c r="D6" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="92" t="s">
+      <c r="E6" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="92" t="s">
+      <c r="F6" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="92" t="s">
+      <c r="G6" s="85" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="92" t="s">
+      <c r="H6" s="85" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B7" s="87" t="s">
+      <c r="B7" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="87" t="s">
+      <c r="C7" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="87" t="s">
+      <c r="D7" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="87" t="s">
+      <c r="E7" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="87" t="s">
+      <c r="F7" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="87" t="s">
+      <c r="G7" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="87" t="s">
+      <c r="H7" s="80" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B9" s="88" t="s">
-        <v>438</v>
+      <c r="B9" s="81" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="86" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C11" s="86"/>
     </row>
     <row r="12" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="61" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="C12" s="61" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="62" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="C13" s="62" t="s">
         <v>27</v>
@@ -3815,7 +3815,7 @@
     </row>
     <row r="14" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="62" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C14" s="62" t="s">
         <v>257</v>
@@ -3823,7 +3823,7 @@
     </row>
     <row r="15" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="1" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
   </sheetData>
@@ -3840,7 +3840,7 @@
   <dimension ref="B3:T29"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -3869,14 +3869,14 @@
   <sheetData>
     <row r="3" spans="2:18" ht="20.100000000000001" customHeight="1">
       <c r="B3" s="21"/>
-      <c r="C3" s="80" t="s">
+      <c r="C3" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
       <c r="I3" s="22"/>
       <c r="J3" s="21"/>
       <c r="K3" s="21"/>
@@ -4159,14 +4159,14 @@
       </c>
     </row>
     <row r="13" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="C13" s="80" t="s">
+      <c r="C13" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="80"/>
-      <c r="E13" s="80"/>
-      <c r="F13" s="80"/>
-      <c r="G13" s="80"/>
-      <c r="H13" s="80"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="87"/>
       <c r="I13" s="22"/>
       <c r="J13" s="21"/>
       <c r="K13" s="21"/>
@@ -4225,7 +4225,7 @@
         <v>149</v>
       </c>
       <c r="R14" s="10" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="15" spans="2:18" ht="20.100000000000001" customHeight="1">
@@ -4260,22 +4260,22 @@
         <v>292</v>
       </c>
       <c r="M15" s="21" t="s">
-        <v>294</v>
+        <v>441</v>
       </c>
       <c r="N15" s="21" t="s">
-        <v>295</v>
+        <v>443</v>
       </c>
       <c r="O15" s="21" t="s">
-        <v>297</v>
+        <v>442</v>
       </c>
       <c r="P15" s="21" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="Q15" s="21" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="R15" s="21" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="16" spans="2:18" ht="20.100000000000001" customHeight="1">
@@ -4310,7 +4310,7 @@
         <v>190</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F17" s="23" t="s">
         <v>287</v>
@@ -4340,21 +4340,21 @@
         <v>267</v>
       </c>
       <c r="O17" s="23" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="P17" s="23" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="Q17" s="23" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="R17" s="23" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="20" spans="3:20" ht="20.100000000000001" customHeight="1">
       <c r="C20" s="32" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="23" spans="3:20" ht="20.100000000000001" customHeight="1">
@@ -4376,7 +4376,7 @@
         <v>72</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="H24" s="10" t="s">
         <v>73</v>
@@ -4394,7 +4394,7 @@
         <v>81</v>
       </c>
       <c r="M24" s="30" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="N24" s="10" t="s">
         <v>74</v>
@@ -4406,21 +4406,21 @@
         <v>1</v>
       </c>
       <c r="Q24" s="10" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="R24" s="10" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="S24" s="10" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="T24" s="10" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="25" spans="3:20" ht="20.100000000000001" customHeight="1">
       <c r="C25" s="21" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D25" s="21" t="s">
         <v>257</v>
@@ -4432,7 +4432,7 @@
         <v>262</v>
       </c>
       <c r="G25" s="21" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="H25" s="21" t="s">
         <v>255</v>
@@ -4444,31 +4444,31 @@
         <v>261</v>
       </c>
       <c r="K25" s="21" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="L25" s="21" t="s">
         <v>262</v>
       </c>
       <c r="M25" s="52" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="N25" s="21" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="O25" s="21" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="P25" s="21" t="s">
         <v>16</v>
       </c>
       <c r="Q25" s="21" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="R25" s="75" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="S25" s="76" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="T25" s="77" t="s">
         <v>257</v>
@@ -4509,10 +4509,10 @@
         <v>196</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="G27" s="21" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="H27" s="21" t="s">
         <v>192</v>
@@ -4524,7 +4524,7 @@
         <v>195</v>
       </c>
       <c r="K27" s="21" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="L27" s="21" t="s">
         <v>268</v>
@@ -4536,32 +4536,32 @@
         <v>193</v>
       </c>
       <c r="O27" s="21" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="P27" s="21" t="s">
         <v>20</v>
       </c>
       <c r="Q27" s="21" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="R27" s="75" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="S27" s="76" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="T27" s="77" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="28" spans="3:20" ht="20.100000000000001" customHeight="1">
       <c r="Q28" s="23" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="29" spans="3:20" ht="20.100000000000001" customHeight="1">
       <c r="T29" s="23" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
   </sheetData>
@@ -4597,69 +4597,69 @@
   <sheetData>
     <row r="3" spans="3:7" ht="20.100000000000001" customHeight="1">
       <c r="C3" s="58" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="4" spans="3:7" ht="20.100000000000001" customHeight="1">
       <c r="C4" s="61" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D4" s="61" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="E4" s="61" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="F4" s="61" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G4" s="61" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="5" spans="3:7" ht="20.100000000000001" customHeight="1">
       <c r="C5" s="62" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="D5" s="62" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="62" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F5" s="62" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="G5" s="62" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="6" spans="3:7" ht="20.100000000000001" customHeight="1">
       <c r="C6" s="62" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="D6" s="62"/>
       <c r="E6" s="62" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F6" s="62"/>
       <c r="G6" s="62"/>
     </row>
     <row r="7" spans="3:7" ht="20.100000000000001" customHeight="1">
       <c r="C7" s="62" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="D7" s="62" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="62" t="s">
+        <v>386</v>
+      </c>
+      <c r="F7" s="62" t="s">
+        <v>387</v>
+      </c>
+      <c r="G7" s="62" t="s">
         <v>390</v>
-      </c>
-      <c r="F7" s="62" t="s">
-        <v>391</v>
-      </c>
-      <c r="G7" s="62" t="s">
-        <v>394</v>
       </c>
     </row>
   </sheetData>
@@ -4750,7 +4750,7 @@
         <v>82</v>
       </c>
       <c r="Q3" s="30" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="R3" s="30" t="s">
         <v>83</v>
@@ -4979,7 +4979,7 @@
         <v>82</v>
       </c>
       <c r="Q17" s="30" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="R17" s="30" t="s">
         <v>83</v>
@@ -4988,10 +4988,10 @@
         <v>84</v>
       </c>
       <c r="T17" s="10" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="U17" s="10" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="18" spans="2:24" ht="20.100000000000001" customHeight="1">
@@ -5042,7 +5042,7 @@
     </row>
     <row r="19" spans="2:24" ht="20.100000000000001" customHeight="1">
       <c r="B19" s="21" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C19" s="21" t="s">
         <v>278</v>
@@ -5051,22 +5051,22 @@
         <v>278</v>
       </c>
       <c r="E19" s="21" t="s">
+        <v>304</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>306</v>
+      </c>
+      <c r="G19" s="21" t="s">
         <v>307</v>
-      </c>
-      <c r="F19" s="21" t="s">
-        <v>309</v>
-      </c>
-      <c r="G19" s="21" t="s">
-        <v>310</v>
       </c>
       <c r="H19" s="21" t="s">
         <v>260</v>
       </c>
       <c r="I19" s="21" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="J19" s="21" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="K19" s="21" t="s">
         <v>262</v>
@@ -5075,10 +5075,10 @@
         <v>257</v>
       </c>
       <c r="M19" s="21" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="N19" s="21" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="O19" s="21" t="s">
         <v>252</v>
@@ -5087,19 +5087,19 @@
         <v>263</v>
       </c>
       <c r="Q19" s="52" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="R19" s="21" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="S19" s="21" t="s">
         <v>260</v>
       </c>
       <c r="T19" s="21" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="U19" s="21" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="20" spans="2:24" ht="20.100000000000001" customHeight="1">
@@ -5113,28 +5113,28 @@
     </row>
     <row r="21" spans="2:24" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="23" t="s">
+        <v>299</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>300</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>301</v>
+      </c>
+      <c r="E21" s="23" t="s">
         <v>302</v>
       </c>
-      <c r="C21" s="23" t="s">
-        <v>303</v>
-      </c>
-      <c r="D21" s="23" t="s">
-        <v>304</v>
-      </c>
-      <c r="E21" s="23" t="s">
+      <c r="F21" s="23" t="s">
         <v>305</v>
-      </c>
-      <c r="F21" s="23" t="s">
-        <v>308</v>
       </c>
       <c r="G21" s="23" t="s">
         <v>270</v>
       </c>
       <c r="H21" s="23" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="I21" s="23" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="J21" s="23" t="s">
         <v>192</v>
@@ -5146,13 +5146,13 @@
         <v>194</v>
       </c>
       <c r="M21" s="23" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="N21" s="23" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="O21" s="23" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="P21" s="23" t="s">
         <v>267</v>
@@ -5161,58 +5161,58 @@
         <v>271</v>
       </c>
       <c r="R21" s="23" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="S21" s="23" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="T21" s="23" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="U21" s="23" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="24" spans="2:24" ht="20.100000000000001" customHeight="1">
-      <c r="C24" s="81" t="s">
-        <v>348</v>
-      </c>
-      <c r="D24" s="82"/>
-      <c r="E24" s="82"/>
-      <c r="F24" s="82"/>
-      <c r="G24" s="82"/>
-      <c r="H24" s="82"/>
-      <c r="I24" s="82"/>
+      <c r="C24" s="88" t="s">
+        <v>344</v>
+      </c>
+      <c r="D24" s="89"/>
+      <c r="E24" s="89"/>
+      <c r="F24" s="89"/>
+      <c r="G24" s="89"/>
+      <c r="H24" s="89"/>
+      <c r="I24" s="89"/>
     </row>
     <row r="25" spans="2:24" ht="20.100000000000001" customHeight="1">
-      <c r="C25" s="82"/>
-      <c r="D25" s="82"/>
-      <c r="E25" s="82"/>
-      <c r="F25" s="82"/>
-      <c r="G25" s="82"/>
-      <c r="H25" s="82"/>
-      <c r="I25" s="82"/>
+      <c r="C25" s="89"/>
+      <c r="D25" s="89"/>
+      <c r="E25" s="89"/>
+      <c r="F25" s="89"/>
+      <c r="G25" s="89"/>
+      <c r="H25" s="89"/>
+      <c r="I25" s="89"/>
     </row>
     <row r="26" spans="2:24" ht="20.100000000000001" customHeight="1">
-      <c r="C26" s="82"/>
-      <c r="D26" s="82"/>
-      <c r="E26" s="82"/>
-      <c r="F26" s="82"/>
-      <c r="G26" s="82"/>
-      <c r="H26" s="82"/>
-      <c r="I26" s="82"/>
+      <c r="C26" s="89"/>
+      <c r="D26" s="89"/>
+      <c r="E26" s="89"/>
+      <c r="F26" s="89"/>
+      <c r="G26" s="89"/>
+      <c r="H26" s="89"/>
+      <c r="I26" s="89"/>
     </row>
     <row r="27" spans="2:24" ht="20.100000000000001" customHeight="1">
       <c r="B27" s="32" t="s">
         <v>276</v>
       </c>
-      <c r="C27" s="82"/>
-      <c r="D27" s="82"/>
-      <c r="E27" s="82"/>
-      <c r="F27" s="82"/>
-      <c r="G27" s="82"/>
-      <c r="H27" s="82"/>
-      <c r="I27" s="82"/>
+      <c r="C27" s="89"/>
+      <c r="D27" s="89"/>
+      <c r="E27" s="89"/>
+      <c r="F27" s="89"/>
+      <c r="G27" s="89"/>
+      <c r="H27" s="89"/>
+      <c r="I27" s="89"/>
     </row>
     <row r="31" spans="2:24" ht="20.100000000000001" customHeight="1">
       <c r="B31" s="23" t="s">
@@ -5230,7 +5230,7 @@
         <v>90</v>
       </c>
       <c r="E32" s="68" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F32" s="69" t="s">
         <v>70</v>
@@ -5245,10 +5245,10 @@
         <v>98</v>
       </c>
       <c r="J32" s="31" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="K32" s="10" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="L32" s="69" t="s">
         <v>68</v>
@@ -5272,7 +5272,7 @@
         <v>78</v>
       </c>
       <c r="S32" s="30" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="T32" s="30" t="s">
         <v>82</v>
@@ -5284,7 +5284,7 @@
         <v>1</v>
       </c>
       <c r="W32" s="70" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="X32" s="30" t="s">
         <v>104</v>
@@ -5350,10 +5350,10 @@
         <v>278</v>
       </c>
       <c r="E34" s="59" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="F34" s="21" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="G34" s="21" t="s">
         <v>257</v>
@@ -5365,10 +5365,10 @@
         <v>262</v>
       </c>
       <c r="J34" s="63" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="K34" s="21" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="L34" s="21" t="s">
         <v>16</v>
@@ -5389,22 +5389,22 @@
         <v>262</v>
       </c>
       <c r="R34" s="21" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="S34" s="52" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="T34" s="56" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="U34" s="21" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="V34" s="21" t="s">
         <v>16</v>
       </c>
       <c r="W34" s="63" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="X34" s="78" t="s">
         <v>16</v>
@@ -5418,10 +5418,10 @@
       <c r="F35" s="21"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
-      <c r="I35" s="83" t="s">
+      <c r="I35" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="J35" s="84"/>
+      <c r="J35" s="91"/>
       <c r="K35" s="57"/>
       <c r="L35" s="21"/>
       <c r="M35" s="21"/>
@@ -5444,13 +5444,13 @@
         <v>31</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D36" s="21" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="E36" s="59" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="F36" s="21" t="s">
         <v>191</v>
@@ -5462,19 +5462,19 @@
         <v>196</v>
       </c>
       <c r="I36" s="21" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="J36" s="63" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="K36" s="21" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="L36" s="21" t="s">
         <v>270</v>
       </c>
       <c r="M36" s="21" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="N36" s="21" t="s">
         <v>192</v>
@@ -5504,30 +5504,30 @@
         <v>20</v>
       </c>
       <c r="W36" s="63" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="X36" s="78" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="37" spans="2:24" ht="20.100000000000001" customHeight="1">
       <c r="W37" s="23" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="38" spans="2:24" ht="20.100000000000001" customHeight="1">
       <c r="W38" s="23" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="39" spans="2:24" ht="20.100000000000001" customHeight="1">
       <c r="W39" s="23" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="40" spans="2:24" ht="20.100000000000001" customHeight="1">
       <c r="W40" s="23" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
   </sheetData>
@@ -5546,8 +5546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:AD34"/>
   <sheetViews>
-    <sheetView topLeftCell="P7" workbookViewId="0">
-      <selection activeCell="AC29" sqref="AC29"/>
+    <sheetView tabSelected="1" topLeftCell="S19" workbookViewId="0">
+      <selection activeCell="Z35" sqref="Z35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -5896,7 +5896,7 @@
         <v>108</v>
       </c>
       <c r="W12" s="10" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="13" spans="2:23" ht="20.100000000000001" customHeight="1">
@@ -5919,7 +5919,7 @@
         <v>255</v>
       </c>
       <c r="I13" s="52" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="J13" s="52" t="s">
         <v>277</v>
@@ -5931,7 +5931,7 @@
         <v>16</v>
       </c>
       <c r="M13" s="52" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="N13" s="52" t="s">
         <v>280</v>
@@ -5940,7 +5940,7 @@
         <v>260</v>
       </c>
       <c r="P13" s="21" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="Q13" s="21" t="s">
         <v>261</v>
@@ -5949,19 +5949,19 @@
         <v>252</v>
       </c>
       <c r="S13" s="21" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="T13" s="21" t="s">
         <v>262</v>
       </c>
       <c r="U13" s="52" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="V13" s="21" t="s">
         <v>252</v>
       </c>
       <c r="W13" s="21" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="14" spans="2:23" ht="20.100000000000001" customHeight="1">
@@ -5972,7 +5972,7 @@
         <v>148</v>
       </c>
       <c r="N14" s="40" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="S14" s="38" t="s">
         <v>148</v>
@@ -5998,22 +5998,22 @@
         <v>192</v>
       </c>
       <c r="I15" s="38" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="J15" s="38" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="K15" s="23" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="L15" s="38" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="M15" s="38" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="N15" s="38" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="O15" s="23" t="s">
         <v>193</v>
@@ -6028,24 +6028,24 @@
         <v>265</v>
       </c>
       <c r="S15" s="23" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="T15" s="23" t="s">
+        <v>328</v>
+      </c>
+      <c r="U15" s="23" t="s">
+        <v>329</v>
+      </c>
+      <c r="V15" s="38" t="s">
         <v>331</v>
       </c>
-      <c r="U15" s="23" t="s">
-        <v>332</v>
-      </c>
-      <c r="V15" s="38" t="s">
-        <v>334</v>
-      </c>
       <c r="W15" s="23" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="16" spans="2:23" ht="20.100000000000001" customHeight="1">
       <c r="N16" s="38" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="20" spans="3:30" ht="20.100000000000001" customHeight="1">
@@ -6075,7 +6075,7 @@
         <v>90</v>
       </c>
       <c r="F26" s="71" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="G26" s="31" t="s">
         <v>68</v>
@@ -6093,31 +6093,31 @@
         <v>98</v>
       </c>
       <c r="L26" s="31" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="M26" s="65" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="N26" s="31" t="s">
         <v>73</v>
       </c>
       <c r="O26" s="69" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="P26" s="31" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="Q26" s="31" t="s">
         <v>75</v>
       </c>
       <c r="R26" s="69" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="S26" s="31" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="T26" s="31" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="U26" s="71" t="s">
         <v>84</v>
@@ -6138,7 +6138,7 @@
         <v>83</v>
       </c>
       <c r="AA26" s="71" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="AB26" s="73" t="s">
         <v>108</v>
@@ -6147,7 +6147,7 @@
         <v>1</v>
       </c>
       <c r="AD26" s="79" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="27" spans="3:30" ht="20.100000000000001" customHeight="1">
@@ -6161,7 +6161,7 @@
         <v>278</v>
       </c>
       <c r="F27" s="67" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="G27" s="67" t="s">
         <v>16</v>
@@ -6170,19 +6170,19 @@
         <v>257</v>
       </c>
       <c r="I27" s="67" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="J27" s="67" t="s">
         <v>257</v>
       </c>
       <c r="K27" s="67" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="L27" s="67" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="M27" s="66" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="N27" s="67" t="s">
         <v>255</v>
@@ -6206,7 +6206,7 @@
         <v>280</v>
       </c>
       <c r="U27" s="67" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="V27" s="67" t="s">
         <v>262</v>
@@ -6218,22 +6218,22 @@
         <v>252</v>
       </c>
       <c r="Y27" s="67" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="Z27" s="67" t="s">
         <v>262</v>
       </c>
       <c r="AA27" s="67" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="AB27" s="67" t="s">
-        <v>252</v>
+        <v>442</v>
       </c>
       <c r="AC27" s="67" t="s">
         <v>16</v>
       </c>
       <c r="AD27" s="52" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="28" spans="3:30" ht="20.100000000000001" customHeight="1">
@@ -6245,10 +6245,10 @@
       <c r="H28" s="67"/>
       <c r="I28" s="67"/>
       <c r="J28" s="67"/>
-      <c r="K28" s="85" t="s">
+      <c r="K28" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="L28" s="85"/>
+      <c r="L28" s="92"/>
       <c r="M28" s="64"/>
       <c r="N28" s="67"/>
       <c r="O28" s="67" t="s">
@@ -6276,16 +6276,16 @@
     </row>
     <row r="29" spans="3:30" ht="20.100000000000001" customHeight="1">
       <c r="C29" s="67" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D29" s="67" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E29" s="67" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="F29" s="67" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="G29" s="67" t="s">
         <v>270</v>
@@ -6303,19 +6303,19 @@
         <v>266</v>
       </c>
       <c r="L29" s="67" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="M29" s="66" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="N29" s="67" t="s">
         <v>192</v>
       </c>
       <c r="O29" s="67" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="P29" s="67" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="Q29" s="67" t="s">
         <v>194</v>
@@ -6324,10 +6324,10 @@
         <v>269</v>
       </c>
       <c r="S29" s="67" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="T29" s="67" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="U29" s="67" t="s">
         <v>193</v>
@@ -6351,13 +6351,13 @@
         <v>271</v>
       </c>
       <c r="AB29" s="67" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AC29" s="67" t="s">
         <v>20</v>
       </c>
       <c r="AD29" s="52" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="30" spans="3:30" ht="20.100000000000001" customHeight="1">
@@ -6378,7 +6378,7 @@
       <c r="Q30" s="23"/>
       <c r="R30" s="23"/>
       <c r="T30" s="23" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="U30" s="23"/>
       <c r="V30" s="23"/>
@@ -6392,26 +6392,26 @@
     </row>
     <row r="32" spans="3:30" ht="20.100000000000001" customHeight="1">
       <c r="P32" s="38" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="S32" s="38" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="T32" s="38" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="AB32" s="38" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="33" spans="20:20" ht="20.100000000000001" customHeight="1">
       <c r="T33" s="38" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="34" spans="20:20" ht="20.100000000000001" customHeight="1">
       <c r="T34" s="38" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
   </sheetData>
@@ -6429,7 +6429,7 @@
   <dimension ref="C5:L15"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -6449,7 +6449,7 @@
   <sheetData>
     <row r="5" spans="3:12" ht="20.100000000000001" customHeight="1">
       <c r="I5" s="33" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="6" spans="3:12" ht="20.100000000000001" customHeight="1">
@@ -6495,13 +6495,13 @@
         <v>281</v>
       </c>
       <c r="J7" s="53" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="K7" s="53" t="s">
         <v>282</v>
       </c>
       <c r="L7" s="53" t="s">
-        <v>340</v>
+        <v>440</v>
       </c>
     </row>
     <row r="8" spans="3:12" ht="20.100000000000001" customHeight="1">
@@ -6535,13 +6535,13 @@
         <v>48</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="L9" s="9" t="s">
         <v>274</v>
@@ -6561,10 +6561,10 @@
         <v>96</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="11" spans="3:12" ht="20.100000000000001" customHeight="1">

--- a/文档/数据库表结构.xlsx
+++ b/文档/数据库表结构.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="6" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="用户表" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,9 @@
     <sheet name="时效控制表" sheetId="10" r:id="rId9"/>
     <sheet name="签收报表" sheetId="11" r:id="rId10"/>
     <sheet name="省份码" sheetId="14" r:id="rId11"/>
+    <sheet name="不可更改项" sheetId="15" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="122211" concurrentCalc="0"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
@@ -271,7 +272,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="459">
   <si>
     <t>工号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2224,6 +2225,66 @@
   </si>
   <si>
     <t>number(3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不可修改的字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不可修改的字段的值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>courier_number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no_update_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no_update_value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no_update</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(30)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(300)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发器：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>级联更新第三方数据表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>省份更新规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配送状态更新规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改配送状态时存【不可更改项】</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2501,7 +2562,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2765,6 +2826,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2781,6 +2848,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3442,10 +3515,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" ht="20.100000000000001" customHeight="1">
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="88" t="s">
         <v>425</v>
       </c>
-      <c r="C2" s="86"/>
+      <c r="C2" s="88"/>
     </row>
     <row r="3" spans="2:3" ht="20.100000000000001" customHeight="1">
       <c r="B3" s="61" t="s">
@@ -3484,6 +3557,78 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="3" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" ht="20.100000000000001" customHeight="1">
+      <c r="B2" s="86" t="s">
+        <v>450</v>
+      </c>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+    </row>
+    <row r="3" spans="2:4" ht="20.100000000000001" customHeight="1">
+      <c r="B3" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="20.100000000000001" customHeight="1">
+      <c r="B4" s="86" t="s">
+        <v>266</v>
+      </c>
+      <c r="C4" s="86" t="s">
+        <v>448</v>
+      </c>
+      <c r="D4" s="86" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="20.100000000000001" customHeight="1">
+      <c r="B5" s="86" t="s">
+        <v>451</v>
+      </c>
+      <c r="C5" s="86" t="s">
+        <v>451</v>
+      </c>
+      <c r="D5" s="86" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="20.100000000000001" customHeight="1">
+      <c r="B6" s="96" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="96"/>
+      <c r="D6" s="86"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B6:C6"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -3792,10 +3937,10 @@
       </c>
     </row>
     <row r="11" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B11" s="86" t="s">
+      <c r="B11" s="88" t="s">
         <v>438</v>
       </c>
-      <c r="C11" s="86"/>
+      <c r="C11" s="88"/>
     </row>
     <row r="12" spans="2:8" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="61" t="s">
@@ -3869,14 +4014,14 @@
   <sheetData>
     <row r="3" spans="2:18" ht="20.100000000000001" customHeight="1">
       <c r="B3" s="21"/>
-      <c r="C3" s="87" t="s">
+      <c r="C3" s="89" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
       <c r="I3" s="22"/>
       <c r="J3" s="21"/>
       <c r="K3" s="21"/>
@@ -4159,14 +4304,14 @@
       </c>
     </row>
     <row r="13" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="C13" s="87" t="s">
+      <c r="C13" s="89" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="87"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="87"/>
-      <c r="G13" s="87"/>
-      <c r="H13" s="87"/>
+      <c r="D13" s="89"/>
+      <c r="E13" s="89"/>
+      <c r="F13" s="89"/>
+      <c r="G13" s="89"/>
+      <c r="H13" s="89"/>
       <c r="I13" s="22"/>
       <c r="J13" s="21"/>
       <c r="K13" s="21"/>
@@ -4672,10 +4817,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:X40"/>
+  <dimension ref="B3:X45"/>
   <sheetViews>
-    <sheetView topLeftCell="K16" workbookViewId="0">
-      <selection activeCell="X38" sqref="X38"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -5174,45 +5319,45 @@
       </c>
     </row>
     <row r="24" spans="2:24" ht="20.100000000000001" customHeight="1">
-      <c r="C24" s="88" t="s">
+      <c r="C24" s="90" t="s">
         <v>344</v>
       </c>
-      <c r="D24" s="89"/>
-      <c r="E24" s="89"/>
-      <c r="F24" s="89"/>
-      <c r="G24" s="89"/>
-      <c r="H24" s="89"/>
-      <c r="I24" s="89"/>
+      <c r="D24" s="91"/>
+      <c r="E24" s="91"/>
+      <c r="F24" s="91"/>
+      <c r="G24" s="91"/>
+      <c r="H24" s="91"/>
+      <c r="I24" s="91"/>
     </row>
     <row r="25" spans="2:24" ht="20.100000000000001" customHeight="1">
-      <c r="C25" s="89"/>
-      <c r="D25" s="89"/>
-      <c r="E25" s="89"/>
-      <c r="F25" s="89"/>
-      <c r="G25" s="89"/>
-      <c r="H25" s="89"/>
-      <c r="I25" s="89"/>
+      <c r="C25" s="91"/>
+      <c r="D25" s="91"/>
+      <c r="E25" s="91"/>
+      <c r="F25" s="91"/>
+      <c r="G25" s="91"/>
+      <c r="H25" s="91"/>
+      <c r="I25" s="91"/>
     </row>
     <row r="26" spans="2:24" ht="20.100000000000001" customHeight="1">
-      <c r="C26" s="89"/>
-      <c r="D26" s="89"/>
-      <c r="E26" s="89"/>
-      <c r="F26" s="89"/>
-      <c r="G26" s="89"/>
-      <c r="H26" s="89"/>
-      <c r="I26" s="89"/>
+      <c r="C26" s="91"/>
+      <c r="D26" s="91"/>
+      <c r="E26" s="91"/>
+      <c r="F26" s="91"/>
+      <c r="G26" s="91"/>
+      <c r="H26" s="91"/>
+      <c r="I26" s="91"/>
     </row>
     <row r="27" spans="2:24" ht="20.100000000000001" customHeight="1">
       <c r="B27" s="32" t="s">
         <v>276</v>
       </c>
-      <c r="C27" s="89"/>
-      <c r="D27" s="89"/>
-      <c r="E27" s="89"/>
-      <c r="F27" s="89"/>
-      <c r="G27" s="89"/>
-      <c r="H27" s="89"/>
-      <c r="I27" s="89"/>
+      <c r="C27" s="91"/>
+      <c r="D27" s="91"/>
+      <c r="E27" s="91"/>
+      <c r="F27" s="91"/>
+      <c r="G27" s="91"/>
+      <c r="H27" s="91"/>
+      <c r="I27" s="91"/>
     </row>
     <row r="31" spans="2:24" ht="20.100000000000001" customHeight="1">
       <c r="B31" s="23" t="s">
@@ -5418,10 +5563,10 @@
       <c r="F35" s="21"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
-      <c r="I35" s="90" t="s">
+      <c r="I35" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="J35" s="91"/>
+      <c r="J35" s="93"/>
       <c r="K35" s="57"/>
       <c r="L35" s="21"/>
       <c r="M35" s="21"/>
@@ -5528,6 +5673,31 @@
     <row r="40" spans="2:24" ht="20.100000000000001" customHeight="1">
       <c r="W40" s="23" t="s">
         <v>411</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" ht="20.100000000000001" customHeight="1">
+      <c r="B42" s="87" t="s">
+        <v>453</v>
+      </c>
+      <c r="C42" s="87" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" ht="20.100000000000001" customHeight="1">
+      <c r="B43" s="87"/>
+      <c r="C43" s="87" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" ht="20.100000000000001" customHeight="1">
+      <c r="B44" s="87"/>
+      <c r="C44" s="87" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" ht="20.100000000000001" customHeight="1">
+      <c r="C45" s="95" t="s">
+        <v>458</v>
       </c>
     </row>
   </sheetData>
@@ -5544,10 +5714,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:AD34"/>
+  <dimension ref="B3:AD38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S19" workbookViewId="0">
-      <selection activeCell="Z35" sqref="Z35"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -6059,7 +6229,7 @@
       </c>
     </row>
     <row r="25" spans="3:30" ht="20.100000000000001" customHeight="1">
-      <c r="C25" s="38" t="s">
+      <c r="C25" s="95" t="s">
         <v>189</v>
       </c>
       <c r="R25" s="72"/>
@@ -6245,10 +6415,10 @@
       <c r="H28" s="67"/>
       <c r="I28" s="67"/>
       <c r="J28" s="67"/>
-      <c r="K28" s="92" t="s">
+      <c r="K28" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="L28" s="92"/>
+      <c r="L28" s="94"/>
       <c r="M28" s="64"/>
       <c r="N28" s="67"/>
       <c r="O28" s="67" t="s">
@@ -6300,7 +6470,7 @@
         <v>273</v>
       </c>
       <c r="K29" s="67" t="s">
-        <v>266</v>
+        <v>447</v>
       </c>
       <c r="L29" s="67" t="s">
         <v>400</v>
@@ -6404,14 +6574,34 @@
         <v>406</v>
       </c>
     </row>
-    <row r="33" spans="20:20" ht="20.100000000000001" customHeight="1">
+    <row r="33" spans="3:20" ht="20.100000000000001" customHeight="1">
       <c r="T33" s="38" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="34" spans="20:20" ht="20.100000000000001" customHeight="1">
+    <row r="34" spans="3:20" ht="20.100000000000001" customHeight="1">
       <c r="T34" s="38" t="s">
         <v>430</v>
+      </c>
+    </row>
+    <row r="36" spans="3:20" ht="20.100000000000001" customHeight="1">
+      <c r="C36" s="87" t="s">
+        <v>453</v>
+      </c>
+      <c r="D36" s="87" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="37" spans="3:20" ht="20.100000000000001" customHeight="1">
+      <c r="C37" s="87"/>
+      <c r="D37" s="87" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="38" spans="3:20" ht="20.100000000000001" customHeight="1">
+      <c r="C38" s="87"/>
+      <c r="D38" s="95" t="s">
+        <v>458</v>
       </c>
     </row>
   </sheetData>

--- a/文档/数据库表结构.xlsx
+++ b/文档/数据库表结构.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="6" activeTab="7"/>
+    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="用户表" sheetId="1" r:id="rId1"/>
@@ -20,11 +20,148 @@
     <sheet name="省份码" sheetId="14" r:id="rId11"/>
     <sheet name="不可更改项" sheetId="15" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="B18" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+六位数字 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G18" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">作者:
+公司直客
+预付款
+公司垫资
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q18" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+品名 包装情况
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="R18" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+骏达
+客户送货到
+站点提货（需要写哪个站点提货）</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y18" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+日均发货量 客户联系方式地址
+留言异常反馈方式</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
@@ -127,7 +264,7 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
@@ -164,7 +301,7 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
@@ -201,7 +338,7 @@
 </comments>
 </file>
 
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
@@ -272,7 +409,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="520">
   <si>
     <t>工号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2200,71 +2337,317 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>customer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number(5,1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number(7,2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number(7,2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number(3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不可修改的字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不可修改的字段的值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>courier_number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no_update_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no_update_value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no_update</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(30)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(300)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发器：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>级联更新第三方数据表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>省份更新规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配送状态更新规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改配送状态时存【不可更改项】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">条码 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>维护客服（中端）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>维护客服（前端）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>维护客服（后端）</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>大区</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>区部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开通时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂停时间</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务负责人</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>结算方式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>面单类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>日均发货量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>寄递货物详情</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>提货方式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>集包点</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>退件</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">物料 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>投诉返利</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作罚款</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用理赔</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>最新版表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>启用状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>cte_bar_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>customer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number(5,1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number(7,2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number(7,2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>number(3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不可修改的字段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不可修改的字段的值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>courier_number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>no_update_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>no_update_value</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>no_update</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2(30)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar2(300)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>触发器：</t>
+  </si>
+  <si>
+    <t>cte_bar_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cte_name</t>
+  </si>
+  <si>
+    <t>cte_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>custom_service_center</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>custom_service_top</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>custom_service_last</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>custom_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>business</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accounts_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>page_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>daily_delivery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goods_detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>carry_goods_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>packet_point</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return_piece</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>matter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>complain_rebate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>option_fine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fee_compensate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>open_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>out_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(500)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2272,33 +2655,29 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>级联更新第三方数据表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>省份更新规则</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>配送状态更新规则</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改配送状态时存【不可更改项】</t>
+    <t>create_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>timestamp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(200)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd\ hh:mm:ss"/>
     <numFmt numFmtId="177" formatCode="0.0_);[Red]\(0.0\)"/>
     <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="179" formatCode="yyyy/m/d\ h:mm;@"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2562,7 +2941,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2829,6 +3208,12 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2850,11 +3235,11 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2875,7 +3260,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3167,7 +3552,7 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="12.75" style="1" bestFit="1" customWidth="1"/>
@@ -3179,12 +3564,12 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
@@ -3207,7 +3592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
@@ -3224,7 +3609,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="4" t="s">
         <v>18</v>
       </c>
@@ -3247,7 +3632,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
@@ -3285,7 +3670,7 @@
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="35"/>
     <col min="2" max="2" width="7.5" style="35" bestFit="1" customWidth="1"/>
@@ -3300,7 +3685,7 @@
     <col min="11" max="16384" width="9" style="35"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:10" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C3" s="18" t="s">
         <v>138</v>
       </c>
@@ -3326,7 +3711,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="4" spans="3:10" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C4" s="36">
         <v>3908550182939</v>
       </c>
@@ -3352,7 +3737,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="5" spans="3:10" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C5" s="36">
         <v>3908550182940</v>
       </c>
@@ -3378,7 +3763,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="3:10" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C6" s="36">
         <v>3908550182941</v>
       </c>
@@ -3404,12 +3789,12 @@
         <v>55464</v>
       </c>
     </row>
-    <row r="12" spans="3:10" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" s="33" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="13" spans="3:10" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C13" s="18" t="s">
         <v>138</v>
       </c>
@@ -3432,7 +3817,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="14" spans="3:10" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C14" s="56" t="s">
         <v>262</v>
       </c>
@@ -3455,7 +3840,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="15" spans="3:10" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C15" s="54" t="s">
         <v>147</v>
       </c>
@@ -3468,7 +3853,7 @@
       <c r="H15" s="54"/>
       <c r="I15" s="54"/>
     </row>
-    <row r="16" spans="3:10" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="3:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C16" s="54" t="s">
         <v>339</v>
       </c>
@@ -3506,7 +3891,7 @@
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="60"/>
     <col min="2" max="2" width="15" style="60" bestFit="1" customWidth="1"/>
@@ -3514,13 +3899,13 @@
     <col min="4" max="16384" width="9" style="60"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="20.100000000000001" customHeight="1">
-      <c r="B2" s="88" t="s">
+    <row r="2" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="90" t="s">
         <v>425</v>
       </c>
-      <c r="C2" s="88"/>
-    </row>
-    <row r="3" spans="2:3" ht="20.100000000000001" customHeight="1">
+      <c r="C2" s="90"/>
+    </row>
+    <row r="3" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="61" t="s">
         <v>415</v>
       </c>
@@ -3528,7 +3913,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="62" t="s">
         <v>421</v>
       </c>
@@ -3536,13 +3921,13 @@
         <v>422</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="62" t="s">
         <v>423</v>
       </c>
       <c r="C5" s="62"/>
     </row>
-    <row r="6" spans="2:3" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="62" t="s">
         <v>424</v>
       </c>
@@ -3568,7 +3953,7 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="3" width="16.125" style="1" bestFit="1" customWidth="1"/>
@@ -3576,51 +3961,51 @@
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="86" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C2" s="86"/>
       <c r="D2" s="86"/>
     </row>
-    <row r="3" spans="2:4" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="4" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="86" t="s">
         <v>266</v>
       </c>
       <c r="C4" s="86" t="s">
+        <v>447</v>
+      </c>
+      <c r="D4" s="86" t="s">
         <v>448</v>
       </c>
-      <c r="D4" s="86" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="5" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="86" t="s">
+        <v>450</v>
+      </c>
+      <c r="C5" s="86" t="s">
+        <v>450</v>
+      </c>
+      <c r="D5" s="86" t="s">
         <v>451</v>
       </c>
-      <c r="C5" s="86" t="s">
-        <v>451</v>
-      </c>
-      <c r="D5" s="86" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" ht="20.100000000000001" customHeight="1">
-      <c r="B6" s="96" t="s">
+    </row>
+    <row r="6" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="96"/>
+      <c r="C6" s="97"/>
       <c r="D6" s="86"/>
     </row>
   </sheetData>
@@ -3640,7 +4025,7 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="4" width="9" style="1"/>
     <col min="5" max="5" width="9.5" style="1" bestFit="1" customWidth="1"/>
@@ -3649,12 +4034,12 @@
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:7" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C3" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="3:7" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C4" s="2" t="s">
         <v>34</v>
       </c>
@@ -3671,7 +4056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="3:7" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C5" s="3" t="s">
         <v>41</v>
       </c>
@@ -3682,7 +4067,7 @@
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="3:7" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="1" t="s">
         <v>43</v>
       </c>
@@ -3699,7 +4084,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="3:7" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C7" s="1" t="s">
         <v>47</v>
       </c>
@@ -3716,7 +4101,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="3:7" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="1" t="s">
         <v>48</v>
       </c>
@@ -3736,7 +4121,7 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="12.75" style="1" bestFit="1" customWidth="1"/>
@@ -3745,12 +4130,12 @@
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:7" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C4" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="3:7" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C5" s="2" t="s">
         <v>38</v>
       </c>
@@ -3767,7 +4152,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="3:7" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="3" t="s">
         <v>9</v>
       </c>
@@ -3776,7 +4161,7 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="3:7" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C7" s="1" t="s">
         <v>52</v>
       </c>
@@ -3793,7 +4178,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="3:7" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="1" t="s">
         <v>47</v>
       </c>
@@ -3810,7 +4195,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="3:7" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D14" s="5"/>
     </row>
   </sheetData>
@@ -3821,26 +4206,40 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:H15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:AA21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="3" width="13.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="6" max="6" width="21.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="15.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="9" style="1"/>
+    <col min="13" max="13" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="80" t="s">
         <v>25</v>
       </c>
@@ -3851,7 +4250,7 @@
       <c r="G3" s="80"/>
       <c r="H3" s="80"/>
     </row>
-    <row r="4" spans="2:8" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="82" t="s">
         <v>3</v>
       </c>
@@ -3874,7 +4273,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="83" t="s">
         <v>17</v>
       </c>
@@ -3885,7 +4284,7 @@
       <c r="G5" s="83"/>
       <c r="H5" s="83"/>
     </row>
-    <row r="6" spans="2:8" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="84" t="s">
         <v>26</v>
       </c>
@@ -3908,7 +4307,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="80" t="s">
         <v>14</v>
       </c>
@@ -3931,18 +4330,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="81" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="20.100000000000001" customHeight="1">
-      <c r="B11" s="88" t="s">
-        <v>438</v>
-      </c>
-      <c r="C11" s="88"/>
-    </row>
-    <row r="12" spans="2:8" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="90" t="s">
+        <v>437</v>
+      </c>
+      <c r="C11" s="90"/>
+    </row>
+    <row r="12" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="61" t="s">
         <v>435</v>
       </c>
@@ -3950,15 +4349,15 @@
         <v>436</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="62" t="s">
-        <v>437</v>
+        <v>485</v>
       </c>
       <c r="C13" s="62" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" ht="20.100000000000001" customHeight="1">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="62" t="s">
         <v>357</v>
       </c>
@@ -3966,9 +4365,259 @@
         <v>257</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
+      </c>
+    </row>
+    <row r="17" spans="2:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="18" spans="2:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="98" t="s">
+        <v>458</v>
+      </c>
+      <c r="C18" s="98" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="98" t="s">
+        <v>459</v>
+      </c>
+      <c r="E18" s="98" t="s">
+        <v>460</v>
+      </c>
+      <c r="F18" s="98" t="s">
+        <v>461</v>
+      </c>
+      <c r="G18" s="60" t="s">
+        <v>462</v>
+      </c>
+      <c r="H18" s="60" t="s">
+        <v>463</v>
+      </c>
+      <c r="I18" s="60" t="s">
+        <v>464</v>
+      </c>
+      <c r="J18" s="60" t="s">
+        <v>465</v>
+      </c>
+      <c r="K18" s="60" t="s">
+        <v>466</v>
+      </c>
+      <c r="L18" s="60" t="s">
+        <v>467</v>
+      </c>
+      <c r="M18" s="60" t="s">
+        <v>468</v>
+      </c>
+      <c r="N18" s="60" t="s">
+        <v>469</v>
+      </c>
+      <c r="O18" s="60" t="s">
+        <v>470</v>
+      </c>
+      <c r="P18" s="60" t="s">
+        <v>471</v>
+      </c>
+      <c r="Q18" s="60" t="s">
+        <v>472</v>
+      </c>
+      <c r="R18" s="60" t="s">
+        <v>473</v>
+      </c>
+      <c r="S18" s="60" t="s">
+        <v>474</v>
+      </c>
+      <c r="T18" s="60" t="s">
+        <v>475</v>
+      </c>
+      <c r="U18" s="60" t="s">
+        <v>476</v>
+      </c>
+      <c r="V18" s="60" t="s">
+        <v>477</v>
+      </c>
+      <c r="W18" s="60" t="s">
+        <v>478</v>
+      </c>
+      <c r="X18" s="60" t="s">
+        <v>479</v>
+      </c>
+      <c r="Y18" s="60" t="s">
+        <v>480</v>
+      </c>
+      <c r="Z18" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="AA18" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="19" spans="2:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="1" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="20" spans="2:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="H20" s="88" t="s">
+        <v>31</v>
+      </c>
+      <c r="I20" s="88" t="s">
+        <v>300</v>
+      </c>
+      <c r="J20" s="88" t="s">
+        <v>301</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="V20" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="W20" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="X20" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="Y20" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="Z20" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="AA20" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="21" spans="2:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="H21" s="88" t="s">
+        <v>277</v>
+      </c>
+      <c r="I21" s="88" t="s">
+        <v>278</v>
+      </c>
+      <c r="J21" s="88" t="s">
+        <v>278</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="V21" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="W21" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="X21" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="Y21" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="Z21" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="AA21" s="1" t="s">
+        <v>518</v>
       </c>
     </row>
   </sheetData>
@@ -3977,6 +4626,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3988,7 +4638,7 @@
       <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="23"/>
     <col min="2" max="2" width="5.25" style="23" bestFit="1" customWidth="1"/>
@@ -4012,16 +4662,16 @@
     <col min="21" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:18" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="21"/>
-      <c r="C3" s="89" t="s">
+      <c r="C3" s="91" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
       <c r="I3" s="22"/>
       <c r="J3" s="21"/>
       <c r="K3" s="21"/>
@@ -4031,7 +4681,7 @@
       <c r="O3" s="21"/>
       <c r="P3" s="21"/>
     </row>
-    <row r="4" spans="2:18" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="4" spans="2:18" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
         <v>67</v>
       </c>
@@ -4078,7 +4728,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="2:18" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="5" spans="2:18" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="27">
         <v>42613.958321759259</v>
       </c>
@@ -4122,7 +4772,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="2:18" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="6" spans="2:18" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="27">
         <v>42614.958321701386</v>
       </c>
@@ -4166,7 +4816,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="7" spans="2:18" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="7" spans="2:18" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C7" s="27">
         <v>42615.958321701386</v>
       </c>
@@ -4210,7 +4860,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="8" spans="2:18" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="8" spans="2:18" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C8" s="27">
         <v>42616.958321701386</v>
       </c>
@@ -4254,7 +4904,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="9" spans="2:18" ht="20.100000000000001" customHeight="1" thickBot="1">
+    <row r="9" spans="2:18" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C9" s="27">
         <v>42617.958321701386</v>
       </c>
@@ -4298,20 +4948,20 @@
         <v>174</v>
       </c>
     </row>
-    <row r="12" spans="2:18" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" s="32" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="13" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="C13" s="89" t="s">
+    <row r="13" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C13" s="91" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="89"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="89"/>
-      <c r="G13" s="89"/>
-      <c r="H13" s="89"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="91"/>
+      <c r="G13" s="91"/>
+      <c r="H13" s="91"/>
       <c r="I13" s="22"/>
       <c r="J13" s="21"/>
       <c r="K13" s="21"/>
@@ -4323,7 +4973,7 @@
       <c r="Q13" s="21"/>
       <c r="R13" s="21"/>
     </row>
-    <row r="14" spans="2:18" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C14" s="24" t="s">
         <v>68</v>
       </c>
@@ -4373,7 +5023,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="15" spans="2:18" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C15" s="21" t="s">
         <v>256</v>
       </c>
@@ -4405,13 +5055,13 @@
         <v>292</v>
       </c>
       <c r="M15" s="21" t="s">
+        <v>440</v>
+      </c>
+      <c r="N15" s="21" t="s">
+        <v>442</v>
+      </c>
+      <c r="O15" s="21" t="s">
         <v>441</v>
-      </c>
-      <c r="N15" s="21" t="s">
-        <v>443</v>
-      </c>
-      <c r="O15" s="21" t="s">
-        <v>442</v>
       </c>
       <c r="P15" s="21" t="s">
         <v>296</v>
@@ -4423,7 +5073,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="16" spans="2:18" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C16" s="21"/>
       <c r="D16" s="21"/>
       <c r="E16" s="21"/>
@@ -4447,7 +5097,7 @@
       </c>
       <c r="R16" s="21"/>
     </row>
-    <row r="17" spans="3:20" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C17" s="23" t="s">
         <v>270</v>
       </c>
@@ -4497,17 +5147,17 @@
         <v>350</v>
       </c>
     </row>
-    <row r="20" spans="3:20" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C20" s="32" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="23" spans="3:20" ht="20.100000000000001" customHeight="1">
+    <row r="23" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="55" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="24" spans="3:20" ht="20.100000000000001" customHeight="1">
+    <row r="24" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C24" s="25" t="s">
         <v>70</v>
       </c>
@@ -4563,7 +5213,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="25" spans="3:20" ht="20.100000000000001" customHeight="1">
+    <row r="25" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C25" s="21" t="s">
         <v>357</v>
       </c>
@@ -4619,7 +5269,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="26" spans="3:20" ht="20.100000000000001" customHeight="1">
+    <row r="26" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C26" s="21"/>
       <c r="D26" s="21"/>
       <c r="E26" s="21"/>
@@ -4643,7 +5293,7 @@
       <c r="S26" s="76"/>
       <c r="T26" s="77"/>
     </row>
-    <row r="27" spans="3:20" ht="20.100000000000001" customHeight="1">
+    <row r="27" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C27" s="21" t="s">
         <v>191</v>
       </c>
@@ -4699,12 +5349,12 @@
         <v>428</v>
       </c>
     </row>
-    <row r="28" spans="3:20" ht="20.100000000000001" customHeight="1">
+    <row r="28" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Q28" s="23" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="29" spans="3:20" ht="20.100000000000001" customHeight="1">
+    <row r="29" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="T29" s="23" t="s">
         <v>418</v>
       </c>
@@ -4729,7 +5379,7 @@
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="9" style="60"/>
     <col min="3" max="3" width="22.75" style="60" bestFit="1" customWidth="1"/>
@@ -4740,12 +5390,12 @@
     <col min="8" max="16384" width="9" style="60"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:7" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C3" s="58" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="4" spans="3:7" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C4" s="61" t="s">
         <v>376</v>
       </c>
@@ -4762,7 +5412,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="5" spans="3:7" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C5" s="62" t="s">
         <v>379</v>
       </c>
@@ -4779,7 +5429,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="6" spans="3:7" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="62" t="s">
         <v>380</v>
       </c>
@@ -4790,7 +5440,7 @@
       <c r="F6" s="62"/>
       <c r="G6" s="62"/>
     </row>
-    <row r="7" spans="3:7" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="3:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C7" s="62" t="s">
         <v>385</v>
       </c>
@@ -4820,10 +5470,10 @@
   <dimension ref="B3:X45"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+      <selection activeCell="B34" sqref="B34:D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="23"/>
     <col min="2" max="2" width="19.25" style="23" bestFit="1" customWidth="1"/>
@@ -4848,7 +5498,7 @@
     <col min="25" max="16384" width="9" style="23"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:19" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="30" t="s">
         <v>86</v>
       </c>
@@ -4904,7 +5554,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="2:19" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="35" t="s">
         <v>235</v>
       </c>
@@ -4960,7 +5610,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="5" spans="2:19" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="35" t="s">
         <v>235</v>
       </c>
@@ -5016,7 +5666,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="6" spans="2:19" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="35" t="s">
         <v>237</v>
       </c>
@@ -5072,12 +5722,12 @@
         <v>228</v>
       </c>
     </row>
-    <row r="16" spans="2:19" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="2:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="23" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="17" spans="2:24" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="30" t="s">
         <v>86</v>
       </c>
@@ -5139,7 +5789,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="18" spans="2:24" ht="20.100000000000001" customHeight="1">
+    <row r="18" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="21" t="s">
         <v>85</v>
       </c>
@@ -5185,7 +5835,7 @@
       <c r="T18" s="21"/>
       <c r="U18" s="21"/>
     </row>
-    <row r="19" spans="2:24" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="21" t="s">
         <v>303</v>
       </c>
@@ -5247,7 +5897,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="20" spans="2:24" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H20" s="23" t="s">
         <v>147</v>
       </c>
@@ -5256,7 +5906,7 @@
       </c>
       <c r="Q20" s="38"/>
     </row>
-    <row r="21" spans="2:24" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="23" t="s">
         <v>299</v>
       </c>
@@ -5318,53 +5968,53 @@
         <v>350</v>
       </c>
     </row>
-    <row r="24" spans="2:24" ht="20.100000000000001" customHeight="1">
-      <c r="C24" s="90" t="s">
+    <row r="24" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C24" s="92" t="s">
         <v>344</v>
       </c>
-      <c r="D24" s="91"/>
-      <c r="E24" s="91"/>
-      <c r="F24" s="91"/>
-      <c r="G24" s="91"/>
-      <c r="H24" s="91"/>
-      <c r="I24" s="91"/>
-    </row>
-    <row r="25" spans="2:24" ht="20.100000000000001" customHeight="1">
-      <c r="C25" s="91"/>
-      <c r="D25" s="91"/>
-      <c r="E25" s="91"/>
-      <c r="F25" s="91"/>
-      <c r="G25" s="91"/>
-      <c r="H25" s="91"/>
-      <c r="I25" s="91"/>
-    </row>
-    <row r="26" spans="2:24" ht="20.100000000000001" customHeight="1">
-      <c r="C26" s="91"/>
-      <c r="D26" s="91"/>
-      <c r="E26" s="91"/>
-      <c r="F26" s="91"/>
-      <c r="G26" s="91"/>
-      <c r="H26" s="91"/>
-      <c r="I26" s="91"/>
-    </row>
-    <row r="27" spans="2:24" ht="20.100000000000001" customHeight="1">
+      <c r="D24" s="93"/>
+      <c r="E24" s="93"/>
+      <c r="F24" s="93"/>
+      <c r="G24" s="93"/>
+      <c r="H24" s="93"/>
+      <c r="I24" s="93"/>
+    </row>
+    <row r="25" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C25" s="93"/>
+      <c r="D25" s="93"/>
+      <c r="E25" s="93"/>
+      <c r="F25" s="93"/>
+      <c r="G25" s="93"/>
+      <c r="H25" s="93"/>
+      <c r="I25" s="93"/>
+    </row>
+    <row r="26" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C26" s="93"/>
+      <c r="D26" s="93"/>
+      <c r="E26" s="93"/>
+      <c r="F26" s="93"/>
+      <c r="G26" s="93"/>
+      <c r="H26" s="93"/>
+      <c r="I26" s="93"/>
+    </row>
+    <row r="27" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="32" t="s">
         <v>276</v>
       </c>
-      <c r="C27" s="91"/>
-      <c r="D27" s="91"/>
-      <c r="E27" s="91"/>
-      <c r="F27" s="91"/>
-      <c r="G27" s="91"/>
-      <c r="H27" s="91"/>
-      <c r="I27" s="91"/>
-    </row>
-    <row r="31" spans="2:24" ht="20.100000000000001" customHeight="1">
+      <c r="C27" s="93"/>
+      <c r="D27" s="93"/>
+      <c r="E27" s="93"/>
+      <c r="F27" s="93"/>
+      <c r="G27" s="93"/>
+      <c r="H27" s="93"/>
+      <c r="I27" s="93"/>
+    </row>
+    <row r="31" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="23" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="32" spans="2:24" ht="20.100000000000001" customHeight="1">
+    <row r="32" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="68" t="s">
         <v>86</v>
       </c>
@@ -5435,7 +6085,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="33" spans="2:24" ht="20.100000000000001" customHeight="1">
+    <row r="33" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="21" t="s">
         <v>85</v>
       </c>
@@ -5484,7 +6134,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="34" spans="2:24" ht="20.100000000000001" customHeight="1">
+    <row r="34" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="21" t="s">
         <v>277</v>
       </c>
@@ -5555,7 +6205,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="2:24" ht="20.100000000000001" customHeight="1">
+    <row r="35" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="21"/>
       <c r="C35" s="21"/>
       <c r="D35" s="21"/>
@@ -5563,10 +6213,10 @@
       <c r="F35" s="21"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
-      <c r="I35" s="92" t="s">
+      <c r="I35" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="J35" s="93"/>
+      <c r="J35" s="95"/>
       <c r="K35" s="57"/>
       <c r="L35" s="21"/>
       <c r="M35" s="21"/>
@@ -5584,7 +6234,7 @@
       <c r="W35" s="63"/>
       <c r="X35" s="78"/>
     </row>
-    <row r="36" spans="2:24" ht="20.100000000000001" customHeight="1">
+    <row r="36" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="21" t="s">
         <v>31</v>
       </c>
@@ -5655,49 +6305,49 @@
         <v>314</v>
       </c>
     </row>
-    <row r="37" spans="2:24" ht="20.100000000000001" customHeight="1">
+    <row r="37" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W37" s="23" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="38" spans="2:24" ht="20.100000000000001" customHeight="1">
+    <row r="38" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W38" s="23" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="39" spans="2:24" ht="20.100000000000001" customHeight="1">
+    <row r="39" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W39" s="23" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="40" spans="2:24" ht="20.100000000000001" customHeight="1">
+    <row r="40" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W40" s="23" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="42" spans="2:24" ht="20.100000000000001" customHeight="1">
+    <row r="42" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="87" t="s">
+        <v>452</v>
+      </c>
+      <c r="C42" s="87" t="s">
         <v>453</v>
       </c>
-      <c r="C42" s="87" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="43" spans="2:24" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="43" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="87"/>
       <c r="C43" s="87" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="44" spans="2:24" ht="20.100000000000001" customHeight="1">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="87"/>
       <c r="C44" s="87" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="45" spans="2:24" ht="20.100000000000001" customHeight="1">
-      <c r="C45" s="95" t="s">
-        <v>458</v>
+        <v>455</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C45" s="89" t="s">
+        <v>457</v>
       </c>
     </row>
   </sheetData>
@@ -5716,11 +6366,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:AD38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+    <sheetView topLeftCell="B13" workbookViewId="0">
       <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="38"/>
     <col min="2" max="2" width="8" style="38" bestFit="1" customWidth="1"/>
@@ -5747,8 +6397,8 @@
     <col min="31" max="16384" width="9" style="38"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:23" ht="19.5" customHeight="1"/>
-    <row r="4" spans="2:23" ht="57.75" customHeight="1">
+    <row r="3" spans="2:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="2:23" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="7" t="s">
         <v>123</v>
       </c>
@@ -5813,7 +6463,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="2:23" ht="18">
+    <row r="5" spans="2:23" ht="18" x14ac:dyDescent="0.15">
       <c r="B5" s="38">
         <v>1</v>
       </c>
@@ -5875,7 +6525,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="6" spans="2:23" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="38">
         <v>2</v>
       </c>
@@ -5937,7 +6587,7 @@
         <v>2.12</v>
       </c>
     </row>
-    <row r="7" spans="2:23" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="38">
         <v>3</v>
       </c>
@@ -5999,12 +6649,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="2:23" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="38" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="12" spans="2:23" ht="27">
+    <row r="12" spans="2:23" ht="27" x14ac:dyDescent="0.15">
       <c r="C12" s="7" t="s">
         <v>146</v>
       </c>
@@ -6069,7 +6719,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="13" spans="2:23" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C13" s="52" t="s">
         <v>16</v>
       </c>
@@ -6134,7 +6784,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="14" spans="2:23" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G14" s="38" t="s">
         <v>147</v>
       </c>
@@ -6148,7 +6798,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="15" spans="2:23" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C15" s="23" t="s">
         <v>270</v>
       </c>
@@ -6213,28 +6863,28 @@
         <v>350</v>
       </c>
     </row>
-    <row r="16" spans="2:23" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="2:23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="N16" s="38" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="20" spans="3:30" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="3:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C20" s="51" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="21" spans="3:30" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="3:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C21" s="32" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="25" spans="3:30" ht="20.100000000000001" customHeight="1">
-      <c r="C25" s="95" t="s">
+    <row r="25" spans="3:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C25" s="89" t="s">
         <v>189</v>
       </c>
       <c r="R25" s="72"/>
     </row>
-    <row r="26" spans="3:30" ht="20.100000000000001" customHeight="1">
+    <row r="26" spans="3:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C26" s="30" t="s">
         <v>86</v>
       </c>
@@ -6320,7 +6970,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="27" spans="3:30" ht="20.100000000000001" customHeight="1">
+    <row r="27" spans="3:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C27" s="67" t="s">
         <v>277</v>
       </c>
@@ -6397,7 +7047,7 @@
         <v>330</v>
       </c>
       <c r="AB27" s="67" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AC27" s="67" t="s">
         <v>16</v>
@@ -6406,7 +7056,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="28" spans="3:30" ht="20.100000000000001" customHeight="1">
+    <row r="28" spans="3:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C28" s="67"/>
       <c r="D28" s="67"/>
       <c r="E28" s="67"/>
@@ -6415,10 +7065,10 @@
       <c r="H28" s="67"/>
       <c r="I28" s="67"/>
       <c r="J28" s="67"/>
-      <c r="K28" s="94" t="s">
+      <c r="K28" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="L28" s="94"/>
+      <c r="L28" s="96"/>
       <c r="M28" s="64"/>
       <c r="N28" s="67"/>
       <c r="O28" s="67" t="s">
@@ -6444,7 +7094,7 @@
       <c r="AC28" s="57"/>
       <c r="AD28" s="52"/>
     </row>
-    <row r="29" spans="3:30" ht="20.100000000000001" customHeight="1">
+    <row r="29" spans="3:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C29" s="67" t="s">
         <v>299</v>
       </c>
@@ -6470,7 +7120,7 @@
         <v>273</v>
       </c>
       <c r="K29" s="67" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="L29" s="67" t="s">
         <v>400</v>
@@ -6530,7 +7180,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="30" spans="3:30" ht="20.100000000000001" customHeight="1">
+    <row r="30" spans="3:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C30" s="23"/>
       <c r="D30" s="23"/>
       <c r="E30" s="23"/>
@@ -6560,7 +7210,7 @@
       <c r="AB30" s="23"/>
       <c r="AC30" s="23"/>
     </row>
-    <row r="32" spans="3:30" ht="20.100000000000001" customHeight="1">
+    <row r="32" spans="3:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="P32" s="38" t="s">
         <v>406</v>
       </c>
@@ -6574,34 +7224,34 @@
         <v>406</v>
       </c>
     </row>
-    <row r="33" spans="3:20" ht="20.100000000000001" customHeight="1">
+    <row r="33" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="T33" s="38" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="34" spans="3:20" ht="20.100000000000001" customHeight="1">
+    <row r="34" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="T34" s="38" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="36" spans="3:20" ht="20.100000000000001" customHeight="1">
+    <row r="36" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C36" s="87" t="s">
+        <v>452</v>
+      </c>
+      <c r="D36" s="87" t="s">
         <v>453</v>
       </c>
-      <c r="D36" s="87" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="37" spans="3:20" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="37" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C37" s="87"/>
       <c r="D37" s="87" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="38" spans="3:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C38" s="87"/>
+      <c r="D38" s="89" t="s">
         <v>457</v>
-      </c>
-    </row>
-    <row r="38" spans="3:20" ht="20.100000000000001" customHeight="1">
-      <c r="C38" s="87"/>
-      <c r="D38" s="95" t="s">
-        <v>458</v>
       </c>
     </row>
   </sheetData>
@@ -6622,7 +7272,7 @@
       <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="9" style="9"/>
     <col min="3" max="3" width="5.25" style="9" bestFit="1" customWidth="1"/>
@@ -6637,12 +7287,12 @@
     <col min="13" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:12" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="I5" s="33" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="6" spans="3:12" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" s="11" t="s">
         <v>124</v>
       </c>
@@ -6668,7 +7318,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="7" spans="3:12" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C7" s="13">
         <v>1</v>
       </c>
@@ -6691,10 +7341,10 @@
         <v>282</v>
       </c>
       <c r="L7" s="53" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="8" spans="3:12" ht="20.100000000000001" customHeight="1">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="8" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="13">
         <v>2</v>
       </c>
@@ -6711,7 +7361,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="9" spans="3:12" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C9" s="13">
         <v>3</v>
       </c>
@@ -6737,7 +7387,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="10" spans="3:12" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C10" s="13">
         <v>4</v>
       </c>
@@ -6757,7 +7407,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="11" spans="3:12" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C11" s="13">
         <v>5</v>
       </c>
@@ -6771,7 +7421,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="3:12" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" s="13">
         <v>6</v>
       </c>
@@ -6785,7 +7435,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="3:12" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C13" s="13">
         <v>7</v>
       </c>
@@ -6799,7 +7449,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="3:12" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C14" s="13">
         <v>8</v>
       </c>
@@ -6813,7 +7463,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="3:12" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="3:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C15" s="13">
         <v>9</v>
       </c>

--- a/文档/数据库表结构.xlsx
+++ b/文档/数据库表结构.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="用户表" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,8 @@
     <sheet name="签收报表" sheetId="11" r:id="rId10"/>
     <sheet name="省份码" sheetId="14" r:id="rId11"/>
     <sheet name="不可更改项" sheetId="15" r:id="rId12"/>
+    <sheet name="日报表" sheetId="17" r:id="rId13"/>
+    <sheet name="月报表" sheetId="18" r:id="rId14"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -409,7 +411,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="557">
   <si>
     <t>工号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2664,6 +2666,154 @@
   </si>
   <si>
     <t>varchar2(200)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户条码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子面单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普件面单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他快递</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>count_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>large_area</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slice_area</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fen_bu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>custom_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctm_bar_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctm_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>electronic_sheet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">generic_sheet </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>other_sheet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar2(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日报表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>courier_company</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ctm_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>count_all</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>years</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月报表（report_month）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2941,7 +3091,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3214,6 +3364,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3238,8 +3391,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3900,10 +4053,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="90" t="s">
+      <c r="B2" s="91" t="s">
         <v>425</v>
       </c>
-      <c r="C2" s="90"/>
+      <c r="C2" s="91"/>
     </row>
     <row r="3" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="61" t="s">
@@ -4002,16 +4155,280 @@
       </c>
     </row>
     <row r="6" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="97" t="s">
+      <c r="B6" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="97"/>
+      <c r="C6" s="98"/>
       <c r="D6" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B6:C6"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:L5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:L5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A3" s="99" t="s">
+        <v>520</v>
+      </c>
+      <c r="B3" s="99" t="s">
+        <v>521</v>
+      </c>
+      <c r="C3" s="99" t="s">
+        <v>522</v>
+      </c>
+      <c r="D3" s="99" t="s">
+        <v>523</v>
+      </c>
+      <c r="E3" s="99" t="s">
+        <v>524</v>
+      </c>
+      <c r="F3" s="99" t="s">
+        <v>525</v>
+      </c>
+      <c r="G3" s="99" t="s">
+        <v>526</v>
+      </c>
+      <c r="H3" s="99" t="s">
+        <v>527</v>
+      </c>
+      <c r="I3" s="99" t="s">
+        <v>528</v>
+      </c>
+      <c r="J3" s="99" t="s">
+        <v>529</v>
+      </c>
+      <c r="K3" s="99" t="s">
+        <v>530</v>
+      </c>
+      <c r="L3" s="99" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A4" s="99" t="s">
+        <v>532</v>
+      </c>
+      <c r="B4" s="99" t="s">
+        <v>533</v>
+      </c>
+      <c r="C4" s="99" t="s">
+        <v>534</v>
+      </c>
+      <c r="D4" s="99" t="s">
+        <v>535</v>
+      </c>
+      <c r="E4" s="99" t="s">
+        <v>536</v>
+      </c>
+      <c r="F4" s="99" t="s">
+        <v>537</v>
+      </c>
+      <c r="G4" s="99" t="s">
+        <v>538</v>
+      </c>
+      <c r="H4" s="99" t="s">
+        <v>539</v>
+      </c>
+      <c r="I4" s="99" t="s">
+        <v>540</v>
+      </c>
+      <c r="J4" s="99" t="s">
+        <v>541</v>
+      </c>
+      <c r="K4" s="99" t="s">
+        <v>542</v>
+      </c>
+      <c r="L4" s="99" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A5" s="99" t="s">
+        <v>544</v>
+      </c>
+      <c r="B5" s="99" t="s">
+        <v>545</v>
+      </c>
+      <c r="C5" s="99" t="s">
+        <v>545</v>
+      </c>
+      <c r="D5" s="99" t="s">
+        <v>546</v>
+      </c>
+      <c r="E5" s="99" t="s">
+        <v>547</v>
+      </c>
+      <c r="F5" s="99" t="s">
+        <v>547</v>
+      </c>
+      <c r="G5" s="99" t="s">
+        <v>547</v>
+      </c>
+      <c r="H5" s="99" t="s">
+        <v>548</v>
+      </c>
+      <c r="I5" s="99" t="s">
+        <v>548</v>
+      </c>
+      <c r="J5" s="99" t="s">
+        <v>548</v>
+      </c>
+      <c r="K5" s="99" t="s">
+        <v>548</v>
+      </c>
+      <c r="L5" s="99" t="s">
+        <v>548</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:I5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="2" max="3" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.875" customWidth="1"/>
+    <col min="8" max="8" width="18.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="99" t="s">
+        <v>521</v>
+      </c>
+      <c r="B3" s="99" t="s">
+        <v>522</v>
+      </c>
+      <c r="C3" s="99" t="s">
+        <v>523</v>
+      </c>
+      <c r="D3" s="99" t="s">
+        <v>524</v>
+      </c>
+      <c r="E3" s="99" t="s">
+        <v>525</v>
+      </c>
+      <c r="F3" s="99" t="s">
+        <v>526</v>
+      </c>
+      <c r="G3" s="99" t="s">
+        <v>530</v>
+      </c>
+      <c r="H3" s="99" t="s">
+        <v>531</v>
+      </c>
+      <c r="I3" s="99" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="99" t="s">
+        <v>533</v>
+      </c>
+      <c r="B4" s="99" t="s">
+        <v>534</v>
+      </c>
+      <c r="C4" s="99" t="s">
+        <v>535</v>
+      </c>
+      <c r="D4" s="99" t="s">
+        <v>551</v>
+      </c>
+      <c r="E4" s="99" t="s">
+        <v>537</v>
+      </c>
+      <c r="F4" s="99" t="s">
+        <v>538</v>
+      </c>
+      <c r="G4" s="99" t="s">
+        <v>552</v>
+      </c>
+      <c r="H4" s="99" t="s">
+        <v>543</v>
+      </c>
+      <c r="I4" s="99" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5" s="99" t="s">
+        <v>545</v>
+      </c>
+      <c r="B5" s="99" t="s">
+        <v>545</v>
+      </c>
+      <c r="C5" s="99" t="s">
+        <v>546</v>
+      </c>
+      <c r="D5" s="99" t="s">
+        <v>547</v>
+      </c>
+      <c r="E5" s="99" t="s">
+        <v>547</v>
+      </c>
+      <c r="F5" s="99" t="s">
+        <v>547</v>
+      </c>
+      <c r="G5" s="99" t="s">
+        <v>548</v>
+      </c>
+      <c r="H5" s="99" t="s">
+        <v>548</v>
+      </c>
+      <c r="I5" s="99" t="s">
+        <v>555</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4209,8 +4626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:AA21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="Q26" sqref="Q26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4336,10 +4753,10 @@
       </c>
     </row>
     <row r="11" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="90" t="s">
+      <c r="B11" s="91" t="s">
         <v>437</v>
       </c>
-      <c r="C11" s="90"/>
+      <c r="C11" s="91"/>
     </row>
     <row r="12" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="61" t="s">
@@ -4376,19 +4793,19 @@
       </c>
     </row>
     <row r="18" spans="2:27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="98" t="s">
+      <c r="B18" s="90" t="s">
         <v>458</v>
       </c>
-      <c r="C18" s="98" t="s">
+      <c r="C18" s="90" t="s">
         <v>69</v>
       </c>
-      <c r="D18" s="98" t="s">
+      <c r="D18" s="90" t="s">
         <v>459</v>
       </c>
-      <c r="E18" s="98" t="s">
+      <c r="E18" s="90" t="s">
         <v>460</v>
       </c>
-      <c r="F18" s="98" t="s">
+      <c r="F18" s="90" t="s">
         <v>461</v>
       </c>
       <c r="G18" s="60" t="s">
@@ -4664,14 +5081,14 @@
   <sheetData>
     <row r="3" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="21"/>
-      <c r="C3" s="91" t="s">
+      <c r="C3" s="92" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
       <c r="I3" s="22"/>
       <c r="J3" s="21"/>
       <c r="K3" s="21"/>
@@ -4954,14 +5371,14 @@
       </c>
     </row>
     <row r="13" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C13" s="91" t="s">
+      <c r="C13" s="92" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="91"/>
-      <c r="E13" s="91"/>
-      <c r="F13" s="91"/>
-      <c r="G13" s="91"/>
-      <c r="H13" s="91"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="92"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="92"/>
       <c r="I13" s="22"/>
       <c r="J13" s="21"/>
       <c r="K13" s="21"/>
@@ -5470,7 +5887,7 @@
   <dimension ref="B3:X45"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34:D34"/>
+      <selection activeCell="T36" sqref="T36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5969,45 +6386,45 @@
       </c>
     </row>
     <row r="24" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C24" s="92" t="s">
+      <c r="C24" s="93" t="s">
         <v>344</v>
       </c>
-      <c r="D24" s="93"/>
-      <c r="E24" s="93"/>
-      <c r="F24" s="93"/>
-      <c r="G24" s="93"/>
-      <c r="H24" s="93"/>
-      <c r="I24" s="93"/>
+      <c r="D24" s="94"/>
+      <c r="E24" s="94"/>
+      <c r="F24" s="94"/>
+      <c r="G24" s="94"/>
+      <c r="H24" s="94"/>
+      <c r="I24" s="94"/>
     </row>
     <row r="25" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C25" s="93"/>
-      <c r="D25" s="93"/>
-      <c r="E25" s="93"/>
-      <c r="F25" s="93"/>
-      <c r="G25" s="93"/>
-      <c r="H25" s="93"/>
-      <c r="I25" s="93"/>
+      <c r="C25" s="94"/>
+      <c r="D25" s="94"/>
+      <c r="E25" s="94"/>
+      <c r="F25" s="94"/>
+      <c r="G25" s="94"/>
+      <c r="H25" s="94"/>
+      <c r="I25" s="94"/>
     </row>
     <row r="26" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C26" s="93"/>
-      <c r="D26" s="93"/>
-      <c r="E26" s="93"/>
-      <c r="F26" s="93"/>
-      <c r="G26" s="93"/>
-      <c r="H26" s="93"/>
-      <c r="I26" s="93"/>
+      <c r="C26" s="94"/>
+      <c r="D26" s="94"/>
+      <c r="E26" s="94"/>
+      <c r="F26" s="94"/>
+      <c r="G26" s="94"/>
+      <c r="H26" s="94"/>
+      <c r="I26" s="94"/>
     </row>
     <row r="27" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="32" t="s">
         <v>276</v>
       </c>
-      <c r="C27" s="93"/>
-      <c r="D27" s="93"/>
-      <c r="E27" s="93"/>
-      <c r="F27" s="93"/>
-      <c r="G27" s="93"/>
-      <c r="H27" s="93"/>
-      <c r="I27" s="93"/>
+      <c r="C27" s="94"/>
+      <c r="D27" s="94"/>
+      <c r="E27" s="94"/>
+      <c r="F27" s="94"/>
+      <c r="G27" s="94"/>
+      <c r="H27" s="94"/>
+      <c r="I27" s="94"/>
     </row>
     <row r="31" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="23" t="s">
@@ -6213,10 +6630,10 @@
       <c r="F35" s="21"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
-      <c r="I35" s="94" t="s">
+      <c r="I35" s="95" t="s">
         <v>9</v>
       </c>
-      <c r="J35" s="95"/>
+      <c r="J35" s="96"/>
       <c r="K35" s="57"/>
       <c r="L35" s="21"/>
       <c r="M35" s="21"/>
@@ -6290,7 +6707,7 @@
         <v>271</v>
       </c>
       <c r="T36" s="21" t="s">
-        <v>267</v>
+        <v>550</v>
       </c>
       <c r="U36" s="21" t="s">
         <v>193</v>
@@ -6367,7 +6784,7 @@
   <dimension ref="B3:AD38"/>
   <sheetViews>
     <sheetView topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7065,10 +7482,10 @@
       <c r="H28" s="67"/>
       <c r="I28" s="67"/>
       <c r="J28" s="67"/>
-      <c r="K28" s="96" t="s">
+      <c r="K28" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="L28" s="96"/>
+      <c r="L28" s="97"/>
       <c r="M28" s="64"/>
       <c r="N28" s="67"/>
       <c r="O28" s="67" t="s">

--- a/文档/数据库表结构.xlsx
+++ b/文档/数据库表结构.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="13"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="用户表" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="不可更改项" sheetId="15" r:id="rId12"/>
     <sheet name="日报表" sheetId="17" r:id="rId13"/>
     <sheet name="月报表" sheetId="18" r:id="rId14"/>
+    <sheet name="两表合成新表" sheetId="19" r:id="rId15"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -411,7 +412,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="563">
   <si>
     <t>工号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2816,6 +2817,30 @@
     <t>月报表（report_month）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>客户信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运单信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运单状态信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最新修改时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>courier_state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -2827,7 +2852,7 @@
     <numFmt numFmtId="178" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="179" formatCode="yyyy/m/d\ h:mm;@"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3007,6 +3032,22 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -3022,7 +3063,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -3086,12 +3127,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3367,6 +3417,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3391,8 +3463,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4053,10 +4131,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B2" s="91" t="s">
+      <c r="B2" s="99" t="s">
         <v>425</v>
       </c>
-      <c r="C2" s="91"/>
+      <c r="C2" s="99"/>
     </row>
     <row r="3" spans="2:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="61" t="s">
@@ -4155,10 +4233,10 @@
       </c>
     </row>
     <row r="6" spans="2:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="98" t="s">
+      <c r="B6" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="98"/>
+      <c r="C6" s="106"/>
       <c r="D6" s="86"/>
     </row>
   </sheetData>
@@ -4198,116 +4276,116 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A3" s="99" t="s">
+      <c r="A3" s="93" t="s">
         <v>520</v>
       </c>
-      <c r="B3" s="99" t="s">
+      <c r="B3" s="93" t="s">
         <v>521</v>
       </c>
-      <c r="C3" s="99" t="s">
+      <c r="C3" s="93" t="s">
         <v>522</v>
       </c>
-      <c r="D3" s="99" t="s">
+      <c r="D3" s="93" t="s">
         <v>523</v>
       </c>
-      <c r="E3" s="99" t="s">
+      <c r="E3" s="93" t="s">
         <v>524</v>
       </c>
-      <c r="F3" s="99" t="s">
+      <c r="F3" s="93" t="s">
         <v>525</v>
       </c>
-      <c r="G3" s="99" t="s">
+      <c r="G3" s="93" t="s">
         <v>526</v>
       </c>
-      <c r="H3" s="99" t="s">
+      <c r="H3" s="93" t="s">
         <v>527</v>
       </c>
-      <c r="I3" s="99" t="s">
+      <c r="I3" s="93" t="s">
         <v>528</v>
       </c>
-      <c r="J3" s="99" t="s">
+      <c r="J3" s="93" t="s">
         <v>529</v>
       </c>
-      <c r="K3" s="99" t="s">
+      <c r="K3" s="93" t="s">
         <v>530</v>
       </c>
-      <c r="L3" s="99" t="s">
+      <c r="L3" s="93" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A4" s="99" t="s">
+      <c r="A4" s="93" t="s">
         <v>532</v>
       </c>
-      <c r="B4" s="99" t="s">
+      <c r="B4" s="93" t="s">
         <v>533</v>
       </c>
-      <c r="C4" s="99" t="s">
+      <c r="C4" s="93" t="s">
         <v>534</v>
       </c>
-      <c r="D4" s="99" t="s">
+      <c r="D4" s="93" t="s">
         <v>535</v>
       </c>
-      <c r="E4" s="99" t="s">
+      <c r="E4" s="93" t="s">
         <v>536</v>
       </c>
-      <c r="F4" s="99" t="s">
+      <c r="F4" s="93" t="s">
         <v>537</v>
       </c>
-      <c r="G4" s="99" t="s">
+      <c r="G4" s="93" t="s">
         <v>538</v>
       </c>
-      <c r="H4" s="99" t="s">
+      <c r="H4" s="93" t="s">
         <v>539</v>
       </c>
-      <c r="I4" s="99" t="s">
+      <c r="I4" s="93" t="s">
         <v>540</v>
       </c>
-      <c r="J4" s="99" t="s">
+      <c r="J4" s="93" t="s">
         <v>541</v>
       </c>
-      <c r="K4" s="99" t="s">
+      <c r="K4" s="93" t="s">
         <v>542</v>
       </c>
-      <c r="L4" s="99" t="s">
+      <c r="L4" s="93" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A5" s="99" t="s">
+      <c r="A5" s="93" t="s">
         <v>544</v>
       </c>
-      <c r="B5" s="99" t="s">
+      <c r="B5" s="93" t="s">
         <v>545</v>
       </c>
-      <c r="C5" s="99" t="s">
+      <c r="C5" s="93" t="s">
         <v>545</v>
       </c>
-      <c r="D5" s="99" t="s">
+      <c r="D5" s="93" t="s">
         <v>546</v>
       </c>
-      <c r="E5" s="99" t="s">
+      <c r="E5" s="93" t="s">
         <v>547</v>
       </c>
-      <c r="F5" s="99" t="s">
+      <c r="F5" s="93" t="s">
         <v>547</v>
       </c>
-      <c r="G5" s="99" t="s">
+      <c r="G5" s="93" t="s">
         <v>547</v>
       </c>
-      <c r="H5" s="99" t="s">
+      <c r="H5" s="93" t="s">
         <v>548</v>
       </c>
-      <c r="I5" s="99" t="s">
+      <c r="I5" s="93" t="s">
         <v>548</v>
       </c>
-      <c r="J5" s="99" t="s">
+      <c r="J5" s="93" t="s">
         <v>548</v>
       </c>
-      <c r="K5" s="99" t="s">
+      <c r="K5" s="93" t="s">
         <v>548</v>
       </c>
-      <c r="L5" s="99" t="s">
+      <c r="L5" s="93" t="s">
         <v>548</v>
       </c>
     </row>
@@ -4321,7 +4399,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -4342,93 +4420,1084 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="99" t="s">
+      <c r="A3" s="93" t="s">
         <v>521</v>
       </c>
-      <c r="B3" s="99" t="s">
+      <c r="B3" s="93" t="s">
         <v>522</v>
       </c>
-      <c r="C3" s="99" t="s">
+      <c r="C3" s="93" t="s">
         <v>523</v>
       </c>
-      <c r="D3" s="99" t="s">
+      <c r="D3" s="93" t="s">
         <v>524</v>
       </c>
-      <c r="E3" s="99" t="s">
+      <c r="E3" s="93" t="s">
         <v>525</v>
       </c>
-      <c r="F3" s="99" t="s">
+      <c r="F3" s="93" t="s">
         <v>526</v>
       </c>
-      <c r="G3" s="99" t="s">
+      <c r="G3" s="93" t="s">
         <v>530</v>
       </c>
-      <c r="H3" s="99" t="s">
+      <c r="H3" s="93" t="s">
         <v>531</v>
       </c>
-      <c r="I3" s="99" t="s">
+      <c r="I3" s="93" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="99" t="s">
+      <c r="A4" s="93" t="s">
         <v>533</v>
       </c>
-      <c r="B4" s="99" t="s">
+      <c r="B4" s="93" t="s">
         <v>534</v>
       </c>
-      <c r="C4" s="99" t="s">
+      <c r="C4" s="93" t="s">
         <v>535</v>
       </c>
-      <c r="D4" s="99" t="s">
+      <c r="D4" s="93" t="s">
         <v>551</v>
       </c>
-      <c r="E4" s="99" t="s">
+      <c r="E4" s="93" t="s">
         <v>537</v>
       </c>
-      <c r="F4" s="99" t="s">
+      <c r="F4" s="93" t="s">
         <v>538</v>
       </c>
-      <c r="G4" s="99" t="s">
+      <c r="G4" s="93" t="s">
         <v>552</v>
       </c>
-      <c r="H4" s="99" t="s">
+      <c r="H4" s="93" t="s">
         <v>543</v>
       </c>
-      <c r="I4" s="99" t="s">
+      <c r="I4" s="93" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="99" t="s">
+      <c r="A5" s="93" t="s">
         <v>545</v>
       </c>
-      <c r="B5" s="99" t="s">
+      <c r="B5" s="93" t="s">
         <v>545</v>
       </c>
-      <c r="C5" s="99" t="s">
+      <c r="C5" s="93" t="s">
         <v>546</v>
       </c>
-      <c r="D5" s="99" t="s">
+      <c r="D5" s="93" t="s">
         <v>547</v>
       </c>
-      <c r="E5" s="99" t="s">
+      <c r="E5" s="93" t="s">
         <v>547</v>
       </c>
-      <c r="F5" s="99" t="s">
+      <c r="F5" s="93" t="s">
         <v>547</v>
       </c>
-      <c r="G5" s="99" t="s">
+      <c r="G5" s="93" t="s">
         <v>548</v>
       </c>
-      <c r="H5" s="99" t="s">
+      <c r="H5" s="93" t="s">
         <v>548</v>
       </c>
-      <c r="I5" s="99" t="s">
+      <c r="I5" s="93" t="s">
         <v>555</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AB19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A1" s="68" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="68" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="68" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="68" t="s">
+        <v>393</v>
+      </c>
+      <c r="E1" s="69" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="H1" s="69" t="s">
+        <v>98</v>
+      </c>
+      <c r="I1" s="31" t="s">
+        <v>397</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="K1" s="69" t="s">
+        <v>68</v>
+      </c>
+      <c r="L1" s="69" t="s">
+        <v>71</v>
+      </c>
+      <c r="M1" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="N1" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="O1" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="P1" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q1" s="68" t="s">
+        <v>78</v>
+      </c>
+      <c r="R1" s="30" t="s">
+        <v>342</v>
+      </c>
+      <c r="S1" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="T1" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="U1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="V1" s="70" t="s">
+        <v>371</v>
+      </c>
+      <c r="W1" s="30" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A2" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="92" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="92" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2" s="92" t="s">
+        <v>87</v>
+      </c>
+      <c r="G2" s="92" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2" s="92" t="s">
+        <v>97</v>
+      </c>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92" t="s">
+        <v>96</v>
+      </c>
+      <c r="L2" s="92"/>
+      <c r="M2" s="92" t="s">
+        <v>87</v>
+      </c>
+      <c r="N2" s="92" t="s">
+        <v>87</v>
+      </c>
+      <c r="O2" s="92"/>
+      <c r="P2" s="92"/>
+      <c r="Q2" s="92" t="s">
+        <v>105</v>
+      </c>
+      <c r="R2" s="92"/>
+      <c r="S2" s="92"/>
+      <c r="T2" s="92"/>
+      <c r="U2" s="92"/>
+      <c r="V2" s="92"/>
+      <c r="W2" s="92" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A3" s="92" t="s">
+        <v>277</v>
+      </c>
+      <c r="B3" s="92" t="s">
+        <v>278</v>
+      </c>
+      <c r="C3" s="92" t="s">
+        <v>278</v>
+      </c>
+      <c r="D3" s="92" t="s">
+        <v>394</v>
+      </c>
+      <c r="E3" s="92" t="s">
+        <v>357</v>
+      </c>
+      <c r="F3" s="92" t="s">
+        <v>257</v>
+      </c>
+      <c r="G3" s="92" t="s">
+        <v>262</v>
+      </c>
+      <c r="H3" s="92" t="s">
+        <v>262</v>
+      </c>
+      <c r="I3" s="92" t="s">
+        <v>398</v>
+      </c>
+      <c r="J3" s="92" t="s">
+        <v>356</v>
+      </c>
+      <c r="K3" s="92" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="92" t="s">
+        <v>257</v>
+      </c>
+      <c r="M3" s="92" t="s">
+        <v>255</v>
+      </c>
+      <c r="N3" s="92" t="s">
+        <v>257</v>
+      </c>
+      <c r="O3" s="92" t="s">
+        <v>261</v>
+      </c>
+      <c r="P3" s="92" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q3" s="92" t="s">
+        <v>252</v>
+      </c>
+      <c r="R3" s="52" t="s">
+        <v>330</v>
+      </c>
+      <c r="S3" s="92" t="s">
+        <v>365</v>
+      </c>
+      <c r="T3" s="92" t="s">
+        <v>359</v>
+      </c>
+      <c r="U3" s="92" t="s">
+        <v>16</v>
+      </c>
+      <c r="V3" s="92" t="s">
+        <v>259</v>
+      </c>
+      <c r="W3" s="92" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A4" s="92"/>
+      <c r="B4" s="92"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="95" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="64"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="92"/>
+      <c r="L4" s="92"/>
+      <c r="M4" s="92"/>
+      <c r="N4" s="92"/>
+      <c r="O4" s="92"/>
+      <c r="P4" s="92"/>
+      <c r="Q4" s="92"/>
+      <c r="R4" s="52"/>
+      <c r="S4" s="92" t="s">
+        <v>148</v>
+      </c>
+      <c r="T4" s="92"/>
+      <c r="U4" s="92"/>
+      <c r="V4" s="92"/>
+      <c r="W4" s="92"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A5" s="92" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="92" t="s">
+        <v>300</v>
+      </c>
+      <c r="C5" s="92" t="s">
+        <v>301</v>
+      </c>
+      <c r="D5" s="92" t="s">
+        <v>396</v>
+      </c>
+      <c r="E5" s="92" t="s">
+        <v>191</v>
+      </c>
+      <c r="F5" s="92" t="s">
+        <v>190</v>
+      </c>
+      <c r="G5" s="92" t="s">
+        <v>196</v>
+      </c>
+      <c r="H5" s="92" t="s">
+        <v>308</v>
+      </c>
+      <c r="I5" s="92" t="s">
+        <v>399</v>
+      </c>
+      <c r="J5" s="92" t="s">
+        <v>361</v>
+      </c>
+      <c r="K5" s="92" t="s">
+        <v>270</v>
+      </c>
+      <c r="L5" s="92" t="s">
+        <v>273</v>
+      </c>
+      <c r="M5" s="92" t="s">
+        <v>192</v>
+      </c>
+      <c r="N5" s="92" t="s">
+        <v>194</v>
+      </c>
+      <c r="O5" s="92" t="s">
+        <v>195</v>
+      </c>
+      <c r="P5" s="92" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q5" s="92" t="s">
+        <v>265</v>
+      </c>
+      <c r="R5" s="92" t="s">
+        <v>271</v>
+      </c>
+      <c r="S5" s="92" t="s">
+        <v>333</v>
+      </c>
+      <c r="T5" s="92" t="s">
+        <v>193</v>
+      </c>
+      <c r="U5" s="92" t="s">
+        <v>20</v>
+      </c>
+      <c r="V5" s="92" t="s">
+        <v>374</v>
+      </c>
+      <c r="W5" s="92" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A7" s="89" t="s">
+        <v>189</v>
+      </c>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="72"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="38"/>
+      <c r="S7" s="38"/>
+      <c r="T7" s="38"/>
+      <c r="U7" s="38"/>
+      <c r="V7" s="38"/>
+      <c r="W7" s="38"/>
+      <c r="X7" s="38"/>
+      <c r="Y7" s="38"/>
+      <c r="Z7" s="38"/>
+      <c r="AA7" s="38"/>
+      <c r="AB7" s="38"/>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A8" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="71" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="71" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" s="71" t="s">
+        <v>393</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="G8" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="H8" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="I8" s="69" t="s">
+        <v>98</v>
+      </c>
+      <c r="J8" s="31" t="s">
+        <v>397</v>
+      </c>
+      <c r="K8" s="65" t="s">
+        <v>355</v>
+      </c>
+      <c r="L8" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="M8" s="69" t="s">
+        <v>401</v>
+      </c>
+      <c r="N8" s="31" t="s">
+        <v>402</v>
+      </c>
+      <c r="O8" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="P8" s="69" t="s">
+        <v>403</v>
+      </c>
+      <c r="Q8" s="31" t="s">
+        <v>404</v>
+      </c>
+      <c r="R8" s="31" t="s">
+        <v>405</v>
+      </c>
+      <c r="S8" s="71" t="s">
+        <v>84</v>
+      </c>
+      <c r="T8" s="71" t="s">
+        <v>100</v>
+      </c>
+      <c r="U8" s="73" t="s">
+        <v>102</v>
+      </c>
+      <c r="V8" s="71" t="s">
+        <v>78</v>
+      </c>
+      <c r="W8" s="71" t="s">
+        <v>82</v>
+      </c>
+      <c r="X8" s="71" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y8" s="71" t="s">
+        <v>342</v>
+      </c>
+      <c r="Z8" s="73" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA8" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="79" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A9" s="92" t="s">
+        <v>277</v>
+      </c>
+      <c r="B9" s="92" t="s">
+        <v>278</v>
+      </c>
+      <c r="C9" s="92" t="s">
+        <v>278</v>
+      </c>
+      <c r="D9" s="92" t="s">
+        <v>394</v>
+      </c>
+      <c r="E9" s="92" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="92" t="s">
+        <v>257</v>
+      </c>
+      <c r="G9" s="92" t="s">
+        <v>357</v>
+      </c>
+      <c r="H9" s="92" t="s">
+        <v>257</v>
+      </c>
+      <c r="I9" s="92" t="s">
+        <v>262</v>
+      </c>
+      <c r="J9" s="92" t="s">
+        <v>398</v>
+      </c>
+      <c r="K9" s="91" t="s">
+        <v>356</v>
+      </c>
+      <c r="L9" s="92" t="s">
+        <v>255</v>
+      </c>
+      <c r="M9" s="92" t="s">
+        <v>277</v>
+      </c>
+      <c r="N9" s="92" t="s">
+        <v>277</v>
+      </c>
+      <c r="O9" s="92" t="s">
+        <v>277</v>
+      </c>
+      <c r="P9" s="92" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q9" s="92" t="s">
+        <v>286</v>
+      </c>
+      <c r="R9" s="92" t="s">
+        <v>280</v>
+      </c>
+      <c r="S9" s="92" t="s">
+        <v>359</v>
+      </c>
+      <c r="T9" s="92" t="s">
+        <v>262</v>
+      </c>
+      <c r="U9" s="92" t="s">
+        <v>261</v>
+      </c>
+      <c r="V9" s="92" t="s">
+        <v>252</v>
+      </c>
+      <c r="W9" s="92" t="s">
+        <v>365</v>
+      </c>
+      <c r="X9" s="92" t="s">
+        <v>262</v>
+      </c>
+      <c r="Y9" s="92" t="s">
+        <v>330</v>
+      </c>
+      <c r="Z9" s="92" t="s">
+        <v>440</v>
+      </c>
+      <c r="AA9" s="92" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB9" s="52" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A10" s="92"/>
+      <c r="B10" s="92"/>
+      <c r="C10" s="92"/>
+      <c r="D10" s="92"/>
+      <c r="E10" s="92"/>
+      <c r="F10" s="92"/>
+      <c r="G10" s="92"/>
+      <c r="H10" s="92"/>
+      <c r="I10" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10" s="57"/>
+      <c r="K10" s="64"/>
+      <c r="L10" s="92"/>
+      <c r="M10" s="92" t="s">
+        <v>148</v>
+      </c>
+      <c r="N10" s="92"/>
+      <c r="O10" s="92"/>
+      <c r="P10" s="92"/>
+      <c r="Q10" s="92"/>
+      <c r="R10" s="74" t="s">
+        <v>148</v>
+      </c>
+      <c r="S10" s="92"/>
+      <c r="T10" s="92"/>
+      <c r="U10" s="92"/>
+      <c r="V10" s="92"/>
+      <c r="W10" s="92" t="s">
+        <v>148</v>
+      </c>
+      <c r="X10" s="92"/>
+      <c r="Y10" s="92"/>
+      <c r="Z10" s="92"/>
+      <c r="AA10" s="57"/>
+      <c r="AB10" s="52"/>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A11" s="92" t="s">
+        <v>299</v>
+      </c>
+      <c r="B11" s="92" t="s">
+        <v>300</v>
+      </c>
+      <c r="C11" s="92" t="s">
+        <v>301</v>
+      </c>
+      <c r="D11" s="92" t="s">
+        <v>395</v>
+      </c>
+      <c r="E11" s="92" t="s">
+        <v>270</v>
+      </c>
+      <c r="F11" s="92" t="s">
+        <v>190</v>
+      </c>
+      <c r="G11" s="92" t="s">
+        <v>191</v>
+      </c>
+      <c r="H11" s="92" t="s">
+        <v>273</v>
+      </c>
+      <c r="I11" s="92" t="s">
+        <v>308</v>
+      </c>
+      <c r="J11" s="92" t="s">
+        <v>399</v>
+      </c>
+      <c r="K11" s="91" t="s">
+        <v>354</v>
+      </c>
+      <c r="L11" s="92" t="s">
+        <v>192</v>
+      </c>
+      <c r="M11" s="92" t="s">
+        <v>341</v>
+      </c>
+      <c r="N11" s="92" t="s">
+        <v>323</v>
+      </c>
+      <c r="O11" s="92" t="s">
+        <v>194</v>
+      </c>
+      <c r="P11" s="92" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q11" s="92" t="s">
+        <v>325</v>
+      </c>
+      <c r="R11" s="92" t="s">
+        <v>332</v>
+      </c>
+      <c r="S11" s="92" t="s">
+        <v>193</v>
+      </c>
+      <c r="T11" s="92" t="s">
+        <v>196</v>
+      </c>
+      <c r="U11" s="92" t="s">
+        <v>195</v>
+      </c>
+      <c r="V11" s="92" t="s">
+        <v>265</v>
+      </c>
+      <c r="W11" s="92" t="s">
+        <v>267</v>
+      </c>
+      <c r="X11" s="92" t="s">
+        <v>268</v>
+      </c>
+      <c r="Y11" s="92" t="s">
+        <v>271</v>
+      </c>
+      <c r="Z11" s="92" t="s">
+        <v>294</v>
+      </c>
+      <c r="AA11" s="92" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB11" s="52" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A15" s="98"/>
+      <c r="B15" s="107" t="s">
+        <v>557</v>
+      </c>
+      <c r="C15" s="108"/>
+      <c r="D15" s="108"/>
+      <c r="E15" s="108"/>
+      <c r="F15" s="108"/>
+      <c r="G15" s="108"/>
+      <c r="H15" s="108"/>
+      <c r="I15" s="108"/>
+      <c r="J15" s="108"/>
+      <c r="K15" s="108"/>
+      <c r="L15" s="108"/>
+      <c r="M15" s="108"/>
+      <c r="N15" s="108"/>
+      <c r="O15" s="108"/>
+      <c r="P15" s="108"/>
+      <c r="Q15" s="108"/>
+      <c r="R15" s="107" t="s">
+        <v>558</v>
+      </c>
+      <c r="S15" s="107"/>
+      <c r="T15" s="107"/>
+      <c r="U15" s="107"/>
+      <c r="V15" s="109" t="s">
+        <v>559</v>
+      </c>
+      <c r="W15" s="109"/>
+      <c r="X15" s="109"/>
+      <c r="Y15" s="109"/>
+      <c r="Z15" s="109"/>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A16" s="69" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16" s="96" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="E16" s="71" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="71" t="s">
+        <v>90</v>
+      </c>
+      <c r="G16" s="71" t="s">
+        <v>393</v>
+      </c>
+      <c r="H16" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="I16" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="J16" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="K16" s="97" t="s">
+        <v>76</v>
+      </c>
+      <c r="L16" s="97" t="s">
+        <v>83</v>
+      </c>
+      <c r="M16" s="97" t="s">
+        <v>342</v>
+      </c>
+      <c r="N16" s="97" t="s">
+        <v>78</v>
+      </c>
+      <c r="O16" s="73" t="s">
+        <v>108</v>
+      </c>
+      <c r="P16" s="97" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q16" s="97" t="s">
+        <v>84</v>
+      </c>
+      <c r="R16" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="S16" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="T16" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="U16" s="97" t="s">
+        <v>104</v>
+      </c>
+      <c r="V16" s="69" t="s">
+        <v>401</v>
+      </c>
+      <c r="W16" s="31" t="s">
+        <v>402</v>
+      </c>
+      <c r="X16" s="69" t="s">
+        <v>403</v>
+      </c>
+      <c r="Y16" s="79" t="s">
+        <v>431</v>
+      </c>
+      <c r="Z16" s="31" t="s">
+        <v>404</v>
+      </c>
+      <c r="AA16" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB16" s="10" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A17" s="92" t="s">
+        <v>262</v>
+      </c>
+      <c r="B17" s="92" t="s">
+        <v>357</v>
+      </c>
+      <c r="C17" s="92" t="s">
+        <v>257</v>
+      </c>
+      <c r="D17" s="92" t="s">
+        <v>277</v>
+      </c>
+      <c r="E17" s="92" t="s">
+        <v>278</v>
+      </c>
+      <c r="F17" s="92" t="s">
+        <v>278</v>
+      </c>
+      <c r="G17" s="92" t="s">
+        <v>394</v>
+      </c>
+      <c r="H17" s="92" t="s">
+        <v>262</v>
+      </c>
+      <c r="I17" s="92" t="s">
+        <v>255</v>
+      </c>
+      <c r="J17" s="92" t="s">
+        <v>257</v>
+      </c>
+      <c r="K17" s="92" t="s">
+        <v>261</v>
+      </c>
+      <c r="L17" s="92" t="s">
+        <v>262</v>
+      </c>
+      <c r="M17" s="52" t="s">
+        <v>330</v>
+      </c>
+      <c r="N17" s="92" t="s">
+        <v>252</v>
+      </c>
+      <c r="O17" s="92" t="s">
+        <v>440</v>
+      </c>
+      <c r="P17" s="92" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q17" s="92" t="s">
+        <v>359</v>
+      </c>
+      <c r="R17" s="92" t="s">
+        <v>16</v>
+      </c>
+      <c r="S17" s="92" t="s">
+        <v>257</v>
+      </c>
+      <c r="T17" s="92" t="s">
+        <v>259</v>
+      </c>
+      <c r="U17" s="92" t="s">
+        <v>16</v>
+      </c>
+      <c r="V17" s="92" t="s">
+        <v>277</v>
+      </c>
+      <c r="W17" s="92" t="s">
+        <v>277</v>
+      </c>
+      <c r="X17" s="92" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y17" s="52" t="s">
+        <v>433</v>
+      </c>
+      <c r="Z17" s="92" t="s">
+        <v>286</v>
+      </c>
+      <c r="AA17" s="92" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB17" s="94" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A18" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="92"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="92"/>
+      <c r="E18" s="92"/>
+      <c r="F18" s="92"/>
+      <c r="G18" s="92"/>
+      <c r="H18" s="92"/>
+      <c r="I18" s="92"/>
+      <c r="J18" s="92"/>
+      <c r="K18" s="92"/>
+      <c r="L18" s="92"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="92"/>
+      <c r="O18" s="92"/>
+      <c r="P18" s="92" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q18" s="92"/>
+      <c r="R18" s="92"/>
+      <c r="S18" s="92"/>
+      <c r="T18" s="92"/>
+      <c r="U18" s="92"/>
+      <c r="V18" s="92" t="s">
+        <v>148</v>
+      </c>
+      <c r="W18" s="92"/>
+      <c r="X18" s="92"/>
+      <c r="Y18" s="52"/>
+      <c r="Z18" s="92"/>
+      <c r="AA18" s="57"/>
+      <c r="AB18" s="57"/>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A19" s="92" t="s">
+        <v>308</v>
+      </c>
+      <c r="B19" s="92" t="s">
+        <v>191</v>
+      </c>
+      <c r="C19" s="92" t="s">
+        <v>190</v>
+      </c>
+      <c r="D19" s="92" t="s">
+        <v>299</v>
+      </c>
+      <c r="E19" s="92" t="s">
+        <v>300</v>
+      </c>
+      <c r="F19" s="92" t="s">
+        <v>301</v>
+      </c>
+      <c r="G19" s="92" t="s">
+        <v>395</v>
+      </c>
+      <c r="H19" s="92" t="s">
+        <v>196</v>
+      </c>
+      <c r="I19" s="92" t="s">
+        <v>192</v>
+      </c>
+      <c r="J19" s="92" t="s">
+        <v>194</v>
+      </c>
+      <c r="K19" s="92" t="s">
+        <v>195</v>
+      </c>
+      <c r="L19" s="92" t="s">
+        <v>268</v>
+      </c>
+      <c r="M19" s="92" t="s">
+        <v>271</v>
+      </c>
+      <c r="N19" s="92" t="s">
+        <v>265</v>
+      </c>
+      <c r="O19" s="92" t="s">
+        <v>294</v>
+      </c>
+      <c r="P19" s="92" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q19" s="92" t="s">
+        <v>193</v>
+      </c>
+      <c r="R19" s="92" t="s">
+        <v>270</v>
+      </c>
+      <c r="S19" s="92" t="s">
+        <v>273</v>
+      </c>
+      <c r="T19" s="92" t="s">
+        <v>562</v>
+      </c>
+      <c r="U19" s="92" t="s">
+        <v>314</v>
+      </c>
+      <c r="V19" s="92" t="s">
+        <v>341</v>
+      </c>
+      <c r="W19" s="92" t="s">
+        <v>323</v>
+      </c>
+      <c r="X19" s="92" t="s">
+        <v>269</v>
+      </c>
+      <c r="Y19" s="52" t="s">
+        <v>432</v>
+      </c>
+      <c r="Z19" s="92" t="s">
+        <v>325</v>
+      </c>
+      <c r="AA19" s="92" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB19" s="94" t="s">
+        <v>561</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B15:Q15"/>
+    <mergeCell ref="R15:U15"/>
+    <mergeCell ref="V15:Z15"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4626,8 +5695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:AA21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4753,10 +5822,10 @@
       </c>
     </row>
     <row r="11" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="91" t="s">
+      <c r="B11" s="99" t="s">
         <v>437</v>
       </c>
-      <c r="C11" s="91"/>
+      <c r="C11" s="99"/>
     </row>
     <row r="12" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="61" t="s">
@@ -5081,14 +6150,14 @@
   <sheetData>
     <row r="3" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="21"/>
-      <c r="C3" s="92" t="s">
+      <c r="C3" s="100" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
       <c r="I3" s="22"/>
       <c r="J3" s="21"/>
       <c r="K3" s="21"/>
@@ -5371,14 +6440,14 @@
       </c>
     </row>
     <row r="13" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C13" s="92" t="s">
+      <c r="C13" s="100" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="92"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="92"/>
-      <c r="G13" s="92"/>
-      <c r="H13" s="92"/>
+      <c r="D13" s="100"/>
+      <c r="E13" s="100"/>
+      <c r="F13" s="100"/>
+      <c r="G13" s="100"/>
+      <c r="H13" s="100"/>
       <c r="I13" s="22"/>
       <c r="J13" s="21"/>
       <c r="K13" s="21"/>
@@ -5886,8 +6955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:X45"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="T36" sqref="T36"/>
+    <sheetView topLeftCell="K16" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32:X36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6386,45 +7455,45 @@
       </c>
     </row>
     <row r="24" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C24" s="93" t="s">
+      <c r="C24" s="101" t="s">
         <v>344</v>
       </c>
-      <c r="D24" s="94"/>
-      <c r="E24" s="94"/>
-      <c r="F24" s="94"/>
-      <c r="G24" s="94"/>
-      <c r="H24" s="94"/>
-      <c r="I24" s="94"/>
+      <c r="D24" s="102"/>
+      <c r="E24" s="102"/>
+      <c r="F24" s="102"/>
+      <c r="G24" s="102"/>
+      <c r="H24" s="102"/>
+      <c r="I24" s="102"/>
     </row>
     <row r="25" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C25" s="94"/>
-      <c r="D25" s="94"/>
-      <c r="E25" s="94"/>
-      <c r="F25" s="94"/>
-      <c r="G25" s="94"/>
-      <c r="H25" s="94"/>
-      <c r="I25" s="94"/>
+      <c r="C25" s="102"/>
+      <c r="D25" s="102"/>
+      <c r="E25" s="102"/>
+      <c r="F25" s="102"/>
+      <c r="G25" s="102"/>
+      <c r="H25" s="102"/>
+      <c r="I25" s="102"/>
     </row>
     <row r="26" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C26" s="94"/>
-      <c r="D26" s="94"/>
-      <c r="E26" s="94"/>
-      <c r="F26" s="94"/>
-      <c r="G26" s="94"/>
-      <c r="H26" s="94"/>
-      <c r="I26" s="94"/>
+      <c r="C26" s="102"/>
+      <c r="D26" s="102"/>
+      <c r="E26" s="102"/>
+      <c r="F26" s="102"/>
+      <c r="G26" s="102"/>
+      <c r="H26" s="102"/>
+      <c r="I26" s="102"/>
     </row>
     <row r="27" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="32" t="s">
         <v>276</v>
       </c>
-      <c r="C27" s="94"/>
-      <c r="D27" s="94"/>
-      <c r="E27" s="94"/>
-      <c r="F27" s="94"/>
-      <c r="G27" s="94"/>
-      <c r="H27" s="94"/>
-      <c r="I27" s="94"/>
+      <c r="C27" s="102"/>
+      <c r="D27" s="102"/>
+      <c r="E27" s="102"/>
+      <c r="F27" s="102"/>
+      <c r="G27" s="102"/>
+      <c r="H27" s="102"/>
+      <c r="I27" s="102"/>
     </row>
     <row r="31" spans="2:24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="23" t="s">
@@ -6630,10 +7699,10 @@
       <c r="F35" s="21"/>
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
-      <c r="I35" s="95" t="s">
+      <c r="I35" s="103" t="s">
         <v>9</v>
       </c>
-      <c r="J35" s="96"/>
+      <c r="J35" s="104"/>
       <c r="K35" s="57"/>
       <c r="L35" s="21"/>
       <c r="M35" s="21"/>
@@ -6783,8 +7852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:AD38"/>
   <sheetViews>
-    <sheetView topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView topLeftCell="P13" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25:AD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7482,10 +8551,10 @@
       <c r="H28" s="67"/>
       <c r="I28" s="67"/>
       <c r="J28" s="67"/>
-      <c r="K28" s="97" t="s">
+      <c r="K28" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="L28" s="97"/>
+      <c r="L28" s="105"/>
       <c r="M28" s="64"/>
       <c r="N28" s="67"/>
       <c r="O28" s="67" t="s">
